--- a/xlsx/ekaterinburg.xlsx
+++ b/xlsx/ekaterinburg.xlsx
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1390000</v>
+        <v>1099900</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>1390000</t>
+          <t>1099900</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -5760,7 +5760,7 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>1749000</v>
+        <v>1499400</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>1749000</t>
+          <t>1499400</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -5795,7 +5795,7 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>1250000</v>
+        <v>1206000</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>1250000</t>
+          <t>1206000</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
@@ -5830,7 +5830,7 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>1438000</v>
+        <v>1222800</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -5839,7 +5839,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>1438000</t>
+          <t>1222800</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -5865,7 +5865,7 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>1464000</v>
+        <v>1238400</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>1464000</t>
+          <t>1238400</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">

--- a/xlsx/ekaterinburg.xlsx
+++ b/xlsx/ekaterinburg.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G167"/>
+  <dimension ref="A1:G170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2806,7 +2806,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2816,32 +2816,32 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>690000</v>
+        <v>1900000</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/hyundai/solaris/</t>
+          <t>https://new-auto96.ru/auto/hyundai/santa_fe/</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>690000</t>
+          <t>1900000</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/hyundai/solaris/</t>
+          <t>https://new-auto96.ru/auto/hyundai/santa_fe/</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>329</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2851,32 +2851,32 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Sonata</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1390000</v>
+        <v>690000</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/hyundai/sonata/</t>
+          <t>https://new-auto96.ru/auto/hyundai/solaris/</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>1390000</t>
+          <t>690000</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/hyundai/sonata/</t>
+          <t>https://new-auto96.ru/auto/hyundai/solaris/</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>330</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2886,67 +2886,67 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Tucson New</t>
+          <t>Sonata</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1470000</v>
+        <v>1390000</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/hyundai/tucson/</t>
+          <t>https://new-auto96.ru/auto/hyundai/sonata/</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>1470000</t>
+          <t>1390000</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/hyundai/tucson/</t>
+          <t>https://new-auto96.ru/auto/hyundai/sonata/</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>335</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>JAC</t>
+          <t>Hyundai</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>J7</t>
+          <t>Tucson New</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>860000</v>
+        <v>1470000</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/jac/j7/</t>
+          <t>https://new-auto96.ru/auto/hyundai/tucson/</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>860000</t>
+          <t>1470000</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/jac/j7/</t>
+          <t>https://new-auto96.ru/auto/hyundai/tucson/</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2956,32 +2956,32 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>J7</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>720000</v>
+        <v>860000</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/jac/s3/</t>
+          <t>https://new-auto96.ru/auto/jac/j7/</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>720000</t>
+          <t>860000</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/jac/s3/</t>
+          <t>https://new-auto96.ru/auto/jac/j7/</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>341</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2991,102 +2991,102 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>S7</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>1180000</v>
+        <v>720000</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/jac/s7/</t>
+          <t>https://new-auto96.ru/auto/jac/s3/</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>1180000</t>
+          <t>720000</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/jac/s7/</t>
+          <t>https://new-auto96.ru/auto/jac/s3/</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>343</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>JAECOO</t>
+          <t>JAC</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>J7</t>
+          <t>S7</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>1903940</v>
+        <v>1180000</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/jaecoo/j7/</t>
+          <t>https://new-auto96.ru/auto/jac/s7/</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>1903940</t>
+          <t>1180000</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/jaecoo/j7/</t>
+          <t>https://new-auto96.ru/auto/jac/s7/</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Jetour</t>
+          <t>JAECOO</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Dashing</t>
+          <t>J7</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>1750000</v>
+        <v>1903940</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/jetour/dashing/</t>
+          <t>https://new-auto96.ru/auto/jaecoo/j7/</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>1750000</t>
+          <t>1903940</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/jetour/dashing/</t>
+          <t>https://new-auto96.ru/auto/jaecoo/j7/</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>349</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -3096,32 +3096,32 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>X70 Plus</t>
+          <t>Dashing</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>2070900</v>
+        <v>1750000</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/jetour/x70_plus/</t>
+          <t>https://new-auto96.ru/auto/jetour/dashing/</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2070900</t>
+          <t>1750000</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/jetour/x70_plus/</t>
+          <t>https://new-auto96.ru/auto/jetour/dashing/</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -3131,67 +3131,67 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>X90 Plus</t>
+          <t>X70 Plus</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>2270000</v>
+        <v>2070900</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/jetour/x90_plus/</t>
+          <t>https://new-auto96.ru/auto/jetour/x70_plus/</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2270000</t>
+          <t>2070900</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/jetour/x90_plus/</t>
+          <t>https://new-auto96.ru/auto/jetour/x70_plus/</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>VA3</t>
+          <t>X90 Plus</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>690000</v>
+        <v>2270000</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/jetta/va3/</t>
+          <t>https://new-auto96.ru/auto/jetour/x90_plus/</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>690000</t>
+          <t>2270000</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/jetta/va3/</t>
+          <t>https://new-auto96.ru/auto/jetour/x90_plus/</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -3201,32 +3201,32 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>VS5</t>
+          <t>VA3</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>990000</v>
+        <v>690000</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/jetta/vs5/</t>
+          <t>https://new-auto96.ru/auto/jetta/va3/</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>990000</t>
+          <t>690000</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/jetta/vs5/</t>
+          <t>https://new-auto96.ru/auto/jetta/va3/</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>356</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -3236,67 +3236,67 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>VS7</t>
+          <t>VS5</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>1149000</v>
+        <v>990000</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/jetta/vs7/</t>
+          <t>https://new-auto96.ru/auto/jetta/vs5/</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>1149000</t>
+          <t>990000</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/jetta/vs7/</t>
+          <t>https://new-auto96.ru/auto/jetta/vs5/</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>357</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>E5</t>
+          <t>VS7</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1159000</v>
+        <v>1149000</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kaiyi/e5/</t>
+          <t>https://new-auto96.ru/auto/jetta/vs7/</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>1159000</t>
+          <t>1149000</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kaiyi/e5/</t>
+          <t>https://new-auto96.ru/auto/jetta/vs7/</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3306,32 +3306,32 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>X3</t>
+          <t>E5</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>970000</v>
+        <v>1159000</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kaiyi/x3/</t>
+          <t>https://new-auto96.ru/auto/kaiyi/e5/</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>970000</t>
+          <t>1159000</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kaiyi/x3/</t>
+          <t>https://new-auto96.ru/auto/kaiyi/e5/</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>359</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3341,32 +3341,32 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>X3</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1070000</v>
+        <v>970000</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kaiyi/x3_pro/</t>
+          <t>https://new-auto96.ru/auto/kaiyi/x3/</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>1070000</t>
+          <t>970000</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kaiyi/x3_pro/</t>
+          <t>https://new-auto96.ru/auto/kaiyi/x3/</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3376,67 +3376,67 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>X7 Kunlun</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>2440000</v>
+        <v>1070000</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kaiyi/x7_kunlun/</t>
+          <t>https://new-auto96.ru/auto/kaiyi/x3_pro/</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2440000</t>
+          <t>1070000</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kaiyi/x7_kunlun/</t>
+          <t>https://new-auto96.ru/auto/kaiyi/x3_pro/</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>361</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Ceed</t>
+          <t>X7 Kunlun</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>1210000</v>
+        <v>2440000</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/ceed/</t>
+          <t>https://new-auto96.ru/auto/kaiyi/x7_kunlun/</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>1210000</t>
+          <t>2440000</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/ceed/</t>
+          <t>https://new-auto96.ru/auto/kaiyi/x7_kunlun/</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3446,32 +3446,32 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Ceed SW</t>
+          <t>Ceed</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1250000</v>
+        <v>1210000</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/ceed_sw/</t>
+          <t>https://new-auto96.ru/auto/kia/ceed/</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>1250000</t>
+          <t>1210000</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/ceed_sw/</t>
+          <t>https://new-auto96.ru/auto/kia/ceed/</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>365</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3481,32 +3481,32 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Cerato New</t>
+          <t>Ceed SW</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>1030000</v>
+        <v>1250000</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/cerato/</t>
+          <t>https://new-auto96.ru/auto/kia/ceed_sw/</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>1030000</t>
+          <t>1250000</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/cerato/</t>
+          <t>https://new-auto96.ru/auto/kia/ceed_sw/</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>370</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -3516,32 +3516,32 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>K5</t>
+          <t>Cerato New</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>1390000</v>
+        <v>1030000</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/k5/</t>
+          <t>https://new-auto96.ru/auto/kia/cerato/</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>1390000</t>
+          <t>1030000</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/k5/</t>
+          <t>https://new-auto96.ru/auto/kia/cerato/</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>371</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3551,32 +3551,32 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Picanto New</t>
+          <t>K5</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>740000</v>
+        <v>1390000</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/picanto/</t>
+          <t>https://new-auto96.ru/auto/kia/k5/</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>740000</t>
+          <t>1390000</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/picanto/</t>
+          <t>https://new-auto96.ru/auto/kia/k5/</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>374</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -3586,32 +3586,32 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>ProCeed</t>
+          <t>Picanto New</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>1121940</v>
+        <v>740000</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/proceed/</t>
+          <t>https://new-auto96.ru/auto/kia/picanto/</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>1121940</t>
+          <t>740000</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/proceed/</t>
+          <t>https://new-auto96.ru/auto/kia/picanto/</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>375</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3621,32 +3621,32 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Rio New</t>
+          <t>ProCeed</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>710000</v>
+        <v>1121940</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/rio/</t>
+          <t>https://new-auto96.ru/auto/kia/proceed/</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>710000</t>
+          <t>1121940</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/rio/</t>
+          <t>https://new-auto96.ru/auto/kia/proceed/</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>377</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -3656,32 +3656,32 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Rio X</t>
+          <t>Rio New</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>830000</v>
+        <v>710000</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/rio_x/</t>
+          <t>https://new-auto96.ru/auto/kia/rio/</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>830000</t>
+          <t>710000</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/rio_x/</t>
+          <t>https://new-auto96.ru/auto/kia/rio/</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>378</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -3691,32 +3691,32 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Seltos</t>
+          <t>Rio X</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>1020000</v>
+        <v>830000</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/seltos/</t>
+          <t>https://new-auto96.ru/auto/kia/rio_x/</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>1020000</t>
+          <t>830000</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/seltos/</t>
+          <t>https://new-auto96.ru/auto/kia/rio_x/</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>381</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -3726,32 +3726,32 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Soul</t>
+          <t>Seltos</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>1030000</v>
+        <v>1020000</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/soul/</t>
+          <t>https://new-auto96.ru/auto/kia/seltos/</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>1030000</t>
+          <t>1020000</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/soul/</t>
+          <t>https://new-auto96.ru/auto/kia/seltos/</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>389</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -3761,32 +3761,32 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Sportage 5</t>
+          <t>Sorento New</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>1860000</v>
+        <v>2120000</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/sportage/</t>
+          <t>https://new-auto96.ru/auto/kia/sorento/</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>1860000</t>
+          <t>2120000</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/sportage/</t>
+          <t>https://new-auto96.ru/auto/kia/sorento/</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>390</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -3796,102 +3796,102 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>XCeed</t>
+          <t>Soul</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>1490000</v>
+        <v>1030000</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/xceed/</t>
+          <t>https://new-auto96.ru/auto/kia/soul/</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>1490000</t>
+          <t>1030000</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/xceed/</t>
+          <t>https://new-auto96.ru/auto/kia/soul/</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>392</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Granta Cross</t>
+          <t>Sportage 5</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>500000</v>
+        <v>1860000</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/granta_cross/</t>
+          <t>https://new-auto96.ru/auto/kia/sportage/</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>500000</t>
+          <t>1860000</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/granta_cross/</t>
+          <t>https://new-auto96.ru/auto/kia/sportage/</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>395</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Granta Hatchback</t>
+          <t>XCeed</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>431100</v>
+        <v>1490000</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/granta_hatchback/</t>
+          <t>https://new-auto96.ru/auto/kia/xceed/</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>431100</t>
+          <t>1490000</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/granta_hatchback/</t>
+          <t>https://new-auto96.ru/auto/kia/xceed/</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>402</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3901,32 +3901,32 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Granta Liftback</t>
+          <t>Granta Cross</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>440000</v>
+        <v>500000</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/granta_liftback/</t>
+          <t>https://new-auto96.ru/auto/lada/granta_cross/</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>440000</t>
+          <t>500000</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/granta_liftback/</t>
+          <t>https://new-auto96.ru/auto/lada/granta_cross/</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>404</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3936,32 +3936,32 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Granta Sedan</t>
+          <t>Granta Hatchback</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>410000</v>
+        <v>431100</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/granta_sedan/</t>
+          <t>https://new-auto96.ru/auto/lada/granta_hatchback/</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>410000</t>
+          <t>431100</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/granta_sedan/</t>
+          <t>https://new-auto96.ru/auto/lada/granta_hatchback/</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>405</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3971,32 +3971,32 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Granta Sedan Drive Active</t>
+          <t>Granta Liftback</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>680900</v>
+        <v>440000</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/granta_drive_active/</t>
+          <t>https://new-auto96.ru/auto/lada/granta_liftback/</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>680900</t>
+          <t>440000</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/granta_drive_active/</t>
+          <t>https://new-auto96.ru/auto/lada/granta_liftback/</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>406</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -4006,32 +4006,32 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Granta Universal</t>
+          <t>Granta Sedan</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>450000</v>
+        <v>410000</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/granta_universal/</t>
+          <t>https://new-auto96.ru/auto/lada/granta_sedan/</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>450000</t>
+          <t>410000</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/granta_universal/</t>
+          <t>https://new-auto96.ru/auto/lada/granta_sedan/</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>403</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -4041,32 +4041,32 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Largus Cross New</t>
+          <t>Granta Sedan Drive Active</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>760000</v>
+        <v>680900</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/largus_cross/</t>
+          <t>https://new-auto96.ru/auto/lada/granta_drive_active/</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>760000</t>
+          <t>680900</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/largus_cross/</t>
+          <t>https://new-auto96.ru/auto/lada/granta_drive_active/</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>449</t>
+          <t>414</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -4076,32 +4076,32 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Largus New</t>
+          <t>Granta Universal</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>718900</v>
+        <v>450000</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/largus/</t>
+          <t>https://new-auto96.ru/auto/lada/granta_universal/</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>718900</t>
+          <t>450000</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/largus/</t>
+          <t>https://new-auto96.ru/auto/lada/granta_universal/</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>451</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -4111,32 +4111,32 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Largus Фургон New</t>
+          <t>Largus Cross New</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>546000</v>
+        <v>760000</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/largus_furgon/</t>
+          <t>https://new-auto96.ru/auto/lada/largus_cross/</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>546000</t>
+          <t>760000</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/largus_furgon/</t>
+          <t>https://new-auto96.ru/auto/lada/largus_cross/</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>449</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -4146,32 +4146,32 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Niva Legend 3 двери</t>
+          <t>Largus New</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>520000</v>
+        <v>718900</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/4x4_3_dv/</t>
+          <t>https://new-auto96.ru/auto/lada/largus/</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>520000</t>
+          <t>718900</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/4x4_3_dv/</t>
+          <t>https://new-auto96.ru/auto/lada/largus/</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>454</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -4181,32 +4181,32 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Niva Legend 5 дверей</t>
+          <t>Largus Фургон New</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>570000</v>
+        <v>546000</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/4x4_5_dv/</t>
+          <t>https://new-auto96.ru/auto/lada/largus_furgon/</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>570000</t>
+          <t>546000</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/4x4_5_dv/</t>
+          <t>https://new-auto96.ru/auto/lada/largus_furgon/</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>423</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -4216,32 +4216,32 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Niva Off-Road</t>
+          <t>Niva Legend 3 двери</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>494400</v>
+        <v>520000</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/niva_off-road/</t>
+          <t>https://new-auto96.ru/auto/lada/4x4_3_dv/</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>494400</t>
+          <t>520000</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/niva_off-road/</t>
+          <t>https://new-auto96.ru/auto/lada/4x4_3_dv/</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>424</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -4251,32 +4251,32 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Niva Travel</t>
+          <t>Niva Legend 5 дверей</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>650000</v>
+        <v>570000</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/niva_travel/</t>
+          <t>https://new-auto96.ru/auto/lada/4x4_5_dv/</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>650000</t>
+          <t>570000</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/niva_travel/</t>
+          <t>https://new-auto96.ru/auto/lada/4x4_5_dv/</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>433</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -4286,32 +4286,32 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Vesta Cross</t>
+          <t>Niva Off-Road</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>761940</v>
+        <v>494400</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta_cross_1/</t>
+          <t>https://new-auto96.ru/auto/lada/niva_off-road/</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>761940</t>
+          <t>494400</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta_cross_1/</t>
+          <t>https://new-auto96.ru/auto/lada/niva_off-road/</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>434</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -4321,32 +4321,32 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Vesta Cross New</t>
+          <t>Niva Travel</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>1090000</v>
+        <v>650000</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta_cross/</t>
+          <t>https://new-auto96.ru/auto/lada/niva_travel/</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>1090000</t>
+          <t>650000</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta_cross/</t>
+          <t>https://new-auto96.ru/auto/lada/niva_travel/</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>437</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -4356,32 +4356,32 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Vesta SW</t>
+          <t>Vesta Cross</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>728340</v>
+        <v>761940</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta_sw_1/</t>
+          <t>https://new-auto96.ru/auto/lada/vesta_cross_1/</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>728340</t>
+          <t>761940</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta_sw_1/</t>
+          <t>https://new-auto96.ru/auto/lada/vesta_cross_1/</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>438</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -4391,32 +4391,32 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Vesta SW Cross</t>
+          <t>Vesta Cross New</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>797340</v>
+        <v>1090000</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta_sw_cross_1/</t>
+          <t>https://new-auto96.ru/auto/lada/vesta_cross/</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>797340</t>
+          <t>1090000</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta_sw_cross_1/</t>
+          <t>https://new-auto96.ru/auto/lada/vesta_cross/</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>443</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -4426,32 +4426,32 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Vesta SW Cross New</t>
+          <t>Vesta SW</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>1050000</v>
+        <v>728340</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta_sw_cross/</t>
+          <t>https://new-auto96.ru/auto/lada/vesta_sw_1/</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>1050000</t>
+          <t>728340</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta_sw_cross/</t>
+          <t>https://new-auto96.ru/auto/lada/vesta_sw_1/</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>445</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -4461,32 +4461,32 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Vesta SW New</t>
+          <t>Vesta SW Cross</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>950000</v>
+        <v>797340</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta_sw/</t>
+          <t>https://new-auto96.ru/auto/lada/vesta_sw_cross_1/</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>950000</t>
+          <t>797340</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta_sw/</t>
+          <t>https://new-auto96.ru/auto/lada/vesta_sw_cross_1/</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>446</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -4496,32 +4496,32 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Vesta Sedan</t>
+          <t>Vesta SW Cross New</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>673140</v>
+        <v>1050000</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta_1/</t>
+          <t>https://new-auto96.ru/auto/lada/vesta_sw_cross/</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>673140</t>
+          <t>1050000</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta_1/</t>
+          <t>https://new-auto96.ru/auto/lada/vesta_sw_cross/</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>444</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -4531,32 +4531,32 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Vesta Sedan CNG</t>
+          <t>Vesta SW New</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>790140</v>
+        <v>950000</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta_cng/</t>
+          <t>https://new-auto96.ru/auto/lada/vesta_sw/</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>790140</t>
+          <t>950000</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta_cng/</t>
+          <t>https://new-auto96.ru/auto/lada/vesta_sw/</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>435</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -4566,32 +4566,32 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Vesta Sedan New</t>
+          <t>Vesta Sedan</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>840000</v>
+        <v>673140</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta/</t>
+          <t>https://new-auto96.ru/auto/lada/vesta_1/</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>840000</t>
+          <t>673140</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta/</t>
+          <t>https://new-auto96.ru/auto/lada/vesta_1/</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>436</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -4601,32 +4601,32 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Vesta Sport</t>
+          <t>Vesta Sedan CNG</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>1030000</v>
+        <v>790140</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta_sport/</t>
+          <t>https://new-auto96.ru/auto/lada/vesta_cng/</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>1030000</t>
+          <t>790140</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta_sport/</t>
+          <t>https://new-auto96.ru/auto/lada/vesta_cng/</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>439</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -4636,32 +4636,32 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Xray</t>
+          <t>Vesta Sedan New</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>630000</v>
+        <v>840000</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/xray/</t>
+          <t>https://new-auto96.ru/auto/lada/vesta/</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>630000</t>
+          <t>840000</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/xray/</t>
+          <t>https://new-auto96.ru/auto/lada/vesta/</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>440</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -4671,102 +4671,102 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Xray Cross</t>
+          <t>Vesta Sport</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>680000</v>
+        <v>1030000</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/xray_cross/</t>
+          <t>https://new-auto96.ru/auto/lada/vesta_sport/</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>680000</t>
+          <t>1030000</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/xray_cross/</t>
+          <t>https://new-auto96.ru/auto/lada/vesta_sport/</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>447</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Lifan</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Murman</t>
+          <t>Xray</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>650300</v>
+        <v>630000</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lifan/murman/</t>
+          <t>https://new-auto96.ru/auto/lada/xray/</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>650300</t>
+          <t>630000</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lifan/murman/</t>
+          <t>https://new-auto96.ru/auto/lada/xray/</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>457</t>
+          <t>448</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Lifan</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>MyWay</t>
+          <t>Xray Cross</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>701300</v>
+        <v>680000</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lifan/myway/</t>
+          <t>https://new-auto96.ru/auto/lada/xray_cross/</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>701300</t>
+          <t>680000</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lifan/myway/</t>
+          <t>https://new-auto96.ru/auto/lada/xray_cross/</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>459</t>
+          <t>455</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -4776,32 +4776,32 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Solano 2</t>
+          <t>Murman</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>401300</v>
+        <v>650300</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lifan/solano_ii/</t>
+          <t>https://new-auto96.ru/auto/lifan/murman/</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>401300</t>
+          <t>650300</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lifan/solano_ii/</t>
+          <t>https://new-auto96.ru/auto/lifan/murman/</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>457</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -4811,32 +4811,32 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>X50</t>
+          <t>MyWay</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>420300</v>
+        <v>701300</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lifan/x50/</t>
+          <t>https://new-auto96.ru/auto/lifan/myway/</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>420300</t>
+          <t>701300</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lifan/x50/</t>
+          <t>https://new-auto96.ru/auto/lifan/myway/</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>459</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -4846,32 +4846,32 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>X60</t>
+          <t>Solano 2</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>491300</v>
+        <v>401300</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lifan/x60/</t>
+          <t>https://new-auto96.ru/auto/lifan/solano_ii/</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>491300</t>
+          <t>401300</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lifan/x60/</t>
+          <t>https://new-auto96.ru/auto/lifan/solano_ii/</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>463</t>
+          <t>460</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -4881,102 +4881,102 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>X70</t>
+          <t>X50</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>770300</v>
+        <v>420300</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lifan/x70/</t>
+          <t>https://new-auto96.ru/auto/lifan/x50/</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>770300</t>
+          <t>420300</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lifan/x70/</t>
+          <t>https://new-auto96.ru/auto/lifan/x50/</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>461</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>Lifan</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>S6 Pro</t>
+          <t>X60</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>1549900</v>
+        <v>491300</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/livan/s6pro/</t>
+          <t>https://new-auto96.ru/auto/lifan/x60/</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>1549900</t>
+          <t>491300</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/livan/s6pro/</t>
+          <t>https://new-auto96.ru/auto/lifan/x60/</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>463</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>Lifan</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>X70</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>1020000</v>
+        <v>770300</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/livan/x3pro/</t>
+          <t>https://new-auto96.ru/auto/lifan/x70/</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>1020000</t>
+          <t>770300</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/livan/x3pro/</t>
+          <t>https://new-auto96.ru/auto/lifan/x70/</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>466</t>
+          <t>464</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -4986,172 +4986,172 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>X6 Pro</t>
+          <t>S6 Pro</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>1629900</v>
+        <v>1549900</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/livan/x6pro/</t>
+          <t>https://new-auto96.ru/auto/livan/s6pro/</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>1629900</t>
+          <t>1549900</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/livan/x6pro/</t>
+          <t>https://new-auto96.ru/auto/livan/s6pro/</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>465</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>1200000</v>
+        <v>1020000</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/moskvich/3/</t>
+          <t>https://new-auto96.ru/auto/livan/x3pro/</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>1200000</t>
+          <t>1020000</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/moskvich/3/</t>
+          <t>https://new-auto96.ru/auto/livan/x3pro/</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>510</t>
+          <t>466</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>3e</t>
+          <t>X6 Pro</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>1750000</v>
+        <v>1629900</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/moskvich/3e/</t>
+          <t>https://new-auto96.ru/auto/livan/x6pro/</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>1750000</t>
+          <t>1629900</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/moskvich/3e/</t>
+          <t>https://new-auto96.ru/auto/livan/x6pro/</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>517</t>
+          <t>509</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Murano</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>2570000</v>
+        <v>1200000</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/nissan/murano/</t>
+          <t>https://new-auto96.ru/auto/moskvich/3/</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>2570000</t>
+          <t>1200000</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/nissan/murano/</t>
+          <t>https://new-auto96.ru/auto/moskvich/3/</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>510</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Qashqai</t>
+          <t>3e</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>1300000</v>
+        <v>1750000</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/nissan/qashqai/</t>
+          <t>https://new-auto96.ru/auto/moskvich/3e/</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>1300000</t>
+          <t>1750000</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/nissan/qashqai/</t>
+          <t>https://new-auto96.ru/auto/moskvich/3e/</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>522</t>
+          <t>517</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -5161,32 +5161,32 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Terrano</t>
+          <t>Murano</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>890000</v>
+        <v>2570000</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/nissan/terrano/</t>
+          <t>https://new-auto96.ru/auto/nissan/murano/</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>890000</t>
+          <t>2570000</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/nissan/terrano/</t>
+          <t>https://new-auto96.ru/auto/nissan/murano/</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>523</t>
+          <t>520</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -5196,172 +5196,172 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>X-trail</t>
+          <t>Qashqai</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>1530000</v>
+        <v>1300000</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/nissan/x-trail/</t>
+          <t>https://new-auto96.ru/auto/nissan/qashqai/</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>1530000</t>
+          <t>1300000</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/nissan/x-trail/</t>
+          <t>https://new-auto96.ru/auto/nissan/qashqai/</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>522</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>C5</t>
+          <t>Terrano</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>1360000</v>
+        <v>890000</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/omoda/c5/</t>
+          <t>https://new-auto96.ru/auto/nissan/terrano/</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>1360000</t>
+          <t>890000</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/omoda/c5/</t>
+          <t>https://new-auto96.ru/auto/nissan/terrano/</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>523</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>X-trail</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>1260000</v>
+        <v>1530000</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/omoda/s5/</t>
+          <t>https://new-auto96.ru/auto/nissan/x-trail/</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>1260000</t>
+          <t>1530000</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/omoda/s5/</t>
+          <t>https://new-auto96.ru/auto/nissan/x-trail/</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>525</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Arkana</t>
+          <t>C5</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>909000</v>
+        <v>1360000</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/renault/arkana/</t>
+          <t>https://new-auto96.ru/auto/omoda/c5/</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>909000</t>
+          <t>1360000</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/renault/arkana/</t>
+          <t>https://new-auto96.ru/auto/omoda/c5/</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>526</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Duster New</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>750000</v>
+        <v>1260000</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/renault/duster/</t>
+          <t>https://new-auto96.ru/auto/omoda/s5/</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>750000</t>
+          <t>1260000</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/renault/duster/</t>
+          <t>https://new-auto96.ru/auto/omoda/s5/</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>549</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -5371,32 +5371,32 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Kaptur</t>
+          <t>Arkana</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>780000</v>
+        <v>909000</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/renault/kaptur/</t>
+          <t>https://new-auto96.ru/auto/renault/arkana/</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>780000</t>
+          <t>909000</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/renault/kaptur/</t>
+          <t>https://new-auto96.ru/auto/renault/arkana/</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>555</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -5406,32 +5406,32 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Logan</t>
+          <t>Duster New</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>499000</v>
+        <v>750000</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/renault/logan/</t>
+          <t>https://new-auto96.ru/auto/renault/duster/</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>499000</t>
+          <t>750000</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/renault/logan/</t>
+          <t>https://new-auto96.ru/auto/renault/duster/</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>559</t>
+          <t>556</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -5441,32 +5441,32 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Logan Stepway</t>
+          <t>Kaptur</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>650000</v>
+        <v>780000</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/renault/logan_stepway/</t>
+          <t>https://new-auto96.ru/auto/renault/kaptur/</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>650000</t>
+          <t>780000</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/renault/logan_stepway/</t>
+          <t>https://new-auto96.ru/auto/renault/kaptur/</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>558</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -5476,32 +5476,32 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Sandero</t>
+          <t>Logan</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>540000</v>
+        <v>499000</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/renault/sandero/</t>
+          <t>https://new-auto96.ru/auto/renault/logan/</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>540000</t>
+          <t>499000</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/renault/sandero/</t>
+          <t>https://new-auto96.ru/auto/renault/logan/</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>559</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -5511,102 +5511,102 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Sandero Stepway</t>
+          <t>Logan Stepway</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>565300</v>
+        <v>650000</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/renault/sandero_stepway/</t>
+          <t>https://new-auto96.ru/auto/renault/logan_stepway/</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>565300</t>
+          <t>650000</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/renault/sandero_stepway/</t>
+          <t>https://new-auto96.ru/auto/renault/logan_stepway/</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>571</t>
+          <t>565</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Karoq</t>
+          <t>Sandero</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>1240000</v>
+        <v>540000</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/skoda/karoq/</t>
+          <t>https://new-auto96.ru/auto/renault/sandero/</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>1240000</t>
+          <t>540000</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/skoda/karoq/</t>
+          <t>https://new-auto96.ru/auto/renault/sandero/</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>566</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Kodiaq New</t>
+          <t>Sandero Stepway</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>1745000</v>
+        <v>565300</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/skoda/kodiaq/</t>
+          <t>https://new-auto96.ru/auto/renault/sandero_stepway/</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>1745000</t>
+          <t>565300</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/skoda/kodiaq/</t>
+          <t>https://new-auto96.ru/auto/renault/sandero_stepway/</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>579</t>
+          <t>571</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -5616,32 +5616,32 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Octavia New</t>
+          <t>Karoq</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>1170000</v>
+        <v>1240000</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/skoda/octavia/</t>
+          <t>https://new-auto96.ru/auto/skoda/karoq/</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>1170000</t>
+          <t>1240000</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/skoda/octavia/</t>
+          <t>https://new-auto96.ru/auto/skoda/karoq/</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>581</t>
+          <t>576</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -5651,32 +5651,32 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Rapid</t>
+          <t>Kodiaq New</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>720000</v>
+        <v>1745000</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/skoda/rapid/</t>
+          <t>https://new-auto96.ru/auto/skoda/kodiaq/</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>720000</t>
+          <t>1745000</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/skoda/rapid/</t>
+          <t>https://new-auto96.ru/auto/skoda/kodiaq/</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>579</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -5686,32 +5686,32 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Superb</t>
+          <t>Octavia New</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>1240000</v>
+        <v>1170000</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/skoda/superb/</t>
+          <t>https://new-auto96.ru/auto/skoda/octavia/</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>1240000</t>
+          <t>1170000</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/skoda/superb/</t>
+          <t>https://new-auto96.ru/auto/skoda/octavia/</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>586</t>
+          <t>581</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -5721,102 +5721,102 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Superb Combi</t>
+          <t>Rapid</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>2290200</v>
+        <v>720000</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/skoda/superb_combi/</t>
+          <t>https://new-auto96.ru/auto/skoda/rapid/</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>2290200</t>
+          <t>720000</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/skoda/superb_combi/</t>
+          <t>https://new-auto96.ru/auto/skoda/rapid/</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>594</t>
+          <t>585</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>Superb</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>1499400</v>
+        <v>1240000</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/solaris/hc/</t>
+          <t>https://new-auto96.ru/auto/skoda/superb/</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>1499400</t>
+          <t>1240000</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/solaris/hc/</t>
+          <t>https://new-auto96.ru/auto/skoda/superb/</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>586</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>HS</t>
+          <t>Superb Combi</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>1206000</v>
+        <v>2290200</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/solaris/hs/</t>
+          <t>https://new-auto96.ru/auto/skoda/superb_combi/</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>1206000</t>
+          <t>2290200</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/solaris/hs/</t>
+          <t>https://new-auto96.ru/auto/skoda/superb_combi/</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>594</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -5826,32 +5826,32 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>KRS</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>1222800</v>
+        <v>1499400</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/solaris/krs/</t>
+          <t>https://new-auto96.ru/auto/solaris/hc/</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>1222800</t>
+          <t>1499400</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/solaris/krs/</t>
+          <t>https://new-auto96.ru/auto/solaris/hc/</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>595</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -5861,277 +5861,277 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>KRX</t>
+          <t>HS</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>1238400</v>
+        <v>1206000</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/solaris/krx/</t>
+          <t>https://new-auto96.ru/auto/solaris/hs/</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>1238400</t>
+          <t>1206000</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/solaris/krx/</t>
+          <t>https://new-auto96.ru/auto/solaris/hs/</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>596</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>KRS</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>2729300</v>
+        <v>1222800</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/tank/300/</t>
+          <t>https://new-auto96.ru/auto/solaris/krs/</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>2729300</t>
+          <t>1222800</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/tank/300/</t>
+          <t>https://new-auto96.ru/auto/solaris/krs/</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>633</t>
+          <t>597</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>UAZ</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Hunter</t>
+          <t>KRX</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>562900</v>
+        <v>1238400</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/uaz/hunter/</t>
+          <t>https://new-auto96.ru/auto/solaris/krx/</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>562900</t>
+          <t>1238400</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/uaz/hunter/</t>
+          <t>https://new-auto96.ru/auto/solaris/krx/</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>634</t>
+          <t>614</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>UAZ</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Patriot</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>1009000</v>
+        <v>2729300</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/uaz/patriot/</t>
+          <t>https://new-auto96.ru/auto/tank/300/</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>1009000</t>
+          <t>2729300</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/uaz/patriot/</t>
+          <t>https://new-auto96.ru/auto/tank/300/</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>636</t>
+          <t>615</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>UAZ</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Patriot Pickup</t>
+          <t>500</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>780000</v>
+        <v>3788000</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/uaz/patriot_pickup/</t>
+          <t>https://new-auto96.ru/auto/tank/500/</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>780000</t>
+          <t>3788000</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/uaz/patriot_pickup/</t>
+          <t>https://new-auto96.ru/auto/tank/500/</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>645</t>
+          <t>633</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>UAZ</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Hunter</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>1180000</v>
+        <v>562900</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/volkswagen/jetta/</t>
+          <t>https://new-auto96.ru/auto/uaz/hunter/</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>1180000</t>
+          <t>562900</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/volkswagen/jetta/</t>
+          <t>https://new-auto96.ru/auto/uaz/hunter/</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>649</t>
+          <t>634</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>UAZ</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Passat</t>
+          <t>Patriot</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>1120000</v>
+        <v>1009000</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/volkswagen/passat/</t>
+          <t>https://new-auto96.ru/auto/uaz/patriot/</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>1120000</t>
+          <t>1009000</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/volkswagen/passat/</t>
+          <t>https://new-auto96.ru/auto/uaz/patriot/</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>652</t>
+          <t>636</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>UAZ</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Polo</t>
+          <t>Patriot Pickup</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>730000</v>
+        <v>780000</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/volkswagen/polo/</t>
+          <t>https://new-auto96.ru/auto/uaz/patriot_pickup/</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>730000</t>
+          <t>780000</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/volkswagen/polo/</t>
+          <t>https://new-auto96.ru/auto/uaz/patriot_pickup/</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>653</t>
+          <t>645</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -6141,32 +6141,32 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Taos</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>1464000</v>
+        <v>1180000</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/volkswagen/taos/</t>
+          <t>https://new-auto96.ru/auto/volkswagen/jetta/</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>1464000</t>
+          <t>1180000</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/volkswagen/taos/</t>
+          <t>https://new-auto96.ru/auto/volkswagen/jetta/</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>658</t>
+          <t>649</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -6176,93 +6176,198 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Tiguan New</t>
+          <t>Passat</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>1529300</v>
+        <v>1120000</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/volkswagen/tiguan/</t>
+          <t>https://new-auto96.ru/auto/volkswagen/passat/</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>1529300</t>
+          <t>1120000</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/volkswagen/tiguan/</t>
+          <t>https://new-auto96.ru/auto/volkswagen/passat/</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>672</t>
+          <t>652</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Zotye</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Coupa</t>
+          <t>Polo</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>750300</v>
+        <v>730000</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/zotye/coupa/</t>
+          <t>https://new-auto96.ru/auto/volkswagen/polo/</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>750300</t>
+          <t>730000</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/zotye/coupa/</t>
+          <t>https://new-auto96.ru/auto/volkswagen/polo/</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
+          <t>653</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Taos</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>1464000</v>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>https://new-auto96.ru/auto/volkswagen/taos/</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>1464000</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>https://new-auto96.ru/auto/volkswagen/taos/</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>658</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Tiguan New</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>1529300</v>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>https://new-auto96.ru/auto/volkswagen/tiguan/</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>1529300</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>https://new-auto96.ru/auto/volkswagen/tiguan/</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>672</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Zotye</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Coupa</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>750300</v>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>https://new-auto96.ru/auto/zotye/coupa/</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>750300</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>https://new-auto96.ru/auto/zotye/coupa/</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
           <t>674</t>
         </is>
       </c>
-      <c r="B167" t="inlineStr">
+      <c r="B170" t="inlineStr">
         <is>
           <t>Zotye</t>
         </is>
       </c>
-      <c r="C167" t="inlineStr">
+      <c r="C170" t="inlineStr">
         <is>
           <t>T600</t>
         </is>
       </c>
-      <c r="D167" t="n">
+      <c r="D170" t="n">
         <v>570300</v>
       </c>
-      <c r="E167" t="inlineStr">
+      <c r="E170" t="inlineStr">
         <is>
           <t>https://new-auto96.ru/auto/zotye/t600/</t>
         </is>
       </c>
-      <c r="F167" t="inlineStr">
+      <c r="F170" t="inlineStr">
         <is>
           <t>570300</t>
         </is>
       </c>
-      <c r="G167" t="inlineStr">
+      <c r="G170" t="inlineStr">
         <is>
           <t>https://new-auto96.ru/auto/zotye/t600/</t>
         </is>

--- a/xlsx/ekaterinburg.xlsx
+++ b/xlsx/ekaterinburg.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G170"/>
+  <dimension ref="A1:G171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3121,7 +3121,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>351</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -3131,32 +3131,32 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>X70 Plus</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>2070900</v>
+        <v>2269000</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/jetour/x70_plus/</t>
+          <t>https://new-auto96.ru/auto/jetour/t2/</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2070900</t>
+          <t>2269000</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/jetour/x70_plus/</t>
+          <t>https://new-auto96.ru/auto/jetour/t2/</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -3166,67 +3166,67 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>X90 Plus</t>
+          <t>X70 Plus</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>2270000</v>
+        <v>2070900</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/jetour/x90_plus/</t>
+          <t>https://new-auto96.ru/auto/jetour/x70_plus/</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2270000</t>
+          <t>2070900</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/jetour/x90_plus/</t>
+          <t>https://new-auto96.ru/auto/jetour/x70_plus/</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>VA3</t>
+          <t>X90 Plus</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>690000</v>
+        <v>2270000</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/jetta/va3/</t>
+          <t>https://new-auto96.ru/auto/jetour/x90_plus/</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>690000</t>
+          <t>2270000</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/jetta/va3/</t>
+          <t>https://new-auto96.ru/auto/jetour/x90_plus/</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -3236,32 +3236,32 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>VS5</t>
+          <t>VA3</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>990000</v>
+        <v>690000</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/jetta/vs5/</t>
+          <t>https://new-auto96.ru/auto/jetta/va3/</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>990000</t>
+          <t>690000</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/jetta/vs5/</t>
+          <t>https://new-auto96.ru/auto/jetta/va3/</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>356</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -3271,67 +3271,67 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>VS7</t>
+          <t>VS5</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1149000</v>
+        <v>990000</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/jetta/vs7/</t>
+          <t>https://new-auto96.ru/auto/jetta/vs5/</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>1149000</t>
+          <t>990000</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/jetta/vs7/</t>
+          <t>https://new-auto96.ru/auto/jetta/vs5/</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>357</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>E5</t>
+          <t>VS7</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>1159000</v>
+        <v>1149000</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kaiyi/e5/</t>
+          <t>https://new-auto96.ru/auto/jetta/vs7/</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>1159000</t>
+          <t>1149000</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kaiyi/e5/</t>
+          <t>https://new-auto96.ru/auto/jetta/vs7/</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3341,32 +3341,32 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>X3</t>
+          <t>E5</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>970000</v>
+        <v>1159000</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kaiyi/x3/</t>
+          <t>https://new-auto96.ru/auto/kaiyi/e5/</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>970000</t>
+          <t>1159000</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kaiyi/x3/</t>
+          <t>https://new-auto96.ru/auto/kaiyi/e5/</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>359</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3376,32 +3376,32 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>X3</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>1070000</v>
+        <v>970000</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kaiyi/x3_pro/</t>
+          <t>https://new-auto96.ru/auto/kaiyi/x3/</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>1070000</t>
+          <t>970000</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kaiyi/x3_pro/</t>
+          <t>https://new-auto96.ru/auto/kaiyi/x3/</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3411,67 +3411,67 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>X7 Kunlun</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>2440000</v>
+        <v>1070000</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kaiyi/x7_kunlun/</t>
+          <t>https://new-auto96.ru/auto/kaiyi/x3_pro/</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2440000</t>
+          <t>1070000</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kaiyi/x7_kunlun/</t>
+          <t>https://new-auto96.ru/auto/kaiyi/x3_pro/</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>361</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Ceed</t>
+          <t>X7 Kunlun</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1210000</v>
+        <v>2440000</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/ceed/</t>
+          <t>https://new-auto96.ru/auto/kaiyi/x7_kunlun/</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>1210000</t>
+          <t>2440000</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/ceed/</t>
+          <t>https://new-auto96.ru/auto/kaiyi/x7_kunlun/</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3481,32 +3481,32 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Ceed SW</t>
+          <t>Ceed</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>1250000</v>
+        <v>1210000</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/ceed_sw/</t>
+          <t>https://new-auto96.ru/auto/kia/ceed/</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>1250000</t>
+          <t>1210000</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/ceed_sw/</t>
+          <t>https://new-auto96.ru/auto/kia/ceed/</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>365</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -3516,32 +3516,32 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Cerato New</t>
+          <t>Ceed SW</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>1030000</v>
+        <v>1250000</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/cerato/</t>
+          <t>https://new-auto96.ru/auto/kia/ceed_sw/</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>1030000</t>
+          <t>1250000</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/cerato/</t>
+          <t>https://new-auto96.ru/auto/kia/ceed_sw/</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>370</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3551,32 +3551,32 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>K5</t>
+          <t>Cerato New</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>1390000</v>
+        <v>1030000</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/k5/</t>
+          <t>https://new-auto96.ru/auto/kia/cerato/</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>1390000</t>
+          <t>1030000</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/k5/</t>
+          <t>https://new-auto96.ru/auto/kia/cerato/</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>371</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -3586,32 +3586,32 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Picanto New</t>
+          <t>K5</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>740000</v>
+        <v>1390000</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/picanto/</t>
+          <t>https://new-auto96.ru/auto/kia/k5/</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>740000</t>
+          <t>1390000</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/picanto/</t>
+          <t>https://new-auto96.ru/auto/kia/k5/</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>374</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3621,32 +3621,32 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>ProCeed</t>
+          <t>Picanto New</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>1121940</v>
+        <v>740000</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/proceed/</t>
+          <t>https://new-auto96.ru/auto/kia/picanto/</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>1121940</t>
+          <t>740000</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/proceed/</t>
+          <t>https://new-auto96.ru/auto/kia/picanto/</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>375</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -3656,32 +3656,32 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Rio New</t>
+          <t>ProCeed</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>710000</v>
+        <v>1121940</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/rio/</t>
+          <t>https://new-auto96.ru/auto/kia/proceed/</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>710000</t>
+          <t>1121940</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/rio/</t>
+          <t>https://new-auto96.ru/auto/kia/proceed/</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>377</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -3691,32 +3691,32 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Rio X</t>
+          <t>Rio New</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>830000</v>
+        <v>710000</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/rio_x/</t>
+          <t>https://new-auto96.ru/auto/kia/rio/</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>830000</t>
+          <t>710000</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/rio_x/</t>
+          <t>https://new-auto96.ru/auto/kia/rio/</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>378</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -3726,32 +3726,32 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Seltos</t>
+          <t>Rio X</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>1020000</v>
+        <v>830000</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/seltos/</t>
+          <t>https://new-auto96.ru/auto/kia/rio_x/</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>1020000</t>
+          <t>830000</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/seltos/</t>
+          <t>https://new-auto96.ru/auto/kia/rio_x/</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>381</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -3761,32 +3761,32 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Sorento New</t>
+          <t>Seltos</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>2120000</v>
+        <v>1020000</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/sorento/</t>
+          <t>https://new-auto96.ru/auto/kia/seltos/</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2120000</t>
+          <t>1020000</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/sorento/</t>
+          <t>https://new-auto96.ru/auto/kia/seltos/</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>389</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -3796,32 +3796,32 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Soul</t>
+          <t>Sorento New</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>1030000</v>
+        <v>2120000</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/soul/</t>
+          <t>https://new-auto96.ru/auto/kia/sorento/</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>1030000</t>
+          <t>2120000</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/soul/</t>
+          <t>https://new-auto96.ru/auto/kia/sorento/</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>390</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -3831,32 +3831,32 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Sportage 5</t>
+          <t>Soul</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>1860000</v>
+        <v>1030000</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/sportage/</t>
+          <t>https://new-auto96.ru/auto/kia/soul/</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>1860000</t>
+          <t>1030000</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/sportage/</t>
+          <t>https://new-auto96.ru/auto/kia/soul/</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>392</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3866,67 +3866,67 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>XCeed</t>
+          <t>Sportage 5</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>1490000</v>
+        <v>1860000</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/xceed/</t>
+          <t>https://new-auto96.ru/auto/kia/sportage/</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>1490000</t>
+          <t>1860000</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/xceed/</t>
+          <t>https://new-auto96.ru/auto/kia/sportage/</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>395</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Granta Cross</t>
+          <t>XCeed</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>500000</v>
+        <v>1490000</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/granta_cross/</t>
+          <t>https://new-auto96.ru/auto/kia/xceed/</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>500000</t>
+          <t>1490000</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/granta_cross/</t>
+          <t>https://new-auto96.ru/auto/kia/xceed/</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>402</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3936,32 +3936,32 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Granta Hatchback</t>
+          <t>Granta Cross</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>431100</v>
+        <v>500000</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/granta_hatchback/</t>
+          <t>https://new-auto96.ru/auto/lada/granta_cross/</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>431100</t>
+          <t>500000</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/granta_hatchback/</t>
+          <t>https://new-auto96.ru/auto/lada/granta_cross/</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>404</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3971,32 +3971,32 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Granta Liftback</t>
+          <t>Granta Hatchback</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>440000</v>
+        <v>431100</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/granta_liftback/</t>
+          <t>https://new-auto96.ru/auto/lada/granta_hatchback/</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>440000</t>
+          <t>431100</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/granta_liftback/</t>
+          <t>https://new-auto96.ru/auto/lada/granta_hatchback/</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>405</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -4006,32 +4006,32 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Granta Sedan</t>
+          <t>Granta Liftback</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>410000</v>
+        <v>440000</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/granta_sedan/</t>
+          <t>https://new-auto96.ru/auto/lada/granta_liftback/</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>410000</t>
+          <t>440000</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/granta_sedan/</t>
+          <t>https://new-auto96.ru/auto/lada/granta_liftback/</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>406</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -4041,32 +4041,32 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Granta Sedan Drive Active</t>
+          <t>Granta Sedan</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>680900</v>
+        <v>410000</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/granta_drive_active/</t>
+          <t>https://new-auto96.ru/auto/lada/granta_sedan/</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>680900</t>
+          <t>410000</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/granta_drive_active/</t>
+          <t>https://new-auto96.ru/auto/lada/granta_sedan/</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>403</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -4076,32 +4076,32 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Granta Universal</t>
+          <t>Granta Sedan Drive Active</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>450000</v>
+        <v>680900</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/granta_universal/</t>
+          <t>https://new-auto96.ru/auto/lada/granta_drive_active/</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>450000</t>
+          <t>680900</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/granta_universal/</t>
+          <t>https://new-auto96.ru/auto/lada/granta_drive_active/</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>414</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -4111,32 +4111,32 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Largus Cross New</t>
+          <t>Granta Universal</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>760000</v>
+        <v>450000</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/largus_cross/</t>
+          <t>https://new-auto96.ru/auto/lada/granta_universal/</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>760000</t>
+          <t>450000</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/largus_cross/</t>
+          <t>https://new-auto96.ru/auto/lada/granta_universal/</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>449</t>
+          <t>451</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -4146,32 +4146,32 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Largus New</t>
+          <t>Largus Cross New</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>718900</v>
+        <v>760000</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/largus/</t>
+          <t>https://new-auto96.ru/auto/lada/largus_cross/</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>718900</t>
+          <t>760000</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/largus/</t>
+          <t>https://new-auto96.ru/auto/lada/largus_cross/</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>449</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -4181,32 +4181,32 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Largus Фургон New</t>
+          <t>Largus New</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>546000</v>
+        <v>718900</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/largus_furgon/</t>
+          <t>https://new-auto96.ru/auto/lada/largus/</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>546000</t>
+          <t>718900</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/largus_furgon/</t>
+          <t>https://new-auto96.ru/auto/lada/largus/</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>454</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -4216,32 +4216,32 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Niva Legend 3 двери</t>
+          <t>Largus Фургон New</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>520000</v>
+        <v>546000</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/4x4_3_dv/</t>
+          <t>https://new-auto96.ru/auto/lada/largus_furgon/</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>520000</t>
+          <t>546000</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/4x4_3_dv/</t>
+          <t>https://new-auto96.ru/auto/lada/largus_furgon/</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>423</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -4251,32 +4251,32 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Niva Legend 5 дверей</t>
+          <t>Niva Legend 3 двери</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>570000</v>
+        <v>520000</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/4x4_5_dv/</t>
+          <t>https://new-auto96.ru/auto/lada/4x4_3_dv/</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>570000</t>
+          <t>520000</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/4x4_5_dv/</t>
+          <t>https://new-auto96.ru/auto/lada/4x4_3_dv/</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>424</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -4286,32 +4286,32 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Niva Off-Road</t>
+          <t>Niva Legend 5 дверей</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>494400</v>
+        <v>570000</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/niva_off-road/</t>
+          <t>https://new-auto96.ru/auto/lada/4x4_5_dv/</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>494400</t>
+          <t>570000</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/niva_off-road/</t>
+          <t>https://new-auto96.ru/auto/lada/4x4_5_dv/</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>433</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -4321,32 +4321,32 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Niva Travel</t>
+          <t>Niva Off-Road</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>650000</v>
+        <v>494400</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/niva_travel/</t>
+          <t>https://new-auto96.ru/auto/lada/niva_off-road/</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>650000</t>
+          <t>494400</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/niva_travel/</t>
+          <t>https://new-auto96.ru/auto/lada/niva_off-road/</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>434</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -4356,32 +4356,32 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Vesta Cross</t>
+          <t>Niva Travel</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>761940</v>
+        <v>650000</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta_cross_1/</t>
+          <t>https://new-auto96.ru/auto/lada/niva_travel/</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>761940</t>
+          <t>650000</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta_cross_1/</t>
+          <t>https://new-auto96.ru/auto/lada/niva_travel/</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>437</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -4391,32 +4391,32 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Vesta Cross New</t>
+          <t>Vesta Cross</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>1090000</v>
+        <v>761940</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta_cross/</t>
+          <t>https://new-auto96.ru/auto/lada/vesta_cross_1/</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>1090000</t>
+          <t>761940</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta_cross/</t>
+          <t>https://new-auto96.ru/auto/lada/vesta_cross_1/</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>438</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -4426,32 +4426,32 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Vesta SW</t>
+          <t>Vesta Cross New</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>728340</v>
+        <v>1090000</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta_sw_1/</t>
+          <t>https://new-auto96.ru/auto/lada/vesta_cross/</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>728340</t>
+          <t>1090000</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta_sw_1/</t>
+          <t>https://new-auto96.ru/auto/lada/vesta_cross/</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>443</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -4461,32 +4461,32 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Vesta SW Cross</t>
+          <t>Vesta SW</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>797340</v>
+        <v>728340</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta_sw_cross_1/</t>
+          <t>https://new-auto96.ru/auto/lada/vesta_sw_1/</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>797340</t>
+          <t>728340</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta_sw_cross_1/</t>
+          <t>https://new-auto96.ru/auto/lada/vesta_sw_1/</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>445</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -4496,32 +4496,32 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Vesta SW Cross New</t>
+          <t>Vesta SW Cross</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>1050000</v>
+        <v>797340</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta_sw_cross/</t>
+          <t>https://new-auto96.ru/auto/lada/vesta_sw_cross_1/</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>1050000</t>
+          <t>797340</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta_sw_cross/</t>
+          <t>https://new-auto96.ru/auto/lada/vesta_sw_cross_1/</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>446</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -4531,32 +4531,32 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Vesta SW New</t>
+          <t>Vesta SW Cross New</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>950000</v>
+        <v>1050000</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta_sw/</t>
+          <t>https://new-auto96.ru/auto/lada/vesta_sw_cross/</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>950000</t>
+          <t>1050000</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta_sw/</t>
+          <t>https://new-auto96.ru/auto/lada/vesta_sw_cross/</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>444</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -4566,32 +4566,32 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Vesta Sedan</t>
+          <t>Vesta SW New</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>673140</v>
+        <v>950000</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta_1/</t>
+          <t>https://new-auto96.ru/auto/lada/vesta_sw/</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>673140</t>
+          <t>950000</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta_1/</t>
+          <t>https://new-auto96.ru/auto/lada/vesta_sw/</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>435</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -4601,32 +4601,32 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Vesta Sedan CNG</t>
+          <t>Vesta Sedan</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>790140</v>
+        <v>673140</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta_cng/</t>
+          <t>https://new-auto96.ru/auto/lada/vesta_1/</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>790140</t>
+          <t>673140</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta_cng/</t>
+          <t>https://new-auto96.ru/auto/lada/vesta_1/</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>436</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -4636,32 +4636,32 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Vesta Sedan New</t>
+          <t>Vesta Sedan CNG</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>840000</v>
+        <v>790140</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta/</t>
+          <t>https://new-auto96.ru/auto/lada/vesta_cng/</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>840000</t>
+          <t>790140</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta/</t>
+          <t>https://new-auto96.ru/auto/lada/vesta_cng/</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>439</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -4671,32 +4671,32 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Vesta Sport</t>
+          <t>Vesta Sedan New</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>1030000</v>
+        <v>840000</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta_sport/</t>
+          <t>https://new-auto96.ru/auto/lada/vesta/</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>1030000</t>
+          <t>840000</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta_sport/</t>
+          <t>https://new-auto96.ru/auto/lada/vesta/</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>440</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -4706,32 +4706,32 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Xray</t>
+          <t>Vesta Sport</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>630000</v>
+        <v>1030000</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/xray/</t>
+          <t>https://new-auto96.ru/auto/lada/vesta_sport/</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>630000</t>
+          <t>1030000</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/xray/</t>
+          <t>https://new-auto96.ru/auto/lada/vesta_sport/</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>447</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -4741,67 +4741,67 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Xray Cross</t>
+          <t>Xray</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>680000</v>
+        <v>630000</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/xray_cross/</t>
+          <t>https://new-auto96.ru/auto/lada/xray/</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>680000</t>
+          <t>630000</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/xray_cross/</t>
+          <t>https://new-auto96.ru/auto/lada/xray/</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>448</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Lifan</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Murman</t>
+          <t>Xray Cross</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>650300</v>
+        <v>680000</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lifan/murman/</t>
+          <t>https://new-auto96.ru/auto/lada/xray_cross/</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>650300</t>
+          <t>680000</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lifan/murman/</t>
+          <t>https://new-auto96.ru/auto/lada/xray_cross/</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>457</t>
+          <t>455</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -4811,32 +4811,32 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>MyWay</t>
+          <t>Murman</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>701300</v>
+        <v>650300</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lifan/myway/</t>
+          <t>https://new-auto96.ru/auto/lifan/murman/</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>701300</t>
+          <t>650300</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lifan/myway/</t>
+          <t>https://new-auto96.ru/auto/lifan/murman/</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>459</t>
+          <t>457</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -4846,32 +4846,32 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Solano 2</t>
+          <t>MyWay</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>401300</v>
+        <v>701300</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lifan/solano_ii/</t>
+          <t>https://new-auto96.ru/auto/lifan/myway/</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>401300</t>
+          <t>701300</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lifan/solano_ii/</t>
+          <t>https://new-auto96.ru/auto/lifan/myway/</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>459</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -4881,32 +4881,32 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>X50</t>
+          <t>Solano 2</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>420300</v>
+        <v>401300</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lifan/x50/</t>
+          <t>https://new-auto96.ru/auto/lifan/solano_ii/</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>420300</t>
+          <t>401300</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lifan/x50/</t>
+          <t>https://new-auto96.ru/auto/lifan/solano_ii/</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>460</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -4916,32 +4916,32 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>X60</t>
+          <t>X50</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>491300</v>
+        <v>420300</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lifan/x60/</t>
+          <t>https://new-auto96.ru/auto/lifan/x50/</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>491300</t>
+          <t>420300</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lifan/x60/</t>
+          <t>https://new-auto96.ru/auto/lifan/x50/</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>463</t>
+          <t>461</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -4951,67 +4951,67 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>X70</t>
+          <t>X60</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>770300</v>
+        <v>491300</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lifan/x70/</t>
+          <t>https://new-auto96.ru/auto/lifan/x60/</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>770300</t>
+          <t>491300</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lifan/x70/</t>
+          <t>https://new-auto96.ru/auto/lifan/x60/</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>463</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>Lifan</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>S6 Pro</t>
+          <t>X70</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>1549900</v>
+        <v>770300</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/livan/s6pro/</t>
+          <t>https://new-auto96.ru/auto/lifan/x70/</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>1549900</t>
+          <t>770300</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/livan/s6pro/</t>
+          <t>https://new-auto96.ru/auto/lifan/x70/</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>464</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -5021,32 +5021,32 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>S6 Pro</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>1020000</v>
+        <v>1549900</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/livan/x3pro/</t>
+          <t>https://new-auto96.ru/auto/livan/s6pro/</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>1020000</t>
+          <t>1549900</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/livan/x3pro/</t>
+          <t>https://new-auto96.ru/auto/livan/s6pro/</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>466</t>
+          <t>465</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -5056,67 +5056,67 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>X6 Pro</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>1629900</v>
+        <v>1020000</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/livan/x6pro/</t>
+          <t>https://new-auto96.ru/auto/livan/x3pro/</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>1629900</t>
+          <t>1020000</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/livan/x6pro/</t>
+          <t>https://new-auto96.ru/auto/livan/x3pro/</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>466</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>X6 Pro</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>1200000</v>
+        <v>1629900</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/moskvich/3/</t>
+          <t>https://new-auto96.ru/auto/livan/x6pro/</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>1200000</t>
+          <t>1629900</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/moskvich/3/</t>
+          <t>https://new-auto96.ru/auto/livan/x6pro/</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>510</t>
+          <t>509</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -5126,67 +5126,67 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>3e</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>1750000</v>
+        <v>1200000</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/moskvich/3e/</t>
+          <t>https://new-auto96.ru/auto/moskvich/3/</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>1750000</t>
+          <t>1200000</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/moskvich/3e/</t>
+          <t>https://new-auto96.ru/auto/moskvich/3/</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>517</t>
+          <t>510</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Murano</t>
+          <t>3e</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>2570000</v>
+        <v>1750000</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/nissan/murano/</t>
+          <t>https://new-auto96.ru/auto/moskvich/3e/</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>2570000</t>
+          <t>1750000</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/nissan/murano/</t>
+          <t>https://new-auto96.ru/auto/moskvich/3e/</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>517</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -5196,32 +5196,32 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Qashqai</t>
+          <t>Murano</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>1300000</v>
+        <v>2570000</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/nissan/qashqai/</t>
+          <t>https://new-auto96.ru/auto/nissan/murano/</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>1300000</t>
+          <t>2570000</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/nissan/qashqai/</t>
+          <t>https://new-auto96.ru/auto/nissan/murano/</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>522</t>
+          <t>520</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -5231,32 +5231,32 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Terrano</t>
+          <t>Qashqai</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>890000</v>
+        <v>1300000</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/nissan/terrano/</t>
+          <t>https://new-auto96.ru/auto/nissan/qashqai/</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>890000</t>
+          <t>1300000</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/nissan/terrano/</t>
+          <t>https://new-auto96.ru/auto/nissan/qashqai/</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>523</t>
+          <t>522</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -5266,67 +5266,67 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>X-trail</t>
+          <t>Terrano</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>1530000</v>
+        <v>890000</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/nissan/x-trail/</t>
+          <t>https://new-auto96.ru/auto/nissan/terrano/</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>1530000</t>
+          <t>890000</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/nissan/x-trail/</t>
+          <t>https://new-auto96.ru/auto/nissan/terrano/</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>523</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>C5</t>
+          <t>X-trail</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>1360000</v>
+        <v>1530000</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/omoda/c5/</t>
+          <t>https://new-auto96.ru/auto/nissan/x-trail/</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>1360000</t>
+          <t>1530000</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/omoda/c5/</t>
+          <t>https://new-auto96.ru/auto/nissan/x-trail/</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>525</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -5336,67 +5336,67 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>C5</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>1260000</v>
+        <v>1360000</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/omoda/s5/</t>
+          <t>https://new-auto96.ru/auto/omoda/c5/</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>1260000</t>
+          <t>1360000</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/omoda/s5/</t>
+          <t>https://new-auto96.ru/auto/omoda/c5/</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>526</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Arkana</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>909000</v>
+        <v>1260000</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/renault/arkana/</t>
+          <t>https://new-auto96.ru/auto/omoda/s5/</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>909000</t>
+          <t>1260000</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/renault/arkana/</t>
+          <t>https://new-auto96.ru/auto/omoda/s5/</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>549</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -5406,32 +5406,32 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Duster New</t>
+          <t>Arkana</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>750000</v>
+        <v>909000</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/renault/duster/</t>
+          <t>https://new-auto96.ru/auto/renault/arkana/</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>750000</t>
+          <t>909000</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/renault/duster/</t>
+          <t>https://new-auto96.ru/auto/renault/arkana/</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>555</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -5441,32 +5441,32 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Kaptur</t>
+          <t>Duster New</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>780000</v>
+        <v>750000</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/renault/kaptur/</t>
+          <t>https://new-auto96.ru/auto/renault/duster/</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>780000</t>
+          <t>750000</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/renault/kaptur/</t>
+          <t>https://new-auto96.ru/auto/renault/duster/</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>556</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -5476,32 +5476,32 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Logan</t>
+          <t>Kaptur</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>499000</v>
+        <v>780000</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/renault/logan/</t>
+          <t>https://new-auto96.ru/auto/renault/kaptur/</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>499000</t>
+          <t>780000</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/renault/logan/</t>
+          <t>https://new-auto96.ru/auto/renault/kaptur/</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>559</t>
+          <t>558</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -5511,32 +5511,32 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Logan Stepway</t>
+          <t>Logan</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>650000</v>
+        <v>499000</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/renault/logan_stepway/</t>
+          <t>https://new-auto96.ru/auto/renault/logan/</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>650000</t>
+          <t>499000</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/renault/logan_stepway/</t>
+          <t>https://new-auto96.ru/auto/renault/logan/</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>559</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -5546,32 +5546,32 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Sandero</t>
+          <t>Logan Stepway</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>540000</v>
+        <v>650000</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/renault/sandero/</t>
+          <t>https://new-auto96.ru/auto/renault/logan_stepway/</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>540000</t>
+          <t>650000</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/renault/sandero/</t>
+          <t>https://new-auto96.ru/auto/renault/logan_stepway/</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>565</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -5581,67 +5581,67 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Sandero Stepway</t>
+          <t>Sandero</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>565300</v>
+        <v>540000</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/renault/sandero_stepway/</t>
+          <t>https://new-auto96.ru/auto/renault/sandero/</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>565300</t>
+          <t>540000</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/renault/sandero_stepway/</t>
+          <t>https://new-auto96.ru/auto/renault/sandero/</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>571</t>
+          <t>566</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Karoq</t>
+          <t>Sandero Stepway</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>1240000</v>
+        <v>565300</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/skoda/karoq/</t>
+          <t>https://new-auto96.ru/auto/renault/sandero_stepway/</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>1240000</t>
+          <t>565300</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/skoda/karoq/</t>
+          <t>https://new-auto96.ru/auto/renault/sandero_stepway/</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>571</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -5651,32 +5651,32 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Kodiaq New</t>
+          <t>Karoq</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>1745000</v>
+        <v>1240000</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/skoda/kodiaq/</t>
+          <t>https://new-auto96.ru/auto/skoda/karoq/</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>1745000</t>
+          <t>1240000</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/skoda/kodiaq/</t>
+          <t>https://new-auto96.ru/auto/skoda/karoq/</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>579</t>
+          <t>576</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -5686,32 +5686,32 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Octavia New</t>
+          <t>Kodiaq New</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>1170000</v>
+        <v>1745000</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/skoda/octavia/</t>
+          <t>https://new-auto96.ru/auto/skoda/kodiaq/</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>1170000</t>
+          <t>1745000</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/skoda/octavia/</t>
+          <t>https://new-auto96.ru/auto/skoda/kodiaq/</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>581</t>
+          <t>579</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -5721,32 +5721,32 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Rapid</t>
+          <t>Octavia New</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>720000</v>
+        <v>1170000</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/skoda/rapid/</t>
+          <t>https://new-auto96.ru/auto/skoda/octavia/</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>720000</t>
+          <t>1170000</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/skoda/rapid/</t>
+          <t>https://new-auto96.ru/auto/skoda/octavia/</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>581</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -5756,32 +5756,32 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Superb</t>
+          <t>Rapid</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>1240000</v>
+        <v>720000</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/skoda/superb/</t>
+          <t>https://new-auto96.ru/auto/skoda/rapid/</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>1240000</t>
+          <t>720000</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/skoda/superb/</t>
+          <t>https://new-auto96.ru/auto/skoda/rapid/</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>586</t>
+          <t>585</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -5791,67 +5791,67 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Superb Combi</t>
+          <t>Superb</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2290200</v>
+        <v>1240000</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/skoda/superb_combi/</t>
+          <t>https://new-auto96.ru/auto/skoda/superb/</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>2290200</t>
+          <t>1240000</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/skoda/superb_combi/</t>
+          <t>https://new-auto96.ru/auto/skoda/superb/</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>594</t>
+          <t>586</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>Superb Combi</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>1499400</v>
+        <v>2290200</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/solaris/hc/</t>
+          <t>https://new-auto96.ru/auto/skoda/superb_combi/</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>1499400</t>
+          <t>2290200</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/solaris/hc/</t>
+          <t>https://new-auto96.ru/auto/skoda/superb_combi/</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>594</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -5861,32 +5861,32 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>HS</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>1206000</v>
+        <v>1499400</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/solaris/hs/</t>
+          <t>https://new-auto96.ru/auto/solaris/hc/</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>1206000</t>
+          <t>1499400</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/solaris/hs/</t>
+          <t>https://new-auto96.ru/auto/solaris/hc/</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>595</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -5896,32 +5896,32 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>KRS</t>
+          <t>HS</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>1222800</v>
+        <v>1206000</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/solaris/krs/</t>
+          <t>https://new-auto96.ru/auto/solaris/hs/</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>1222800</t>
+          <t>1206000</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/solaris/krs/</t>
+          <t>https://new-auto96.ru/auto/solaris/hs/</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>596</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -5931,67 +5931,67 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>KRX</t>
+          <t>KRS</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>1238400</v>
+        <v>1222800</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/solaris/krx/</t>
+          <t>https://new-auto96.ru/auto/solaris/krs/</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>1238400</t>
+          <t>1222800</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/solaris/krx/</t>
+          <t>https://new-auto96.ru/auto/solaris/krs/</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>597</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>KRX</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>2729300</v>
+        <v>1238400</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/tank/300/</t>
+          <t>https://new-auto96.ru/auto/solaris/krx/</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>2729300</t>
+          <t>1238400</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/tank/300/</t>
+          <t>https://new-auto96.ru/auto/solaris/krx/</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>615</t>
+          <t>614</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -6001,67 +6001,67 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>3788000</v>
+        <v>2729300</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/tank/500/</t>
+          <t>https://new-auto96.ru/auto/tank/300/</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>3788000</t>
+          <t>2729300</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/tank/500/</t>
+          <t>https://new-auto96.ru/auto/tank/300/</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>633</t>
+          <t>615</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>UAZ</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Hunter</t>
+          <t>500</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>562900</v>
+        <v>3788000</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/uaz/hunter/</t>
+          <t>https://new-auto96.ru/auto/tank/500/</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>562900</t>
+          <t>3788000</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/uaz/hunter/</t>
+          <t>https://new-auto96.ru/auto/tank/500/</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>634</t>
+          <t>633</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -6071,32 +6071,32 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Patriot</t>
+          <t>Hunter</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>1009000</v>
+        <v>562900</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/uaz/patriot/</t>
+          <t>https://new-auto96.ru/auto/uaz/hunter/</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>1009000</t>
+          <t>562900</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/uaz/patriot/</t>
+          <t>https://new-auto96.ru/auto/uaz/hunter/</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>636</t>
+          <t>634</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -6106,67 +6106,67 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Patriot Pickup</t>
+          <t>Patriot</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>780000</v>
+        <v>1009000</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/uaz/patriot_pickup/</t>
+          <t>https://new-auto96.ru/auto/uaz/patriot/</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>780000</t>
+          <t>1009000</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/uaz/patriot_pickup/</t>
+          <t>https://new-auto96.ru/auto/uaz/patriot/</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>645</t>
+          <t>636</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>UAZ</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Patriot Pickup</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>1180000</v>
+        <v>780000</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/volkswagen/jetta/</t>
+          <t>https://new-auto96.ru/auto/uaz/patriot_pickup/</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>1180000</t>
+          <t>780000</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/volkswagen/jetta/</t>
+          <t>https://new-auto96.ru/auto/uaz/patriot_pickup/</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>649</t>
+          <t>645</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -6176,32 +6176,32 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Passat</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>1120000</v>
+        <v>1180000</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/volkswagen/passat/</t>
+          <t>https://new-auto96.ru/auto/volkswagen/jetta/</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>1120000</t>
+          <t>1180000</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/volkswagen/passat/</t>
+          <t>https://new-auto96.ru/auto/volkswagen/jetta/</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>652</t>
+          <t>649</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -6211,32 +6211,32 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Polo</t>
+          <t>Passat</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>730000</v>
+        <v>1120000</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/volkswagen/polo/</t>
+          <t>https://new-auto96.ru/auto/volkswagen/passat/</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>730000</t>
+          <t>1120000</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/volkswagen/polo/</t>
+          <t>https://new-auto96.ru/auto/volkswagen/passat/</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>653</t>
+          <t>652</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -6246,32 +6246,32 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Taos</t>
+          <t>Polo</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>1464000</v>
+        <v>730000</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/volkswagen/taos/</t>
+          <t>https://new-auto96.ru/auto/volkswagen/polo/</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>1464000</t>
+          <t>730000</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/volkswagen/taos/</t>
+          <t>https://new-auto96.ru/auto/volkswagen/polo/</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>658</t>
+          <t>653</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -6281,93 +6281,128 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Tiguan New</t>
+          <t>Taos</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>1529300</v>
+        <v>1464000</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/volkswagen/tiguan/</t>
+          <t>https://new-auto96.ru/auto/volkswagen/taos/</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>1529300</t>
+          <t>1464000</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/volkswagen/tiguan/</t>
+          <t>https://new-auto96.ru/auto/volkswagen/taos/</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>672</t>
+          <t>658</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Zotye</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Coupa</t>
+          <t>Tiguan New</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>750300</v>
+        <v>1529300</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/zotye/coupa/</t>
+          <t>https://new-auto96.ru/auto/volkswagen/tiguan/</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>750300</t>
+          <t>1529300</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/zotye/coupa/</t>
+          <t>https://new-auto96.ru/auto/volkswagen/tiguan/</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
+          <t>672</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Zotye</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Coupa</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>750300</v>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>https://new-auto96.ru/auto/zotye/coupa/</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>750300</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>https://new-auto96.ru/auto/zotye/coupa/</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
           <t>674</t>
         </is>
       </c>
-      <c r="B170" t="inlineStr">
+      <c r="B171" t="inlineStr">
         <is>
           <t>Zotye</t>
         </is>
       </c>
-      <c r="C170" t="inlineStr">
+      <c r="C171" t="inlineStr">
         <is>
           <t>T600</t>
         </is>
       </c>
-      <c r="D170" t="n">
+      <c r="D171" t="n">
         <v>570300</v>
       </c>
-      <c r="E170" t="inlineStr">
+      <c r="E171" t="inlineStr">
         <is>
           <t>https://new-auto96.ru/auto/zotye/t600/</t>
         </is>
       </c>
-      <c r="F170" t="inlineStr">
+      <c r="F171" t="inlineStr">
         <is>
           <t>570300</t>
         </is>
       </c>
-      <c r="G170" t="inlineStr">
+      <c r="G171" t="inlineStr">
         <is>
           <t>https://new-auto96.ru/auto/zotye/t600/</t>
         </is>

--- a/xlsx/ekaterinburg.xlsx
+++ b/xlsx/ekaterinburg.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G171"/>
+  <dimension ref="A1:G172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1966,7 +1966,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1976,32 +1976,32 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>GS5</t>
+          <t>GS3</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1260000</v>
+        <v>1552500</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/gac/gs5/</t>
+          <t>https://new-auto96.ru/auto/gac/gs3/</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>1260000</t>
+          <t>1552500</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/gac/gs5/</t>
+          <t>https://new-auto96.ru/auto/gac/gs3/</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2011,67 +2011,67 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>GS8</t>
+          <t>GS5</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>2748300</v>
+        <v>1260000</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/gac/gs8/</t>
+          <t>https://new-auto96.ru/auto/gac/gs5/</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2748300</t>
+          <t>1260000</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/gac/gs8/</t>
+          <t>https://new-auto96.ru/auto/gac/gs5/</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Geely</t>
+          <t>Gac</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Atlas</t>
+          <t>GS8</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>1040000</v>
+        <v>2748300</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/geely/atlas_1/</t>
+          <t>https://new-auto96.ru/auto/gac/gs8/</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>1040000</t>
+          <t>2748300</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/geely/atlas_1/</t>
+          <t>https://new-auto96.ru/auto/gac/gs8/</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2081,32 +2081,32 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Atlas New</t>
+          <t>Atlas</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1929900</v>
+        <v>1040000</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/geely/atlas/</t>
+          <t>https://new-auto96.ru/auto/geely/atlas_1/</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>1929900</t>
+          <t>1040000</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/geely/atlas/</t>
+          <t>https://new-auto96.ru/auto/geely/atlas_1/</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2116,32 +2116,32 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Atlas Pro</t>
+          <t>Atlas New</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1519990</v>
+        <v>1929900</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/geely/atlas_pro/</t>
+          <t>https://new-auto96.ru/auto/geely/atlas/</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>1519990</t>
+          <t>1929900</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/geely/atlas_pro/</t>
+          <t>https://new-auto96.ru/auto/geely/atlas/</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2151,32 +2151,32 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Belgee X50</t>
+          <t>Atlas Pro</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>1549000</v>
+        <v>1519990</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/geely/belgee_x50/</t>
+          <t>https://new-auto96.ru/auto/geely/atlas_pro/</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>1549000</t>
+          <t>1519990</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/geely/belgee_x50/</t>
+          <t>https://new-auto96.ru/auto/geely/atlas_pro/</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2186,32 +2186,32 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Coolray</t>
+          <t>Belgee X50</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>966300</v>
+        <v>1549000</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/geely/coolray_1/</t>
+          <t>https://new-auto96.ru/auto/geely/belgee_x50/</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>966300</t>
+          <t>1549000</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/geely/coolray_1/</t>
+          <t>https://new-auto96.ru/auto/geely/belgee_x50/</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2221,32 +2221,32 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Coolray New</t>
+          <t>Coolray</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>1594990</v>
+        <v>966300</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/geely/coolray/</t>
+          <t>https://new-auto96.ru/auto/geely/coolray_1/</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>1594990</t>
+          <t>966300</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/geely/coolray/</t>
+          <t>https://new-auto96.ru/auto/geely/coolray_1/</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2256,32 +2256,32 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Emgrand New</t>
+          <t>Coolray New</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>1240000</v>
+        <v>1594990</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/geely/emgrand/</t>
+          <t>https://new-auto96.ru/auto/geely/coolray/</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>1240000</t>
+          <t>1594990</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/geely/emgrand/</t>
+          <t>https://new-auto96.ru/auto/geely/coolray/</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2291,32 +2291,32 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>Emgrand New</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1000300</v>
+        <v>1240000</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/geely/gs/</t>
+          <t>https://new-auto96.ru/auto/geely/emgrand/</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>1000300</t>
+          <t>1240000</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/geely/gs/</t>
+          <t>https://new-auto96.ru/auto/geely/emgrand/</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2326,32 +2326,32 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Monjaro</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>2819900</v>
+        <v>1000300</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/geely/monjaro/</t>
+          <t>https://new-auto96.ru/auto/geely/gs/</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2819900</t>
+          <t>1000300</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/geely/monjaro/</t>
+          <t>https://new-auto96.ru/auto/geely/gs/</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2361,32 +2361,32 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Okavango New</t>
+          <t>Monjaro</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>2069994</v>
+        <v>2819900</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/geely/okavango/</t>
+          <t>https://new-auto96.ru/auto/geely/monjaro/</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2069994</t>
+          <t>2819900</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/geely/okavango/</t>
+          <t>https://new-auto96.ru/auto/geely/monjaro/</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2396,67 +2396,67 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Tugella New</t>
+          <t>Okavango New</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>1999000</v>
+        <v>2069994</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/geely/tugella/</t>
+          <t>https://new-auto96.ru/auto/geely/okavango/</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>1999000</t>
+          <t>2069994</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/geely/tugella/</t>
+          <t>https://new-auto96.ru/auto/geely/okavango/</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Haval</t>
+          <t>Geely</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Dargo</t>
+          <t>Tugella New</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>1970000</v>
+        <v>1999000</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/haval/dargo/</t>
+          <t>https://new-auto96.ru/auto/geely/tugella/</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>1970000</t>
+          <t>1999000</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/haval/dargo/</t>
+          <t>https://new-auto96.ru/auto/geely/tugella/</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2466,32 +2466,32 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Dargo X</t>
+          <t>Dargo</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>2069000</v>
+        <v>1970000</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/haval/dargo_x/</t>
+          <t>https://new-auto96.ru/auto/haval/dargo/</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2069000</t>
+          <t>1970000</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/haval/dargo_x/</t>
+          <t>https://new-auto96.ru/auto/haval/dargo/</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2501,32 +2501,32 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>F7 New</t>
+          <t>Dargo X</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>949000</v>
+        <v>2069000</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/haval/f7/</t>
+          <t>https://new-auto96.ru/auto/haval/dargo_x/</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>949000</t>
+          <t>2069000</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/haval/f7/</t>
+          <t>https://new-auto96.ru/auto/haval/dargo_x/</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2536,32 +2536,32 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>F7x New</t>
+          <t>F7 New</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>989000</v>
+        <v>949000</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/haval/f7x/</t>
+          <t>https://new-auto96.ru/auto/haval/f7/</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>989000</t>
+          <t>949000</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/haval/f7x/</t>
+          <t>https://new-auto96.ru/auto/haval/f7/</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2571,32 +2571,32 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>H5</t>
+          <t>F7x New</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>829000</v>
+        <v>989000</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/haval/h5/</t>
+          <t>https://new-auto96.ru/auto/haval/f7x/</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>829000</t>
+          <t>989000</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/haval/h5/</t>
+          <t>https://new-auto96.ru/auto/haval/f7x/</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2606,32 +2606,32 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>H9</t>
+          <t>H5</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>2360000</v>
+        <v>829000</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/haval/h9/</t>
+          <t>https://new-auto96.ru/auto/haval/h5/</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2360000</t>
+          <t>829000</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/haval/h9/</t>
+          <t>https://new-auto96.ru/auto/haval/h5/</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>300</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2641,32 +2641,32 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Jolion</t>
+          <t>H9</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>889000</v>
+        <v>2360000</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/haval/jolion_1/</t>
+          <t>https://new-auto96.ru/auto/haval/h9/</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>889000</t>
+          <t>2360000</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/haval/jolion_1/</t>
+          <t>https://new-auto96.ru/auto/haval/h9/</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>301</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2676,32 +2676,32 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Jolion New</t>
+          <t>Jolion</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1289000</v>
+        <v>889000</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/haval/jolion/</t>
+          <t>https://new-auto96.ru/auto/haval/jolion_1/</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>1289000</t>
+          <t>889000</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/haval/jolion/</t>
+          <t>https://new-auto96.ru/auto/haval/jolion_1/</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>303</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2711,67 +2711,67 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>M6</t>
+          <t>Jolion New</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>911000</v>
+        <v>1289000</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/haval/m6/</t>
+          <t>https://new-auto96.ru/auto/haval/jolion/</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>911000</t>
+          <t>1289000</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/haval/m6/</t>
+          <t>https://new-auto96.ru/auto/haval/jolion/</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>Haval</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Creta New</t>
+          <t>M6</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>920000</v>
+        <v>911000</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/hyundai/creta/</t>
+          <t>https://new-auto96.ru/auto/haval/m6/</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>920000</t>
+          <t>911000</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/hyundai/creta/</t>
+          <t>https://new-auto96.ru/auto/haval/m6/</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2781,32 +2781,32 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Elantra New</t>
+          <t>Creta New</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1100000</v>
+        <v>920000</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/hyundai/elantra/</t>
+          <t>https://new-auto96.ru/auto/hyundai/creta/</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>1100000</t>
+          <t>920000</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/hyundai/elantra/</t>
+          <t>https://new-auto96.ru/auto/hyundai/creta/</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>320</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2816,32 +2816,32 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t>Elantra New</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>1900000</v>
+        <v>1100000</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/hyundai/santa_fe/</t>
+          <t>https://new-auto96.ru/auto/hyundai/elantra/</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>1900000</t>
+          <t>1100000</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/hyundai/santa_fe/</t>
+          <t>https://new-auto96.ru/auto/hyundai/elantra/</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2851,32 +2851,32 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>690000</v>
+        <v>1900000</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/hyundai/solaris/</t>
+          <t>https://new-auto96.ru/auto/hyundai/santa_fe/</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>690000</t>
+          <t>1900000</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/hyundai/solaris/</t>
+          <t>https://new-auto96.ru/auto/hyundai/santa_fe/</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>329</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2886,32 +2886,32 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Sonata</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1390000</v>
+        <v>690000</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/hyundai/sonata/</t>
+          <t>https://new-auto96.ru/auto/hyundai/solaris/</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>1390000</t>
+          <t>690000</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/hyundai/sonata/</t>
+          <t>https://new-auto96.ru/auto/hyundai/solaris/</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>330</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2921,67 +2921,67 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Tucson New</t>
+          <t>Sonata</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>1470000</v>
+        <v>1390000</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/hyundai/tucson/</t>
+          <t>https://new-auto96.ru/auto/hyundai/sonata/</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>1470000</t>
+          <t>1390000</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/hyundai/tucson/</t>
+          <t>https://new-auto96.ru/auto/hyundai/sonata/</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>335</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>JAC</t>
+          <t>Hyundai</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>J7</t>
+          <t>Tucson New</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>860000</v>
+        <v>1470000</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/jac/j7/</t>
+          <t>https://new-auto96.ru/auto/hyundai/tucson/</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>860000</t>
+          <t>1470000</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/jac/j7/</t>
+          <t>https://new-auto96.ru/auto/hyundai/tucson/</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2991,32 +2991,32 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>J7</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>720000</v>
+        <v>860000</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/jac/s3/</t>
+          <t>https://new-auto96.ru/auto/jac/j7/</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>720000</t>
+          <t>860000</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/jac/s3/</t>
+          <t>https://new-auto96.ru/auto/jac/j7/</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>341</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -3026,102 +3026,102 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>S7</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>1180000</v>
+        <v>720000</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/jac/s7/</t>
+          <t>https://new-auto96.ru/auto/jac/s3/</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>1180000</t>
+          <t>720000</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/jac/s7/</t>
+          <t>https://new-auto96.ru/auto/jac/s3/</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>343</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>JAECOO</t>
+          <t>JAC</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>J7</t>
+          <t>S7</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>1903940</v>
+        <v>1180000</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/jaecoo/j7/</t>
+          <t>https://new-auto96.ru/auto/jac/s7/</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>1903940</t>
+          <t>1180000</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/jaecoo/j7/</t>
+          <t>https://new-auto96.ru/auto/jac/s7/</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Jetour</t>
+          <t>JAECOO</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Dashing</t>
+          <t>J7</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>1750000</v>
+        <v>1903940</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/jetour/dashing/</t>
+          <t>https://new-auto96.ru/auto/jaecoo/j7/</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>1750000</t>
+          <t>1903940</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/jetour/dashing/</t>
+          <t>https://new-auto96.ru/auto/jaecoo/j7/</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>349</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -3131,32 +3131,32 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>Dashing</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>2269000</v>
+        <v>1750000</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/jetour/t2/</t>
+          <t>https://new-auto96.ru/auto/jetour/dashing/</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2269000</t>
+          <t>1750000</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/jetour/t2/</t>
+          <t>https://new-auto96.ru/auto/jetour/dashing/</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>351</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -3166,32 +3166,32 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>X70 Plus</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>2070900</v>
+        <v>2269000</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/jetour/x70_plus/</t>
+          <t>https://new-auto96.ru/auto/jetour/t2/</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2070900</t>
+          <t>2269000</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/jetour/x70_plus/</t>
+          <t>https://new-auto96.ru/auto/jetour/t2/</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -3201,67 +3201,67 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>X90 Plus</t>
+          <t>X70 Plus</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>2270000</v>
+        <v>2070900</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/jetour/x90_plus/</t>
+          <t>https://new-auto96.ru/auto/jetour/x70_plus/</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2270000</t>
+          <t>2070900</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/jetour/x90_plus/</t>
+          <t>https://new-auto96.ru/auto/jetour/x70_plus/</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>VA3</t>
+          <t>X90 Plus</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>690000</v>
+        <v>2270000</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/jetta/va3/</t>
+          <t>https://new-auto96.ru/auto/jetour/x90_plus/</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>690000</t>
+          <t>2270000</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/jetta/va3/</t>
+          <t>https://new-auto96.ru/auto/jetour/x90_plus/</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -3271,32 +3271,32 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>VS5</t>
+          <t>VA3</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>990000</v>
+        <v>690000</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/jetta/vs5/</t>
+          <t>https://new-auto96.ru/auto/jetta/va3/</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>990000</t>
+          <t>690000</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/jetta/vs5/</t>
+          <t>https://new-auto96.ru/auto/jetta/va3/</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>356</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3306,67 +3306,67 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>VS7</t>
+          <t>VS5</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>1149000</v>
+        <v>990000</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/jetta/vs7/</t>
+          <t>https://new-auto96.ru/auto/jetta/vs5/</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>1149000</t>
+          <t>990000</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/jetta/vs7/</t>
+          <t>https://new-auto96.ru/auto/jetta/vs5/</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>357</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>E5</t>
+          <t>VS7</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1159000</v>
+        <v>1149000</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kaiyi/e5/</t>
+          <t>https://new-auto96.ru/auto/jetta/vs7/</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>1159000</t>
+          <t>1149000</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kaiyi/e5/</t>
+          <t>https://new-auto96.ru/auto/jetta/vs7/</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3376,32 +3376,32 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>X3</t>
+          <t>E5</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>970000</v>
+        <v>1159000</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kaiyi/x3/</t>
+          <t>https://new-auto96.ru/auto/kaiyi/e5/</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>970000</t>
+          <t>1159000</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kaiyi/x3/</t>
+          <t>https://new-auto96.ru/auto/kaiyi/e5/</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>359</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3411,32 +3411,32 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>X3</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>1070000</v>
+        <v>970000</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kaiyi/x3_pro/</t>
+          <t>https://new-auto96.ru/auto/kaiyi/x3/</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>1070000</t>
+          <t>970000</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kaiyi/x3_pro/</t>
+          <t>https://new-auto96.ru/auto/kaiyi/x3/</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3446,67 +3446,67 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>X7 Kunlun</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>2440000</v>
+        <v>1070000</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kaiyi/x7_kunlun/</t>
+          <t>https://new-auto96.ru/auto/kaiyi/x3_pro/</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2440000</t>
+          <t>1070000</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kaiyi/x7_kunlun/</t>
+          <t>https://new-auto96.ru/auto/kaiyi/x3_pro/</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>361</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Ceed</t>
+          <t>X7 Kunlun</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>1210000</v>
+        <v>2440000</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/ceed/</t>
+          <t>https://new-auto96.ru/auto/kaiyi/x7_kunlun/</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>1210000</t>
+          <t>2440000</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/ceed/</t>
+          <t>https://new-auto96.ru/auto/kaiyi/x7_kunlun/</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -3516,32 +3516,32 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Ceed SW</t>
+          <t>Ceed</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>1250000</v>
+        <v>1210000</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/ceed_sw/</t>
+          <t>https://new-auto96.ru/auto/kia/ceed/</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>1250000</t>
+          <t>1210000</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/ceed_sw/</t>
+          <t>https://new-auto96.ru/auto/kia/ceed/</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>365</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3551,32 +3551,32 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Cerato New</t>
+          <t>Ceed SW</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>1030000</v>
+        <v>1250000</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/cerato/</t>
+          <t>https://new-auto96.ru/auto/kia/ceed_sw/</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>1030000</t>
+          <t>1250000</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/cerato/</t>
+          <t>https://new-auto96.ru/auto/kia/ceed_sw/</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>370</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -3586,32 +3586,32 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>K5</t>
+          <t>Cerato New</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>1390000</v>
+        <v>1030000</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/k5/</t>
+          <t>https://new-auto96.ru/auto/kia/cerato/</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>1390000</t>
+          <t>1030000</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/k5/</t>
+          <t>https://new-auto96.ru/auto/kia/cerato/</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>371</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3621,32 +3621,32 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Picanto New</t>
+          <t>K5</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>740000</v>
+        <v>1390000</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/picanto/</t>
+          <t>https://new-auto96.ru/auto/kia/k5/</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>740000</t>
+          <t>1390000</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/picanto/</t>
+          <t>https://new-auto96.ru/auto/kia/k5/</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>374</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -3656,32 +3656,32 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>ProCeed</t>
+          <t>Picanto New</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>1121940</v>
+        <v>740000</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/proceed/</t>
+          <t>https://new-auto96.ru/auto/kia/picanto/</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>1121940</t>
+          <t>740000</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/proceed/</t>
+          <t>https://new-auto96.ru/auto/kia/picanto/</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>375</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -3691,32 +3691,32 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Rio New</t>
+          <t>ProCeed</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>710000</v>
+        <v>1121940</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/rio/</t>
+          <t>https://new-auto96.ru/auto/kia/proceed/</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>710000</t>
+          <t>1121940</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/rio/</t>
+          <t>https://new-auto96.ru/auto/kia/proceed/</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>377</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -3726,32 +3726,32 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Rio X</t>
+          <t>Rio New</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>830000</v>
+        <v>710000</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/rio_x/</t>
+          <t>https://new-auto96.ru/auto/kia/rio/</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>830000</t>
+          <t>710000</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/rio_x/</t>
+          <t>https://new-auto96.ru/auto/kia/rio/</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>378</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -3761,32 +3761,32 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Seltos</t>
+          <t>Rio X</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>1020000</v>
+        <v>830000</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/seltos/</t>
+          <t>https://new-auto96.ru/auto/kia/rio_x/</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>1020000</t>
+          <t>830000</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/seltos/</t>
+          <t>https://new-auto96.ru/auto/kia/rio_x/</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>381</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -3796,32 +3796,32 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Sorento New</t>
+          <t>Seltos</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>2120000</v>
+        <v>1020000</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/sorento/</t>
+          <t>https://new-auto96.ru/auto/kia/seltos/</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2120000</t>
+          <t>1020000</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/sorento/</t>
+          <t>https://new-auto96.ru/auto/kia/seltos/</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>389</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -3831,32 +3831,32 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Soul</t>
+          <t>Sorento New</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>1030000</v>
+        <v>2120000</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/soul/</t>
+          <t>https://new-auto96.ru/auto/kia/sorento/</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>1030000</t>
+          <t>2120000</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/soul/</t>
+          <t>https://new-auto96.ru/auto/kia/sorento/</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>390</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3866,32 +3866,32 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Sportage 5</t>
+          <t>Soul</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>1860000</v>
+        <v>1030000</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/sportage/</t>
+          <t>https://new-auto96.ru/auto/kia/soul/</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>1860000</t>
+          <t>1030000</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/sportage/</t>
+          <t>https://new-auto96.ru/auto/kia/soul/</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>392</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3901,67 +3901,67 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>XCeed</t>
+          <t>Sportage 5</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>1490000</v>
+        <v>1860000</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/xceed/</t>
+          <t>https://new-auto96.ru/auto/kia/sportage/</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>1490000</t>
+          <t>1860000</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/xceed/</t>
+          <t>https://new-auto96.ru/auto/kia/sportage/</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>395</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Granta Cross</t>
+          <t>XCeed</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>500000</v>
+        <v>1490000</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/granta_cross/</t>
+          <t>https://new-auto96.ru/auto/kia/xceed/</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>500000</t>
+          <t>1490000</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/granta_cross/</t>
+          <t>https://new-auto96.ru/auto/kia/xceed/</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>402</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3971,32 +3971,32 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Granta Hatchback</t>
+          <t>Granta Cross</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>431100</v>
+        <v>500000</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/granta_hatchback/</t>
+          <t>https://new-auto96.ru/auto/lada/granta_cross/</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>431100</t>
+          <t>500000</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/granta_hatchback/</t>
+          <t>https://new-auto96.ru/auto/lada/granta_cross/</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>404</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -4006,32 +4006,32 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Granta Liftback</t>
+          <t>Granta Hatchback</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>440000</v>
+        <v>431100</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/granta_liftback/</t>
+          <t>https://new-auto96.ru/auto/lada/granta_hatchback/</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>440000</t>
+          <t>431100</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/granta_liftback/</t>
+          <t>https://new-auto96.ru/auto/lada/granta_hatchback/</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>405</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -4041,32 +4041,32 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Granta Sedan</t>
+          <t>Granta Liftback</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>410000</v>
+        <v>440000</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/granta_sedan/</t>
+          <t>https://new-auto96.ru/auto/lada/granta_liftback/</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>410000</t>
+          <t>440000</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/granta_sedan/</t>
+          <t>https://new-auto96.ru/auto/lada/granta_liftback/</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>406</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -4076,32 +4076,32 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Granta Sedan Drive Active</t>
+          <t>Granta Sedan</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>680900</v>
+        <v>410000</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/granta_drive_active/</t>
+          <t>https://new-auto96.ru/auto/lada/granta_sedan/</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>680900</t>
+          <t>410000</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/granta_drive_active/</t>
+          <t>https://new-auto96.ru/auto/lada/granta_sedan/</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>403</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -4111,32 +4111,32 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Granta Universal</t>
+          <t>Granta Sedan Drive Active</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>450000</v>
+        <v>680900</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/granta_universal/</t>
+          <t>https://new-auto96.ru/auto/lada/granta_drive_active/</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>450000</t>
+          <t>680900</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/granta_universal/</t>
+          <t>https://new-auto96.ru/auto/lada/granta_drive_active/</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>414</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -4146,32 +4146,32 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Largus Cross New</t>
+          <t>Granta Universal</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>760000</v>
+        <v>450000</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/largus_cross/</t>
+          <t>https://new-auto96.ru/auto/lada/granta_universal/</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>760000</t>
+          <t>450000</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/largus_cross/</t>
+          <t>https://new-auto96.ru/auto/lada/granta_universal/</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>449</t>
+          <t>451</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -4181,32 +4181,32 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Largus New</t>
+          <t>Largus Cross New</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>718900</v>
+        <v>760000</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/largus/</t>
+          <t>https://new-auto96.ru/auto/lada/largus_cross/</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>718900</t>
+          <t>760000</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/largus/</t>
+          <t>https://new-auto96.ru/auto/lada/largus_cross/</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>449</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -4216,32 +4216,32 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Largus Фургон New</t>
+          <t>Largus New</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>546000</v>
+        <v>718900</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/largus_furgon/</t>
+          <t>https://new-auto96.ru/auto/lada/largus/</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>546000</t>
+          <t>718900</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/largus_furgon/</t>
+          <t>https://new-auto96.ru/auto/lada/largus/</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>454</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -4251,32 +4251,32 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Niva Legend 3 двери</t>
+          <t>Largus Фургон New</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>520000</v>
+        <v>546000</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/4x4_3_dv/</t>
+          <t>https://new-auto96.ru/auto/lada/largus_furgon/</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>520000</t>
+          <t>546000</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/4x4_3_dv/</t>
+          <t>https://new-auto96.ru/auto/lada/largus_furgon/</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>423</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -4286,32 +4286,32 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Niva Legend 5 дверей</t>
+          <t>Niva Legend 3 двери</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>570000</v>
+        <v>520000</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/4x4_5_dv/</t>
+          <t>https://new-auto96.ru/auto/lada/4x4_3_dv/</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>570000</t>
+          <t>520000</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/4x4_5_dv/</t>
+          <t>https://new-auto96.ru/auto/lada/4x4_3_dv/</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>424</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -4321,32 +4321,32 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Niva Off-Road</t>
+          <t>Niva Legend 5 дверей</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>494400</v>
+        <v>570000</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/niva_off-road/</t>
+          <t>https://new-auto96.ru/auto/lada/4x4_5_dv/</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>494400</t>
+          <t>570000</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/niva_off-road/</t>
+          <t>https://new-auto96.ru/auto/lada/4x4_5_dv/</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>433</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -4356,32 +4356,32 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Niva Travel</t>
+          <t>Niva Off-Road</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>650000</v>
+        <v>494400</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/niva_travel/</t>
+          <t>https://new-auto96.ru/auto/lada/niva_off-road/</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>650000</t>
+          <t>494400</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/niva_travel/</t>
+          <t>https://new-auto96.ru/auto/lada/niva_off-road/</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>434</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -4391,32 +4391,32 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Vesta Cross</t>
+          <t>Niva Travel</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>761940</v>
+        <v>650000</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta_cross_1/</t>
+          <t>https://new-auto96.ru/auto/lada/niva_travel/</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>761940</t>
+          <t>650000</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta_cross_1/</t>
+          <t>https://new-auto96.ru/auto/lada/niva_travel/</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>437</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -4426,32 +4426,32 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Vesta Cross New</t>
+          <t>Vesta Cross</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>1090000</v>
+        <v>761940</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta_cross/</t>
+          <t>https://new-auto96.ru/auto/lada/vesta_cross_1/</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>1090000</t>
+          <t>761940</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta_cross/</t>
+          <t>https://new-auto96.ru/auto/lada/vesta_cross_1/</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>438</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -4461,32 +4461,32 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Vesta SW</t>
+          <t>Vesta Cross New</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>728340</v>
+        <v>1090000</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta_sw_1/</t>
+          <t>https://new-auto96.ru/auto/lada/vesta_cross/</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>728340</t>
+          <t>1090000</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta_sw_1/</t>
+          <t>https://new-auto96.ru/auto/lada/vesta_cross/</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>443</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -4496,32 +4496,32 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Vesta SW Cross</t>
+          <t>Vesta SW</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>797340</v>
+        <v>728340</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta_sw_cross_1/</t>
+          <t>https://new-auto96.ru/auto/lada/vesta_sw_1/</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>797340</t>
+          <t>728340</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta_sw_cross_1/</t>
+          <t>https://new-auto96.ru/auto/lada/vesta_sw_1/</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>445</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -4531,32 +4531,32 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Vesta SW Cross New</t>
+          <t>Vesta SW Cross</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>1050000</v>
+        <v>797340</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta_sw_cross/</t>
+          <t>https://new-auto96.ru/auto/lada/vesta_sw_cross_1/</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>1050000</t>
+          <t>797340</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta_sw_cross/</t>
+          <t>https://new-auto96.ru/auto/lada/vesta_sw_cross_1/</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>446</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -4566,32 +4566,32 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Vesta SW New</t>
+          <t>Vesta SW Cross New</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>950000</v>
+        <v>1050000</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta_sw/</t>
+          <t>https://new-auto96.ru/auto/lada/vesta_sw_cross/</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>950000</t>
+          <t>1050000</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta_sw/</t>
+          <t>https://new-auto96.ru/auto/lada/vesta_sw_cross/</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>444</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -4601,32 +4601,32 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Vesta Sedan</t>
+          <t>Vesta SW New</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>673140</v>
+        <v>950000</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta_1/</t>
+          <t>https://new-auto96.ru/auto/lada/vesta_sw/</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>673140</t>
+          <t>950000</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta_1/</t>
+          <t>https://new-auto96.ru/auto/lada/vesta_sw/</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>435</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -4636,32 +4636,32 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Vesta Sedan CNG</t>
+          <t>Vesta Sedan</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>790140</v>
+        <v>673140</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta_cng/</t>
+          <t>https://new-auto96.ru/auto/lada/vesta_1/</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>790140</t>
+          <t>673140</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta_cng/</t>
+          <t>https://new-auto96.ru/auto/lada/vesta_1/</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>436</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -4671,32 +4671,32 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Vesta Sedan New</t>
+          <t>Vesta Sedan CNG</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>840000</v>
+        <v>790140</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta/</t>
+          <t>https://new-auto96.ru/auto/lada/vesta_cng/</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>840000</t>
+          <t>790140</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta/</t>
+          <t>https://new-auto96.ru/auto/lada/vesta_cng/</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>439</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -4706,32 +4706,32 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Vesta Sport</t>
+          <t>Vesta Sedan New</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>1030000</v>
+        <v>840000</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta_sport/</t>
+          <t>https://new-auto96.ru/auto/lada/vesta/</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>1030000</t>
+          <t>840000</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta_sport/</t>
+          <t>https://new-auto96.ru/auto/lada/vesta/</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>440</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -4741,32 +4741,32 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Xray</t>
+          <t>Vesta Sport</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>630000</v>
+        <v>1030000</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/xray/</t>
+          <t>https://new-auto96.ru/auto/lada/vesta_sport/</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>630000</t>
+          <t>1030000</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/xray/</t>
+          <t>https://new-auto96.ru/auto/lada/vesta_sport/</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>447</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -4776,67 +4776,67 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Xray Cross</t>
+          <t>Xray</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>680000</v>
+        <v>630000</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/xray_cross/</t>
+          <t>https://new-auto96.ru/auto/lada/xray/</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>680000</t>
+          <t>630000</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/xray_cross/</t>
+          <t>https://new-auto96.ru/auto/lada/xray/</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>448</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Lifan</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Murman</t>
+          <t>Xray Cross</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>650300</v>
+        <v>680000</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lifan/murman/</t>
+          <t>https://new-auto96.ru/auto/lada/xray_cross/</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>650300</t>
+          <t>680000</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lifan/murman/</t>
+          <t>https://new-auto96.ru/auto/lada/xray_cross/</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>457</t>
+          <t>455</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -4846,32 +4846,32 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>MyWay</t>
+          <t>Murman</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>701300</v>
+        <v>650300</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lifan/myway/</t>
+          <t>https://new-auto96.ru/auto/lifan/murman/</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>701300</t>
+          <t>650300</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lifan/myway/</t>
+          <t>https://new-auto96.ru/auto/lifan/murman/</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>459</t>
+          <t>457</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -4881,32 +4881,32 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Solano 2</t>
+          <t>MyWay</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>401300</v>
+        <v>701300</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lifan/solano_ii/</t>
+          <t>https://new-auto96.ru/auto/lifan/myway/</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>401300</t>
+          <t>701300</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lifan/solano_ii/</t>
+          <t>https://new-auto96.ru/auto/lifan/myway/</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>459</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -4916,32 +4916,32 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>X50</t>
+          <t>Solano 2</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>420300</v>
+        <v>401300</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lifan/x50/</t>
+          <t>https://new-auto96.ru/auto/lifan/solano_ii/</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>420300</t>
+          <t>401300</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lifan/x50/</t>
+          <t>https://new-auto96.ru/auto/lifan/solano_ii/</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>460</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -4951,32 +4951,32 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>X60</t>
+          <t>X50</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>491300</v>
+        <v>420300</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lifan/x60/</t>
+          <t>https://new-auto96.ru/auto/lifan/x50/</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>491300</t>
+          <t>420300</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lifan/x60/</t>
+          <t>https://new-auto96.ru/auto/lifan/x50/</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>463</t>
+          <t>461</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -4986,67 +4986,67 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>X70</t>
+          <t>X60</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>770300</v>
+        <v>491300</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lifan/x70/</t>
+          <t>https://new-auto96.ru/auto/lifan/x60/</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>770300</t>
+          <t>491300</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lifan/x70/</t>
+          <t>https://new-auto96.ru/auto/lifan/x60/</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>463</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>Lifan</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>S6 Pro</t>
+          <t>X70</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>1549900</v>
+        <v>770300</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/livan/s6pro/</t>
+          <t>https://new-auto96.ru/auto/lifan/x70/</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>1549900</t>
+          <t>770300</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/livan/s6pro/</t>
+          <t>https://new-auto96.ru/auto/lifan/x70/</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>464</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -5056,32 +5056,32 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>S6 Pro</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>1020000</v>
+        <v>1549900</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/livan/x3pro/</t>
+          <t>https://new-auto96.ru/auto/livan/s6pro/</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>1020000</t>
+          <t>1549900</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/livan/x3pro/</t>
+          <t>https://new-auto96.ru/auto/livan/s6pro/</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>466</t>
+          <t>465</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -5091,67 +5091,67 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>X6 Pro</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>1629900</v>
+        <v>1020000</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/livan/x6pro/</t>
+          <t>https://new-auto96.ru/auto/livan/x3pro/</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>1629900</t>
+          <t>1020000</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/livan/x6pro/</t>
+          <t>https://new-auto96.ru/auto/livan/x3pro/</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>466</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>X6 Pro</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>1200000</v>
+        <v>1629900</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/moskvich/3/</t>
+          <t>https://new-auto96.ru/auto/livan/x6pro/</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>1200000</t>
+          <t>1629900</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/moskvich/3/</t>
+          <t>https://new-auto96.ru/auto/livan/x6pro/</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>510</t>
+          <t>509</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -5161,67 +5161,67 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>3e</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>1750000</v>
+        <v>1200000</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/moskvich/3e/</t>
+          <t>https://new-auto96.ru/auto/moskvich/3/</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>1750000</t>
+          <t>1200000</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/moskvich/3e/</t>
+          <t>https://new-auto96.ru/auto/moskvich/3/</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>517</t>
+          <t>510</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Murano</t>
+          <t>3e</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>2570000</v>
+        <v>1750000</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/nissan/murano/</t>
+          <t>https://new-auto96.ru/auto/moskvich/3e/</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>2570000</t>
+          <t>1750000</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/nissan/murano/</t>
+          <t>https://new-auto96.ru/auto/moskvich/3e/</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>517</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -5231,32 +5231,32 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Qashqai</t>
+          <t>Murano</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>1300000</v>
+        <v>2570000</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/nissan/qashqai/</t>
+          <t>https://new-auto96.ru/auto/nissan/murano/</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>1300000</t>
+          <t>2570000</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/nissan/qashqai/</t>
+          <t>https://new-auto96.ru/auto/nissan/murano/</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>522</t>
+          <t>520</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -5266,32 +5266,32 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Terrano</t>
+          <t>Qashqai</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>890000</v>
+        <v>1300000</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/nissan/terrano/</t>
+          <t>https://new-auto96.ru/auto/nissan/qashqai/</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>890000</t>
+          <t>1300000</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/nissan/terrano/</t>
+          <t>https://new-auto96.ru/auto/nissan/qashqai/</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>523</t>
+          <t>522</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -5301,67 +5301,67 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>X-trail</t>
+          <t>Terrano</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>1530000</v>
+        <v>890000</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/nissan/x-trail/</t>
+          <t>https://new-auto96.ru/auto/nissan/terrano/</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>1530000</t>
+          <t>890000</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/nissan/x-trail/</t>
+          <t>https://new-auto96.ru/auto/nissan/terrano/</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>523</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>C5</t>
+          <t>X-trail</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>1360000</v>
+        <v>1530000</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/omoda/c5/</t>
+          <t>https://new-auto96.ru/auto/nissan/x-trail/</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>1360000</t>
+          <t>1530000</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/omoda/c5/</t>
+          <t>https://new-auto96.ru/auto/nissan/x-trail/</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>525</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -5371,67 +5371,67 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>C5</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>1260000</v>
+        <v>1360000</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/omoda/s5/</t>
+          <t>https://new-auto96.ru/auto/omoda/c5/</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>1260000</t>
+          <t>1360000</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/omoda/s5/</t>
+          <t>https://new-auto96.ru/auto/omoda/c5/</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>526</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Arkana</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>909000</v>
+        <v>1260000</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/renault/arkana/</t>
+          <t>https://new-auto96.ru/auto/omoda/s5/</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>909000</t>
+          <t>1260000</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/renault/arkana/</t>
+          <t>https://new-auto96.ru/auto/omoda/s5/</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>549</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -5441,32 +5441,32 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Duster New</t>
+          <t>Arkana</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>750000</v>
+        <v>909000</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/renault/duster/</t>
+          <t>https://new-auto96.ru/auto/renault/arkana/</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>750000</t>
+          <t>909000</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/renault/duster/</t>
+          <t>https://new-auto96.ru/auto/renault/arkana/</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>555</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -5476,32 +5476,32 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Kaptur</t>
+          <t>Duster New</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>780000</v>
+        <v>750000</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/renault/kaptur/</t>
+          <t>https://new-auto96.ru/auto/renault/duster/</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>780000</t>
+          <t>750000</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/renault/kaptur/</t>
+          <t>https://new-auto96.ru/auto/renault/duster/</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>556</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -5511,32 +5511,32 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Logan</t>
+          <t>Kaptur</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>499000</v>
+        <v>780000</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/renault/logan/</t>
+          <t>https://new-auto96.ru/auto/renault/kaptur/</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>499000</t>
+          <t>780000</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/renault/logan/</t>
+          <t>https://new-auto96.ru/auto/renault/kaptur/</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>559</t>
+          <t>558</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -5546,32 +5546,32 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Logan Stepway</t>
+          <t>Logan</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>650000</v>
+        <v>499000</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/renault/logan_stepway/</t>
+          <t>https://new-auto96.ru/auto/renault/logan/</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>650000</t>
+          <t>499000</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/renault/logan_stepway/</t>
+          <t>https://new-auto96.ru/auto/renault/logan/</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>559</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -5581,32 +5581,32 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Sandero</t>
+          <t>Logan Stepway</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>540000</v>
+        <v>650000</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/renault/sandero/</t>
+          <t>https://new-auto96.ru/auto/renault/logan_stepway/</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>540000</t>
+          <t>650000</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/renault/sandero/</t>
+          <t>https://new-auto96.ru/auto/renault/logan_stepway/</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>565</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -5616,67 +5616,67 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Sandero Stepway</t>
+          <t>Sandero</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>565300</v>
+        <v>540000</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/renault/sandero_stepway/</t>
+          <t>https://new-auto96.ru/auto/renault/sandero/</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>565300</t>
+          <t>540000</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/renault/sandero_stepway/</t>
+          <t>https://new-auto96.ru/auto/renault/sandero/</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>571</t>
+          <t>566</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Karoq</t>
+          <t>Sandero Stepway</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>1240000</v>
+        <v>565300</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/skoda/karoq/</t>
+          <t>https://new-auto96.ru/auto/renault/sandero_stepway/</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>1240000</t>
+          <t>565300</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/skoda/karoq/</t>
+          <t>https://new-auto96.ru/auto/renault/sandero_stepway/</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>571</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -5686,32 +5686,32 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Kodiaq New</t>
+          <t>Karoq</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>1745000</v>
+        <v>1240000</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/skoda/kodiaq/</t>
+          <t>https://new-auto96.ru/auto/skoda/karoq/</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>1745000</t>
+          <t>1240000</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/skoda/kodiaq/</t>
+          <t>https://new-auto96.ru/auto/skoda/karoq/</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>579</t>
+          <t>576</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -5721,32 +5721,32 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Octavia New</t>
+          <t>Kodiaq New</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>1170000</v>
+        <v>1745000</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/skoda/octavia/</t>
+          <t>https://new-auto96.ru/auto/skoda/kodiaq/</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>1170000</t>
+          <t>1745000</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/skoda/octavia/</t>
+          <t>https://new-auto96.ru/auto/skoda/kodiaq/</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>581</t>
+          <t>579</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -5756,32 +5756,32 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Rapid</t>
+          <t>Octavia New</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>720000</v>
+        <v>1170000</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/skoda/rapid/</t>
+          <t>https://new-auto96.ru/auto/skoda/octavia/</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>720000</t>
+          <t>1170000</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/skoda/rapid/</t>
+          <t>https://new-auto96.ru/auto/skoda/octavia/</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>581</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -5791,32 +5791,32 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Superb</t>
+          <t>Rapid</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>1240000</v>
+        <v>720000</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/skoda/superb/</t>
+          <t>https://new-auto96.ru/auto/skoda/rapid/</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>1240000</t>
+          <t>720000</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/skoda/superb/</t>
+          <t>https://new-auto96.ru/auto/skoda/rapid/</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>586</t>
+          <t>585</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -5826,67 +5826,67 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Superb Combi</t>
+          <t>Superb</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>2290200</v>
+        <v>1240000</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/skoda/superb_combi/</t>
+          <t>https://new-auto96.ru/auto/skoda/superb/</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>2290200</t>
+          <t>1240000</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/skoda/superb_combi/</t>
+          <t>https://new-auto96.ru/auto/skoda/superb/</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>594</t>
+          <t>586</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>Superb Combi</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>1499400</v>
+        <v>2290200</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/solaris/hc/</t>
+          <t>https://new-auto96.ru/auto/skoda/superb_combi/</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>1499400</t>
+          <t>2290200</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/solaris/hc/</t>
+          <t>https://new-auto96.ru/auto/skoda/superb_combi/</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>594</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -5896,32 +5896,32 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>HS</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>1206000</v>
+        <v>1499400</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/solaris/hs/</t>
+          <t>https://new-auto96.ru/auto/solaris/hc/</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>1206000</t>
+          <t>1499400</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/solaris/hs/</t>
+          <t>https://new-auto96.ru/auto/solaris/hc/</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>595</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -5931,32 +5931,32 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>KRS</t>
+          <t>HS</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>1222800</v>
+        <v>1206000</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/solaris/krs/</t>
+          <t>https://new-auto96.ru/auto/solaris/hs/</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>1222800</t>
+          <t>1206000</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/solaris/krs/</t>
+          <t>https://new-auto96.ru/auto/solaris/hs/</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>596</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -5966,67 +5966,67 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>KRX</t>
+          <t>KRS</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>1238400</v>
+        <v>1222800</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/solaris/krx/</t>
+          <t>https://new-auto96.ru/auto/solaris/krs/</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>1238400</t>
+          <t>1222800</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/solaris/krx/</t>
+          <t>https://new-auto96.ru/auto/solaris/krs/</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>597</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>KRX</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>2729300</v>
+        <v>1238400</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/tank/300/</t>
+          <t>https://new-auto96.ru/auto/solaris/krx/</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>2729300</t>
+          <t>1238400</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/tank/300/</t>
+          <t>https://new-auto96.ru/auto/solaris/krx/</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>615</t>
+          <t>614</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -6036,67 +6036,67 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>3788000</v>
+        <v>2729300</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/tank/500/</t>
+          <t>https://new-auto96.ru/auto/tank/300/</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>3788000</t>
+          <t>2729300</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/tank/500/</t>
+          <t>https://new-auto96.ru/auto/tank/300/</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>633</t>
+          <t>615</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>UAZ</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Hunter</t>
+          <t>500</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>562900</v>
+        <v>3788000</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/uaz/hunter/</t>
+          <t>https://new-auto96.ru/auto/tank/500/</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>562900</t>
+          <t>3788000</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/uaz/hunter/</t>
+          <t>https://new-auto96.ru/auto/tank/500/</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>634</t>
+          <t>633</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -6106,32 +6106,32 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Patriot</t>
+          <t>Hunter</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>1009000</v>
+        <v>562900</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/uaz/patriot/</t>
+          <t>https://new-auto96.ru/auto/uaz/hunter/</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>1009000</t>
+          <t>562900</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/uaz/patriot/</t>
+          <t>https://new-auto96.ru/auto/uaz/hunter/</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>636</t>
+          <t>634</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -6141,67 +6141,67 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Patriot Pickup</t>
+          <t>Patriot</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>780000</v>
+        <v>1009000</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/uaz/patriot_pickup/</t>
+          <t>https://new-auto96.ru/auto/uaz/patriot/</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>780000</t>
+          <t>1009000</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/uaz/patriot_pickup/</t>
+          <t>https://new-auto96.ru/auto/uaz/patriot/</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>645</t>
+          <t>636</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>UAZ</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Patriot Pickup</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>1180000</v>
+        <v>780000</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/volkswagen/jetta/</t>
+          <t>https://new-auto96.ru/auto/uaz/patriot_pickup/</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>1180000</t>
+          <t>780000</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/volkswagen/jetta/</t>
+          <t>https://new-auto96.ru/auto/uaz/patriot_pickup/</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>649</t>
+          <t>645</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -6211,32 +6211,32 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Passat</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>1120000</v>
+        <v>1180000</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/volkswagen/passat/</t>
+          <t>https://new-auto96.ru/auto/volkswagen/jetta/</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>1120000</t>
+          <t>1180000</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/volkswagen/passat/</t>
+          <t>https://new-auto96.ru/auto/volkswagen/jetta/</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>652</t>
+          <t>649</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -6246,32 +6246,32 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Polo</t>
+          <t>Passat</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>730000</v>
+        <v>1120000</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/volkswagen/polo/</t>
+          <t>https://new-auto96.ru/auto/volkswagen/passat/</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>730000</t>
+          <t>1120000</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/volkswagen/polo/</t>
+          <t>https://new-auto96.ru/auto/volkswagen/passat/</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>653</t>
+          <t>652</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -6281,32 +6281,32 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Taos</t>
+          <t>Polo</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>1464000</v>
+        <v>730000</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/volkswagen/taos/</t>
+          <t>https://new-auto96.ru/auto/volkswagen/polo/</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>1464000</t>
+          <t>730000</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/volkswagen/taos/</t>
+          <t>https://new-auto96.ru/auto/volkswagen/polo/</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>658</t>
+          <t>653</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -6316,93 +6316,128 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Tiguan New</t>
+          <t>Taos</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>1529300</v>
+        <v>1464000</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/volkswagen/tiguan/</t>
+          <t>https://new-auto96.ru/auto/volkswagen/taos/</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>1529300</t>
+          <t>1464000</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/volkswagen/tiguan/</t>
+          <t>https://new-auto96.ru/auto/volkswagen/taos/</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>672</t>
+          <t>658</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Zotye</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Coupa</t>
+          <t>Tiguan New</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>750300</v>
+        <v>1529300</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/zotye/coupa/</t>
+          <t>https://new-auto96.ru/auto/volkswagen/tiguan/</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>750300</t>
+          <t>1529300</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/zotye/coupa/</t>
+          <t>https://new-auto96.ru/auto/volkswagen/tiguan/</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
+          <t>672</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Zotye</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Coupa</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>750300</v>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>https://new-auto96.ru/auto/zotye/coupa/</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>750300</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>https://new-auto96.ru/auto/zotye/coupa/</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
           <t>674</t>
         </is>
       </c>
-      <c r="B171" t="inlineStr">
+      <c r="B172" t="inlineStr">
         <is>
           <t>Zotye</t>
         </is>
       </c>
-      <c r="C171" t="inlineStr">
+      <c r="C172" t="inlineStr">
         <is>
           <t>T600</t>
         </is>
       </c>
-      <c r="D171" t="n">
+      <c r="D172" t="n">
         <v>570300</v>
       </c>
-      <c r="E171" t="inlineStr">
+      <c r="E172" t="inlineStr">
         <is>
           <t>https://new-auto96.ru/auto/zotye/t600/</t>
         </is>
       </c>
-      <c r="F171" t="inlineStr">
+      <c r="F172" t="inlineStr">
         <is>
           <t>570300</t>
         </is>
       </c>
-      <c r="G171" t="inlineStr">
+      <c r="G172" t="inlineStr">
         <is>
           <t>https://new-auto96.ru/auto/zotye/t600/</t>
         </is>

--- a/xlsx/ekaterinburg.xlsx
+++ b/xlsx/ekaterinburg.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G172"/>
+  <dimension ref="A1:G174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2596,7 +2596,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2606,32 +2606,32 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>H5</t>
+          <t>H3</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>829000</v>
+        <v>1599000</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/haval/h5/</t>
+          <t>https://new-auto96.ru/auto/haval/h3/</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>829000</t>
+          <t>1599000</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/haval/h5/</t>
+          <t>https://new-auto96.ru/auto/haval/h3/</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2641,32 +2641,32 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>H9</t>
+          <t>H5</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>2360000</v>
+        <v>829000</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/haval/h9/</t>
+          <t>https://new-auto96.ru/auto/haval/h5/</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2360000</t>
+          <t>829000</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/haval/h9/</t>
+          <t>https://new-auto96.ru/auto/haval/h5/</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>300</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2676,32 +2676,32 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Jolion</t>
+          <t>H9</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>889000</v>
+        <v>2360000</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/haval/jolion_1/</t>
+          <t>https://new-auto96.ru/auto/haval/h9/</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>889000</t>
+          <t>2360000</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/haval/jolion_1/</t>
+          <t>https://new-auto96.ru/auto/haval/h9/</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>301</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2711,32 +2711,32 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Jolion New</t>
+          <t>Jolion</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>1289000</v>
+        <v>889000</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/haval/jolion/</t>
+          <t>https://new-auto96.ru/auto/haval/jolion_1/</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>1289000</t>
+          <t>889000</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/haval/jolion/</t>
+          <t>https://new-auto96.ru/auto/haval/jolion_1/</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>303</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2746,67 +2746,67 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>M6</t>
+          <t>Jolion New</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>911000</v>
+        <v>1289000</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/haval/m6/</t>
+          <t>https://new-auto96.ru/auto/haval/jolion/</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>911000</t>
+          <t>1289000</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/haval/m6/</t>
+          <t>https://new-auto96.ru/auto/haval/jolion/</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>Haval</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Creta New</t>
+          <t>M6</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>920000</v>
+        <v>911000</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/hyundai/creta/</t>
+          <t>https://new-auto96.ru/auto/haval/m6/</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>920000</t>
+          <t>911000</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/hyundai/creta/</t>
+          <t>https://new-auto96.ru/auto/haval/m6/</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2816,32 +2816,32 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Elantra New</t>
+          <t>Creta New</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>1100000</v>
+        <v>920000</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/hyundai/elantra/</t>
+          <t>https://new-auto96.ru/auto/hyundai/creta/</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>1100000</t>
+          <t>920000</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/hyundai/elantra/</t>
+          <t>https://new-auto96.ru/auto/hyundai/creta/</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>320</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2851,32 +2851,32 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t>Elantra New</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1900000</v>
+        <v>1100000</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/hyundai/santa_fe/</t>
+          <t>https://new-auto96.ru/auto/hyundai/elantra/</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>1900000</t>
+          <t>1100000</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/hyundai/santa_fe/</t>
+          <t>https://new-auto96.ru/auto/hyundai/elantra/</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2886,32 +2886,32 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>690000</v>
+        <v>1900000</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/hyundai/solaris/</t>
+          <t>https://new-auto96.ru/auto/hyundai/santa_fe/</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>690000</t>
+          <t>1900000</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/hyundai/solaris/</t>
+          <t>https://new-auto96.ru/auto/hyundai/santa_fe/</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>329</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2921,32 +2921,32 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Sonata</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>1390000</v>
+        <v>690000</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/hyundai/sonata/</t>
+          <t>https://new-auto96.ru/auto/hyundai/solaris/</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>1390000</t>
+          <t>690000</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/hyundai/sonata/</t>
+          <t>https://new-auto96.ru/auto/hyundai/solaris/</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>330</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2956,67 +2956,67 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Tucson New</t>
+          <t>Sonata</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>1470000</v>
+        <v>1390000</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/hyundai/tucson/</t>
+          <t>https://new-auto96.ru/auto/hyundai/sonata/</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>1470000</t>
+          <t>1390000</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/hyundai/tucson/</t>
+          <t>https://new-auto96.ru/auto/hyundai/sonata/</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>335</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>JAC</t>
+          <t>Hyundai</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>J7</t>
+          <t>Tucson New</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>860000</v>
+        <v>1470000</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/jac/j7/</t>
+          <t>https://new-auto96.ru/auto/hyundai/tucson/</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>860000</t>
+          <t>1470000</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/jac/j7/</t>
+          <t>https://new-auto96.ru/auto/hyundai/tucson/</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -3026,32 +3026,32 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>J7</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>720000</v>
+        <v>860000</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/jac/s3/</t>
+          <t>https://new-auto96.ru/auto/jac/j7/</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>720000</t>
+          <t>860000</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/jac/s3/</t>
+          <t>https://new-auto96.ru/auto/jac/j7/</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>341</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -3061,102 +3061,102 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>S7</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>1180000</v>
+        <v>720000</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/jac/s7/</t>
+          <t>https://new-auto96.ru/auto/jac/s3/</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>1180000</t>
+          <t>720000</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/jac/s7/</t>
+          <t>https://new-auto96.ru/auto/jac/s3/</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>343</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>JAECOO</t>
+          <t>JAC</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>J7</t>
+          <t>S7</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>1903940</v>
+        <v>1180000</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/jaecoo/j7/</t>
+          <t>https://new-auto96.ru/auto/jac/s7/</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>1903940</t>
+          <t>1180000</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/jaecoo/j7/</t>
+          <t>https://new-auto96.ru/auto/jac/s7/</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Jetour</t>
+          <t>JAECOO</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Dashing</t>
+          <t>J7</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>1750000</v>
+        <v>1903940</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/jetour/dashing/</t>
+          <t>https://new-auto96.ru/auto/jaecoo/j7/</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>1750000</t>
+          <t>1903940</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/jetour/dashing/</t>
+          <t>https://new-auto96.ru/auto/jaecoo/j7/</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>349</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -3166,32 +3166,32 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>Dashing</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>2269000</v>
+        <v>1750000</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/jetour/t2/</t>
+          <t>https://new-auto96.ru/auto/jetour/dashing/</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2269000</t>
+          <t>1750000</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/jetour/t2/</t>
+          <t>https://new-auto96.ru/auto/jetour/dashing/</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>351</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -3201,32 +3201,32 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>X70 Plus</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>2070900</v>
+        <v>2269000</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/jetour/x70_plus/</t>
+          <t>https://new-auto96.ru/auto/jetour/t2/</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2070900</t>
+          <t>2269000</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/jetour/x70_plus/</t>
+          <t>https://new-auto96.ru/auto/jetour/t2/</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -3236,67 +3236,67 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>X90 Plus</t>
+          <t>X70 Plus</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>2270000</v>
+        <v>2070900</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/jetour/x90_plus/</t>
+          <t>https://new-auto96.ru/auto/jetour/x70_plus/</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2270000</t>
+          <t>2070900</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/jetour/x90_plus/</t>
+          <t>https://new-auto96.ru/auto/jetour/x70_plus/</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>VA3</t>
+          <t>X90 Plus</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>690000</v>
+        <v>2270000</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/jetta/va3/</t>
+          <t>https://new-auto96.ru/auto/jetour/x90_plus/</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>690000</t>
+          <t>2270000</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/jetta/va3/</t>
+          <t>https://new-auto96.ru/auto/jetour/x90_plus/</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3306,32 +3306,32 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>VS5</t>
+          <t>VA3</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>990000</v>
+        <v>690000</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/jetta/vs5/</t>
+          <t>https://new-auto96.ru/auto/jetta/va3/</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>990000</t>
+          <t>690000</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/jetta/vs5/</t>
+          <t>https://new-auto96.ru/auto/jetta/va3/</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>356</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3341,67 +3341,67 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>VS7</t>
+          <t>VS5</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1149000</v>
+        <v>990000</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/jetta/vs7/</t>
+          <t>https://new-auto96.ru/auto/jetta/vs5/</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>1149000</t>
+          <t>990000</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/jetta/vs7/</t>
+          <t>https://new-auto96.ru/auto/jetta/vs5/</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>357</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>E5</t>
+          <t>VS7</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>1159000</v>
+        <v>1149000</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kaiyi/e5/</t>
+          <t>https://new-auto96.ru/auto/jetta/vs7/</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>1159000</t>
+          <t>1149000</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kaiyi/e5/</t>
+          <t>https://new-auto96.ru/auto/jetta/vs7/</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3411,32 +3411,32 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>X3</t>
+          <t>E5</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>970000</v>
+        <v>1159000</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kaiyi/x3/</t>
+          <t>https://new-auto96.ru/auto/kaiyi/e5/</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>970000</t>
+          <t>1159000</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kaiyi/x3/</t>
+          <t>https://new-auto96.ru/auto/kaiyi/e5/</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>359</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3446,32 +3446,32 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>X3</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1070000</v>
+        <v>970000</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kaiyi/x3_pro/</t>
+          <t>https://new-auto96.ru/auto/kaiyi/x3/</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>1070000</t>
+          <t>970000</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kaiyi/x3_pro/</t>
+          <t>https://new-auto96.ru/auto/kaiyi/x3/</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3481,67 +3481,67 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>X7 Kunlun</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>2440000</v>
+        <v>1070000</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kaiyi/x7_kunlun/</t>
+          <t>https://new-auto96.ru/auto/kaiyi/x3_pro/</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2440000</t>
+          <t>1070000</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kaiyi/x7_kunlun/</t>
+          <t>https://new-auto96.ru/auto/kaiyi/x3_pro/</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>361</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Ceed</t>
+          <t>X7 Kunlun</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>1210000</v>
+        <v>2440000</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/ceed/</t>
+          <t>https://new-auto96.ru/auto/kaiyi/x7_kunlun/</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>1210000</t>
+          <t>2440000</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/ceed/</t>
+          <t>https://new-auto96.ru/auto/kaiyi/x7_kunlun/</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3551,32 +3551,32 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Ceed SW</t>
+          <t>Ceed</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>1250000</v>
+        <v>1210000</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/ceed_sw/</t>
+          <t>https://new-auto96.ru/auto/kia/ceed/</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>1250000</t>
+          <t>1210000</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/ceed_sw/</t>
+          <t>https://new-auto96.ru/auto/kia/ceed/</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>365</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -3586,32 +3586,32 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Cerato New</t>
+          <t>Ceed SW</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>1030000</v>
+        <v>1250000</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/cerato/</t>
+          <t>https://new-auto96.ru/auto/kia/ceed_sw/</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>1030000</t>
+          <t>1250000</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/cerato/</t>
+          <t>https://new-auto96.ru/auto/kia/ceed_sw/</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>370</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3621,32 +3621,32 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>K5</t>
+          <t>Cerato New</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>1390000</v>
+        <v>1030000</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/k5/</t>
+          <t>https://new-auto96.ru/auto/kia/cerato/</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>1390000</t>
+          <t>1030000</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/k5/</t>
+          <t>https://new-auto96.ru/auto/kia/cerato/</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>371</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -3656,32 +3656,32 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Picanto New</t>
+          <t>K5</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>740000</v>
+        <v>1390000</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/picanto/</t>
+          <t>https://new-auto96.ru/auto/kia/k5/</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>740000</t>
+          <t>1390000</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/picanto/</t>
+          <t>https://new-auto96.ru/auto/kia/k5/</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>374</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -3691,32 +3691,32 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>ProCeed</t>
+          <t>Picanto New</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>1121940</v>
+        <v>740000</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/proceed/</t>
+          <t>https://new-auto96.ru/auto/kia/picanto/</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>1121940</t>
+          <t>740000</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/proceed/</t>
+          <t>https://new-auto96.ru/auto/kia/picanto/</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>375</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -3726,32 +3726,32 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Rio New</t>
+          <t>ProCeed</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>710000</v>
+        <v>1121940</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/rio/</t>
+          <t>https://new-auto96.ru/auto/kia/proceed/</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>710000</t>
+          <t>1121940</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/rio/</t>
+          <t>https://new-auto96.ru/auto/kia/proceed/</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>377</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -3761,32 +3761,32 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Rio X</t>
+          <t>Rio New</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>830000</v>
+        <v>710000</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/rio_x/</t>
+          <t>https://new-auto96.ru/auto/kia/rio/</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>830000</t>
+          <t>710000</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/rio_x/</t>
+          <t>https://new-auto96.ru/auto/kia/rio/</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>378</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -3796,32 +3796,32 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Seltos</t>
+          <t>Rio X</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>1020000</v>
+        <v>830000</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/seltos/</t>
+          <t>https://new-auto96.ru/auto/kia/rio_x/</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>1020000</t>
+          <t>830000</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/seltos/</t>
+          <t>https://new-auto96.ru/auto/kia/rio_x/</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>381</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -3831,32 +3831,32 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Sorento New</t>
+          <t>Seltos</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>2120000</v>
+        <v>1020000</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/sorento/</t>
+          <t>https://new-auto96.ru/auto/kia/seltos/</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2120000</t>
+          <t>1020000</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/sorento/</t>
+          <t>https://new-auto96.ru/auto/kia/seltos/</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>389</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3866,32 +3866,32 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Soul</t>
+          <t>Sorento New</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>1030000</v>
+        <v>2120000</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/soul/</t>
+          <t>https://new-auto96.ru/auto/kia/sorento/</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>1030000</t>
+          <t>2120000</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/soul/</t>
+          <t>https://new-auto96.ru/auto/kia/sorento/</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>390</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3901,32 +3901,32 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Sportage 5</t>
+          <t>Soul</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>1860000</v>
+        <v>1030000</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/sportage/</t>
+          <t>https://new-auto96.ru/auto/kia/soul/</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>1860000</t>
+          <t>1030000</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/sportage/</t>
+          <t>https://new-auto96.ru/auto/kia/soul/</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>392</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3936,67 +3936,67 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>XCeed</t>
+          <t>Sportage 5</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>1490000</v>
+        <v>1860000</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/xceed/</t>
+          <t>https://new-auto96.ru/auto/kia/sportage/</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>1490000</t>
+          <t>1860000</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/xceed/</t>
+          <t>https://new-auto96.ru/auto/kia/sportage/</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>395</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Granta Cross</t>
+          <t>XCeed</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>500000</v>
+        <v>1490000</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/granta_cross/</t>
+          <t>https://new-auto96.ru/auto/kia/xceed/</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>500000</t>
+          <t>1490000</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/granta_cross/</t>
+          <t>https://new-auto96.ru/auto/kia/xceed/</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>402</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -4006,32 +4006,32 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Granta Hatchback</t>
+          <t>Granta Cross</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>431100</v>
+        <v>500000</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/granta_hatchback/</t>
+          <t>https://new-auto96.ru/auto/lada/granta_cross/</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>431100</t>
+          <t>500000</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/granta_hatchback/</t>
+          <t>https://new-auto96.ru/auto/lada/granta_cross/</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>404</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -4041,32 +4041,32 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Granta Liftback</t>
+          <t>Granta Hatchback</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>440000</v>
+        <v>431100</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/granta_liftback/</t>
+          <t>https://new-auto96.ru/auto/lada/granta_hatchback/</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>440000</t>
+          <t>431100</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/granta_liftback/</t>
+          <t>https://new-auto96.ru/auto/lada/granta_hatchback/</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>405</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -4076,32 +4076,32 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Granta Sedan</t>
+          <t>Granta Liftback</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>410000</v>
+        <v>440000</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/granta_sedan/</t>
+          <t>https://new-auto96.ru/auto/lada/granta_liftback/</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>410000</t>
+          <t>440000</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/granta_sedan/</t>
+          <t>https://new-auto96.ru/auto/lada/granta_liftback/</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>406</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -4111,32 +4111,32 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Granta Sedan Drive Active</t>
+          <t>Granta Sedan</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>680900</v>
+        <v>410000</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/granta_drive_active/</t>
+          <t>https://new-auto96.ru/auto/lada/granta_sedan/</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>680900</t>
+          <t>410000</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/granta_drive_active/</t>
+          <t>https://new-auto96.ru/auto/lada/granta_sedan/</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>403</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -4146,32 +4146,32 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Granta Universal</t>
+          <t>Granta Sedan Drive Active</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>450000</v>
+        <v>680900</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/granta_universal/</t>
+          <t>https://new-auto96.ru/auto/lada/granta_drive_active/</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>450000</t>
+          <t>680900</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/granta_universal/</t>
+          <t>https://new-auto96.ru/auto/lada/granta_drive_active/</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>414</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -4181,32 +4181,32 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Largus Cross New</t>
+          <t>Granta Universal</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>760000</v>
+        <v>450000</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/largus_cross/</t>
+          <t>https://new-auto96.ru/auto/lada/granta_universal/</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>760000</t>
+          <t>450000</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/largus_cross/</t>
+          <t>https://new-auto96.ru/auto/lada/granta_universal/</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>449</t>
+          <t>451</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -4216,32 +4216,32 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Largus New</t>
+          <t>Largus Cross New</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>718900</v>
+        <v>760000</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/largus/</t>
+          <t>https://new-auto96.ru/auto/lada/largus_cross/</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>718900</t>
+          <t>760000</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/largus/</t>
+          <t>https://new-auto96.ru/auto/lada/largus_cross/</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>449</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -4251,32 +4251,32 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Largus Фургон New</t>
+          <t>Largus New</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>546000</v>
+        <v>718900</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/largus_furgon/</t>
+          <t>https://new-auto96.ru/auto/lada/largus/</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>546000</t>
+          <t>718900</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/largus_furgon/</t>
+          <t>https://new-auto96.ru/auto/lada/largus/</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>454</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -4286,32 +4286,32 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Niva Legend 3 двери</t>
+          <t>Largus Фургон New</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>520000</v>
+        <v>546000</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/4x4_3_dv/</t>
+          <t>https://new-auto96.ru/auto/lada/largus_furgon/</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>520000</t>
+          <t>546000</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/4x4_3_dv/</t>
+          <t>https://new-auto96.ru/auto/lada/largus_furgon/</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>423</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -4321,32 +4321,32 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Niva Legend 5 дверей</t>
+          <t>Niva Legend 3 двери</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>570000</v>
+        <v>520000</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/4x4_5_dv/</t>
+          <t>https://new-auto96.ru/auto/lada/4x4_3_dv/</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>570000</t>
+          <t>520000</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/4x4_5_dv/</t>
+          <t>https://new-auto96.ru/auto/lada/4x4_3_dv/</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>424</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -4356,32 +4356,32 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Niva Off-Road</t>
+          <t>Niva Legend 5 дверей</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>494400</v>
+        <v>570000</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/niva_off-road/</t>
+          <t>https://new-auto96.ru/auto/lada/4x4_5_dv/</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>494400</t>
+          <t>570000</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/niva_off-road/</t>
+          <t>https://new-auto96.ru/auto/lada/4x4_5_dv/</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>433</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -4391,32 +4391,32 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Niva Travel</t>
+          <t>Niva Off-Road</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>650000</v>
+        <v>494400</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/niva_travel/</t>
+          <t>https://new-auto96.ru/auto/lada/niva_off-road/</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>650000</t>
+          <t>494400</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/niva_travel/</t>
+          <t>https://new-auto96.ru/auto/lada/niva_off-road/</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>434</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -4426,32 +4426,32 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Vesta Cross</t>
+          <t>Niva Travel</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>761940</v>
+        <v>650000</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta_cross_1/</t>
+          <t>https://new-auto96.ru/auto/lada/niva_travel/</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>761940</t>
+          <t>650000</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta_cross_1/</t>
+          <t>https://new-auto96.ru/auto/lada/niva_travel/</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>437</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -4461,32 +4461,32 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Vesta Cross New</t>
+          <t>Vesta Cross</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>1090000</v>
+        <v>761940</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta_cross/</t>
+          <t>https://new-auto96.ru/auto/lada/vesta_cross_1/</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>1090000</t>
+          <t>761940</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta_cross/</t>
+          <t>https://new-auto96.ru/auto/lada/vesta_cross_1/</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>438</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -4496,32 +4496,32 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Vesta SW</t>
+          <t>Vesta Cross New</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>728340</v>
+        <v>1090000</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta_sw_1/</t>
+          <t>https://new-auto96.ru/auto/lada/vesta_cross/</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>728340</t>
+          <t>1090000</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta_sw_1/</t>
+          <t>https://new-auto96.ru/auto/lada/vesta_cross/</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>443</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -4531,32 +4531,32 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Vesta SW Cross</t>
+          <t>Vesta SW</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>797340</v>
+        <v>728340</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta_sw_cross_1/</t>
+          <t>https://new-auto96.ru/auto/lada/vesta_sw_1/</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>797340</t>
+          <t>728340</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta_sw_cross_1/</t>
+          <t>https://new-auto96.ru/auto/lada/vesta_sw_1/</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>445</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -4566,32 +4566,32 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Vesta SW Cross New</t>
+          <t>Vesta SW Cross</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>1050000</v>
+        <v>797340</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta_sw_cross/</t>
+          <t>https://new-auto96.ru/auto/lada/vesta_sw_cross_1/</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>1050000</t>
+          <t>797340</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta_sw_cross/</t>
+          <t>https://new-auto96.ru/auto/lada/vesta_sw_cross_1/</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>446</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -4601,32 +4601,32 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Vesta SW New</t>
+          <t>Vesta SW Cross New</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>950000</v>
+        <v>1050000</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta_sw/</t>
+          <t>https://new-auto96.ru/auto/lada/vesta_sw_cross/</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>950000</t>
+          <t>1050000</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta_sw/</t>
+          <t>https://new-auto96.ru/auto/lada/vesta_sw_cross/</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>444</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -4636,32 +4636,32 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Vesta Sedan</t>
+          <t>Vesta SW New</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>673140</v>
+        <v>950000</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta_1/</t>
+          <t>https://new-auto96.ru/auto/lada/vesta_sw/</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>673140</t>
+          <t>950000</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta_1/</t>
+          <t>https://new-auto96.ru/auto/lada/vesta_sw/</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>435</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -4671,32 +4671,32 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Vesta Sedan CNG</t>
+          <t>Vesta Sedan</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>790140</v>
+        <v>673140</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta_cng/</t>
+          <t>https://new-auto96.ru/auto/lada/vesta_1/</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>790140</t>
+          <t>673140</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta_cng/</t>
+          <t>https://new-auto96.ru/auto/lada/vesta_1/</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>436</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -4706,32 +4706,32 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Vesta Sedan New</t>
+          <t>Vesta Sedan CNG</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>840000</v>
+        <v>790140</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta/</t>
+          <t>https://new-auto96.ru/auto/lada/vesta_cng/</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>840000</t>
+          <t>790140</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta/</t>
+          <t>https://new-auto96.ru/auto/lada/vesta_cng/</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>439</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -4741,32 +4741,32 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Vesta Sport</t>
+          <t>Vesta Sedan New</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>1030000</v>
+        <v>840000</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta_sport/</t>
+          <t>https://new-auto96.ru/auto/lada/vesta/</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>1030000</t>
+          <t>840000</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta_sport/</t>
+          <t>https://new-auto96.ru/auto/lada/vesta/</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>440</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -4776,32 +4776,32 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Xray</t>
+          <t>Vesta Sport</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>630000</v>
+        <v>1030000</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/xray/</t>
+          <t>https://new-auto96.ru/auto/lada/vesta_sport/</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>630000</t>
+          <t>1030000</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/xray/</t>
+          <t>https://new-auto96.ru/auto/lada/vesta_sport/</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>447</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -4811,67 +4811,67 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Xray Cross</t>
+          <t>Xray</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>680000</v>
+        <v>630000</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/xray_cross/</t>
+          <t>https://new-auto96.ru/auto/lada/xray/</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>680000</t>
+          <t>630000</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/xray_cross/</t>
+          <t>https://new-auto96.ru/auto/lada/xray/</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>448</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Lifan</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Murman</t>
+          <t>Xray Cross</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>650300</v>
+        <v>680000</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lifan/murman/</t>
+          <t>https://new-auto96.ru/auto/lada/xray_cross/</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>650300</t>
+          <t>680000</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lifan/murman/</t>
+          <t>https://new-auto96.ru/auto/lada/xray_cross/</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>457</t>
+          <t>455</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -4881,32 +4881,32 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>MyWay</t>
+          <t>Murman</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>701300</v>
+        <v>650300</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lifan/myway/</t>
+          <t>https://new-auto96.ru/auto/lifan/murman/</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>701300</t>
+          <t>650300</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lifan/myway/</t>
+          <t>https://new-auto96.ru/auto/lifan/murman/</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>459</t>
+          <t>457</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -4916,32 +4916,32 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Solano 2</t>
+          <t>MyWay</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>401300</v>
+        <v>701300</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lifan/solano_ii/</t>
+          <t>https://new-auto96.ru/auto/lifan/myway/</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>401300</t>
+          <t>701300</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lifan/solano_ii/</t>
+          <t>https://new-auto96.ru/auto/lifan/myway/</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>459</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -4951,32 +4951,32 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>X50</t>
+          <t>Solano 2</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>420300</v>
+        <v>401300</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lifan/x50/</t>
+          <t>https://new-auto96.ru/auto/lifan/solano_ii/</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>420300</t>
+          <t>401300</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lifan/x50/</t>
+          <t>https://new-auto96.ru/auto/lifan/solano_ii/</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>460</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -4986,32 +4986,32 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>X60</t>
+          <t>X50</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>491300</v>
+        <v>420300</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lifan/x60/</t>
+          <t>https://new-auto96.ru/auto/lifan/x50/</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>491300</t>
+          <t>420300</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lifan/x60/</t>
+          <t>https://new-auto96.ru/auto/lifan/x50/</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>463</t>
+          <t>461</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -5021,67 +5021,67 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>X70</t>
+          <t>X60</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>770300</v>
+        <v>491300</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lifan/x70/</t>
+          <t>https://new-auto96.ru/auto/lifan/x60/</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>770300</t>
+          <t>491300</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lifan/x70/</t>
+          <t>https://new-auto96.ru/auto/lifan/x60/</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>463</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>Lifan</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>S6 Pro</t>
+          <t>X70</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>1549900</v>
+        <v>770300</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/livan/s6pro/</t>
+          <t>https://new-auto96.ru/auto/lifan/x70/</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>1549900</t>
+          <t>770300</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/livan/s6pro/</t>
+          <t>https://new-auto96.ru/auto/lifan/x70/</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>464</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -5091,32 +5091,32 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>S6 Pro</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>1020000</v>
+        <v>1549900</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/livan/x3pro/</t>
+          <t>https://new-auto96.ru/auto/livan/s6pro/</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>1020000</t>
+          <t>1549900</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/livan/x3pro/</t>
+          <t>https://new-auto96.ru/auto/livan/s6pro/</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>466</t>
+          <t>465</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -5126,67 +5126,67 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>X6 Pro</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>1629900</v>
+        <v>1020000</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/livan/x6pro/</t>
+          <t>https://new-auto96.ru/auto/livan/x3pro/</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>1629900</t>
+          <t>1020000</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/livan/x6pro/</t>
+          <t>https://new-auto96.ru/auto/livan/x3pro/</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>466</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>X6 Pro</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>1200000</v>
+        <v>1629900</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/moskvich/3/</t>
+          <t>https://new-auto96.ru/auto/livan/x6pro/</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>1200000</t>
+          <t>1629900</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/moskvich/3/</t>
+          <t>https://new-auto96.ru/auto/livan/x6pro/</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>510</t>
+          <t>509</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -5196,102 +5196,102 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>3e</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>1750000</v>
+        <v>1200000</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/moskvich/3e/</t>
+          <t>https://new-auto96.ru/auto/moskvich/3/</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>1750000</t>
+          <t>1200000</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/moskvich/3e/</t>
+          <t>https://new-auto96.ru/auto/moskvich/3/</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>517</t>
+          <t>510</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Murano</t>
+          <t>3e</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>2570000</v>
+        <v>1750000</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/nissan/murano/</t>
+          <t>https://new-auto96.ru/auto/moskvich/3e/</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>2570000</t>
+          <t>1750000</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/nissan/murano/</t>
+          <t>https://new-auto96.ru/auto/moskvich/3e/</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>511</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Qashqai</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>1300000</v>
+        <v>1136000</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/nissan/qashqai/</t>
+          <t>https://new-auto96.ru/auto/moskvich/6/</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>1300000</t>
+          <t>1136000</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/nissan/qashqai/</t>
+          <t>https://new-auto96.ru/auto/moskvich/6/</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>522</t>
+          <t>517</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -5301,32 +5301,32 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Terrano</t>
+          <t>Murano</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>890000</v>
+        <v>2570000</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/nissan/terrano/</t>
+          <t>https://new-auto96.ru/auto/nissan/murano/</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>890000</t>
+          <t>2570000</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/nissan/terrano/</t>
+          <t>https://new-auto96.ru/auto/nissan/murano/</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>523</t>
+          <t>520</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -5336,172 +5336,172 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>X-trail</t>
+          <t>Qashqai</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>1530000</v>
+        <v>1300000</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/nissan/x-trail/</t>
+          <t>https://new-auto96.ru/auto/nissan/qashqai/</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>1530000</t>
+          <t>1300000</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/nissan/x-trail/</t>
+          <t>https://new-auto96.ru/auto/nissan/qashqai/</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>522</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>C5</t>
+          <t>Terrano</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>1360000</v>
+        <v>890000</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/omoda/c5/</t>
+          <t>https://new-auto96.ru/auto/nissan/terrano/</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>1360000</t>
+          <t>890000</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/omoda/c5/</t>
+          <t>https://new-auto96.ru/auto/nissan/terrano/</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>523</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>X-trail</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>1260000</v>
+        <v>1530000</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/omoda/s5/</t>
+          <t>https://new-auto96.ru/auto/nissan/x-trail/</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>1260000</t>
+          <t>1530000</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/omoda/s5/</t>
+          <t>https://new-auto96.ru/auto/nissan/x-trail/</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>525</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Arkana</t>
+          <t>C5</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>909000</v>
+        <v>1360000</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/renault/arkana/</t>
+          <t>https://new-auto96.ru/auto/omoda/c5/</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>909000</t>
+          <t>1360000</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/renault/arkana/</t>
+          <t>https://new-auto96.ru/auto/omoda/c5/</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>526</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Duster New</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>750000</v>
+        <v>1260000</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/renault/duster/</t>
+          <t>https://new-auto96.ru/auto/omoda/s5/</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>750000</t>
+          <t>1260000</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/renault/duster/</t>
+          <t>https://new-auto96.ru/auto/omoda/s5/</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>549</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -5511,32 +5511,32 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Kaptur</t>
+          <t>Arkana</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>780000</v>
+        <v>909000</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/renault/kaptur/</t>
+          <t>https://new-auto96.ru/auto/renault/arkana/</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>780000</t>
+          <t>909000</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/renault/kaptur/</t>
+          <t>https://new-auto96.ru/auto/renault/arkana/</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>555</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -5546,32 +5546,32 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Logan</t>
+          <t>Duster New</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>499000</v>
+        <v>750000</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/renault/logan/</t>
+          <t>https://new-auto96.ru/auto/renault/duster/</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>499000</t>
+          <t>750000</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/renault/logan/</t>
+          <t>https://new-auto96.ru/auto/renault/duster/</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>559</t>
+          <t>556</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -5581,32 +5581,32 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Logan Stepway</t>
+          <t>Kaptur</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>650000</v>
+        <v>780000</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/renault/logan_stepway/</t>
+          <t>https://new-auto96.ru/auto/renault/kaptur/</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>650000</t>
+          <t>780000</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/renault/logan_stepway/</t>
+          <t>https://new-auto96.ru/auto/renault/kaptur/</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>558</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -5616,32 +5616,32 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Sandero</t>
+          <t>Logan</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>540000</v>
+        <v>499000</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/renault/sandero/</t>
+          <t>https://new-auto96.ru/auto/renault/logan/</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>540000</t>
+          <t>499000</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/renault/sandero/</t>
+          <t>https://new-auto96.ru/auto/renault/logan/</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>559</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -5651,102 +5651,102 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Sandero Stepway</t>
+          <t>Logan Stepway</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>565300</v>
+        <v>650000</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/renault/sandero_stepway/</t>
+          <t>https://new-auto96.ru/auto/renault/logan_stepway/</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>565300</t>
+          <t>650000</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/renault/sandero_stepway/</t>
+          <t>https://new-auto96.ru/auto/renault/logan_stepway/</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>571</t>
+          <t>565</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Karoq</t>
+          <t>Sandero</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>1240000</v>
+        <v>540000</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/skoda/karoq/</t>
+          <t>https://new-auto96.ru/auto/renault/sandero/</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>1240000</t>
+          <t>540000</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/skoda/karoq/</t>
+          <t>https://new-auto96.ru/auto/renault/sandero/</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>566</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Kodiaq New</t>
+          <t>Sandero Stepway</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>1745000</v>
+        <v>565300</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/skoda/kodiaq/</t>
+          <t>https://new-auto96.ru/auto/renault/sandero_stepway/</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>1745000</t>
+          <t>565300</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/skoda/kodiaq/</t>
+          <t>https://new-auto96.ru/auto/renault/sandero_stepway/</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>579</t>
+          <t>571</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -5756,32 +5756,32 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Octavia New</t>
+          <t>Karoq</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>1170000</v>
+        <v>1240000</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/skoda/octavia/</t>
+          <t>https://new-auto96.ru/auto/skoda/karoq/</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>1170000</t>
+          <t>1240000</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/skoda/octavia/</t>
+          <t>https://new-auto96.ru/auto/skoda/karoq/</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>581</t>
+          <t>576</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -5791,32 +5791,32 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Rapid</t>
+          <t>Kodiaq New</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>720000</v>
+        <v>1745000</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/skoda/rapid/</t>
+          <t>https://new-auto96.ru/auto/skoda/kodiaq/</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>720000</t>
+          <t>1745000</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/skoda/rapid/</t>
+          <t>https://new-auto96.ru/auto/skoda/kodiaq/</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>579</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -5826,32 +5826,32 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Superb</t>
+          <t>Octavia New</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>1240000</v>
+        <v>1170000</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/skoda/superb/</t>
+          <t>https://new-auto96.ru/auto/skoda/octavia/</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>1240000</t>
+          <t>1170000</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/skoda/superb/</t>
+          <t>https://new-auto96.ru/auto/skoda/octavia/</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>586</t>
+          <t>581</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -5861,102 +5861,102 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Superb Combi</t>
+          <t>Rapid</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>2290200</v>
+        <v>720000</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/skoda/superb_combi/</t>
+          <t>https://new-auto96.ru/auto/skoda/rapid/</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>2290200</t>
+          <t>720000</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/skoda/superb_combi/</t>
+          <t>https://new-auto96.ru/auto/skoda/rapid/</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>594</t>
+          <t>585</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>Superb</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>1499400</v>
+        <v>1240000</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/solaris/hc/</t>
+          <t>https://new-auto96.ru/auto/skoda/superb/</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>1499400</t>
+          <t>1240000</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/solaris/hc/</t>
+          <t>https://new-auto96.ru/auto/skoda/superb/</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>586</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>HS</t>
+          <t>Superb Combi</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>1206000</v>
+        <v>2290200</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/solaris/hs/</t>
+          <t>https://new-auto96.ru/auto/skoda/superb_combi/</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>1206000</t>
+          <t>2290200</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/solaris/hs/</t>
+          <t>https://new-auto96.ru/auto/skoda/superb_combi/</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>594</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -5966,32 +5966,32 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>KRS</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>1222800</v>
+        <v>1499400</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/solaris/krs/</t>
+          <t>https://new-auto96.ru/auto/solaris/hc/</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>1222800</t>
+          <t>1499400</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/solaris/krs/</t>
+          <t>https://new-auto96.ru/auto/solaris/hc/</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>595</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -6001,172 +6001,172 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>KRX</t>
+          <t>HS</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>1238400</v>
+        <v>1206000</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/solaris/krx/</t>
+          <t>https://new-auto96.ru/auto/solaris/hs/</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>1238400</t>
+          <t>1206000</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/solaris/krx/</t>
+          <t>https://new-auto96.ru/auto/solaris/hs/</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>596</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>KRS</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>2729300</v>
+        <v>1222800</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/tank/300/</t>
+          <t>https://new-auto96.ru/auto/solaris/krs/</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>2729300</t>
+          <t>1222800</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/tank/300/</t>
+          <t>https://new-auto96.ru/auto/solaris/krs/</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>615</t>
+          <t>597</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>KRX</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>3788000</v>
+        <v>1238400</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/tank/500/</t>
+          <t>https://new-auto96.ru/auto/solaris/krx/</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>3788000</t>
+          <t>1238400</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/tank/500/</t>
+          <t>https://new-auto96.ru/auto/solaris/krx/</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>633</t>
+          <t>614</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>UAZ</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Hunter</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>562900</v>
+        <v>2729300</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/uaz/hunter/</t>
+          <t>https://new-auto96.ru/auto/tank/300/</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>562900</t>
+          <t>2729300</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/uaz/hunter/</t>
+          <t>https://new-auto96.ru/auto/tank/300/</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>634</t>
+          <t>615</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>UAZ</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Patriot</t>
+          <t>500</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>1009000</v>
+        <v>3788000</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/uaz/patriot/</t>
+          <t>https://new-auto96.ru/auto/tank/500/</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>1009000</t>
+          <t>3788000</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/uaz/patriot/</t>
+          <t>https://new-auto96.ru/auto/tank/500/</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>636</t>
+          <t>633</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -6176,102 +6176,102 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Patriot Pickup</t>
+          <t>Hunter</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>780000</v>
+        <v>562900</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/uaz/patriot_pickup/</t>
+          <t>https://new-auto96.ru/auto/uaz/hunter/</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>780000</t>
+          <t>562900</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/uaz/patriot_pickup/</t>
+          <t>https://new-auto96.ru/auto/uaz/hunter/</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>645</t>
+          <t>634</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>UAZ</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Patriot</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>1180000</v>
+        <v>1009000</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/volkswagen/jetta/</t>
+          <t>https://new-auto96.ru/auto/uaz/patriot/</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>1180000</t>
+          <t>1009000</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/volkswagen/jetta/</t>
+          <t>https://new-auto96.ru/auto/uaz/patriot/</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>649</t>
+          <t>636</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>UAZ</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Passat</t>
+          <t>Patriot Pickup</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>1120000</v>
+        <v>780000</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/volkswagen/passat/</t>
+          <t>https://new-auto96.ru/auto/uaz/patriot_pickup/</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>1120000</t>
+          <t>780000</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/volkswagen/passat/</t>
+          <t>https://new-auto96.ru/auto/uaz/patriot_pickup/</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>652</t>
+          <t>645</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -6281,32 +6281,32 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Polo</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>730000</v>
+        <v>1180000</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/volkswagen/polo/</t>
+          <t>https://new-auto96.ru/auto/volkswagen/jetta/</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>730000</t>
+          <t>1180000</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/volkswagen/polo/</t>
+          <t>https://new-auto96.ru/auto/volkswagen/jetta/</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>653</t>
+          <t>649</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -6316,32 +6316,32 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Taos</t>
+          <t>Passat</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>1464000</v>
+        <v>1120000</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/volkswagen/taos/</t>
+          <t>https://new-auto96.ru/auto/volkswagen/passat/</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>1464000</t>
+          <t>1120000</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/volkswagen/taos/</t>
+          <t>https://new-auto96.ru/auto/volkswagen/passat/</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>658</t>
+          <t>652</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -6351,93 +6351,163 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Tiguan New</t>
+          <t>Polo</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>1529300</v>
+        <v>730000</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/volkswagen/tiguan/</t>
+          <t>https://new-auto96.ru/auto/volkswagen/polo/</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>1529300</t>
+          <t>730000</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/volkswagen/tiguan/</t>
+          <t>https://new-auto96.ru/auto/volkswagen/polo/</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>672</t>
+          <t>653</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Zotye</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Coupa</t>
+          <t>Taos</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>750300</v>
+        <v>1464000</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/zotye/coupa/</t>
+          <t>https://new-auto96.ru/auto/volkswagen/taos/</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>750300</t>
+          <t>1464000</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/zotye/coupa/</t>
+          <t>https://new-auto96.ru/auto/volkswagen/taos/</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
+          <t>658</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Tiguan New</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>1529300</v>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>https://new-auto96.ru/auto/volkswagen/tiguan/</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>1529300</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>https://new-auto96.ru/auto/volkswagen/tiguan/</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>672</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Zotye</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Coupa</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>750300</v>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>https://new-auto96.ru/auto/zotye/coupa/</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>750300</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>https://new-auto96.ru/auto/zotye/coupa/</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
           <t>674</t>
         </is>
       </c>
-      <c r="B172" t="inlineStr">
+      <c r="B174" t="inlineStr">
         <is>
           <t>Zotye</t>
         </is>
       </c>
-      <c r="C172" t="inlineStr">
+      <c r="C174" t="inlineStr">
         <is>
           <t>T600</t>
         </is>
       </c>
-      <c r="D172" t="n">
+      <c r="D174" t="n">
         <v>570300</v>
       </c>
-      <c r="E172" t="inlineStr">
+      <c r="E174" t="inlineStr">
         <is>
           <t>https://new-auto96.ru/auto/zotye/t600/</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr">
+      <c r="F174" t="inlineStr">
         <is>
           <t>570300</t>
         </is>
       </c>
-      <c r="G172" t="inlineStr">
+      <c r="G174" t="inlineStr">
         <is>
           <t>https://new-auto96.ru/auto/zotye/t600/</t>
         </is>

--- a/xlsx/ekaterinburg.xlsx
+++ b/xlsx/ekaterinburg.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G174"/>
+  <dimension ref="A1:G176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/chery/tiggo_4/</t>
+          <t>https://new-auto96.ru/auto/chery/tiggo_4_i_restailing/</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1119,14 +1119,14 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/chery/tiggo_4/</t>
+          <t>https://new-auto96.ru/auto/chery/tiggo_4_i_restailing/</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>150</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1136,32 +1136,32 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Tiggo 4 Pro</t>
+          <t>Tiggo 4 New</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1190000</v>
+        <v>1631000</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/chery/tiggo_4_pro/</t>
+          <t>https://new-auto96.ru/auto/chery/tiggo_4/</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>1190000</t>
+          <t>1631000</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/chery/tiggo_4_pro/</t>
+          <t>https://new-auto96.ru/auto/chery/tiggo_4/</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>151</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1171,32 +1171,32 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Tiggo 7</t>
+          <t>Tiggo 4 Pro</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>980000</v>
+        <v>1190000</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/chery/tiggo_7/</t>
+          <t>https://new-auto96.ru/auto/chery/tiggo_4_pro/</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>980000</t>
+          <t>1190000</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/chery/tiggo_7/</t>
+          <t>https://new-auto96.ru/auto/chery/tiggo_4_pro/</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>154</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1206,32 +1206,32 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Tiggo 7 Pro</t>
+          <t>Tiggo 7</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1260000</v>
+        <v>980000</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/chery/tiggo_7_pro/</t>
+          <t>https://new-auto96.ru/auto/chery/tiggo_7/</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1260000</t>
+          <t>980000</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/chery/tiggo_7_pro/</t>
+          <t>https://new-auto96.ru/auto/chery/tiggo_7/</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>155</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1241,32 +1241,32 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Tiggo 7 Pro Max</t>
+          <t>Tiggo 7 Pro</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1469000</v>
+        <v>1260000</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/chery/tiggo_7_pro_max_1/</t>
+          <t>https://new-auto96.ru/auto/chery/tiggo_7_pro/</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>1469000</t>
+          <t>1260000</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/chery/tiggo_7_pro_max_1/</t>
+          <t>https://new-auto96.ru/auto/chery/tiggo_7_pro/</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>156</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1276,32 +1276,32 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Tiggo 7 Pro Max New</t>
+          <t>Tiggo 7 Pro Max</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1662000</v>
+        <v>1469000</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/chery/tiggo_7_pro_max/</t>
+          <t>https://new-auto96.ru/auto/chery/tiggo_7_pro_max_1/</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>1662000</t>
+          <t>1469000</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/chery/tiggo_7_pro_max/</t>
+          <t>https://new-auto96.ru/auto/chery/tiggo_7_pro_max_1/</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>157</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1311,32 +1311,32 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Tiggo 8</t>
+          <t>Tiggo 7 Pro Max New</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1099900</v>
+        <v>1662000</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/chery/tiggo_8/</t>
+          <t>https://new-auto96.ru/auto/chery/tiggo_7_pro_max/</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>1099900</t>
+          <t>1662000</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/chery/tiggo_8/</t>
+          <t>https://new-auto96.ru/auto/chery/tiggo_7_pro_max/</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>158</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1346,32 +1346,32 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Tiggo 8 Pro</t>
+          <t>Tiggo 8</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1570000</v>
+        <v>1099900</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/chery/tiggo_8_pro/</t>
+          <t>https://new-auto96.ru/auto/chery/tiggo_8/</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>1570000</t>
+          <t>1099900</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/chery/tiggo_8_pro/</t>
+          <t>https://new-auto96.ru/auto/chery/tiggo_8/</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>159</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1381,32 +1381,32 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Tiggo 8 Pro Max</t>
+          <t>Tiggo 8 Pro</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>2370000</v>
+        <v>1570000</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/chery/tiggo_8_pro_max_1/</t>
+          <t>https://new-auto96.ru/auto/chery/tiggo_8_pro/</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2370000</t>
+          <t>1570000</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/chery/tiggo_8_pro_max_1/</t>
+          <t>https://new-auto96.ru/auto/chery/tiggo_8_pro/</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>161</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1416,67 +1416,67 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Tiggo 8 Pro Max New</t>
+          <t>Tiggo 8 Pro Max</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>2540900</v>
+        <v>2370000</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/chery/tiggo_8_pro_max/</t>
+          <t>https://new-auto96.ru/auto/chery/tiggo_8_pro_max_1/</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2540900</t>
+          <t>2370000</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/chery/tiggo_8_pro_max/</t>
+          <t>https://new-auto96.ru/auto/chery/tiggo_8_pro_max_1/</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>164</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Chevrolet</t>
+          <t>Chery</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Cobalt</t>
+          <t>Tiggo 8 Pro Max New</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>572340</v>
+        <v>2540900</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/chevrolet/cobalt/</t>
+          <t>https://new-auto96.ru/auto/chery/tiggo_8_pro_max/</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>572340</t>
+          <t>2540900</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/chevrolet/cobalt/</t>
+          <t>https://new-auto96.ru/auto/chery/tiggo_8_pro_max/</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>168</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1486,32 +1486,32 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Nexia</t>
+          <t>Cobalt</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>528540</v>
+        <v>572340</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/chevrolet/nexia/</t>
+          <t>https://new-auto96.ru/auto/chevrolet/cobalt/</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>528540</t>
+          <t>572340</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/chevrolet/nexia/</t>
+          <t>https://new-auto96.ru/auto/chevrolet/cobalt/</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>169</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1521,67 +1521,67 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Spark</t>
+          <t>Nexia</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>570540</v>
+        <v>528540</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/chevrolet/spark/</t>
+          <t>https://new-auto96.ru/auto/chevrolet/nexia/</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>570540</t>
+          <t>528540</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/chevrolet/spark/</t>
+          <t>https://new-auto96.ru/auto/chevrolet/nexia/</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>170</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>DFM</t>
+          <t>Chevrolet</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>Spark</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>989000</v>
+        <v>570540</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/dfm/580/</t>
+          <t>https://new-auto96.ru/auto/chevrolet/spark/</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>989000</t>
+          <t>570540</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/dfm/580/</t>
+          <t>https://new-auto96.ru/auto/chevrolet/spark/</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1591,67 +1591,67 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>AX7</t>
+          <t>580</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1028900</v>
+        <v>989000</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/dfm/ax7/</t>
+          <t>https://new-auto96.ru/auto/dfm/580/</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>1028900</t>
+          <t>989000</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/dfm/ax7/</t>
+          <t>https://new-auto96.ru/auto/dfm/580/</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>EXEED</t>
+          <t>DFM</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>LX</t>
+          <t>AX7</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1930000</v>
+        <v>1028900</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/exeed/lx/</t>
+          <t>https://new-auto96.ru/auto/dfm/ax7/</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>1930000</t>
+          <t>1028900</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/exeed/lx/</t>
+          <t>https://new-auto96.ru/auto/dfm/ax7/</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1661,32 +1661,32 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>RX</t>
+          <t>LX</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>2700000</v>
+        <v>1930000</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/exeed/rx/</t>
+          <t>https://new-auto96.ru/auto/exeed/lx/</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2700000</t>
+          <t>1930000</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/exeed/rx/</t>
+          <t>https://new-auto96.ru/auto/exeed/lx/</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1696,32 +1696,32 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>TXL</t>
+          <t>RX</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>2220000</v>
+        <v>2700000</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/exeed/txl/</t>
+          <t>https://new-auto96.ru/auto/exeed/rx/</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2220000</t>
+          <t>2700000</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/exeed/txl/</t>
+          <t>https://new-auto96.ru/auto/exeed/rx/</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1731,67 +1731,67 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>VX</t>
+          <t>TXL</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>2830000</v>
+        <v>2220000</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/exeed/vx/</t>
+          <t>https://new-auto96.ru/auto/exeed/txl/</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2830000</t>
+          <t>2220000</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/exeed/vx/</t>
+          <t>https://new-auto96.ru/auto/exeed/txl/</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>FAW</t>
+          <t>EXEED</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Bestune B70</t>
+          <t>VX</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1328000</v>
+        <v>2830000</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/faw/bestune_b70/</t>
+          <t>https://new-auto96.ru/auto/exeed/vx/</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>1328000</t>
+          <t>2830000</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/faw/bestune_b70/</t>
+          <t>https://new-auto96.ru/auto/exeed/vx/</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1801,32 +1801,32 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Bestune T55</t>
+          <t>Bestune B70</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>1740000</v>
+        <v>1328000</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/faw/bestune_t55/</t>
+          <t>https://new-auto96.ru/auto/faw/bestune_b70/</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>1740000</t>
+          <t>1328000</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/faw/bestune_t55/</t>
+          <t>https://new-auto96.ru/auto/faw/bestune_b70/</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1836,32 +1836,32 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Bestune T77</t>
+          <t>Bestune T55</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1460000</v>
+        <v>1740000</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/faw/besturn_t77/</t>
+          <t>https://new-auto96.ru/auto/faw/bestune_t55/</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>1460000</t>
+          <t>1740000</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/faw/besturn_t77/</t>
+          <t>https://new-auto96.ru/auto/faw/bestune_t55/</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1871,32 +1871,32 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Bestune T99</t>
+          <t>Bestune T77</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>2240000</v>
+        <v>1460000</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/faw/bestune_t99/</t>
+          <t>https://new-auto96.ru/auto/faw/besturn_t77/</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2240000</t>
+          <t>1460000</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/faw/bestune_t99/</t>
+          <t>https://new-auto96.ru/auto/faw/besturn_t77/</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1906,32 +1906,32 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>X40</t>
+          <t>Bestune T99</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>640300</v>
+        <v>2240000</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/faw/x40/</t>
+          <t>https://new-auto96.ru/auto/faw/bestune_t99/</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>640300</t>
+          <t>2240000</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/faw/x40/</t>
+          <t>https://new-auto96.ru/auto/faw/bestune_t99/</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1941,67 +1941,67 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>X80</t>
+          <t>X40</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>782000</v>
+        <v>640300</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/faw/x80/</t>
+          <t>https://new-auto96.ru/auto/faw/x40/</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>782000</t>
+          <t>640300</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/faw/x80/</t>
+          <t>https://new-auto96.ru/auto/faw/x40/</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Gac</t>
+          <t>FAW</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>GS3</t>
+          <t>X80</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1552500</v>
+        <v>782000</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/gac/gs3/</t>
+          <t>https://new-auto96.ru/auto/faw/x80/</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>1552500</t>
+          <t>782000</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/gac/gs3/</t>
+          <t>https://new-auto96.ru/auto/faw/x80/</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2011,32 +2011,32 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>GS5</t>
+          <t>GS3</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1260000</v>
+        <v>1379400</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/gac/gs5/</t>
+          <t>https://new-auto96.ru/auto/gac/gs3/</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>1260000</t>
+          <t>1379400</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/gac/gs5/</t>
+          <t>https://new-auto96.ru/auto/gac/gs3/</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2046,67 +2046,67 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>GS8</t>
+          <t>GS5</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2748300</v>
+        <v>1260000</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/gac/gs8/</t>
+          <t>https://new-auto96.ru/auto/gac/gs5/</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2748300</t>
+          <t>1260000</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/gac/gs8/</t>
+          <t>https://new-auto96.ru/auto/gac/gs5/</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Geely</t>
+          <t>Gac</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Atlas</t>
+          <t>GS8</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1040000</v>
+        <v>2748300</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/geely/atlas_1/</t>
+          <t>https://new-auto96.ru/auto/gac/gs8/</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>1040000</t>
+          <t>2748300</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/geely/atlas_1/</t>
+          <t>https://new-auto96.ru/auto/gac/gs8/</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2116,32 +2116,32 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Atlas New</t>
+          <t>Atlas</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1929900</v>
+        <v>1040000</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/geely/atlas/</t>
+          <t>https://new-auto96.ru/auto/geely/atlas_1/</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>1929900</t>
+          <t>1040000</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/geely/atlas/</t>
+          <t>https://new-auto96.ru/auto/geely/atlas_1/</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2151,32 +2151,32 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Atlas Pro</t>
+          <t>Atlas New</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>1519990</v>
+        <v>1929900</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/geely/atlas_pro/</t>
+          <t>https://new-auto96.ru/auto/geely/atlas/</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>1519990</t>
+          <t>1929900</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/geely/atlas_pro/</t>
+          <t>https://new-auto96.ru/auto/geely/atlas/</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2186,32 +2186,32 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Belgee X50</t>
+          <t>Atlas Pro</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>1549000</v>
+        <v>1519990</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/geely/belgee_x50/</t>
+          <t>https://new-auto96.ru/auto/geely/atlas_pro/</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>1549000</t>
+          <t>1519990</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/geely/belgee_x50/</t>
+          <t>https://new-auto96.ru/auto/geely/atlas_pro/</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2221,32 +2221,32 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Coolray</t>
+          <t>Belgee X50</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>966300</v>
+        <v>1549000</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/geely/coolray_1/</t>
+          <t>https://new-auto96.ru/auto/geely/belgee_x50/</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>966300</t>
+          <t>1549000</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/geely/coolray_1/</t>
+          <t>https://new-auto96.ru/auto/geely/belgee_x50/</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2256,32 +2256,32 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Coolray New</t>
+          <t>Coolray</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>1594990</v>
+        <v>966300</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/geely/coolray/</t>
+          <t>https://new-auto96.ru/auto/geely/coolray_1/</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>1594990</t>
+          <t>966300</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/geely/coolray/</t>
+          <t>https://new-auto96.ru/auto/geely/coolray_1/</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2291,32 +2291,32 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Emgrand New</t>
+          <t>Coolray New</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1240000</v>
+        <v>1594990</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/geely/emgrand/</t>
+          <t>https://new-auto96.ru/auto/geely/coolray/</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>1240000</t>
+          <t>1594990</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/geely/emgrand/</t>
+          <t>https://new-auto96.ru/auto/geely/coolray/</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2326,32 +2326,32 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>Emgrand New</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>1000300</v>
+        <v>1240000</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/geely/gs/</t>
+          <t>https://new-auto96.ru/auto/geely/emgrand/</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>1000300</t>
+          <t>1240000</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/geely/gs/</t>
+          <t>https://new-auto96.ru/auto/geely/emgrand/</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2361,32 +2361,32 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Monjaro</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>2819900</v>
+        <v>1000300</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/geely/monjaro/</t>
+          <t>https://new-auto96.ru/auto/geely/gs/</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2819900</t>
+          <t>1000300</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/geely/monjaro/</t>
+          <t>https://new-auto96.ru/auto/geely/gs/</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2396,32 +2396,32 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Okavango New</t>
+          <t>Monjaro</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>2069994</v>
+        <v>2819900</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/geely/okavango/</t>
+          <t>https://new-auto96.ru/auto/geely/monjaro/</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2069994</t>
+          <t>2819900</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/geely/okavango/</t>
+          <t>https://new-auto96.ru/auto/geely/monjaro/</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2431,67 +2431,67 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Tugella New</t>
+          <t>Okavango New</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>1999000</v>
+        <v>2069994</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/geely/tugella/</t>
+          <t>https://new-auto96.ru/auto/geely/okavango/</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>1999000</t>
+          <t>2069994</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/geely/tugella/</t>
+          <t>https://new-auto96.ru/auto/geely/okavango/</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Haval</t>
+          <t>Geely</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Dargo</t>
+          <t>Tugella New</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1970000</v>
+        <v>1999000</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/haval/dargo/</t>
+          <t>https://new-auto96.ru/auto/geely/tugella/</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>1970000</t>
+          <t>1999000</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/haval/dargo/</t>
+          <t>https://new-auto96.ru/auto/geely/tugella/</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2501,32 +2501,32 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Dargo X</t>
+          <t>Dargo</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2069000</v>
+        <v>1970000</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/haval/dargo_x/</t>
+          <t>https://new-auto96.ru/auto/haval/dargo/</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2069000</t>
+          <t>1970000</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/haval/dargo_x/</t>
+          <t>https://new-auto96.ru/auto/haval/dargo/</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2536,32 +2536,32 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>F7 New</t>
+          <t>Dargo X</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>949000</v>
+        <v>2069000</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/haval/f7/</t>
+          <t>https://new-auto96.ru/auto/haval/dargo_x/</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>949000</t>
+          <t>2069000</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/haval/f7/</t>
+          <t>https://new-auto96.ru/auto/haval/dargo_x/</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2571,32 +2571,32 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>F7x New</t>
+          <t>F7 New</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>989000</v>
+        <v>949000</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/haval/f7x/</t>
+          <t>https://new-auto96.ru/auto/haval/f7/</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>989000</t>
+          <t>949000</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/haval/f7x/</t>
+          <t>https://new-auto96.ru/auto/haval/f7/</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2606,32 +2606,32 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>H3</t>
+          <t>F7x New</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>1599000</v>
+        <v>989000</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/haval/h3/</t>
+          <t>https://new-auto96.ru/auto/haval/f7x/</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>1599000</t>
+          <t>989000</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/haval/h3/</t>
+          <t>https://new-auto96.ru/auto/haval/f7x/</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2641,32 +2641,32 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>H5</t>
+          <t>H3</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>829000</v>
+        <v>1599000</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/haval/h5/</t>
+          <t>https://new-auto96.ru/auto/haval/h3/</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>829000</t>
+          <t>1599000</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/haval/h5/</t>
+          <t>https://new-auto96.ru/auto/haval/h3/</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2676,32 +2676,32 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>H9</t>
+          <t>H5</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>2360000</v>
+        <v>829000</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/haval/h9/</t>
+          <t>https://new-auto96.ru/auto/haval/h5/</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2360000</t>
+          <t>829000</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/haval/h9/</t>
+          <t>https://new-auto96.ru/auto/haval/h5/</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>300</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2711,32 +2711,32 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Jolion</t>
+          <t>H9</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>889000</v>
+        <v>2360000</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/haval/jolion_1/</t>
+          <t>https://new-auto96.ru/auto/haval/h9/</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>889000</t>
+          <t>2360000</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/haval/jolion_1/</t>
+          <t>https://new-auto96.ru/auto/haval/h9/</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>301</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2746,32 +2746,32 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Jolion New</t>
+          <t>Jolion</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>1289000</v>
+        <v>889000</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/haval/jolion/</t>
+          <t>https://new-auto96.ru/auto/haval/jolion_1/</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>1289000</t>
+          <t>889000</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/haval/jolion/</t>
+          <t>https://new-auto96.ru/auto/haval/jolion_1/</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>303</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2781,67 +2781,67 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>M6</t>
+          <t>Jolion New</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>911000</v>
+        <v>1289000</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/haval/m6/</t>
+          <t>https://new-auto96.ru/auto/haval/jolion/</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>911000</t>
+          <t>1289000</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/haval/m6/</t>
+          <t>https://new-auto96.ru/auto/haval/jolion/</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>Haval</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Creta New</t>
+          <t>M6</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>920000</v>
+        <v>911000</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/hyundai/creta/</t>
+          <t>https://new-auto96.ru/auto/haval/m6/</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>920000</t>
+          <t>911000</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/hyundai/creta/</t>
+          <t>https://new-auto96.ru/auto/haval/m6/</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2851,32 +2851,32 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Elantra New</t>
+          <t>Creta New</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1100000</v>
+        <v>920000</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/hyundai/elantra/</t>
+          <t>https://new-auto96.ru/auto/hyundai/creta/</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>1100000</t>
+          <t>920000</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/hyundai/elantra/</t>
+          <t>https://new-auto96.ru/auto/hyundai/creta/</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>320</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2886,32 +2886,32 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t>Elantra New</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1900000</v>
+        <v>1100000</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/hyundai/santa_fe/</t>
+          <t>https://new-auto96.ru/auto/hyundai/elantra/</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>1900000</t>
+          <t>1100000</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/hyundai/santa_fe/</t>
+          <t>https://new-auto96.ru/auto/hyundai/elantra/</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2921,32 +2921,32 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>690000</v>
+        <v>1900000</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/hyundai/solaris/</t>
+          <t>https://new-auto96.ru/auto/hyundai/santa_fe/</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>690000</t>
+          <t>1900000</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/hyundai/solaris/</t>
+          <t>https://new-auto96.ru/auto/hyundai/santa_fe/</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>329</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2956,32 +2956,32 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Sonata</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>1390000</v>
+        <v>690000</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/hyundai/sonata/</t>
+          <t>https://new-auto96.ru/auto/hyundai/solaris/</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>1390000</t>
+          <t>690000</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/hyundai/sonata/</t>
+          <t>https://new-auto96.ru/auto/hyundai/solaris/</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>330</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2991,67 +2991,67 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Tucson New</t>
+          <t>Sonata</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>1470000</v>
+        <v>1390000</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/hyundai/tucson/</t>
+          <t>https://new-auto96.ru/auto/hyundai/sonata/</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>1470000</t>
+          <t>1390000</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/hyundai/tucson/</t>
+          <t>https://new-auto96.ru/auto/hyundai/sonata/</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>335</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>JAC</t>
+          <t>Hyundai</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>J7</t>
+          <t>Tucson New</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>860000</v>
+        <v>1470000</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/jac/j7/</t>
+          <t>https://new-auto96.ru/auto/hyundai/tucson/</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>860000</t>
+          <t>1470000</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/jac/j7/</t>
+          <t>https://new-auto96.ru/auto/hyundai/tucson/</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -3061,32 +3061,32 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>J7</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>720000</v>
+        <v>860000</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/jac/s3/</t>
+          <t>https://new-auto96.ru/auto/jac/j7/</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>720000</t>
+          <t>860000</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/jac/s3/</t>
+          <t>https://new-auto96.ru/auto/jac/j7/</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>341</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -3096,137 +3096,137 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>S7</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>1180000</v>
+        <v>720000</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/jac/s7/</t>
+          <t>https://new-auto96.ru/auto/jac/s3/</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>1180000</t>
+          <t>720000</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/jac/s7/</t>
+          <t>https://new-auto96.ru/auto/jac/s3/</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>343</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>JAECOO</t>
+          <t>JAC</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>J7</t>
+          <t>S7</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>1903940</v>
+        <v>1180000</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/jaecoo/j7/</t>
+          <t>https://new-auto96.ru/auto/jac/s7/</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>1903940</t>
+          <t>1180000</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/jaecoo/j7/</t>
+          <t>https://new-auto96.ru/auto/jac/s7/</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Jetour</t>
+          <t>JAECOO</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Dashing</t>
+          <t>J7</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>1750000</v>
+        <v>1903940</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/jetour/dashing/</t>
+          <t>https://new-auto96.ru/auto/jaecoo/j7/</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>1750000</t>
+          <t>1903940</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/jetour/dashing/</t>
+          <t>https://new-auto96.ru/auto/jaecoo/j7/</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>348</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Jetour</t>
+          <t>JAECOO</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>J8</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>2269000</v>
+        <v>2399000</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/jetour/t2/</t>
+          <t>https://new-auto96.ru/auto/jaecoo/j8/</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2269000</t>
+          <t>2399000</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/jetour/t2/</t>
+          <t>https://new-auto96.ru/auto/jaecoo/j8/</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>349</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -3236,32 +3236,32 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>X70 Plus</t>
+          <t>Dashing</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>2070900</v>
+        <v>1750000</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/jetour/x70_plus/</t>
+          <t>https://new-auto96.ru/auto/jetour/dashing/</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2070900</t>
+          <t>1750000</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/jetour/x70_plus/</t>
+          <t>https://new-auto96.ru/auto/jetour/dashing/</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>351</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -3271,102 +3271,102 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>X90 Plus</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>2270000</v>
+        <v>2269000</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/jetour/x90_plus/</t>
+          <t>https://new-auto96.ru/auto/jetour/t2/</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2270000</t>
+          <t>2269000</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/jetour/x90_plus/</t>
+          <t>https://new-auto96.ru/auto/jetour/t2/</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>VA3</t>
+          <t>X70 Plus</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>690000</v>
+        <v>2070900</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/jetta/va3/</t>
+          <t>https://new-auto96.ru/auto/jetour/x70_plus/</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>690000</t>
+          <t>2070900</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/jetta/va3/</t>
+          <t>https://new-auto96.ru/auto/jetour/x70_plus/</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>VS5</t>
+          <t>X90 Plus</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>990000</v>
+        <v>2270000</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/jetta/vs5/</t>
+          <t>https://new-auto96.ru/auto/jetour/x90_plus/</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>990000</t>
+          <t>2270000</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/jetta/vs5/</t>
+          <t>https://new-auto96.ru/auto/jetour/x90_plus/</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3376,102 +3376,102 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>VS7</t>
+          <t>VA3</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>1149000</v>
+        <v>690000</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/jetta/vs7/</t>
+          <t>https://new-auto96.ru/auto/jetta/va3/</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>1149000</t>
+          <t>690000</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/jetta/vs7/</t>
+          <t>https://new-auto96.ru/auto/jetta/va3/</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>356</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>E5</t>
+          <t>VS5</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>1159000</v>
+        <v>990000</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kaiyi/e5/</t>
+          <t>https://new-auto96.ru/auto/jetta/vs5/</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>1159000</t>
+          <t>990000</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kaiyi/e5/</t>
+          <t>https://new-auto96.ru/auto/jetta/vs5/</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>357</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>X3</t>
+          <t>VS7</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>970000</v>
+        <v>1149000</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kaiyi/x3/</t>
+          <t>https://new-auto96.ru/auto/jetta/vs7/</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>970000</t>
+          <t>1149000</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kaiyi/x3/</t>
+          <t>https://new-auto96.ru/auto/jetta/vs7/</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3481,32 +3481,32 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>E5</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>1070000</v>
+        <v>1159000</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kaiyi/x3_pro/</t>
+          <t>https://new-auto96.ru/auto/kaiyi/e5/</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>1070000</t>
+          <t>1159000</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kaiyi/x3_pro/</t>
+          <t>https://new-auto96.ru/auto/kaiyi/e5/</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>359</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -3516,102 +3516,102 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>X7 Kunlun</t>
+          <t>X3</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>2440000</v>
+        <v>970000</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kaiyi/x7_kunlun/</t>
+          <t>https://new-auto96.ru/auto/kaiyi/x3/</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2440000</t>
+          <t>970000</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kaiyi/x7_kunlun/</t>
+          <t>https://new-auto96.ru/auto/kaiyi/x3/</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Ceed</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>1210000</v>
+        <v>1070000</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/ceed/</t>
+          <t>https://new-auto96.ru/auto/kaiyi/x3_pro/</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>1210000</t>
+          <t>1070000</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/ceed/</t>
+          <t>https://new-auto96.ru/auto/kaiyi/x3_pro/</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>361</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Ceed SW</t>
+          <t>X7 Kunlun</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>1250000</v>
+        <v>2440000</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/ceed_sw/</t>
+          <t>https://new-auto96.ru/auto/kaiyi/x7_kunlun/</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>1250000</t>
+          <t>2440000</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/ceed_sw/</t>
+          <t>https://new-auto96.ru/auto/kaiyi/x7_kunlun/</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3621,32 +3621,32 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Cerato New</t>
+          <t>Ceed</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>1030000</v>
+        <v>1210000</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/cerato/</t>
+          <t>https://new-auto96.ru/auto/kia/ceed/</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>1030000</t>
+          <t>1210000</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/cerato/</t>
+          <t>https://new-auto96.ru/auto/kia/ceed/</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>365</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -3656,32 +3656,32 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>K5</t>
+          <t>Ceed SW</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>1390000</v>
+        <v>1250000</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/k5/</t>
+          <t>https://new-auto96.ru/auto/kia/ceed_sw/</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>1390000</t>
+          <t>1250000</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/k5/</t>
+          <t>https://new-auto96.ru/auto/kia/ceed_sw/</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>370</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -3691,32 +3691,32 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Picanto New</t>
+          <t>Cerato New</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>740000</v>
+        <v>1030000</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/picanto/</t>
+          <t>https://new-auto96.ru/auto/kia/cerato/</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>740000</t>
+          <t>1030000</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/picanto/</t>
+          <t>https://new-auto96.ru/auto/kia/cerato/</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>371</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -3726,32 +3726,32 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>ProCeed</t>
+          <t>K5</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>1121940</v>
+        <v>1390000</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/proceed/</t>
+          <t>https://new-auto96.ru/auto/kia/k5/</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>1121940</t>
+          <t>1390000</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/proceed/</t>
+          <t>https://new-auto96.ru/auto/kia/k5/</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>374</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -3761,32 +3761,32 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Rio New</t>
+          <t>Picanto New</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>710000</v>
+        <v>740000</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/rio/</t>
+          <t>https://new-auto96.ru/auto/kia/picanto/</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>710000</t>
+          <t>740000</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/rio/</t>
+          <t>https://new-auto96.ru/auto/kia/picanto/</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>375</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -3796,32 +3796,32 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Rio X</t>
+          <t>ProCeed</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>830000</v>
+        <v>1121940</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/rio_x/</t>
+          <t>https://new-auto96.ru/auto/kia/proceed/</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>830000</t>
+          <t>1121940</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/rio_x/</t>
+          <t>https://new-auto96.ru/auto/kia/proceed/</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>377</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -3831,32 +3831,32 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Seltos</t>
+          <t>Rio New</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>1020000</v>
+        <v>710000</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/seltos/</t>
+          <t>https://new-auto96.ru/auto/kia/rio/</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>1020000</t>
+          <t>710000</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/seltos/</t>
+          <t>https://new-auto96.ru/auto/kia/rio/</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>378</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3866,32 +3866,32 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Sorento New</t>
+          <t>Rio X</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>2120000</v>
+        <v>830000</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/sorento/</t>
+          <t>https://new-auto96.ru/auto/kia/rio_x/</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2120000</t>
+          <t>830000</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/sorento/</t>
+          <t>https://new-auto96.ru/auto/kia/rio_x/</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>381</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3901,32 +3901,32 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Soul</t>
+          <t>Seltos</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>1030000</v>
+        <v>1020000</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/soul/</t>
+          <t>https://new-auto96.ru/auto/kia/seltos/</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>1030000</t>
+          <t>1020000</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/soul/</t>
+          <t>https://new-auto96.ru/auto/kia/seltos/</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>389</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3936,32 +3936,32 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Sportage 5</t>
+          <t>Sorento New</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>1860000</v>
+        <v>2120000</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/sportage/</t>
+          <t>https://new-auto96.ru/auto/kia/sorento/</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>1860000</t>
+          <t>2120000</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/sportage/</t>
+          <t>https://new-auto96.ru/auto/kia/sorento/</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>390</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3971,102 +3971,102 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>XCeed</t>
+          <t>Soul</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>1490000</v>
+        <v>1030000</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/xceed/</t>
+          <t>https://new-auto96.ru/auto/kia/soul/</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>1490000</t>
+          <t>1030000</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/kia/xceed/</t>
+          <t>https://new-auto96.ru/auto/kia/soul/</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>392</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Granta Cross</t>
+          <t>Sportage 5</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>500000</v>
+        <v>1860000</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/granta_cross/</t>
+          <t>https://new-auto96.ru/auto/kia/sportage/</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>500000</t>
+          <t>1860000</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/granta_cross/</t>
+          <t>https://new-auto96.ru/auto/kia/sportage/</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>395</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Granta Hatchback</t>
+          <t>XCeed</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>431100</v>
+        <v>1490000</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/granta_hatchback/</t>
+          <t>https://new-auto96.ru/auto/kia/xceed/</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>431100</t>
+          <t>1490000</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/granta_hatchback/</t>
+          <t>https://new-auto96.ru/auto/kia/xceed/</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>402</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -4076,32 +4076,32 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Granta Liftback</t>
+          <t>Granta Cross</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>440000</v>
+        <v>500000</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/granta_liftback/</t>
+          <t>https://new-auto96.ru/auto/lada/granta_cross/</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>440000</t>
+          <t>500000</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/granta_liftback/</t>
+          <t>https://new-auto96.ru/auto/lada/granta_cross/</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>404</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -4111,32 +4111,32 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Granta Sedan</t>
+          <t>Granta Hatchback</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>410000</v>
+        <v>431100</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/granta_sedan/</t>
+          <t>https://new-auto96.ru/auto/lada/granta_hatchback/</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>410000</t>
+          <t>431100</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/granta_sedan/</t>
+          <t>https://new-auto96.ru/auto/lada/granta_hatchback/</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>405</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -4146,32 +4146,32 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Granta Sedan Drive Active</t>
+          <t>Granta Liftback</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>680900</v>
+        <v>440000</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/granta_drive_active/</t>
+          <t>https://new-auto96.ru/auto/lada/granta_liftback/</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>680900</t>
+          <t>440000</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/granta_drive_active/</t>
+          <t>https://new-auto96.ru/auto/lada/granta_liftback/</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>406</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -4181,32 +4181,32 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Granta Universal</t>
+          <t>Granta Sedan</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>450000</v>
+        <v>410000</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/granta_universal/</t>
+          <t>https://new-auto96.ru/auto/lada/granta_sedan/</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>450000</t>
+          <t>410000</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/granta_universal/</t>
+          <t>https://new-auto96.ru/auto/lada/granta_sedan/</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>403</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -4216,32 +4216,32 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Largus Cross New</t>
+          <t>Granta Sedan Drive Active</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>760000</v>
+        <v>680900</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/largus_cross/</t>
+          <t>https://new-auto96.ru/auto/lada/granta_drive_active/</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>760000</t>
+          <t>680900</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/largus_cross/</t>
+          <t>https://new-auto96.ru/auto/lada/granta_drive_active/</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>449</t>
+          <t>414</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -4251,32 +4251,32 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Largus New</t>
+          <t>Granta Universal</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>718900</v>
+        <v>450000</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/largus/</t>
+          <t>https://new-auto96.ru/auto/lada/granta_universal/</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>718900</t>
+          <t>450000</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/largus/</t>
+          <t>https://new-auto96.ru/auto/lada/granta_universal/</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>451</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -4286,32 +4286,32 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Largus Фургон New</t>
+          <t>Largus Cross New</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>546000</v>
+        <v>760000</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/largus_furgon/</t>
+          <t>https://new-auto96.ru/auto/lada/largus_cross/</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>546000</t>
+          <t>760000</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/largus_furgon/</t>
+          <t>https://new-auto96.ru/auto/lada/largus_cross/</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>449</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -4321,32 +4321,32 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Niva Legend 3 двери</t>
+          <t>Largus New</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>520000</v>
+        <v>718900</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/4x4_3_dv/</t>
+          <t>https://new-auto96.ru/auto/lada/largus/</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>520000</t>
+          <t>718900</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/4x4_3_dv/</t>
+          <t>https://new-auto96.ru/auto/lada/largus/</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>454</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -4356,32 +4356,32 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Niva Legend 5 дверей</t>
+          <t>Largus Фургон New</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>570000</v>
+        <v>546000</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/4x4_5_dv/</t>
+          <t>https://new-auto96.ru/auto/lada/largus_furgon/</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>570000</t>
+          <t>546000</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/4x4_5_dv/</t>
+          <t>https://new-auto96.ru/auto/lada/largus_furgon/</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>423</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -4391,32 +4391,32 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Niva Off-Road</t>
+          <t>Niva Legend 3 двери</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>494400</v>
+        <v>520000</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/niva_off-road/</t>
+          <t>https://new-auto96.ru/auto/lada/4x4_3_dv/</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>494400</t>
+          <t>520000</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/niva_off-road/</t>
+          <t>https://new-auto96.ru/auto/lada/4x4_3_dv/</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>424</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -4426,32 +4426,32 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Niva Travel</t>
+          <t>Niva Legend 5 дверей</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>650000</v>
+        <v>570000</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/niva_travel/</t>
+          <t>https://new-auto96.ru/auto/lada/4x4_5_dv/</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>650000</t>
+          <t>570000</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/niva_travel/</t>
+          <t>https://new-auto96.ru/auto/lada/4x4_5_dv/</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>433</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -4461,32 +4461,32 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Vesta Cross</t>
+          <t>Niva Off-Road</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>761940</v>
+        <v>494400</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta_cross_1/</t>
+          <t>https://new-auto96.ru/auto/lada/niva_off-road/</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>761940</t>
+          <t>494400</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta_cross_1/</t>
+          <t>https://new-auto96.ru/auto/lada/niva_off-road/</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>434</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -4496,32 +4496,32 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Vesta Cross New</t>
+          <t>Niva Travel</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>1090000</v>
+        <v>650000</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta_cross/</t>
+          <t>https://new-auto96.ru/auto/lada/niva_travel/</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>1090000</t>
+          <t>650000</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta_cross/</t>
+          <t>https://new-auto96.ru/auto/lada/niva_travel/</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>437</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -4531,32 +4531,32 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Vesta SW</t>
+          <t>Vesta Cross</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>728340</v>
+        <v>761940</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta_sw_1/</t>
+          <t>https://new-auto96.ru/auto/lada/vesta_cross_1/</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>728340</t>
+          <t>761940</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta_sw_1/</t>
+          <t>https://new-auto96.ru/auto/lada/vesta_cross_1/</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>438</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -4566,32 +4566,32 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Vesta SW Cross</t>
+          <t>Vesta Cross New</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>797340</v>
+        <v>1090000</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta_sw_cross_1/</t>
+          <t>https://new-auto96.ru/auto/lada/vesta_cross/</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>797340</t>
+          <t>1090000</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta_sw_cross_1/</t>
+          <t>https://new-auto96.ru/auto/lada/vesta_cross/</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>443</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -4601,32 +4601,32 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Vesta SW Cross New</t>
+          <t>Vesta SW</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>1050000</v>
+        <v>728340</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta_sw_cross/</t>
+          <t>https://new-auto96.ru/auto/lada/vesta_sw_1/</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>1050000</t>
+          <t>728340</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta_sw_cross/</t>
+          <t>https://new-auto96.ru/auto/lada/vesta_sw_1/</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>445</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -4636,32 +4636,32 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Vesta SW New</t>
+          <t>Vesta SW Cross</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>950000</v>
+        <v>797340</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta_sw/</t>
+          <t>https://new-auto96.ru/auto/lada/vesta_sw_cross_1/</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>950000</t>
+          <t>797340</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta_sw/</t>
+          <t>https://new-auto96.ru/auto/lada/vesta_sw_cross_1/</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>446</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -4671,32 +4671,32 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Vesta Sedan</t>
+          <t>Vesta SW Cross New</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>673140</v>
+        <v>1050000</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta_1/</t>
+          <t>https://new-auto96.ru/auto/lada/vesta_sw_cross/</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>673140</t>
+          <t>1050000</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta_1/</t>
+          <t>https://new-auto96.ru/auto/lada/vesta_sw_cross/</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>444</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -4706,32 +4706,32 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Vesta Sedan CNG</t>
+          <t>Vesta SW New</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>790140</v>
+        <v>950000</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta_cng/</t>
+          <t>https://new-auto96.ru/auto/lada/vesta_sw/</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>790140</t>
+          <t>950000</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta_cng/</t>
+          <t>https://new-auto96.ru/auto/lada/vesta_sw/</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>435</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -4741,32 +4741,32 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Vesta Sedan New</t>
+          <t>Vesta Sedan</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>840000</v>
+        <v>673140</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta/</t>
+          <t>https://new-auto96.ru/auto/lada/vesta_1/</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>840000</t>
+          <t>673140</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta/</t>
+          <t>https://new-auto96.ru/auto/lada/vesta_1/</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>436</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -4776,32 +4776,32 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Vesta Sport</t>
+          <t>Vesta Sedan CNG</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>1030000</v>
+        <v>790140</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta_sport/</t>
+          <t>https://new-auto96.ru/auto/lada/vesta_cng/</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>1030000</t>
+          <t>790140</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta_sport/</t>
+          <t>https://new-auto96.ru/auto/lada/vesta_cng/</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>439</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -4811,32 +4811,32 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Xray</t>
+          <t>Vesta Sedan New</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>630000</v>
+        <v>840000</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/xray/</t>
+          <t>https://new-auto96.ru/auto/lada/vesta/</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>630000</t>
+          <t>840000</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/xray/</t>
+          <t>https://new-auto96.ru/auto/lada/vesta/</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>440</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -4846,102 +4846,102 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Xray Cross</t>
+          <t>Vesta Sport</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>680000</v>
+        <v>1030000</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/xray_cross/</t>
+          <t>https://new-auto96.ru/auto/lada/vesta_sport/</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>680000</t>
+          <t>1030000</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/xray_cross/</t>
+          <t>https://new-auto96.ru/auto/lada/vesta_sport/</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>447</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Lifan</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Murman</t>
+          <t>Xray</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>650300</v>
+        <v>630000</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lifan/murman/</t>
+          <t>https://new-auto96.ru/auto/lada/xray/</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>650300</t>
+          <t>630000</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lifan/murman/</t>
+          <t>https://new-auto96.ru/auto/lada/xray/</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>457</t>
+          <t>448</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Lifan</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>MyWay</t>
+          <t>Xray Cross</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>701300</v>
+        <v>680000</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lifan/myway/</t>
+          <t>https://new-auto96.ru/auto/lada/xray_cross/</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>701300</t>
+          <t>680000</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lifan/myway/</t>
+          <t>https://new-auto96.ru/auto/lada/xray_cross/</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>459</t>
+          <t>455</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -4951,32 +4951,32 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Solano 2</t>
+          <t>Murman</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>401300</v>
+        <v>650300</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lifan/solano_ii/</t>
+          <t>https://new-auto96.ru/auto/lifan/murman/</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>401300</t>
+          <t>650300</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lifan/solano_ii/</t>
+          <t>https://new-auto96.ru/auto/lifan/murman/</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>457</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -4986,32 +4986,32 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>X50</t>
+          <t>MyWay</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>420300</v>
+        <v>701300</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lifan/x50/</t>
+          <t>https://new-auto96.ru/auto/lifan/myway/</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>420300</t>
+          <t>701300</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lifan/x50/</t>
+          <t>https://new-auto96.ru/auto/lifan/myway/</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>459</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -5021,32 +5021,32 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>X60</t>
+          <t>Solano 2</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>491300</v>
+        <v>401300</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lifan/x60/</t>
+          <t>https://new-auto96.ru/auto/lifan/solano_ii/</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>491300</t>
+          <t>401300</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lifan/x60/</t>
+          <t>https://new-auto96.ru/auto/lifan/solano_ii/</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>463</t>
+          <t>460</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -5056,102 +5056,102 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>X70</t>
+          <t>X50</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>770300</v>
+        <v>420300</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lifan/x70/</t>
+          <t>https://new-auto96.ru/auto/lifan/x50/</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>770300</t>
+          <t>420300</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lifan/x70/</t>
+          <t>https://new-auto96.ru/auto/lifan/x50/</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>461</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>Lifan</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>S6 Pro</t>
+          <t>X60</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>1549900</v>
+        <v>491300</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/livan/s6pro/</t>
+          <t>https://new-auto96.ru/auto/lifan/x60/</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>1549900</t>
+          <t>491300</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/livan/s6pro/</t>
+          <t>https://new-auto96.ru/auto/lifan/x60/</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>463</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>Lifan</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>X70</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>1020000</v>
+        <v>770300</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/livan/x3pro/</t>
+          <t>https://new-auto96.ru/auto/lifan/x70/</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>1020000</t>
+          <t>770300</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/livan/x3pro/</t>
+          <t>https://new-auto96.ru/auto/lifan/x70/</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>466</t>
+          <t>464</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -5161,102 +5161,102 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>X6 Pro</t>
+          <t>S6 Pro</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>1629900</v>
+        <v>1549900</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/livan/x6pro/</t>
+          <t>https://new-auto96.ru/auto/livan/s6pro/</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>1629900</t>
+          <t>1549900</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/livan/x6pro/</t>
+          <t>https://new-auto96.ru/auto/livan/s6pro/</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>465</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>1200000</v>
+        <v>1020000</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/moskvich/3/</t>
+          <t>https://new-auto96.ru/auto/livan/x3pro/</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>1200000</t>
+          <t>1020000</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/moskvich/3/</t>
+          <t>https://new-auto96.ru/auto/livan/x3pro/</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>510</t>
+          <t>466</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>3e</t>
+          <t>X6 Pro</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>1750000</v>
+        <v>1629900</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/moskvich/3e/</t>
+          <t>https://new-auto96.ru/auto/livan/x6pro/</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>1750000</t>
+          <t>1629900</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/moskvich/3e/</t>
+          <t>https://new-auto96.ru/auto/livan/x6pro/</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>509</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -5266,102 +5266,102 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>1136000</v>
+        <v>1200000</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/moskvich/6/</t>
+          <t>https://new-auto96.ru/auto/moskvich/3/</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>1136000</t>
+          <t>1200000</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/moskvich/6/</t>
+          <t>https://new-auto96.ru/auto/moskvich/3/</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>517</t>
+          <t>510</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Murano</t>
+          <t>3e</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>2570000</v>
+        <v>1750000</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/nissan/murano/</t>
+          <t>https://new-auto96.ru/auto/moskvich/3e/</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>2570000</t>
+          <t>1750000</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/nissan/murano/</t>
+          <t>https://new-auto96.ru/auto/moskvich/3e/</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>511</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Qashqai</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>1300000</v>
+        <v>1136000</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/nissan/qashqai/</t>
+          <t>https://new-auto96.ru/auto/moskvich/6/</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>1300000</t>
+          <t>1136000</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/nissan/qashqai/</t>
+          <t>https://new-auto96.ru/auto/moskvich/6/</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>522</t>
+          <t>517</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -5371,32 +5371,32 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Terrano</t>
+          <t>Murano</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>890000</v>
+        <v>2570000</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/nissan/terrano/</t>
+          <t>https://new-auto96.ru/auto/nissan/murano/</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>890000</t>
+          <t>2570000</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/nissan/terrano/</t>
+          <t>https://new-auto96.ru/auto/nissan/murano/</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>523</t>
+          <t>520</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -5406,172 +5406,172 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>X-trail</t>
+          <t>Qashqai</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>1530000</v>
+        <v>1300000</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/nissan/x-trail/</t>
+          <t>https://new-auto96.ru/auto/nissan/qashqai/</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>1530000</t>
+          <t>1300000</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/nissan/x-trail/</t>
+          <t>https://new-auto96.ru/auto/nissan/qashqai/</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>522</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>C5</t>
+          <t>Terrano</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1360000</v>
+        <v>890000</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/omoda/c5/</t>
+          <t>https://new-auto96.ru/auto/nissan/terrano/</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>1360000</t>
+          <t>890000</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/omoda/c5/</t>
+          <t>https://new-auto96.ru/auto/nissan/terrano/</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>523</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>X-trail</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>1260000</v>
+        <v>1530000</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/omoda/s5/</t>
+          <t>https://new-auto96.ru/auto/nissan/x-trail/</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>1260000</t>
+          <t>1530000</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/omoda/s5/</t>
+          <t>https://new-auto96.ru/auto/nissan/x-trail/</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>525</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Arkana</t>
+          <t>C5</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>909000</v>
+        <v>1360000</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/renault/arkana/</t>
+          <t>https://new-auto96.ru/auto/omoda/c5/</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>909000</t>
+          <t>1360000</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/renault/arkana/</t>
+          <t>https://new-auto96.ru/auto/omoda/c5/</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>526</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Duster New</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>750000</v>
+        <v>1260000</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/renault/duster/</t>
+          <t>https://new-auto96.ru/auto/omoda/s5/</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>750000</t>
+          <t>1260000</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/renault/duster/</t>
+          <t>https://new-auto96.ru/auto/omoda/s5/</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>549</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -5581,32 +5581,32 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Kaptur</t>
+          <t>Arkana</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>780000</v>
+        <v>909000</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/renault/kaptur/</t>
+          <t>https://new-auto96.ru/auto/renault/arkana/</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>780000</t>
+          <t>909000</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/renault/kaptur/</t>
+          <t>https://new-auto96.ru/auto/renault/arkana/</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>555</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -5616,32 +5616,32 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Logan</t>
+          <t>Duster New</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>499000</v>
+        <v>750000</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/renault/logan/</t>
+          <t>https://new-auto96.ru/auto/renault/duster/</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>499000</t>
+          <t>750000</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/renault/logan/</t>
+          <t>https://new-auto96.ru/auto/renault/duster/</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>559</t>
+          <t>556</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -5651,32 +5651,32 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Logan Stepway</t>
+          <t>Kaptur</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>650000</v>
+        <v>780000</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/renault/logan_stepway/</t>
+          <t>https://new-auto96.ru/auto/renault/kaptur/</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>650000</t>
+          <t>780000</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/renault/logan_stepway/</t>
+          <t>https://new-auto96.ru/auto/renault/kaptur/</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>558</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -5686,32 +5686,32 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Sandero</t>
+          <t>Logan</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>540000</v>
+        <v>499000</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/renault/sandero/</t>
+          <t>https://new-auto96.ru/auto/renault/logan/</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>540000</t>
+          <t>499000</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/renault/sandero/</t>
+          <t>https://new-auto96.ru/auto/renault/logan/</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>559</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -5721,102 +5721,102 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Sandero Stepway</t>
+          <t>Logan Stepway</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>565300</v>
+        <v>650000</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/renault/sandero_stepway/</t>
+          <t>https://new-auto96.ru/auto/renault/logan_stepway/</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>565300</t>
+          <t>650000</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/renault/sandero_stepway/</t>
+          <t>https://new-auto96.ru/auto/renault/logan_stepway/</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>571</t>
+          <t>565</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Karoq</t>
+          <t>Sandero</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>1240000</v>
+        <v>540000</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/skoda/karoq/</t>
+          <t>https://new-auto96.ru/auto/renault/sandero/</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>1240000</t>
+          <t>540000</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/skoda/karoq/</t>
+          <t>https://new-auto96.ru/auto/renault/sandero/</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>566</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Kodiaq New</t>
+          <t>Sandero Stepway</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>1745000</v>
+        <v>565300</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/skoda/kodiaq/</t>
+          <t>https://new-auto96.ru/auto/renault/sandero_stepway/</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>1745000</t>
+          <t>565300</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/skoda/kodiaq/</t>
+          <t>https://new-auto96.ru/auto/renault/sandero_stepway/</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>579</t>
+          <t>571</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -5826,32 +5826,32 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Octavia New</t>
+          <t>Karoq</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>1170000</v>
+        <v>1240000</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/skoda/octavia/</t>
+          <t>https://new-auto96.ru/auto/skoda/karoq/</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>1170000</t>
+          <t>1240000</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/skoda/octavia/</t>
+          <t>https://new-auto96.ru/auto/skoda/karoq/</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>581</t>
+          <t>576</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -5861,32 +5861,32 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Rapid</t>
+          <t>Kodiaq New</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>720000</v>
+        <v>1745000</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/skoda/rapid/</t>
+          <t>https://new-auto96.ru/auto/skoda/kodiaq/</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>720000</t>
+          <t>1745000</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/skoda/rapid/</t>
+          <t>https://new-auto96.ru/auto/skoda/kodiaq/</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>579</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -5896,32 +5896,32 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Superb</t>
+          <t>Octavia New</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>1240000</v>
+        <v>1170000</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/skoda/superb/</t>
+          <t>https://new-auto96.ru/auto/skoda/octavia/</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>1240000</t>
+          <t>1170000</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/skoda/superb/</t>
+          <t>https://new-auto96.ru/auto/skoda/octavia/</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>586</t>
+          <t>581</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -5931,102 +5931,102 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Superb Combi</t>
+          <t>Rapid</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>2290200</v>
+        <v>720000</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/skoda/superb_combi/</t>
+          <t>https://new-auto96.ru/auto/skoda/rapid/</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>2290200</t>
+          <t>720000</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/skoda/superb_combi/</t>
+          <t>https://new-auto96.ru/auto/skoda/rapid/</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>594</t>
+          <t>585</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>Superb</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>1499400</v>
+        <v>1240000</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/solaris/hc/</t>
+          <t>https://new-auto96.ru/auto/skoda/superb/</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>1499400</t>
+          <t>1240000</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/solaris/hc/</t>
+          <t>https://new-auto96.ru/auto/skoda/superb/</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>586</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>HS</t>
+          <t>Superb Combi</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>1206000</v>
+        <v>2290200</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/solaris/hs/</t>
+          <t>https://new-auto96.ru/auto/skoda/superb_combi/</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>1206000</t>
+          <t>2290200</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/solaris/hs/</t>
+          <t>https://new-auto96.ru/auto/skoda/superb_combi/</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>594</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -6036,32 +6036,32 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>KRS</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>1222800</v>
+        <v>1499400</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/solaris/krs/</t>
+          <t>https://new-auto96.ru/auto/solaris/hc/</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>1222800</t>
+          <t>1499400</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/solaris/krs/</t>
+          <t>https://new-auto96.ru/auto/solaris/hc/</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>595</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -6071,172 +6071,172 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>KRX</t>
+          <t>HS</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>1238400</v>
+        <v>1206000</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/solaris/krx/</t>
+          <t>https://new-auto96.ru/auto/solaris/hs/</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>1238400</t>
+          <t>1206000</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/solaris/krx/</t>
+          <t>https://new-auto96.ru/auto/solaris/hs/</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>596</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>KRS</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>2729300</v>
+        <v>1222800</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/tank/300/</t>
+          <t>https://new-auto96.ru/auto/solaris/krs/</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>2729300</t>
+          <t>1222800</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/tank/300/</t>
+          <t>https://new-auto96.ru/auto/solaris/krs/</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>615</t>
+          <t>597</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>KRX</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>3788000</v>
+        <v>1238400</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/tank/500/</t>
+          <t>https://new-auto96.ru/auto/solaris/krx/</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>3788000</t>
+          <t>1238400</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/tank/500/</t>
+          <t>https://new-auto96.ru/auto/solaris/krx/</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>633</t>
+          <t>614</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>UAZ</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Hunter</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>562900</v>
+        <v>2729300</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/uaz/hunter/</t>
+          <t>https://new-auto96.ru/auto/tank/300/</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>562900</t>
+          <t>2729300</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/uaz/hunter/</t>
+          <t>https://new-auto96.ru/auto/tank/300/</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>634</t>
+          <t>615</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>UAZ</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Patriot</t>
+          <t>500</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>1009000</v>
+        <v>3788000</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/uaz/patriot/</t>
+          <t>https://new-auto96.ru/auto/tank/500/</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>1009000</t>
+          <t>3788000</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/uaz/patriot/</t>
+          <t>https://new-auto96.ru/auto/tank/500/</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>636</t>
+          <t>633</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -6246,102 +6246,102 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Patriot Pickup</t>
+          <t>Hunter</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>780000</v>
+        <v>562900</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/uaz/patriot_pickup/</t>
+          <t>https://new-auto96.ru/auto/uaz/hunter/</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>780000</t>
+          <t>562900</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/uaz/patriot_pickup/</t>
+          <t>https://new-auto96.ru/auto/uaz/hunter/</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>645</t>
+          <t>634</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>UAZ</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Patriot</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>1180000</v>
+        <v>1009000</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/volkswagen/jetta/</t>
+          <t>https://new-auto96.ru/auto/uaz/patriot/</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>1180000</t>
+          <t>1009000</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/volkswagen/jetta/</t>
+          <t>https://new-auto96.ru/auto/uaz/patriot/</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>649</t>
+          <t>636</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>UAZ</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Passat</t>
+          <t>Patriot Pickup</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>1120000</v>
+        <v>780000</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/volkswagen/passat/</t>
+          <t>https://new-auto96.ru/auto/uaz/patriot_pickup/</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>1120000</t>
+          <t>780000</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/volkswagen/passat/</t>
+          <t>https://new-auto96.ru/auto/uaz/patriot_pickup/</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>652</t>
+          <t>645</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -6351,32 +6351,32 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Polo</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>730000</v>
+        <v>1180000</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/volkswagen/polo/</t>
+          <t>https://new-auto96.ru/auto/volkswagen/jetta/</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>730000</t>
+          <t>1180000</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/volkswagen/polo/</t>
+          <t>https://new-auto96.ru/auto/volkswagen/jetta/</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>653</t>
+          <t>649</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -6386,32 +6386,32 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Taos</t>
+          <t>Passat</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>1464000</v>
+        <v>1120000</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/volkswagen/taos/</t>
+          <t>https://new-auto96.ru/auto/volkswagen/passat/</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>1464000</t>
+          <t>1120000</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/volkswagen/taos/</t>
+          <t>https://new-auto96.ru/auto/volkswagen/passat/</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>658</t>
+          <t>652</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -6421,93 +6421,163 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Tiguan New</t>
+          <t>Polo</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>1529300</v>
+        <v>730000</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/volkswagen/tiguan/</t>
+          <t>https://new-auto96.ru/auto/volkswagen/polo/</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>1529300</t>
+          <t>730000</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/volkswagen/tiguan/</t>
+          <t>https://new-auto96.ru/auto/volkswagen/polo/</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>672</t>
+          <t>653</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Zotye</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Coupa</t>
+          <t>Taos</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>750300</v>
+        <v>1464000</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/zotye/coupa/</t>
+          <t>https://new-auto96.ru/auto/volkswagen/taos/</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>750300</t>
+          <t>1464000</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/zotye/coupa/</t>
+          <t>https://new-auto96.ru/auto/volkswagen/taos/</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
+          <t>658</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Tiguan New</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>1529300</v>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>https://new-auto96.ru/auto/volkswagen/tiguan/</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>1529300</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>https://new-auto96.ru/auto/volkswagen/tiguan/</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>672</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Zotye</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Coupa</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>750300</v>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>https://new-auto96.ru/auto/zotye/coupa/</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>750300</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>https://new-auto96.ru/auto/zotye/coupa/</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
           <t>674</t>
         </is>
       </c>
-      <c r="B174" t="inlineStr">
+      <c r="B176" t="inlineStr">
         <is>
           <t>Zotye</t>
         </is>
       </c>
-      <c r="C174" t="inlineStr">
+      <c r="C176" t="inlineStr">
         <is>
           <t>T600</t>
         </is>
       </c>
-      <c r="D174" t="n">
+      <c r="D176" t="n">
         <v>570300</v>
       </c>
-      <c r="E174" t="inlineStr">
+      <c r="E176" t="inlineStr">
         <is>
           <t>https://new-auto96.ru/auto/zotye/t600/</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
+      <c r="F176" t="inlineStr">
         <is>
           <t>570300</t>
         </is>
       </c>
-      <c r="G174" t="inlineStr">
+      <c r="G176" t="inlineStr">
         <is>
           <t>https://new-auto96.ru/auto/zotye/t600/</t>
         </is>

--- a/xlsx/ekaterinburg.xlsx
+++ b/xlsx/ekaterinburg.xlsx
@@ -449,12 +449,12 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
+          <t>new-auto96.ru_price</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
           <t>new-auto96.ru</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>new-auto96.ru_price</t>
         </is>
       </c>
     </row>

--- a/xlsx/ekaterinburg.xlsx
+++ b/xlsx/ekaterinburg.xlsx
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1523940</v>
+        <v>1160000</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -2079,7 +2079,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/changan/uni-k/suv</t>
+          <t>https://kit-autoshop.ru/auto/changan/uni-k/i/suv-5d</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2111,7 +2111,7 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2321940</v>
+        <v>2183940</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/changan/uni-v/liftback</t>
+          <t>https://kit-autoshop.ru/auto/changan/uni-v/i/liftback</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2257,7 +2257,7 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>1829940</v>
+        <v>1715940</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>1980000</v>
+        <v>1950000</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -3299,7 +3299,7 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>1980000</v>
+        <v>1950000</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
@@ -4617,7 +4617,7 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>2220000</v>
+        <v>1920000</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/geely/Atlas/cuv</t>
+          <t>https://kit-autoshop.ru/auto/geely/atlas/i/suv-5d</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -6291,7 +6291,7 @@
         </is>
       </c>
       <c r="L120" t="n">
-        <v>1040000</v>
+        <v>903394</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
@@ -6413,7 +6413,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/geely/atlas-pro/cuv</t>
+          <t>https://kit-autoshop.ru/auto/geely/atlas-pro/i/suv-5d</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -6445,7 +6445,7 @@
         </is>
       </c>
       <c r="L122" t="n">
-        <v>1519990</v>
+        <v>1331394</v>
       </c>
       <c r="M122" t="inlineStr">
         <is>
@@ -6620,7 +6620,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/geely/coolray-new/suv-5d-1gen-rest</t>
+          <t>https://kit-autoshop.ru/auto/geely/coolray/i-restyling/suv-5d</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -6652,7 +6652,7 @@
         </is>
       </c>
       <c r="L125" t="n">
-        <v>1594990</v>
+        <v>1439990</v>
       </c>
       <c r="M125" t="inlineStr">
         <is>
@@ -6734,7 +6734,7 @@
         </is>
       </c>
       <c r="L127" t="n">
-        <v>1294794</v>
+        <v>1240000</v>
       </c>
       <c r="M127" t="inlineStr">
         <is>
@@ -7224,7 +7224,7 @@
         </is>
       </c>
       <c r="L137" t="n">
-        <v>2375994</v>
+        <v>1919500</v>
       </c>
       <c r="M137" t="inlineStr">
         <is>
@@ -7536,7 +7536,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/haval/dargo/cuv</t>
+          <t>https://kit-autoshop.ru/auto/haval/dargo/i/suv-5d</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -7568,7 +7568,7 @@
         </is>
       </c>
       <c r="L145" t="n">
-        <v>1829400</v>
+        <v>1599400</v>
       </c>
       <c r="M145" t="inlineStr">
         <is>
@@ -7686,7 +7686,7 @@
         </is>
       </c>
       <c r="L147" t="n">
-        <v>1469400</v>
+        <v>950000</v>
       </c>
       <c r="M147" t="inlineStr">
         <is>
@@ -7828,14 +7828,6 @@
           <t>https://primeauto-ekb.ru/new/haval/f7x</t>
         </is>
       </c>
-      <c r="L150" t="n">
-        <v>1499400</v>
-      </c>
-      <c r="M150" t="inlineStr">
-        <is>
-          <t>https://kit-autoshop.ru/auto/haval/f_7_x/i/suv-5d</t>
-        </is>
-      </c>
       <c r="N150" t="n">
         <v>990000</v>
       </c>
@@ -8332,7 +8324,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/haval/jolion/cuv</t>
+          <t>https://kit-autoshop.ru/auto/haval/jolion/i/suv-5d</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -8364,7 +8356,7 @@
         </is>
       </c>
       <c r="L161" t="n">
-        <v>889000</v>
+        <v>869400</v>
       </c>
       <c r="M161" t="inlineStr">
         <is>
@@ -8691,7 +8683,7 @@
         </is>
       </c>
       <c r="L168" t="n">
-        <v>1115400</v>
+        <v>760000</v>
       </c>
       <c r="M168" t="inlineStr">
         <is>
@@ -8834,7 +8826,7 @@
         </is>
       </c>
       <c r="L171" t="n">
-        <v>1289400</v>
+        <v>1100000</v>
       </c>
       <c r="M171" t="inlineStr">
         <is>
@@ -9431,7 +9423,7 @@
         </is>
       </c>
       <c r="L184" t="n">
-        <v>1649400</v>
+        <v>1260000</v>
       </c>
       <c r="M184" t="inlineStr">
         <is>
@@ -11179,7 +11171,7 @@
         </is>
       </c>
       <c r="L216" t="n">
-        <v>1295940</v>
+        <v>1030000</v>
       </c>
       <c r="M216" t="inlineStr">
         <is>
@@ -11490,7 +11482,7 @@
         </is>
       </c>
       <c r="L223" t="n">
-        <v>800940</v>
+        <v>740000</v>
       </c>
       <c r="M223" t="inlineStr">
         <is>
@@ -11637,7 +11629,7 @@
         </is>
       </c>
       <c r="L226" t="n">
-        <v>860940</v>
+        <v>710000</v>
       </c>
       <c r="M226" t="inlineStr">
         <is>
@@ -12147,7 +12139,7 @@
         </is>
       </c>
       <c r="L236" t="n">
-        <v>1709940</v>
+        <v>1270000</v>
       </c>
       <c r="M236" t="inlineStr">
         <is>
@@ -12446,7 +12438,7 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/lada/granta-cross/2019</t>
+          <t>https://kit-autoshop.ru/auto/lada/granta/i-restyling/cross</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
@@ -12478,7 +12470,7 @@
         </is>
       </c>
       <c r="L243" t="n">
-        <v>500000</v>
+        <v>445380</v>
       </c>
       <c r="M243" t="inlineStr">
         <is>
@@ -13190,7 +13182,7 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/lada/largus/wa</t>
+          <t>https://kit-autoshop.ru/auto/lada/largus/i-restyling/wagon-5d</t>
         </is>
       </c>
       <c r="J259" t="n">
@@ -13202,7 +13194,7 @@
         </is>
       </c>
       <c r="L259" t="n">
-        <v>996000</v>
+        <v>393000</v>
       </c>
       <c r="M259" t="inlineStr">
         <is>
@@ -13251,7 +13243,7 @@
         </is>
       </c>
       <c r="L260" t="n">
-        <v>866340</v>
+        <v>765000</v>
       </c>
       <c r="M260" t="inlineStr">
         <is>
@@ -13472,7 +13464,7 @@
         </is>
       </c>
       <c r="L265" t="n">
-        <v>1002000</v>
+        <v>546000</v>
       </c>
       <c r="M265" t="inlineStr">
         <is>
@@ -14267,7 +14259,7 @@
         </is>
       </c>
       <c r="L280" t="n">
-        <v>1050000</v>
+        <v>907140</v>
       </c>
       <c r="M280" t="inlineStr">
         <is>
@@ -17165,7 +17157,7 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/omoda/c5/cuv</t>
+          <t>https://kit-autoshop.ru/auto/omoda/c5/i/suv-5d</t>
         </is>
       </c>
       <c r="F342" t="inlineStr">
@@ -17197,7 +17189,7 @@
         </is>
       </c>
       <c r="L342" t="n">
-        <v>1360000</v>
+        <v>979900</v>
       </c>
       <c r="M342" t="inlineStr">
         <is>
@@ -17697,7 +17689,7 @@
         </is>
       </c>
       <c r="L354" t="n">
-        <v>970800</v>
+        <v>750000</v>
       </c>
       <c r="M354" t="inlineStr">
         <is>
@@ -18997,7 +18989,7 @@
         </is>
       </c>
       <c r="L382" t="n">
-        <v>630600</v>
+        <v>560000</v>
       </c>
       <c r="M382" t="inlineStr">
         <is>
@@ -20202,6 +20194,14 @@
           <t>https://new-auto96.ru/auto/uaz/patriot_pickup/</t>
         </is>
       </c>
+      <c r="L408" t="n">
+        <v>1023000</v>
+      </c>
+      <c r="M408" t="inlineStr">
+        <is>
+          <t>https://kit-autoshop.ru/auto/uaz/patriot/1rest-3/pickup</t>
+        </is>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
@@ -20798,7 +20798,7 @@
         </is>
       </c>
       <c r="L423" t="n">
-        <v>730000</v>
+        <v>480000</v>
       </c>
       <c r="M423" t="inlineStr">
         <is>
@@ -20982,7 +20982,7 @@
         </is>
       </c>
       <c r="L427" t="n">
-        <v>2025540</v>
+        <v>1230000</v>
       </c>
       <c r="M427" t="inlineStr">
         <is>

--- a/xlsx/ekaterinburg.xlsx
+++ b/xlsx/ekaterinburg.xlsx
@@ -8924,7 +8924,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/hyundai/h-1-starex/ii-res2-minivan-5/</t>
+          <t>https://primeauto-ekb.ru/new/hyundai/h-1</t>
         </is>
       </c>
       <c r="N173" t="n">
@@ -8935,14 +8935,6 @@
           <t>https://primeauto-ekb.ru/new/hyundai/h-1</t>
         </is>
       </c>
-      <c r="P173" t="n">
-        <v>2090000</v>
-      </c>
-      <c r="Q173" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/hyundai/h-1-starex/ii-res2-minivan-5/</t>
-        </is>
-      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -20000,7 +19992,7 @@
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/uaz/hunter/2003-allroad-5/</t>
+          <t>https://new-auto96.ru/auto/uaz/hunter/</t>
         </is>
       </c>
       <c r="F405" t="inlineStr">
@@ -20037,14 +20029,6 @@
       <c r="M405" t="inlineStr">
         <is>
           <t>https://kit-autoshop.ru/auto/uaz/hunter/i/suv-5d</t>
-        </is>
-      </c>
-      <c r="P405" t="n">
-        <v>562900</v>
-      </c>
-      <c r="Q405" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/uaz/hunter/2003-allroad-5/</t>
         </is>
       </c>
     </row>

--- a/xlsx/ekaterinburg.xlsx
+++ b/xlsx/ekaterinburg.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q417"/>
+  <dimension ref="A1:Q420"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1029,6 +1029,14 @@
           <t>https://uu-stoks.ru/auto/changan/cs35-plus_cs35-plus</t>
         </is>
       </c>
+      <c r="J13" t="n">
+        <v>1403940</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>https://autosalon-kit.ru/auto/changan/cs35plusnew/cuv</t>
+        </is>
+      </c>
       <c r="N13" t="n">
         <v>1160000</v>
       </c>
@@ -1088,14 +1096,6 @@
           <t>https://new-auto96.ru/auto/changan/cs35_plus/</t>
         </is>
       </c>
-      <c r="J14" t="n">
-        <v>1403940</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>https://autosalon-kit.ru/auto/changan/cs35plusnew/cuv</t>
-        </is>
-      </c>
       <c r="N14" t="n">
         <v>1670000</v>
       </c>
@@ -4374,14 +4374,6 @@
           <t>https://uu-stoks.ru/auto/exeed/txl-new_suv</t>
         </is>
       </c>
-      <c r="J84" t="n">
-        <v>2556000</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>https://autosalon-kit.ru/auto/exeed/txl-new/suv</t>
-        </is>
-      </c>
       <c r="N84" t="n">
         <v>2220000</v>
       </c>
@@ -5056,6 +5048,14 @@
           <t>https://new-auto96.ru/auto/faw/x40/</t>
         </is>
       </c>
+      <c r="J100" t="n">
+        <v>961200</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>https://autosalon-kit.ru/auto/faw/new-x40/2019</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -5074,11 +5074,11 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>961200</v>
+        <v>1522000</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/faw/new-x40/2019</t>
+          <t>https://uu-stoks.ru/auto/faw/new-x40_2019</t>
         </is>
       </c>
       <c r="F101" t="n">
@@ -5089,14 +5089,6 @@
           <t>https://uu-stoks.ru/auto/faw/new-x40_2019</t>
         </is>
       </c>
-      <c r="J101" t="n">
-        <v>961200</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>https://autosalon-kit.ru/auto/faw/new-x40/2019</t>
-        </is>
-      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -6986,6 +6978,14 @@
           <t>https://uu-stoks.ru/auto/haval/haval-f7_2019</t>
         </is>
       </c>
+      <c r="J144" t="n">
+        <v>1439400</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>https://autosalon-kit.ru/auto/haval/new-f-7/cuv</t>
+        </is>
+      </c>
       <c r="N144" t="n">
         <v>950000</v>
       </c>
@@ -7037,14 +7037,6 @@
           <t>https://new-auto96.ru/auto/haval/f7/</t>
         </is>
       </c>
-      <c r="J145" t="n">
-        <v>1439400</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>https://autosalon-kit.ru/auto/haval/new-f-7/cuv</t>
-        </is>
-      </c>
       <c r="N145" t="n">
         <v>1420000</v>
       </c>
@@ -7127,6 +7119,14 @@
           <t>https://uu-stoks.ru/auto/haval/f-7x_f7x</t>
         </is>
       </c>
+      <c r="J147" t="n">
+        <v>1469400</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>https://autosalon-kit.ru/auto/haval/new-f-7-x/cuv</t>
+        </is>
+      </c>
       <c r="N147" t="n">
         <v>990000</v>
       </c>
@@ -7178,14 +7178,6 @@
           <t>https://new-auto96.ru/auto/haval/f7x/</t>
         </is>
       </c>
-      <c r="J148" t="n">
-        <v>1469400</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>https://autosalon-kit.ru/auto/haval/new-f-7-x/cuv</t>
-        </is>
-      </c>
       <c r="N148" t="n">
         <v>1620000</v>
       </c>
@@ -7864,6 +7856,14 @@
           <t>https://primeauto-ekb.ru/new/hyundai/creta</t>
         </is>
       </c>
+      <c r="J164" t="n">
+        <v>1115400</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>https://autosalon-kit.ru/auto/hyundai/creta-new/cuv</t>
+        </is>
+      </c>
       <c r="N164" t="n">
         <v>760000</v>
       </c>
@@ -7923,14 +7923,6 @@
           <t>https://new-auto96.ru/auto/hyundai/creta/</t>
         </is>
       </c>
-      <c r="J165" t="n">
-        <v>1115400</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>https://autosalon-kit.ru/auto/hyundai/creta-new/cuv</t>
-        </is>
-      </c>
       <c r="N165" t="n">
         <v>920000</v>
       </c>
@@ -7997,6 +7989,14 @@
           <t>https://primeauto-ekb.ru/new/hyundai/elantra</t>
         </is>
       </c>
+      <c r="J167" t="n">
+        <v>1289400</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>https://autosalon-kit.ru/auto/hyundai/elantra-new/sedan</t>
+        </is>
+      </c>
       <c r="N167" t="n">
         <v>1100000</v>
       </c>
@@ -8056,14 +8056,6 @@
           <t>https://new-auto96.ru/auto/hyundai/elantra/</t>
         </is>
       </c>
-      <c r="J168" t="n">
-        <v>1289400</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>https://autosalon-kit.ru/auto/hyundai/elantra-new/sedan</t>
-        </is>
-      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -8323,6 +8315,14 @@
           <t>https://new-auto96.ru/auto/hyundai/solaris/</t>
         </is>
       </c>
+      <c r="J175" t="n">
+        <v>844800</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>https://autosalon-kit.ru/auto/hyundai/new-solaris/new-solaris</t>
+        </is>
+      </c>
       <c r="N175" t="n">
         <v>690000</v>
       </c>
@@ -8372,14 +8372,6 @@
           <t>https://uu-stoks.ru/auto/hyundai/new-solaris_new-solaris</t>
         </is>
       </c>
-      <c r="J176" t="n">
-        <v>844800</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>https://autosalon-kit.ru/auto/hyundai/new-solaris/new-solaris</t>
-        </is>
-      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -8415,6 +8407,14 @@
           <t>https://new-auto96.ru/auto/hyundai/sonata/</t>
         </is>
       </c>
+      <c r="J177" t="n">
+        <v>1661400</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>https://autosalon-kit.ru/auto/hyundai/sonata-new/2020</t>
+        </is>
+      </c>
       <c r="N177" t="n">
         <v>1390000</v>
       </c>
@@ -8464,14 +8464,6 @@
           <t>https://uu-stoks.ru/auto/hyundai/new-sonata_new-sonata</t>
         </is>
       </c>
-      <c r="J178" t="n">
-        <v>1661400</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>https://autosalon-kit.ru/auto/hyundai/sonata-new/2020</t>
-        </is>
-      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -8579,6 +8571,14 @@
           <t>https://primeauto-ekb.ru/new/hyundai/tucson-2020</t>
         </is>
       </c>
+      <c r="J181" t="n">
+        <v>1649400</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>https://autosalon-kit.ru/auto/hyundai/tucson-new/cuv</t>
+        </is>
+      </c>
       <c r="N181" t="n">
         <v>1260000</v>
       </c>
@@ -8630,14 +8630,6 @@
           <t>https://new-auto96.ru/auto/hyundai/tucson/</t>
         </is>
       </c>
-      <c r="J182" t="n">
-        <v>1649400</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>https://autosalon-kit.ru/auto/hyundai/tucson-new/cuv</t>
-        </is>
-      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -10035,6 +10027,14 @@
           <t>https://new-auto96.ru/auto/kia/ceed/</t>
         </is>
       </c>
+      <c r="J211" t="n">
+        <v>1346940</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>https://autosalon-kit.ru/auto/kia/ceed-new/hatch</t>
+        </is>
+      </c>
       <c r="N211" t="n">
         <v>1210000</v>
       </c>
@@ -10084,14 +10084,6 @@
           <t>https://uu-stoks.ru/auto/kia/ceed-new_hatch</t>
         </is>
       </c>
-      <c r="J212" t="n">
-        <v>1346940</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>https://autosalon-kit.ru/auto/kia/ceed-new/hatch</t>
-        </is>
-      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -10135,6 +10127,14 @@
           <t>https://new-auto96.ru/auto/kia/ceed_sw/</t>
         </is>
       </c>
+      <c r="J213" t="n">
+        <v>1388940</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>https://autosalon-kit.ru/auto/kia/ceed-sw-new/hatch</t>
+        </is>
+      </c>
       <c r="N213" t="n">
         <v>1250000</v>
       </c>
@@ -10176,14 +10176,6 @@
           <t>https://uu-stoks.ru/auto/kia/ceed-sw-new_hatch</t>
         </is>
       </c>
-      <c r="J214" t="n">
-        <v>1388940</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>https://autosalon-kit.ru/auto/kia/ceed-sw-new/hatch</t>
-        </is>
-      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -10250,6 +10242,14 @@
           <t>https://uu-stoks.ru/auto/kia/new-cerato_newceratosedan</t>
         </is>
       </c>
+      <c r="J216" t="n">
+        <v>1232940</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>https://autosalon-kit.ru/auto/kia/cerato-new/sed</t>
+        </is>
+      </c>
       <c r="N216" t="n">
         <v>1030000</v>
       </c>
@@ -10301,14 +10301,6 @@
           <t>https://new-auto96.ru/auto/kia/cerato/</t>
         </is>
       </c>
-      <c r="J217" t="n">
-        <v>1232940</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>https://autosalon-kit.ru/auto/kia/cerato-new/sed</t>
-        </is>
-      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -10574,6 +10566,14 @@
           <t>https://primeauto-ekb.ru/new/kia/picanto</t>
         </is>
       </c>
+      <c r="J224" t="n">
+        <v>800940</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>https://autosalon-kit.ru/auto/kia/picanto-new/hatch</t>
+        </is>
+      </c>
       <c r="N224" t="n">
         <v>740000</v>
       </c>
@@ -10615,14 +10615,6 @@
           <t>https://uu-stoks.ru/auto/kia/picanto-new_hatch</t>
         </is>
       </c>
-      <c r="J225" t="n">
-        <v>800940</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>https://autosalon-kit.ru/auto/kia/picanto-new/hatch</t>
-        </is>
-      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -10648,6 +10640,14 @@
           <t>https://primeauto-ekb.ru/new/kia/rio</t>
         </is>
       </c>
+      <c r="J226" t="n">
+        <v>860940</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>https://autosalon-kit.ru/auto/kia/rio-new/sed</t>
+        </is>
+      </c>
       <c r="N226" t="n">
         <v>710000</v>
       </c>
@@ -10707,14 +10707,6 @@
           <t>https://new-auto96.ru/auto/kia/rio/</t>
         </is>
       </c>
-      <c r="J227" t="n">
-        <v>860940</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>https://autosalon-kit.ru/auto/kia/rio-new/sed</t>
-        </is>
-      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -10758,14 +10750,6 @@
           <t>https://new-auto96.ru/auto/kia/rio_x/</t>
         </is>
       </c>
-      <c r="J228" t="n">
-        <v>944940</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>https://autosalon-kit.ru/auto/kia/rio-x/hatch</t>
-        </is>
-      </c>
       <c r="N228" t="n">
         <v>830000</v>
       </c>
@@ -10815,6 +10799,14 @@
           <t>https://uu-stoks.ru/auto/kia/rioxline_x-line</t>
         </is>
       </c>
+      <c r="J229" t="n">
+        <v>944940</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>https://autosalon-kit.ru/auto/kia/rio-x/hatch</t>
+        </is>
+      </c>
       <c r="N229" t="n">
         <v>600000</v>
       </c>
@@ -10993,6 +10985,14 @@
           <t>https://new-auto96.ru/auto/kia/soul/</t>
         </is>
       </c>
+      <c r="J233" t="n">
+        <v>1097940</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>https://autosalon-kit.ru/auto/kia/new-soul/new</t>
+        </is>
+      </c>
       <c r="N233" t="n">
         <v>1030000</v>
       </c>
@@ -11042,14 +11042,6 @@
           <t>https://uu-stoks.ru/auto/kia/new-soul_new</t>
         </is>
       </c>
-      <c r="J234" t="n">
-        <v>1097940</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>https://autosalon-kit.ru/auto/kia/new-soul/new</t>
-        </is>
-      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -11390,11 +11382,21 @@
         </is>
       </c>
       <c r="D243" t="n">
-        <v>1599000</v>
+        <v>1559400</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/lada/aura</t>
+          <t>https://new-auto96.ru/auto/lada/aura/</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>1559400</t>
+        </is>
+      </c>
+      <c r="I243" t="inlineStr">
+        <is>
+          <t>https://new-auto96.ru/auto/lada/aura/</t>
         </is>
       </c>
       <c r="N243" t="n">
@@ -11853,7 +11855,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>409</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -11863,30 +11865,32 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Granta Sport Sedan</t>
+          <t>Granta Sport Liftback</t>
         </is>
       </c>
       <c r="D254" t="n">
-        <v>749900</v>
+        <v>797340</v>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/lada/granta/i-res-sedan-sport-4/</t>
-        </is>
-      </c>
-      <c r="P254" t="n">
-        <v>749900</v>
-      </c>
-      <c r="Q254" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/lada/granta/i-res-sedan-sport-4/</t>
+          <t>https://new-auto96.ru/auto/lada/granta_sport_liftbek/</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>797340</t>
+        </is>
+      </c>
+      <c r="I254" t="inlineStr">
+        <is>
+          <t>https://new-auto96.ru/auto/lada/granta_sport_liftbek/</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>411</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -11896,40 +11900,40 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Granta Universal</t>
+          <t>Granta Sport Sedan</t>
         </is>
       </c>
       <c r="D255" t="n">
-        <v>393000</v>
+        <v>749900</v>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/granta_universal/</t>
+          <t>https://atc-gagarin.ru/cars-new/lada/granta/i-res-sedan-sport-4/</t>
         </is>
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>393000</t>
+          <t>790140</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/granta_universal/</t>
-        </is>
-      </c>
-      <c r="N255" t="n">
-        <v>450000</v>
-      </c>
-      <c r="O255" t="inlineStr">
-        <is>
-          <t>https://primeauto-ekb.ru/new/lada/granta-universal</t>
+          <t>https://new-auto96.ru/auto/lada/granta_sport/</t>
+        </is>
+      </c>
+      <c r="P255" t="n">
+        <v>749900</v>
+      </c>
+      <c r="Q255" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/lada/granta/i-res-sedan-sport-4/</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>416</t>
+          <t>723</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -11939,38 +11943,32 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Granta Universal New</t>
+          <t>Granta Sportline</t>
         </is>
       </c>
       <c r="D256" t="n">
-        <v>431580</v>
+        <v>680000</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/lada/new-granta/wagon</t>
-        </is>
-      </c>
-      <c r="F256" t="n">
-        <v>459100</v>
-      </c>
-      <c r="G256" t="inlineStr">
-        <is>
-          <t>https://uu-stoks.ru/auto/lada/new-granta_wagon</t>
-        </is>
-      </c>
-      <c r="J256" t="n">
-        <v>431580</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>https://autosalon-kit.ru/auto/lada/new-granta/wagon</t>
+          <t>https://new-auto96.ru/auto/lada/granta_sportline/</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>680000</t>
+        </is>
+      </c>
+      <c r="I256" t="inlineStr">
+        <is>
+          <t>https://new-auto96.ru/auto/lada/granta_sportline/</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>732</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -11980,38 +11978,32 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Largus</t>
+          <t>Granta Sportline Liftback</t>
         </is>
       </c>
       <c r="D257" t="n">
-        <v>393000</v>
+        <v>761940</v>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/lada/largus/wa</t>
-        </is>
-      </c>
-      <c r="J257" t="n">
-        <v>393000</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>https://autosalon-kit.ru/auto/lada/largus/wa</t>
-        </is>
-      </c>
-      <c r="P257" t="n">
-        <v>718900</v>
-      </c>
-      <c r="Q257" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/lada/largus/i-res-wagon-5/</t>
+          <t>https://new-auto96.ru/auto/lada/granta_sportline_liftbek/</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>761940</t>
+        </is>
+      </c>
+      <c r="I257" t="inlineStr">
+        <is>
+          <t>https://new-auto96.ru/auto/lada/granta_sportline_liftbek/</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>414</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
@@ -12021,30 +12013,40 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Largus Cross</t>
+          <t>Granta Universal</t>
         </is>
       </c>
       <c r="D258" t="n">
-        <v>826740</v>
+        <v>393000</v>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/lada/largus/wag%20rest1</t>
-        </is>
-      </c>
-      <c r="J258" t="n">
-        <v>826740</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>https://autosalon-kit.ru/auto/lada/largus/wag%20rest1</t>
+          <t>https://new-auto96.ru/auto/lada/granta_universal/</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>393000</t>
+        </is>
+      </c>
+      <c r="I258" t="inlineStr">
+        <is>
+          <t>https://new-auto96.ru/auto/lada/granta_universal/</t>
+        </is>
+      </c>
+      <c r="N258" t="n">
+        <v>450000</v>
+      </c>
+      <c r="O258" t="inlineStr">
+        <is>
+          <t>https://primeauto-ekb.ru/new/lada/granta-universal</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>416</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
@@ -12054,48 +12056,38 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Largus Cross New</t>
+          <t>Granta Universal New</t>
         </is>
       </c>
       <c r="D259" t="n">
-        <v>760000</v>
+        <v>431580</v>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/lada/largus-cross-new-5-mest</t>
+          <t>https://autosalon-kit.ru/auto/lada/new-granta/wagon</t>
         </is>
       </c>
       <c r="F259" t="n">
-        <v>765000</v>
+        <v>459100</v>
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>https://uu-stoks.ru/auto/lada/largus_wag%20rest1</t>
-        </is>
-      </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>919800</t>
-        </is>
-      </c>
-      <c r="I259" t="inlineStr">
-        <is>
-          <t>https://new-auto96.ru/auto/lada/largus_cross/</t>
-        </is>
-      </c>
-      <c r="N259" t="n">
-        <v>760000</v>
-      </c>
-      <c r="O259" t="inlineStr">
-        <is>
-          <t>https://primeauto-ekb.ru/new/lada/largus-cross-new-5-mest</t>
+          <t>https://uu-stoks.ru/auto/lada/new-granta_wagon</t>
+        </is>
+      </c>
+      <c r="J259" t="n">
+        <v>431580</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>https://autosalon-kit.ru/auto/lada/new-granta/wagon</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>452</t>
+          <t>418</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
@@ -12105,30 +12097,38 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Largus Cross New 7 мест</t>
+          <t>Largus</t>
         </is>
       </c>
       <c r="D260" t="n">
-        <v>800000</v>
+        <v>393000</v>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/lada/largus-cross-new-7-mest</t>
-        </is>
-      </c>
-      <c r="N260" t="n">
-        <v>800000</v>
-      </c>
-      <c r="O260" t="inlineStr">
-        <is>
-          <t>https://primeauto-ekb.ru/new/lada/largus-cross-new-7-mest</t>
+          <t>https://autosalon-kit.ru/auto/lada/largus/wa</t>
+        </is>
+      </c>
+      <c r="J260" t="n">
+        <v>393000</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>https://autosalon-kit.ru/auto/lada/largus/wa</t>
+        </is>
+      </c>
+      <c r="P260" t="n">
+        <v>718900</v>
+      </c>
+      <c r="Q260" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/lada/largus/i-res-wagon-5/</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>449</t>
+          <t>419</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -12138,48 +12138,30 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Largus New</t>
+          <t>Largus Cross</t>
         </is>
       </c>
       <c r="D261" t="n">
-        <v>718900</v>
+        <v>826740</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>https://uu-stoks.ru/auto/lada/largus_wa</t>
-        </is>
-      </c>
-      <c r="F261" t="n">
-        <v>718900</v>
-      </c>
-      <c r="G261" t="inlineStr">
-        <is>
-          <t>https://uu-stoks.ru/auto/lada/largus_wa</t>
-        </is>
-      </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>828600</t>
-        </is>
-      </c>
-      <c r="I261" t="inlineStr">
-        <is>
-          <t>https://new-auto96.ru/auto/lada/largus/</t>
-        </is>
-      </c>
-      <c r="N261" t="n">
-        <v>720000</v>
-      </c>
-      <c r="O261" t="inlineStr">
-        <is>
-          <t>https://primeauto-ekb.ru/new/lada/largus-new-5-mest</t>
+          <t>https://autosalon-kit.ru/auto/lada/largus/wag%20rest1</t>
+        </is>
+      </c>
+      <c r="J261" t="n">
+        <v>826740</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>https://autosalon-kit.ru/auto/lada/largus/wag%20rest1</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>451</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -12189,30 +12171,48 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Largus New 7 мест</t>
+          <t>Largus Cross New</t>
         </is>
       </c>
       <c r="D262" t="n">
-        <v>710000</v>
+        <v>760000</v>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/lada/largus-new-7-mest</t>
+          <t>https://primeauto-ekb.ru/new/lada/largus-cross-new-5-mest</t>
+        </is>
+      </c>
+      <c r="F262" t="n">
+        <v>765000</v>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>https://uu-stoks.ru/auto/lada/largus_wag%20rest1</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>919800</t>
+        </is>
+      </c>
+      <c r="I262" t="inlineStr">
+        <is>
+          <t>https://new-auto96.ru/auto/lada/largus_cross/</t>
         </is>
       </c>
       <c r="N262" t="n">
-        <v>710000</v>
+        <v>760000</v>
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/lada/largus-new-7-mest</t>
+          <t>https://primeauto-ekb.ru/new/lada/largus-cross-new-5-mest</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>452</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -12222,30 +12222,30 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Largus Фургон</t>
+          <t>Largus Cross New 7 мест</t>
         </is>
       </c>
       <c r="D263" t="n">
-        <v>781140</v>
+        <v>800000</v>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/lada/largus/van%20rest</t>
-        </is>
-      </c>
-      <c r="J263" t="n">
-        <v>781140</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>https://autosalon-kit.ru/auto/lada/largus/van%20rest</t>
+          <t>https://primeauto-ekb.ru/new/lada/largus-cross-new-7-mest</t>
+        </is>
+      </c>
+      <c r="N263" t="n">
+        <v>800000</v>
+      </c>
+      <c r="O263" t="inlineStr">
+        <is>
+          <t>https://primeauto-ekb.ru/new/lada/largus-cross-new-7-mest</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>449</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -12255,30 +12255,48 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Largus Фургон New</t>
+          <t>Largus New</t>
         </is>
       </c>
       <c r="D264" t="n">
-        <v>1051900</v>
+        <v>718900</v>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>https://uu-stoks.ru/auto/lada/largus_van%20rest</t>
+          <t>https://uu-stoks.ru/auto/lada/largus_wa</t>
         </is>
       </c>
       <c r="F264" t="n">
-        <v>1051900</v>
+        <v>718900</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>https://uu-stoks.ru/auto/lada/largus_van%20rest</t>
+          <t>https://uu-stoks.ru/auto/lada/largus_wa</t>
+        </is>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>828600</t>
+        </is>
+      </c>
+      <c r="I264" t="inlineStr">
+        <is>
+          <t>https://new-auto96.ru/auto/lada/largus/</t>
+        </is>
+      </c>
+      <c r="N264" t="n">
+        <v>720000</v>
+      </c>
+      <c r="O264" t="inlineStr">
+        <is>
+          <t>https://primeauto-ekb.ru/new/lada/largus-new-5-mest</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>450</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -12288,38 +12306,30 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Niva</t>
+          <t>Largus New 7 мест</t>
         </is>
       </c>
       <c r="D265" t="n">
-        <v>515300</v>
+        <v>710000</v>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>https://uu-stoks.ru/auto/lada/niva-new_cuv</t>
-        </is>
-      </c>
-      <c r="F265" t="n">
-        <v>515300</v>
-      </c>
-      <c r="G265" t="inlineStr">
-        <is>
-          <t>https://uu-stoks.ru/auto/lada/niva-new_cuv</t>
-        </is>
-      </c>
-      <c r="J265" t="n">
-        <v>517000</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>https://autosalon-kit.ru/auto/lada/niva-new/cuv</t>
+          <t>https://primeauto-ekb.ru/new/lada/largus-new-7-mest</t>
+        </is>
+      </c>
+      <c r="N265" t="n">
+        <v>710000</v>
+      </c>
+      <c r="O265" t="inlineStr">
+        <is>
+          <t>https://primeauto-ekb.ru/new/lada/largus-new-7-mest</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>420</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -12329,46 +12339,30 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Niva Legend 3 двери</t>
+          <t>Largus Фургон</t>
         </is>
       </c>
       <c r="D266" t="n">
-        <v>520000</v>
+        <v>781140</v>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/lada/niva-legend-3d</t>
-        </is>
-      </c>
-      <c r="F266" t="n">
-        <v>520100</v>
-      </c>
-      <c r="G266" t="inlineStr">
-        <is>
-          <t>https://uu-stoks.ru/auto/lada/niva-legend_suv</t>
+          <t>https://autosalon-kit.ru/auto/lada/largus/van%20rest</t>
         </is>
       </c>
       <c r="J266" t="n">
-        <v>679900</v>
+        <v>781140</v>
       </c>
       <c r="K266" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/lada/niva-legend/suv</t>
-        </is>
-      </c>
-      <c r="N266" t="n">
-        <v>520000</v>
-      </c>
-      <c r="O266" t="inlineStr">
-        <is>
-          <t>https://primeauto-ekb.ru/new/lada/niva-legend-3d</t>
+          <t>https://autosalon-kit.ru/auto/lada/largus/van%20rest</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>454</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
@@ -12378,54 +12372,30 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Niva Legend 5 дверей</t>
+          <t>Largus Фургон New</t>
         </is>
       </c>
       <c r="D267" t="n">
-        <v>570000</v>
+        <v>1051900</v>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/lada/niva-legend-5d</t>
+          <t>https://uu-stoks.ru/auto/lada/largus_van%20rest</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>573100</v>
+        <v>1051900</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>https://uu-stoks.ru/auto/lada/niva-legend_cuv</t>
-        </is>
-      </c>
-      <c r="J267" t="n">
-        <v>768900</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>https://autosalon-kit.ru/auto/lada/niva-legend/cuv</t>
-        </is>
-      </c>
-      <c r="N267" t="n">
-        <v>570000</v>
-      </c>
-      <c r="O267" t="inlineStr">
-        <is>
-          <t>https://primeauto-ekb.ru/new/lada/niva-legend-5d</t>
-        </is>
-      </c>
-      <c r="P267" t="n">
-        <v>573100</v>
-      </c>
-      <c r="Q267" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/lada/niva-legend/2021-allroad-5/</t>
+          <t>https://uu-stoks.ru/auto/lada/largus_van%20rest</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>432</t>
+          <t>422</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
@@ -12435,30 +12405,38 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Niva Legend Bronto</t>
+          <t>Niva</t>
         </is>
       </c>
       <c r="D268" t="n">
-        <v>620000</v>
+        <v>515300</v>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/lada/niva-legend/2021-allroad-bronto-3/</t>
-        </is>
-      </c>
-      <c r="P268" t="n">
-        <v>620000</v>
-      </c>
-      <c r="Q268" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/lada/niva-legend/2021-allroad-bronto-3/</t>
+          <t>https://uu-stoks.ru/auto/lada/niva-new_cuv</t>
+        </is>
+      </c>
+      <c r="F268" t="n">
+        <v>515300</v>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>https://uu-stoks.ru/auto/lada/niva-new_cuv</t>
+        </is>
+      </c>
+      <c r="J268" t="n">
+        <v>517000</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>https://autosalon-kit.ru/auto/lada/niva-new/cuv</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>423</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
@@ -12468,38 +12446,46 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Niva Legend Urban 3 двери</t>
+          <t>Niva Legend 3 двери</t>
         </is>
       </c>
       <c r="D269" t="n">
-        <v>742900</v>
+        <v>520000</v>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/lada/niva-legend/cuv-urban</t>
+          <t>https://primeauto-ekb.ru/new/lada/niva-legend-3d</t>
         </is>
       </c>
       <c r="F269" t="n">
-        <v>812900</v>
+        <v>520100</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t>https://uu-stoks.ru/auto/lada/niva-legend_cuv-urban</t>
+          <t>https://uu-stoks.ru/auto/lada/niva-legend_suv</t>
         </is>
       </c>
       <c r="J269" t="n">
-        <v>742900</v>
+        <v>679900</v>
       </c>
       <c r="K269" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/lada/niva-legend/cuv-urban</t>
+          <t>https://autosalon-kit.ru/auto/lada/niva-legend/suv</t>
+        </is>
+      </c>
+      <c r="N269" t="n">
+        <v>520000</v>
+      </c>
+      <c r="O269" t="inlineStr">
+        <is>
+          <t>https://primeauto-ekb.ru/new/lada/niva-legend-3d</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>426</t>
+          <t>424</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -12509,38 +12495,54 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Niva Legend Urban 5 дверей</t>
+          <t>Niva Legend 5 дверей</t>
         </is>
       </c>
       <c r="D270" t="n">
-        <v>839900</v>
+        <v>570000</v>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/lada/niva-legend/cuv-urban5</t>
+          <t>https://primeauto-ekb.ru/new/lada/niva-legend-5d</t>
         </is>
       </c>
       <c r="F270" t="n">
-        <v>909900</v>
+        <v>573100</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>https://uu-stoks.ru/auto/lada/niva-legend_cuv-urban5</t>
+          <t>https://uu-stoks.ru/auto/lada/niva-legend_cuv</t>
         </is>
       </c>
       <c r="J270" t="n">
-        <v>839900</v>
+        <v>768900</v>
       </c>
       <c r="K270" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/lada/niva-legend/cuv-urban5</t>
+          <t>https://autosalon-kit.ru/auto/lada/niva-legend/cuv</t>
+        </is>
+      </c>
+      <c r="N270" t="n">
+        <v>570000</v>
+      </c>
+      <c r="O270" t="inlineStr">
+        <is>
+          <t>https://primeauto-ekb.ru/new/lada/niva-legend-5d</t>
+        </is>
+      </c>
+      <c r="P270" t="n">
+        <v>573100</v>
+      </c>
+      <c r="Q270" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/lada/niva-legend/2021-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>432</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -12550,38 +12552,30 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Niva Off-Road</t>
+          <t>Niva Legend Bronto</t>
         </is>
       </c>
       <c r="D271" t="n">
-        <v>570300</v>
+        <v>620000</v>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>https://uu-stoks.ru/auto/lada/niva-new_suv</t>
-        </is>
-      </c>
-      <c r="F271" t="n">
-        <v>570300</v>
-      </c>
-      <c r="G271" t="inlineStr">
-        <is>
-          <t>https://uu-stoks.ru/auto/lada/niva-new_suv</t>
-        </is>
-      </c>
-      <c r="J271" t="n">
-        <v>627000</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>https://autosalon-kit.ru/auto/lada/niva-new/suv</t>
+          <t>https://atc-gagarin.ru/cars-new/lada/niva-legend/2021-allroad-bronto-3/</t>
+        </is>
+      </c>
+      <c r="P271" t="n">
+        <v>620000</v>
+      </c>
+      <c r="Q271" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/lada/niva-legend/2021-allroad-bronto-3/</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>425</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
@@ -12591,64 +12585,38 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Niva Travel</t>
+          <t>Niva Legend Urban 3 двери</t>
         </is>
       </c>
       <c r="D272" t="n">
-        <v>650000</v>
+        <v>742900</v>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/lada/niva-travel</t>
+          <t>https://autosalon-kit.ru/auto/lada/niva-legend/cuv-urban</t>
         </is>
       </c>
       <c r="F272" t="n">
-        <v>656100</v>
+        <v>812900</v>
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>https://uu-stoks.ru/auto/lada/niva-travel_suv</t>
-        </is>
-      </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>650000</t>
-        </is>
-      </c>
-      <c r="I272" t="inlineStr">
-        <is>
-          <t>https://new-auto96.ru/auto/lada/niva_travel/</t>
+          <t>https://uu-stoks.ru/auto/lada/niva-legend_cuv-urban</t>
         </is>
       </c>
       <c r="J272" t="n">
-        <v>655740</v>
+        <v>742900</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/lada/niva-travel/suv</t>
-        </is>
-      </c>
-      <c r="N272" t="n">
-        <v>650000</v>
-      </c>
-      <c r="O272" t="inlineStr">
-        <is>
-          <t>https://primeauto-ekb.ru/new/lada/niva-travel</t>
-        </is>
-      </c>
-      <c r="P272" t="n">
-        <v>656100</v>
-      </c>
-      <c r="Q272" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/lada/niva/i-res-allroad-5/</t>
+          <t>https://autosalon-kit.ru/auto/lada/niva-legend/cuv-urban</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>427</t>
+          <t>426</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
@@ -12658,30 +12626,38 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Niva Urban 3 двери</t>
+          <t>Niva Legend Urban 5 дверей</t>
         </is>
       </c>
       <c r="D273" t="n">
-        <v>466000</v>
+        <v>839900</v>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/lada/4x4/urban-3d</t>
+          <t>https://autosalon-kit.ru/auto/lada/niva-legend/cuv-urban5</t>
+        </is>
+      </c>
+      <c r="F273" t="n">
+        <v>909900</v>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>https://uu-stoks.ru/auto/lada/niva-legend_cuv-urban5</t>
         </is>
       </c>
       <c r="J273" t="n">
-        <v>466000</v>
+        <v>839900</v>
       </c>
       <c r="K273" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/lada/4x4/urban-3d</t>
+          <t>https://autosalon-kit.ru/auto/lada/niva-legend/cuv-urban5</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>433</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
@@ -12691,30 +12667,38 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Niva Urban 5 дверей</t>
+          <t>Niva Off-Road</t>
         </is>
       </c>
       <c r="D274" t="n">
-        <v>501000</v>
+        <v>570300</v>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/lada/4x4/urban-5d</t>
+          <t>https://uu-stoks.ru/auto/lada/niva-new_suv</t>
+        </is>
+      </c>
+      <c r="F274" t="n">
+        <v>570300</v>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>https://uu-stoks.ru/auto/lada/niva-new_suv</t>
         </is>
       </c>
       <c r="J274" t="n">
-        <v>501000</v>
+        <v>627000</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/lada/4x4/urban-5d</t>
+          <t>https://autosalon-kit.ru/auto/lada/niva-new/suv</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>434</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
@@ -12724,38 +12708,64 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Vesta Cross</t>
+          <t>Niva Travel</t>
         </is>
       </c>
       <c r="D275" t="n">
-        <v>761940</v>
+        <v>650000</v>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/lada/vesta/cross</t>
+          <t>https://primeauto-ekb.ru/new/lada/niva-travel</t>
         </is>
       </c>
       <c r="F275" t="n">
-        <v>1095000</v>
+        <v>656100</v>
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>https://uu-stoks.ru/auto/lada/vesta_cross</t>
+          <t>https://uu-stoks.ru/auto/lada/niva-travel_suv</t>
+        </is>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>650000</t>
+        </is>
+      </c>
+      <c r="I275" t="inlineStr">
+        <is>
+          <t>https://new-auto96.ru/auto/lada/niva_travel/</t>
         </is>
       </c>
       <c r="J275" t="n">
-        <v>761940</v>
+        <v>655740</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/lada/vesta/cross</t>
+          <t>https://autosalon-kit.ru/auto/lada/niva-travel/suv</t>
+        </is>
+      </c>
+      <c r="N275" t="n">
+        <v>650000</v>
+      </c>
+      <c r="O275" t="inlineStr">
+        <is>
+          <t>https://primeauto-ekb.ru/new/lada/niva-travel</t>
+        </is>
+      </c>
+      <c r="P275" t="n">
+        <v>656100</v>
+      </c>
+      <c r="Q275" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/lada/niva/i-res-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>427</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
@@ -12765,56 +12775,30 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Vesta Cross New</t>
+          <t>Niva Urban 3 двери</t>
         </is>
       </c>
       <c r="D276" t="n">
-        <v>895800</v>
+        <v>466000</v>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta_cross/</t>
-        </is>
-      </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>895800</t>
-        </is>
-      </c>
-      <c r="I276" t="inlineStr">
-        <is>
-          <t>https://new-auto96.ru/auto/lada/vesta_cross/</t>
+          <t>https://autosalon-kit.ru/auto/lada/4x4/urban-3d</t>
         </is>
       </c>
       <c r="J276" t="n">
-        <v>985740</v>
+        <v>466000</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/lada/Vesta-new/cross</t>
-        </is>
-      </c>
-      <c r="N276" t="n">
-        <v>1090000</v>
-      </c>
-      <c r="O276" t="inlineStr">
-        <is>
-          <t>https://primeauto-ekb.ru/new/lada/vesta-cross-new</t>
-        </is>
-      </c>
-      <c r="P276" t="n">
-        <v>1095000</v>
-      </c>
-      <c r="Q276" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/lada/vesta/i-res-sedan-cross-4/</t>
+          <t>https://autosalon-kit.ru/auto/lada/4x4/urban-3d</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>430</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
@@ -12824,38 +12808,30 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Vesta SW</t>
+          <t>Niva Urban 5 дверей</t>
         </is>
       </c>
       <c r="D277" t="n">
-        <v>728340</v>
+        <v>501000</v>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/lada/vesta/sw</t>
-        </is>
-      </c>
-      <c r="F277" t="n">
-        <v>949000</v>
-      </c>
-      <c r="G277" t="inlineStr">
-        <is>
-          <t>https://uu-stoks.ru/auto/lada/vesta_sw</t>
+          <t>https://autosalon-kit.ru/auto/lada/4x4/urban-5d</t>
         </is>
       </c>
       <c r="J277" t="n">
-        <v>728340</v>
+        <v>501000</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/lada/vesta/sw</t>
+          <t>https://autosalon-kit.ru/auto/lada/4x4/urban-5d</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>437</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
@@ -12865,38 +12841,38 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>Vesta SW Cross</t>
+          <t>Vesta Cross</t>
         </is>
       </c>
       <c r="D278" t="n">
-        <v>797340</v>
+        <v>761940</v>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/lada/vesta/sw-cross</t>
+          <t>https://autosalon-kit.ru/auto/lada/vesta/cross</t>
         </is>
       </c>
       <c r="F278" t="n">
-        <v>1049000</v>
+        <v>1095000</v>
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>https://uu-stoks.ru/auto/lada/vesta_sw-cross</t>
+          <t>https://uu-stoks.ru/auto/lada/vesta_cross</t>
         </is>
       </c>
       <c r="J278" t="n">
-        <v>797340</v>
+        <v>761940</v>
       </c>
       <c r="K278" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/lada/vesta/sw-cross</t>
+          <t>https://autosalon-kit.ru/auto/lada/vesta/cross</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>438</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -12906,48 +12882,56 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>Vesta SW Cross New</t>
+          <t>Vesta Cross New</t>
         </is>
       </c>
       <c r="D279" t="n">
-        <v>907140</v>
+        <v>895800</v>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/lada/vestaswcrossnew/vestaswcrossnew</t>
+          <t>https://new-auto96.ru/auto/lada/vesta_cross/</t>
         </is>
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>907140</t>
+          <t>895800</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta_sw_cross/</t>
+          <t>https://new-auto96.ru/auto/lada/vesta_cross/</t>
         </is>
       </c>
       <c r="J279" t="n">
-        <v>907140</v>
+        <v>985740</v>
       </c>
       <c r="K279" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/lada/vestaswcrossnew/vestaswcrossnew</t>
+          <t>https://autosalon-kit.ru/auto/lada/Vesta-new/cross</t>
         </is>
       </c>
       <c r="N279" t="n">
-        <v>1050000</v>
+        <v>1090000</v>
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/lada/vesta-sw-cross-new</t>
+          <t>https://primeauto-ekb.ru/new/lada/vesta-cross-new</t>
+        </is>
+      </c>
+      <c r="P279" t="n">
+        <v>1095000</v>
+      </c>
+      <c r="Q279" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/lada/vesta/i-res-sedan-cross-4/</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>443</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -12957,56 +12941,38 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>Vesta SW New</t>
+          <t>Vesta SW</t>
         </is>
       </c>
       <c r="D280" t="n">
-        <v>797940</v>
+        <v>728340</v>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/lada/vestaswnew/vestaswnew</t>
-        </is>
-      </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>804600</t>
-        </is>
-      </c>
-      <c r="I280" t="inlineStr">
-        <is>
-          <t>https://new-auto96.ru/auto/lada/vesta_sw/</t>
+          <t>https://autosalon-kit.ru/auto/lada/vesta/sw</t>
+        </is>
+      </c>
+      <c r="F280" t="n">
+        <v>949000</v>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>https://uu-stoks.ru/auto/lada/vesta_sw</t>
         </is>
       </c>
       <c r="J280" t="n">
-        <v>797940</v>
+        <v>728340</v>
       </c>
       <c r="K280" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/lada/vestaswnew/vestaswnew</t>
-        </is>
-      </c>
-      <c r="N280" t="n">
-        <v>950000</v>
-      </c>
-      <c r="O280" t="inlineStr">
-        <is>
-          <t>https://primeauto-ekb.ru/new/lada/vesta-sw-new</t>
-        </is>
-      </c>
-      <c r="P280" t="n">
-        <v>950000</v>
-      </c>
-      <c r="Q280" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/lada/vesta/i-res-wagon-sw-5/</t>
+          <t>https://autosalon-kit.ru/auto/lada/vesta/sw</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>445</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
@@ -13016,30 +12982,38 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Vesta Sedan</t>
+          <t>Vesta SW Cross</t>
         </is>
       </c>
       <c r="D281" t="n">
-        <v>839000</v>
+        <v>797340</v>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>https://uu-stoks.ru/auto/lada/vesta_sedan</t>
+          <t>https://autosalon-kit.ru/auto/lada/vesta/sw-cross</t>
         </is>
       </c>
       <c r="F281" t="n">
-        <v>839000</v>
+        <v>1049000</v>
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>https://uu-stoks.ru/auto/lada/vesta_sedan</t>
+          <t>https://uu-stoks.ru/auto/lada/vesta_sw-cross</t>
+        </is>
+      </c>
+      <c r="J281" t="n">
+        <v>797340</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>https://autosalon-kit.ru/auto/lada/vesta/sw-cross</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>446</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -13049,30 +13023,48 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>Vesta Sedan CNG</t>
+          <t>Vesta SW Cross New</t>
         </is>
       </c>
       <c r="D282" t="n">
-        <v>790140</v>
+        <v>907140</v>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/lada/vesta/cng</t>
+          <t>https://autosalon-kit.ru/auto/lada/vestaswcrossnew/vestaswcrossnew</t>
+        </is>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>907140</t>
+        </is>
+      </c>
+      <c r="I282" t="inlineStr">
+        <is>
+          <t>https://new-auto96.ru/auto/lada/vesta_sw_cross/</t>
         </is>
       </c>
       <c r="J282" t="n">
-        <v>790140</v>
+        <v>907140</v>
       </c>
       <c r="K282" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/lada/vesta/cng</t>
+          <t>https://autosalon-kit.ru/auto/lada/vestaswcrossnew/vestaswcrossnew</t>
+        </is>
+      </c>
+      <c r="N282" t="n">
+        <v>1050000</v>
+      </c>
+      <c r="O282" t="inlineStr">
+        <is>
+          <t>https://primeauto-ekb.ru/new/lada/vesta-sw-cross-new</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>444</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -13082,56 +13074,56 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>Vesta Sedan New</t>
+          <t>Vesta SW New</t>
         </is>
       </c>
       <c r="D283" t="n">
-        <v>630000</v>
+        <v>797940</v>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta/</t>
+          <t>https://autosalon-kit.ru/auto/lada/vestaswnew/vestaswnew</t>
         </is>
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>630000</t>
+          <t>804600</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta/</t>
+          <t>https://new-auto96.ru/auto/lada/vesta_sw/</t>
         </is>
       </c>
       <c r="J283" t="n">
-        <v>743940</v>
+        <v>797940</v>
       </c>
       <c r="K283" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/lada/Vesta-new/SEDAN</t>
+          <t>https://autosalon-kit.ru/auto/lada/vestaswnew/vestaswnew</t>
         </is>
       </c>
       <c r="N283" t="n">
-        <v>840000</v>
+        <v>950000</v>
       </c>
       <c r="O283" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/lada/vesta-new</t>
+          <t>https://primeauto-ekb.ru/new/lada/vesta-sw-new</t>
         </is>
       </c>
       <c r="P283" t="n">
-        <v>840000</v>
+        <v>950000</v>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/lada/vesta/i-res-sedan-4/</t>
+          <t>https://atc-gagarin.ru/cars-new/lada/vesta/i-res-wagon-sw-5/</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>435</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -13141,46 +13133,30 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>Vesta Sport</t>
+          <t>Vesta Sedan</t>
         </is>
       </c>
       <c r="D284" t="n">
-        <v>958740</v>
+        <v>839000</v>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/lada/vesta/sport</t>
+          <t>https://uu-stoks.ru/auto/lada/vesta_sedan</t>
         </is>
       </c>
       <c r="F284" t="n">
-        <v>1036900</v>
+        <v>839000</v>
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>https://uu-stoks.ru/auto/lada/vesta_sport</t>
-        </is>
-      </c>
-      <c r="J284" t="n">
-        <v>958740</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>https://autosalon-kit.ru/auto/lada/vesta/sport</t>
-        </is>
-      </c>
-      <c r="N284" t="n">
-        <v>1030000</v>
-      </c>
-      <c r="O284" t="inlineStr">
-        <is>
-          <t>https://primeauto-ekb.ru/new/lada/vesta-sport</t>
+          <t>https://uu-stoks.ru/auto/lada/vesta_sedan</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>436</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
@@ -13190,30 +13166,30 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Vesta Sportline</t>
+          <t>Vesta Sedan CNG</t>
         </is>
       </c>
       <c r="D285" t="n">
-        <v>2175900</v>
+        <v>790140</v>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/lada/vesta-sportline/sedan-1gen-rest</t>
+          <t>https://autosalon-kit.ru/auto/lada/vesta/cng</t>
         </is>
       </c>
       <c r="J285" t="n">
-        <v>2175900</v>
+        <v>790140</v>
       </c>
       <c r="K285" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/lada/vesta-sportline/sedan-1gen-rest</t>
+          <t>https://autosalon-kit.ru/auto/lada/vesta/cng</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>441</t>
+          <t>439</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
@@ -13223,30 +13199,56 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>Vesta Sportline New</t>
+          <t>Vesta Sedan New</t>
         </is>
       </c>
       <c r="D286" t="n">
-        <v>999000</v>
+        <v>630000</v>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/lada/vesta/i-res-sedan-sportline-4/</t>
+          <t>https://new-auto96.ru/auto/lada/vesta/</t>
+        </is>
+      </c>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>630000</t>
+        </is>
+      </c>
+      <c r="I286" t="inlineStr">
+        <is>
+          <t>https://new-auto96.ru/auto/lada/vesta/</t>
+        </is>
+      </c>
+      <c r="J286" t="n">
+        <v>743940</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>https://autosalon-kit.ru/auto/lada/Vesta-new/SEDAN</t>
+        </is>
+      </c>
+      <c r="N286" t="n">
+        <v>840000</v>
+      </c>
+      <c r="O286" t="inlineStr">
+        <is>
+          <t>https://primeauto-ekb.ru/new/lada/vesta-new</t>
         </is>
       </c>
       <c r="P286" t="n">
-        <v>999000</v>
+        <v>840000</v>
       </c>
       <c r="Q286" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/lada/vesta/i-res-sedan-sportline-4/</t>
+          <t>https://atc-gagarin.ru/cars-new/lada/vesta/i-res-sedan-4/</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>440</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
@@ -13256,56 +13258,46 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>Xray</t>
+          <t>Vesta Sport</t>
         </is>
       </c>
       <c r="D287" t="n">
-        <v>551340</v>
+        <v>958740</v>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/xray/</t>
+          <t>https://autosalon-kit.ru/auto/lada/vesta/sport</t>
         </is>
       </c>
       <c r="F287" t="n">
-        <v>630000</v>
+        <v>1036900</v>
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>https://uu-stoks.ru/auto/lada/xray_suv</t>
-        </is>
-      </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>551340</t>
-        </is>
-      </c>
-      <c r="I287" t="inlineStr">
-        <is>
-          <t>https://new-auto96.ru/auto/lada/xray/</t>
+          <t>https://uu-stoks.ru/auto/lada/vesta_sport</t>
         </is>
       </c>
       <c r="J287" t="n">
-        <v>664140</v>
+        <v>958740</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/lada/xray/suv</t>
+          <t>https://autosalon-kit.ru/auto/lada/vesta/sport</t>
         </is>
       </c>
       <c r="N287" t="n">
-        <v>630000</v>
+        <v>1030000</v>
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/lada/xray</t>
+          <t>https://primeauto-ekb.ru/new/lada/vesta-sport</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>442</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
@@ -13315,155 +13307,181 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>Xray Cross</t>
+          <t>Vesta Sportline</t>
         </is>
       </c>
       <c r="D288" t="n">
-        <v>635400</v>
+        <v>2175900</v>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/xray_cross/</t>
-        </is>
-      </c>
-      <c r="F288" t="n">
-        <v>683900</v>
-      </c>
-      <c r="G288" t="inlineStr">
-        <is>
-          <t>https://uu-stoks.ru/auto/lada/xray_xray-cross</t>
-        </is>
-      </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>635400</t>
-        </is>
-      </c>
-      <c r="I288" t="inlineStr">
-        <is>
-          <t>https://new-auto96.ru/auto/lada/xray_cross/</t>
+          <t>https://autosalon-kit.ru/auto/lada/vesta-sportline/sedan-1gen-rest</t>
         </is>
       </c>
       <c r="J288" t="n">
-        <v>749940</v>
+        <v>2175900</v>
       </c>
       <c r="K288" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/lada/xray/xray-cross</t>
-        </is>
-      </c>
-      <c r="N288" t="n">
-        <v>680000</v>
-      </c>
-      <c r="O288" t="inlineStr">
-        <is>
-          <t>https://primeauto-ekb.ru/new/lada/xray-cross</t>
+          <t>https://autosalon-kit.ru/auto/lada/vesta-sportline/sedan-1gen-rest</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>456</t>
+          <t>441</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Lifan</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>Murman (820)</t>
+          <t>Vesta Sportline New</t>
         </is>
       </c>
       <c r="D289" t="n">
-        <v>650300</v>
+        <v>999000</v>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/lifan/murman/2015-2020-sedan-4/</t>
+          <t>https://atc-gagarin.ru/cars-new/lada/vesta/i-res-sedan-sportline-4/</t>
         </is>
       </c>
       <c r="P289" t="n">
-        <v>650300</v>
+        <v>999000</v>
       </c>
       <c r="Q289" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/lifan/murman/2015-2020-sedan-4/</t>
+          <t>https://atc-gagarin.ru/cars-new/lada/vesta/i-res-sedan-sportline-4/</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>457</t>
+          <t>447</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Lifan</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>MyWay</t>
+          <t>Xray</t>
         </is>
       </c>
       <c r="D290" t="n">
-        <v>701300</v>
+        <v>551340</v>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/lifan/myway/2016-2020-allroad-5/</t>
-        </is>
-      </c>
-      <c r="P290" t="n">
-        <v>701300</v>
-      </c>
-      <c r="Q290" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/lifan/myway/2016-2020-allroad-5/</t>
+          <t>https://new-auto96.ru/auto/lada/xray/</t>
+        </is>
+      </c>
+      <c r="F290" t="n">
+        <v>630000</v>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>https://uu-stoks.ru/auto/lada/xray_suv</t>
+        </is>
+      </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>551340</t>
+        </is>
+      </c>
+      <c r="I290" t="inlineStr">
+        <is>
+          <t>https://new-auto96.ru/auto/lada/xray/</t>
+        </is>
+      </c>
+      <c r="J290" t="n">
+        <v>664140</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>https://autosalon-kit.ru/auto/lada/xray/suv</t>
+        </is>
+      </c>
+      <c r="N290" t="n">
+        <v>630000</v>
+      </c>
+      <c r="O290" t="inlineStr">
+        <is>
+          <t>https://primeauto-ekb.ru/new/lada/xray</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>458</t>
+          <t>448</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Lifan</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>Solano</t>
+          <t>Xray Cross</t>
         </is>
       </c>
       <c r="D291" t="n">
-        <v>401300</v>
+        <v>635400</v>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/lifan/solano/ii-sedan-4/</t>
-        </is>
-      </c>
-      <c r="P291" t="n">
-        <v>401300</v>
-      </c>
-      <c r="Q291" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/lifan/solano/ii-sedan-4/</t>
+          <t>https://new-auto96.ru/auto/lada/xray_cross/</t>
+        </is>
+      </c>
+      <c r="F291" t="n">
+        <v>683900</v>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>https://uu-stoks.ru/auto/lada/xray_xray-cross</t>
+        </is>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>635400</t>
+        </is>
+      </c>
+      <c r="I291" t="inlineStr">
+        <is>
+          <t>https://new-auto96.ru/auto/lada/xray_cross/</t>
+        </is>
+      </c>
+      <c r="J291" t="n">
+        <v>749940</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>https://autosalon-kit.ru/auto/lada/xray/xray-cross</t>
+        </is>
+      </c>
+      <c r="N291" t="n">
+        <v>680000</v>
+      </c>
+      <c r="O291" t="inlineStr">
+        <is>
+          <t>https://primeauto-ekb.ru/new/lada/xray-cross</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>456</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -13473,30 +13491,30 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>X60</t>
+          <t>Murman (820)</t>
         </is>
       </c>
       <c r="D292" t="n">
-        <v>491300</v>
+        <v>650300</v>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/lifan/x60/i-res2-allroad-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/lifan/murman/2015-2020-sedan-4/</t>
         </is>
       </c>
       <c r="P292" t="n">
-        <v>491300</v>
+        <v>650300</v>
       </c>
       <c r="Q292" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/lifan/x60/i-res2-allroad-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/lifan/murman/2015-2020-sedan-4/</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>463</t>
+          <t>457</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
@@ -13506,276 +13524,252 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>X70</t>
+          <t>MyWay</t>
         </is>
       </c>
       <c r="D293" t="n">
-        <v>770300</v>
+        <v>701300</v>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/lifan/x70/i-allroad-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/lifan/myway/2016-2020-allroad-5/</t>
         </is>
       </c>
       <c r="P293" t="n">
-        <v>770300</v>
+        <v>701300</v>
       </c>
       <c r="Q293" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/lifan/x70/i-allroad-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/lifan/myway/2016-2020-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>458</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>Lifan</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>S6 Pro</t>
+          <t>Solano</t>
         </is>
       </c>
       <c r="D294" t="n">
-        <v>1549900</v>
+        <v>401300</v>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/livan/s6-pro/2023-sedan-4/</t>
-        </is>
-      </c>
-      <c r="N294" t="n">
-        <v>1780000</v>
-      </c>
-      <c r="O294" t="inlineStr">
-        <is>
-          <t>https://primeauto-ekb.ru/new/livan/s6-pro</t>
+          <t>https://atc-gagarin.ru/cars-new/lifan/solano/ii-sedan-4/</t>
         </is>
       </c>
       <c r="P294" t="n">
-        <v>1549900</v>
+        <v>401300</v>
       </c>
       <c r="Q294" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/livan/s6-pro/2023-sedan-4/</t>
+          <t>https://atc-gagarin.ru/cars-new/lifan/solano/ii-sedan-4/</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>461</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>Lifan</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>X60</t>
         </is>
       </c>
       <c r="D295" t="n">
-        <v>1020000</v>
+        <v>491300</v>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/livan/x3-pro/2022-allroad-5/</t>
-        </is>
-      </c>
-      <c r="N295" t="n">
-        <v>1340000</v>
-      </c>
-      <c r="O295" t="inlineStr">
-        <is>
-          <t>https://primeauto-ekb.ru/new/livan/x3-pro</t>
+          <t>https://atc-gagarin.ru/cars-new/lifan/x60/i-res2-allroad-5/</t>
         </is>
       </c>
       <c r="P295" t="n">
-        <v>1020000</v>
+        <v>491300</v>
       </c>
       <c r="Q295" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/livan/x3-pro/2022-allroad-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/lifan/x60/i-res2-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>466</t>
+          <t>463</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>Lifan</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>X6 Pro</t>
+          <t>X70</t>
         </is>
       </c>
       <c r="D296" t="n">
-        <v>1629900</v>
+        <v>770300</v>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/livan/x6-pro/2023-allroad-5/</t>
-        </is>
-      </c>
-      <c r="N296" t="n">
-        <v>1840000</v>
-      </c>
-      <c r="O296" t="inlineStr">
-        <is>
-          <t>https://primeauto-ekb.ru/new/livan/x6-pro</t>
+          <t>https://atc-gagarin.ru/cars-new/lifan/x70/i-allroad-5/</t>
         </is>
       </c>
       <c r="P296" t="n">
-        <v>1629900</v>
+        <v>770300</v>
       </c>
       <c r="Q296" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/livan/x6-pro/2023-allroad-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/lifan/x70/i-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>492</t>
+          <t>464</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>S6 Pro</t>
         </is>
       </c>
       <c r="D297" t="n">
-        <v>2243000</v>
+        <v>1549900</v>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/mg/mg5/ii-sedan-4/</t>
-        </is>
-      </c>
-      <c r="F297" t="n">
-        <v>2243000</v>
-      </c>
-      <c r="G297" t="inlineStr">
-        <is>
-          <t>https://uu-stoks.ru/auto/mg/5_sedan-2gen</t>
+          <t>https://atc-gagarin.ru/cars-new/livan/s6-pro/2023-sedan-4/</t>
+        </is>
+      </c>
+      <c r="N297" t="n">
+        <v>1780000</v>
+      </c>
+      <c r="O297" t="inlineStr">
+        <is>
+          <t>https://primeauto-ekb.ru/new/livan/s6-pro</t>
         </is>
       </c>
       <c r="P297" t="n">
-        <v>2243000</v>
+        <v>1549900</v>
       </c>
       <c r="Q297" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/mg/mg5/ii-sedan-4/</t>
+          <t>https://atc-gagarin.ru/cars-new/livan/s6-pro/2023-sedan-4/</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>808</t>
+          <t>465</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>5 New</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D298" t="n">
-        <v>1490000</v>
+        <v>1020000</v>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/mg/5</t>
+          <t>https://atc-gagarin.ru/cars-new/livan/x3-pro/2022-allroad-5/</t>
         </is>
       </c>
       <c r="N298" t="n">
-        <v>1490000</v>
+        <v>1340000</v>
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/mg/5</t>
+          <t>https://primeauto-ekb.ru/new/livan/x3-pro</t>
+        </is>
+      </c>
+      <c r="P298" t="n">
+        <v>1020000</v>
+      </c>
+      <c r="Q298" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/livan/x3-pro/2022-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>493</t>
+          <t>466</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>X6 Pro</t>
         </is>
       </c>
       <c r="D299" t="n">
-        <v>1060000</v>
+        <v>1629900</v>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/mg/mg6/ii-res-liftback-5/</t>
-        </is>
-      </c>
-      <c r="F299" t="n">
-        <v>2489000</v>
-      </c>
-      <c r="G299" t="inlineStr">
-        <is>
-          <t>https://uu-stoks.ru/auto/mg/6_liftback-2gen-rest</t>
+          <t>https://atc-gagarin.ru/cars-new/livan/x6-pro/2023-allroad-5/</t>
         </is>
       </c>
       <c r="N299" t="n">
-        <v>1520000</v>
+        <v>1840000</v>
       </c>
       <c r="O299" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/mg/6</t>
+          <t>https://primeauto-ekb.ru/new/livan/x6-pro</t>
         </is>
       </c>
       <c r="P299" t="n">
-        <v>1060000</v>
+        <v>1629900</v>
       </c>
       <c r="Q299" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/mg/mg6/ii-res-liftback-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/livan/x6-pro/2023-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>492</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
@@ -13785,46 +13779,38 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>HS</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D300" t="n">
-        <v>1580000</v>
+        <v>2243000</v>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/mg/hs/i-allroad-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/mg/mg5/ii-sedan-4/</t>
         </is>
       </c>
       <c r="F300" t="n">
-        <v>2859000</v>
+        <v>2243000</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
-          <t>https://uu-stoks.ru/auto/mg/hs_suv_5d-1gen</t>
-        </is>
-      </c>
-      <c r="N300" t="n">
-        <v>2190000</v>
-      </c>
-      <c r="O300" t="inlineStr">
-        <is>
-          <t>https://primeauto-ekb.ru/new/mg/hs</t>
+          <t>https://uu-stoks.ru/auto/mg/5_sedan-2gen</t>
         </is>
       </c>
       <c r="P300" t="n">
-        <v>1580000</v>
+        <v>2243000</v>
       </c>
       <c r="Q300" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/mg/hs/i-allroad-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/mg/mg5/ii-sedan-4/</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>495</t>
+          <t>808</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
@@ -13834,161 +13820,177 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>ZS</t>
+          <t>5 New</t>
         </is>
       </c>
       <c r="D301" t="n">
-        <v>1290000</v>
+        <v>1490000</v>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/mg/zs/ii-res-allroad-5/</t>
-        </is>
-      </c>
-      <c r="F301" t="n">
-        <v>2280000</v>
-      </c>
-      <c r="G301" t="inlineStr">
-        <is>
-          <t>https://uu-stoks.ru/auto/mg/zs_cuv-2gen-rest</t>
+          <t>https://primeauto-ekb.ru/new/mg/5</t>
         </is>
       </c>
       <c r="N301" t="n">
-        <v>1650000</v>
+        <v>1490000</v>
       </c>
       <c r="O301" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/mg/zs</t>
-        </is>
-      </c>
-      <c r="P301" t="n">
-        <v>1290000</v>
-      </c>
-      <c r="Q301" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/mg/zs/ii-res-allroad-5/</t>
+          <t>https://primeauto-ekb.ru/new/mg/5</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>474</t>
+          <t>493</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Mazda</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D302" t="n">
-        <v>1160000</v>
+        <v>1060000</v>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/mazda/3/iv-sedan-4/</t>
+          <t>https://atc-gagarin.ru/cars-new/mg/mg6/ii-res-liftback-5/</t>
+        </is>
+      </c>
+      <c r="F302" t="n">
+        <v>2489000</v>
+      </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>https://uu-stoks.ru/auto/mg/6_liftback-2gen-rest</t>
         </is>
       </c>
       <c r="N302" t="n">
-        <v>1160000</v>
+        <v>1520000</v>
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/mazda/3</t>
+          <t>https://primeauto-ekb.ru/new/mg/6</t>
         </is>
       </c>
       <c r="P302" t="n">
-        <v>1160000</v>
+        <v>1060000</v>
       </c>
       <c r="Q302" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/mazda/3/iv-sedan-4/</t>
+          <t>https://atc-gagarin.ru/cars-new/mg/mg6/ii-res-liftback-5/</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>483</t>
+          <t>494</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Mazda</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>HS</t>
         </is>
       </c>
       <c r="D303" t="n">
-        <v>1430000</v>
+        <v>1580000</v>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/mazda/6/iii-res-sedan-4/</t>
+          <t>https://atc-gagarin.ru/cars-new/mg/hs/i-allroad-5/</t>
+        </is>
+      </c>
+      <c r="F303" t="n">
+        <v>2859000</v>
+      </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>https://uu-stoks.ru/auto/mg/hs_suv_5d-1gen</t>
         </is>
       </c>
       <c r="N303" t="n">
-        <v>1430000</v>
+        <v>2190000</v>
       </c>
       <c r="O303" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/mazda/6</t>
+          <t>https://primeauto-ekb.ru/new/mg/hs</t>
         </is>
       </c>
       <c r="P303" t="n">
-        <v>1430000</v>
+        <v>1580000</v>
       </c>
       <c r="Q303" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/mazda/6/iii-res-sedan-4/</t>
+          <t>https://atc-gagarin.ru/cars-new/mg/hs/i-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>495</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Mazda</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>6 New</t>
+          <t>ZS</t>
         </is>
       </c>
       <c r="D304" t="n">
-        <v>1438000</v>
+        <v>1290000</v>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>https://uu-stoks.ru/auto/mazda/new-6_2019</t>
+          <t>https://atc-gagarin.ru/cars-new/mg/zs/ii-res-allroad-5/</t>
         </is>
       </c>
       <c r="F304" t="n">
-        <v>1438000</v>
+        <v>2280000</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
-          <t>https://uu-stoks.ru/auto/mazda/new-6_2019</t>
+          <t>https://uu-stoks.ru/auto/mg/zs_cuv-2gen-rest</t>
+        </is>
+      </c>
+      <c r="N304" t="n">
+        <v>1650000</v>
+      </c>
+      <c r="O304" t="inlineStr">
+        <is>
+          <t>https://primeauto-ekb.ru/new/mg/zs</t>
+        </is>
+      </c>
+      <c r="P304" t="n">
+        <v>1290000</v>
+      </c>
+      <c r="Q304" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/mg/zs/ii-res-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>477</t>
+          <t>474</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
@@ -13998,38 +14000,38 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>CX-30</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D305" t="n">
-        <v>1400000</v>
+        <v>1160000</v>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/mazda/cx-30/i-allroad-5/</t>
-        </is>
-      </c>
-      <c r="F305" t="n">
-        <v>1400000</v>
-      </c>
-      <c r="G305" t="inlineStr">
-        <is>
-          <t>https://uu-stoks.ru/auto/mazda/cx-30_cuv</t>
+          <t>https://atc-gagarin.ru/cars-new/mazda/3/iv-sedan-4/</t>
+        </is>
+      </c>
+      <c r="N305" t="n">
+        <v>1160000</v>
+      </c>
+      <c r="O305" t="inlineStr">
+        <is>
+          <t>https://primeauto-ekb.ru/new/mazda/3</t>
         </is>
       </c>
       <c r="P305" t="n">
-        <v>1400000</v>
+        <v>1160000</v>
       </c>
       <c r="Q305" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/mazda/cx-30/i-allroad-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/mazda/3/iv-sedan-4/</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>485</t>
+          <t>483</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
@@ -14039,38 +14041,38 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>CX-4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D306" t="n">
-        <v>1670000</v>
+        <v>1430000</v>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/mazda/cx-4/i-res-allroad-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/mazda/6/iii-res-sedan-4/</t>
         </is>
       </c>
       <c r="N306" t="n">
-        <v>1670000</v>
+        <v>1430000</v>
       </c>
       <c r="O306" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/mazda/cx-4</t>
+          <t>https://primeauto-ekb.ru/new/mazda/6</t>
         </is>
       </c>
       <c r="P306" t="n">
-        <v>1670000</v>
+        <v>1430000</v>
       </c>
       <c r="Q306" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/mazda/cx-4/i-res-allroad-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/mazda/6/iii-res-sedan-4/</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>482</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
@@ -14080,46 +14082,30 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>CX-5</t>
+          <t>6 New</t>
         </is>
       </c>
       <c r="D307" t="n">
-        <v>1600000</v>
+        <v>1438000</v>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/mazda/cx-5</t>
+          <t>https://uu-stoks.ru/auto/mazda/new-6_2019</t>
         </is>
       </c>
       <c r="F307" t="n">
-        <v>1606300</v>
+        <v>1438000</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
-          <t>https://uu-stoks.ru/auto/mazda/cx5_cuv</t>
-        </is>
-      </c>
-      <c r="N307" t="n">
-        <v>1600000</v>
-      </c>
-      <c r="O307" t="inlineStr">
-        <is>
-          <t>https://primeauto-ekb.ru/new/mazda/cx-5</t>
-        </is>
-      </c>
-      <c r="P307" t="n">
-        <v>1606300</v>
-      </c>
-      <c r="Q307" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/mazda/cx-5/ii-allroad-5/</t>
+          <t>https://uu-stoks.ru/auto/mazda/new-6_2019</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>477</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
@@ -14129,30 +14115,38 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>CX-60</t>
+          <t>CX-30</t>
         </is>
       </c>
       <c r="D308" t="n">
-        <v>3570000</v>
+        <v>1400000</v>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/mazda/cx-60</t>
-        </is>
-      </c>
-      <c r="N308" t="n">
-        <v>3570000</v>
-      </c>
-      <c r="O308" t="inlineStr">
-        <is>
-          <t>https://primeauto-ekb.ru/new/mazda/cx-60</t>
+          <t>https://atc-gagarin.ru/cars-new/mazda/cx-30/i-allroad-5/</t>
+        </is>
+      </c>
+      <c r="F308" t="n">
+        <v>1400000</v>
+      </c>
+      <c r="G308" t="inlineStr">
+        <is>
+          <t>https://uu-stoks.ru/auto/mazda/cx-30_cuv</t>
+        </is>
+      </c>
+      <c r="P308" t="n">
+        <v>1400000</v>
+      </c>
+      <c r="Q308" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/mazda/cx-30/i-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>479</t>
+          <t>485</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
@@ -14162,38 +14156,38 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>CX-9</t>
+          <t>CX-4</t>
         </is>
       </c>
       <c r="D309" t="n">
-        <v>2920000</v>
+        <v>1670000</v>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/mazda/cx-9</t>
-        </is>
-      </c>
-      <c r="F309" t="n">
-        <v>2922100</v>
-      </c>
-      <c r="G309" t="inlineStr">
-        <is>
-          <t>https://uu-stoks.ru/auto/mazda/cx9_cuv</t>
+          <t>https://atc-gagarin.ru/cars-new/mazda/cx-4/i-res-allroad-5/</t>
         </is>
       </c>
       <c r="N309" t="n">
-        <v>2920000</v>
+        <v>1670000</v>
       </c>
       <c r="O309" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/mazda/cx-9</t>
+          <t>https://primeauto-ekb.ru/new/mazda/cx-4</t>
+        </is>
+      </c>
+      <c r="P309" t="n">
+        <v>1670000</v>
+      </c>
+      <c r="Q309" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/mazda/cx-4/i-res-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>478</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
@@ -14203,137 +14197,153 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>CX-9 Restyling</t>
+          <t>CX-5</t>
         </is>
       </c>
       <c r="D310" t="n">
-        <v>2922100</v>
+        <v>1600000</v>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/mazda/cx-9/ii-res-allroad-5/</t>
+          <t>https://primeauto-ekb.ru/new/mazda/cx-5</t>
+        </is>
+      </c>
+      <c r="F310" t="n">
+        <v>1606300</v>
+      </c>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>https://uu-stoks.ru/auto/mazda/cx5_cuv</t>
+        </is>
+      </c>
+      <c r="N310" t="n">
+        <v>1600000</v>
+      </c>
+      <c r="O310" t="inlineStr">
+        <is>
+          <t>https://primeauto-ekb.ru/new/mazda/cx-5</t>
         </is>
       </c>
       <c r="P310" t="n">
-        <v>2922100</v>
+        <v>1606300</v>
       </c>
       <c r="Q310" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/mazda/cx-9/ii-res-allroad-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/mazda/cx-5/ii-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>685</t>
+          <t>487</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Mitsubishi</t>
+          <t>Mazda</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>ASX</t>
+          <t>CX-60</t>
         </is>
       </c>
       <c r="D311" t="n">
-        <v>910000</v>
+        <v>3570000</v>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/mitsubishi/asx</t>
+          <t>https://primeauto-ekb.ru/new/mazda/cx-60</t>
         </is>
       </c>
       <c r="N311" t="n">
-        <v>910000</v>
+        <v>3570000</v>
       </c>
       <c r="O311" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/mitsubishi/asx</t>
+          <t>https://primeauto-ekb.ru/new/mazda/cx-60</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>496</t>
+          <t>479</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Mitsubishi</t>
+          <t>Mazda</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>ASX New</t>
+          <t>CX-9</t>
         </is>
       </c>
       <c r="D312" t="n">
-        <v>1340000</v>
+        <v>2920000</v>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/mitsubishi/asx-new</t>
+          <t>https://primeauto-ekb.ru/new/mazda/cx-9</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>1372000</v>
+        <v>2922100</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
-          <t>https://uu-stoks.ru/auto/mitsubishi/asx-new-2020_cuv</t>
+          <t>https://uu-stoks.ru/auto/mazda/cx9_cuv</t>
         </is>
       </c>
       <c r="N312" t="n">
-        <v>1340000</v>
+        <v>2920000</v>
       </c>
       <c r="O312" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/mitsubishi/asx-new</t>
+          <t>https://primeauto-ekb.ru/new/mazda/cx-9</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>497</t>
+          <t>480</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Mitsubishi</t>
+          <t>Mazda</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>ASX Restyling 3</t>
+          <t>CX-9 Restyling</t>
         </is>
       </c>
       <c r="D313" t="n">
-        <v>1372000</v>
+        <v>2922100</v>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/mitsubishi/asx/i-res3-allroad-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/mazda/cx-9/ii-res-allroad-5/</t>
         </is>
       </c>
       <c r="P313" t="n">
-        <v>1372000</v>
+        <v>2922100</v>
       </c>
       <c r="Q313" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/mitsubishi/asx/i-res3-allroad-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/mazda/cx-9/ii-res-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>498</t>
+          <t>685</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
@@ -14343,30 +14353,30 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>Eclipse Cross</t>
+          <t>ASX</t>
         </is>
       </c>
       <c r="D314" t="n">
-        <v>1450000</v>
+        <v>910000</v>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/mitsubishi/eclipse-cross/i-res-allroad-5/</t>
-        </is>
-      </c>
-      <c r="P314" t="n">
-        <v>1450000</v>
-      </c>
-      <c r="Q314" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/mitsubishi/eclipse-cross/i-res-allroad-5/</t>
+          <t>https://primeauto-ekb.ru/new/mitsubishi/asx</t>
+        </is>
+      </c>
+      <c r="N314" t="n">
+        <v>910000</v>
+      </c>
+      <c r="O314" t="inlineStr">
+        <is>
+          <t>https://primeauto-ekb.ru/new/mitsubishi/asx</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>499</t>
+          <t>496</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
@@ -14376,38 +14386,38 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>Eclipse Cross New</t>
+          <t>ASX New</t>
         </is>
       </c>
       <c r="D315" t="n">
-        <v>2010000</v>
+        <v>1340000</v>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/mitsubishi/eclipse-cross-new</t>
+          <t>https://primeauto-ekb.ru/new/mitsubishi/asx-new</t>
         </is>
       </c>
       <c r="F315" t="n">
-        <v>3549000</v>
+        <v>1372000</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
-          <t>https://uu-stoks.ru/auto/mitsubishi/eclipse-cross-new_suv</t>
+          <t>https://uu-stoks.ru/auto/mitsubishi/asx-new-2020_cuv</t>
         </is>
       </c>
       <c r="N315" t="n">
-        <v>2010000</v>
+        <v>1340000</v>
       </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/mitsubishi/eclipse-cross-new</t>
+          <t>https://primeauto-ekb.ru/new/mitsubishi/asx-new</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>501</t>
+          <t>497</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
@@ -14417,38 +14427,30 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>L200 New</t>
+          <t>ASX Restyling 3</t>
         </is>
       </c>
       <c r="D316" t="n">
-        <v>2450000</v>
+        <v>1372000</v>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/mitsubishi/l200-new</t>
-        </is>
-      </c>
-      <c r="F316" t="n">
-        <v>4099000</v>
-      </c>
-      <c r="G316" t="inlineStr">
-        <is>
-          <t>https://uu-stoks.ru/auto/mitsubishi/new-l200_2019</t>
-        </is>
-      </c>
-      <c r="N316" t="n">
-        <v>2450000</v>
-      </c>
-      <c r="O316" t="inlineStr">
-        <is>
-          <t>https://primeauto-ekb.ru/new/mitsubishi/l200-new</t>
+          <t>https://atc-gagarin.ru/cars-new/mitsubishi/asx/i-res3-allroad-5/</t>
+        </is>
+      </c>
+      <c r="P316" t="n">
+        <v>1372000</v>
+      </c>
+      <c r="Q316" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/mitsubishi/asx/i-res3-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>498</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
@@ -14458,30 +14460,30 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>Montero Sport</t>
+          <t>Eclipse Cross</t>
         </is>
       </c>
       <c r="D317" t="n">
-        <v>3300000</v>
+        <v>1450000</v>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/mitsubishi/montero-sport/iii-res-allroad-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/mitsubishi/eclipse-cross/i-res-allroad-5/</t>
         </is>
       </c>
       <c r="P317" t="n">
-        <v>3300000</v>
+        <v>1450000</v>
       </c>
       <c r="Q317" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/mitsubishi/montero-sport/iii-res-allroad-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/mitsubishi/eclipse-cross/i-res-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>808</t>
+          <t>499</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
@@ -14491,30 +14493,38 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>Montero Sport New</t>
+          <t>Eclipse Cross New</t>
         </is>
       </c>
       <c r="D318" t="n">
-        <v>2620000</v>
+        <v>2010000</v>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/mitsubishi/montero-sport-new</t>
+          <t>https://primeauto-ekb.ru/new/mitsubishi/eclipse-cross-new</t>
+        </is>
+      </c>
+      <c r="F318" t="n">
+        <v>3549000</v>
+      </c>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>https://uu-stoks.ru/auto/mitsubishi/eclipse-cross-new_suv</t>
         </is>
       </c>
       <c r="N318" t="n">
-        <v>2620000</v>
+        <v>2010000</v>
       </c>
       <c r="O318" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/mitsubishi/montero-sport-new</t>
+          <t>https://primeauto-ekb.ru/new/mitsubishi/eclipse-cross-new</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>502</t>
+          <t>501</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
@@ -14524,46 +14534,38 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>Outlander</t>
+          <t>L200 New</t>
         </is>
       </c>
       <c r="D319" t="n">
-        <v>1251400</v>
+        <v>2450000</v>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/mitsubishi/outlander/iii-res3-allroad-5/</t>
+          <t>https://primeauto-ekb.ru/new/mitsubishi/l200-new</t>
         </is>
       </c>
       <c r="F319" t="n">
-        <v>3469000</v>
+        <v>4099000</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
-          <t>https://uu-stoks.ru/auto/mitsubishi/outlander_outlander-7</t>
+          <t>https://uu-stoks.ru/auto/mitsubishi/new-l200_2019</t>
         </is>
       </c>
       <c r="N319" t="n">
-        <v>1500000</v>
+        <v>2450000</v>
       </c>
       <c r="O319" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/mitsubishi/outlander-new</t>
-        </is>
-      </c>
-      <c r="P319" t="n">
-        <v>1251400</v>
-      </c>
-      <c r="Q319" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/mitsubishi/outlander/iii-res3-allroad-5/</t>
+          <t>https://primeauto-ekb.ru/new/mitsubishi/l200-new</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>503</t>
+          <t>500</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
@@ -14573,46 +14575,30 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>Outlander New</t>
+          <t>Montero Sport</t>
         </is>
       </c>
       <c r="D320" t="n">
-        <v>2070000</v>
+        <v>3300000</v>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/mitsubishi/outlander/iv-allroad-5/</t>
-        </is>
-      </c>
-      <c r="F320" t="n">
-        <v>3209000</v>
-      </c>
-      <c r="G320" t="inlineStr">
-        <is>
-          <t>https://uu-stoks.ru/auto/mitsubishi/outlander-new_suv</t>
-        </is>
-      </c>
-      <c r="N320" t="n">
-        <v>2240000</v>
-      </c>
-      <c r="O320" t="inlineStr">
-        <is>
-          <t>https://primeauto-ekb.ru/new/mitsubishi/outlander</t>
+          <t>https://atc-gagarin.ru/cars-new/mitsubishi/montero-sport/iii-res-allroad-5/</t>
         </is>
       </c>
       <c r="P320" t="n">
-        <v>2070000</v>
+        <v>3300000</v>
       </c>
       <c r="Q320" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/mitsubishi/outlander/iv-allroad-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/mitsubishi/montero-sport/iii-res-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>506</t>
+          <t>808</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
@@ -14622,30 +14608,30 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>Pajero Sport</t>
+          <t>Montero Sport New</t>
         </is>
       </c>
       <c r="D321" t="n">
-        <v>2479000</v>
+        <v>2620000</v>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/mitsubishi/pajero-sport/iii-allroad-5/</t>
-        </is>
-      </c>
-      <c r="P321" t="n">
-        <v>2479000</v>
-      </c>
-      <c r="Q321" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/mitsubishi/pajero-sport/iii-allroad-5/</t>
+          <t>https://primeauto-ekb.ru/new/mitsubishi/montero-sport-new</t>
+        </is>
+      </c>
+      <c r="N321" t="n">
+        <v>2620000</v>
+      </c>
+      <c r="O321" t="inlineStr">
+        <is>
+          <t>https://primeauto-ekb.ru/new/mitsubishi/montero-sport-new</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>507</t>
+          <t>502</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
@@ -14655,38 +14641,46 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>Pajero Sport New</t>
+          <t>Outlander</t>
         </is>
       </c>
       <c r="D322" t="n">
-        <v>2600000</v>
+        <v>1251400</v>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/mitsubishi/pajero-sport-new</t>
+          <t>https://atc-gagarin.ru/cars-new/mitsubishi/outlander/iii-res3-allroad-5/</t>
         </is>
       </c>
       <c r="F322" t="n">
-        <v>4359000</v>
+        <v>3469000</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
-          <t>https://uu-stoks.ru/auto/mitsubishi/pajero-sport-new_suv</t>
+          <t>https://uu-stoks.ru/auto/mitsubishi/outlander_outlander-7</t>
         </is>
       </c>
       <c r="N322" t="n">
-        <v>2600000</v>
+        <v>1500000</v>
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/mitsubishi/pajero-sport-new</t>
+          <t>https://primeauto-ekb.ru/new/mitsubishi/outlander-new</t>
+        </is>
+      </c>
+      <c r="P322" t="n">
+        <v>1251400</v>
+      </c>
+      <c r="Q322" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/mitsubishi/outlander/iii-res3-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>508</t>
+          <t>503</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
@@ -14696,328 +14690,328 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>Xpander</t>
+          <t>Outlander New</t>
         </is>
       </c>
       <c r="D323" t="n">
-        <v>1450000</v>
+        <v>2070000</v>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/mitsubishi/xpander</t>
+          <t>https://atc-gagarin.ru/cars-new/mitsubishi/outlander/iv-allroad-5/</t>
+        </is>
+      </c>
+      <c r="F323" t="n">
+        <v>3209000</v>
+      </c>
+      <c r="G323" t="inlineStr">
+        <is>
+          <t>https://uu-stoks.ru/auto/mitsubishi/outlander-new_suv</t>
         </is>
       </c>
       <c r="N323" t="n">
-        <v>1450000</v>
+        <v>2240000</v>
       </c>
       <c r="O323" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/mitsubishi/xpander</t>
+          <t>https://primeauto-ekb.ru/new/mitsubishi/outlander</t>
+        </is>
+      </c>
+      <c r="P323" t="n">
+        <v>2070000</v>
+      </c>
+      <c r="Q323" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/mitsubishi/outlander/iv-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>506</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>Mitsubishi</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>Pajero Sport</t>
         </is>
       </c>
       <c r="D324" t="n">
-        <v>1014000</v>
+        <v>2479000</v>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/moskvich/3/</t>
-        </is>
-      </c>
-      <c r="F324" t="n">
-        <v>1202100</v>
-      </c>
-      <c r="G324" t="inlineStr">
-        <is>
-          <t>https://uu-stoks.ru/auto/moskvich/moskvich3_cuv</t>
-        </is>
-      </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>1014000</t>
-        </is>
-      </c>
-      <c r="I324" t="inlineStr">
-        <is>
-          <t>https://new-auto96.ru/auto/moskvich/3/</t>
-        </is>
-      </c>
-      <c r="N324" t="n">
-        <v>1200000</v>
-      </c>
-      <c r="O324" t="inlineStr">
-        <is>
-          <t>https://primeauto-ekb.ru/new/moskvich/3</t>
+          <t>https://atc-gagarin.ru/cars-new/mitsubishi/pajero-sport/iii-allroad-5/</t>
         </is>
       </c>
       <c r="P324" t="n">
-        <v>1202100</v>
+        <v>2479000</v>
       </c>
       <c r="Q324" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/moscvich/3/2022-allroad-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/mitsubishi/pajero-sport/iii-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>510</t>
+          <t>507</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>Mitsubishi</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>3e</t>
+          <t>Pajero Sport New</t>
         </is>
       </c>
       <c r="D325" t="n">
-        <v>1750000</v>
+        <v>2600000</v>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/moskvich/3e</t>
+          <t>https://primeauto-ekb.ru/new/mitsubishi/pajero-sport-new</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>3025000</v>
+        <v>4359000</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
-          <t>https://uu-stoks.ru/auto/moskvich/3e_suv-1gen</t>
-        </is>
-      </c>
-      <c r="J325" t="n">
-        <v>3025000</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>https://autosalon-kit.ru/auto/moskvich/3e/suv-1gen</t>
+          <t>https://uu-stoks.ru/auto/mitsubishi/pajero-sport-new_suv</t>
         </is>
       </c>
       <c r="N325" t="n">
-        <v>1750000</v>
+        <v>2600000</v>
       </c>
       <c r="O325" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/moskvich/3e</t>
+          <t>https://primeauto-ekb.ru/new/mitsubishi/pajero-sport-new</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>508</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>Mitsubishi</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>Xpander</t>
         </is>
       </c>
       <c r="D326" t="n">
-        <v>1136000</v>
+        <v>1450000</v>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/moscvich/6/2023-liftback-5/</t>
-        </is>
-      </c>
-      <c r="F326" t="n">
-        <v>1429900</v>
-      </c>
-      <c r="G326" t="inlineStr">
-        <is>
-          <t>https://uu-stoks.ru/auto/moskvich/moskvich6_liftback-1gen</t>
-        </is>
-      </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>1320000</t>
-        </is>
-      </c>
-      <c r="I326" t="inlineStr">
-        <is>
-          <t>https://new-auto96.ru/auto/moskvich/6/</t>
-        </is>
-      </c>
-      <c r="J326" t="n">
-        <v>2136000</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>https://autosalon-kit.ru/auto/moskvich/moskvich6/liftback-1gen</t>
+          <t>https://primeauto-ekb.ru/new/mitsubishi/xpander</t>
         </is>
       </c>
       <c r="N326" t="n">
-        <v>1430000</v>
+        <v>1450000</v>
       </c>
       <c r="O326" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/moskvich/6</t>
-        </is>
-      </c>
-      <c r="P326" t="n">
-        <v>1136000</v>
-      </c>
-      <c r="Q326" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/moscvich/6/2023-liftback-5/</t>
+          <t>https://primeauto-ekb.ru/new/mitsubishi/xpander</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>809</t>
+          <t>509</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>Almera</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D327" t="n">
-        <v>438000</v>
+        <v>1014000</v>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>https://uu-stoks.ru/auto/nissan/almera_sedan</t>
+          <t>https://new-auto96.ru/auto/moskvich/3/</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>438000</v>
+        <v>1202100</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
-          <t>https://uu-stoks.ru/auto/nissan/almera_sedan</t>
+          <t>https://uu-stoks.ru/auto/moskvich/moskvich3_cuv</t>
+        </is>
+      </c>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>1014000</t>
+        </is>
+      </c>
+      <c r="I327" t="inlineStr">
+        <is>
+          <t>https://new-auto96.ru/auto/moskvich/3/</t>
         </is>
       </c>
       <c r="N327" t="n">
-        <v>470000</v>
+        <v>1200000</v>
       </c>
       <c r="O327" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/nissan/almera</t>
+          <t>https://primeauto-ekb.ru/new/moskvich/3</t>
+        </is>
+      </c>
+      <c r="P327" t="n">
+        <v>1202100</v>
+      </c>
+      <c r="Q327" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/moscvich/3/2022-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>838</t>
+          <t>510</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>Juke New</t>
+          <t>3e</t>
         </is>
       </c>
       <c r="D328" t="n">
-        <v>1140000</v>
+        <v>1750000</v>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>https://uu-stoks.ru/auto/nissan/new-juke_hatchback</t>
+          <t>https://primeauto-ekb.ru/new/moskvich/3e</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>1140000</v>
+        <v>3025000</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
-          <t>https://uu-stoks.ru/auto/nissan/new-juke_hatchback</t>
+          <t>https://uu-stoks.ru/auto/moskvich/3e_suv-1gen</t>
+        </is>
+      </c>
+      <c r="J328" t="n">
+        <v>3025000</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>https://autosalon-kit.ru/auto/moskvich/3e/suv-1gen</t>
+        </is>
+      </c>
+      <c r="N328" t="n">
+        <v>1750000</v>
+      </c>
+      <c r="O328" t="inlineStr">
+        <is>
+          <t>https://primeauto-ekb.ru/new/moskvich/3e</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>517</t>
+          <t>511</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>Murano</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D329" t="n">
-        <v>1379400</v>
+        <v>1136000</v>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/nissan/murano/suv</t>
+          <t>https://atc-gagarin.ru/cars-new/moscvich/6/2023-liftback-5/</t>
+        </is>
+      </c>
+      <c r="F329" t="n">
+        <v>1429900</v>
+      </c>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>https://uu-stoks.ru/auto/moskvich/moskvich6_liftback-1gen</t>
+        </is>
+      </c>
+      <c r="H329" t="inlineStr">
+        <is>
+          <t>1320000</t>
+        </is>
+      </c>
+      <c r="I329" t="inlineStr">
+        <is>
+          <t>https://new-auto96.ru/auto/moskvich/6/</t>
         </is>
       </c>
       <c r="J329" t="n">
-        <v>1379400</v>
+        <v>2136000</v>
       </c>
       <c r="K329" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/nissan/murano/suv</t>
+          <t>https://autosalon-kit.ru/auto/moskvich/moskvich6/liftback-1gen</t>
         </is>
       </c>
       <c r="N329" t="n">
-        <v>2570000</v>
+        <v>1430000</v>
       </c>
       <c r="O329" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/nissan/murano</t>
+          <t>https://primeauto-ekb.ru/new/moskvich/6</t>
         </is>
       </c>
       <c r="P329" t="n">
-        <v>2299000</v>
+        <v>1136000</v>
       </c>
       <c r="Q329" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/nissan/murano/iii-allroad-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/moscvich/6/2023-liftback-5/</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>518</t>
+          <t>809</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
@@ -15027,30 +15021,38 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>Murano New</t>
+          <t>Almera</t>
         </is>
       </c>
       <c r="D330" t="n">
-        <v>2579900</v>
+        <v>438000</v>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>https://uu-stoks.ru/auto/nissan/murano-2020_suv</t>
+          <t>https://uu-stoks.ru/auto/nissan/almera_sedan</t>
         </is>
       </c>
       <c r="F330" t="n">
-        <v>2579900</v>
+        <v>438000</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
-          <t>https://uu-stoks.ru/auto/nissan/murano-2020_suv</t>
+          <t>https://uu-stoks.ru/auto/nissan/almera_sedan</t>
+        </is>
+      </c>
+      <c r="N330" t="n">
+        <v>470000</v>
+      </c>
+      <c r="O330" t="inlineStr">
+        <is>
+          <t>https://primeauto-ekb.ru/new/nissan/almera</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>514</t>
+          <t>838</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
@@ -15060,38 +15062,30 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>Pathfinder</t>
+          <t>Juke New</t>
         </is>
       </c>
       <c r="D331" t="n">
-        <v>4000000</v>
+        <v>1140000</v>
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/nissan/pathfinder/v-allroad-5/</t>
-        </is>
-      </c>
-      <c r="N331" t="n">
-        <v>4000000</v>
-      </c>
-      <c r="O331" t="inlineStr">
-        <is>
-          <t>https://primeauto-ekb.ru/new/nissan/pathfinder</t>
-        </is>
-      </c>
-      <c r="P331" t="n">
-        <v>4000000</v>
-      </c>
-      <c r="Q331" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/nissan/pathfinder/v-allroad-5/</t>
+          <t>https://uu-stoks.ru/auto/nissan/new-juke_hatchback</t>
+        </is>
+      </c>
+      <c r="F331" t="n">
+        <v>1140000</v>
+      </c>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>https://uu-stoks.ru/auto/nissan/new-juke_hatchback</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>517</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
@@ -15101,64 +15095,46 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>Qashqai</t>
+          <t>Murano</t>
         </is>
       </c>
       <c r="D332" t="n">
-        <v>1300000</v>
+        <v>1379400</v>
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/nissan/qashqai</t>
-        </is>
-      </c>
-      <c r="F332" t="n">
-        <v>1300300</v>
-      </c>
-      <c r="G332" t="inlineStr">
-        <is>
-          <t>https://uu-stoks.ru/auto/nissan/new-qashqai_2019</t>
-        </is>
-      </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>1300000</t>
-        </is>
-      </c>
-      <c r="I332" t="inlineStr">
-        <is>
-          <t>https://new-auto96.ru/auto/nissan/qashqai/</t>
+          <t>https://autosalon-kit.ru/auto/nissan/murano/suv</t>
         </is>
       </c>
       <c r="J332" t="n">
-        <v>1402200</v>
+        <v>1379400</v>
       </c>
       <c r="K332" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/nissan/new-qashqai/2019</t>
+          <t>https://autosalon-kit.ru/auto/nissan/murano/suv</t>
         </is>
       </c>
       <c r="N332" t="n">
-        <v>1300000</v>
+        <v>2570000</v>
       </c>
       <c r="O332" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/nissan/qashqai</t>
+          <t>https://primeauto-ekb.ru/new/nissan/murano</t>
         </is>
       </c>
       <c r="P332" t="n">
-        <v>1300300</v>
+        <v>2299000</v>
       </c>
       <c r="Q332" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/nissan/qashqai/ii-res-allroad-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/nissan/murano/iii-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>521</t>
+          <t>518</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
@@ -15168,30 +15144,30 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>Qashqai New</t>
+          <t>Murano New</t>
         </is>
       </c>
       <c r="D333" t="n">
-        <v>1600300</v>
+        <v>2579900</v>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/nissan/qashqai/iii-allroad-5/</t>
-        </is>
-      </c>
-      <c r="P333" t="n">
-        <v>1600300</v>
-      </c>
-      <c r="Q333" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/nissan/qashqai/iii-allroad-5/</t>
+          <t>https://uu-stoks.ru/auto/nissan/murano-2020_suv</t>
+        </is>
+      </c>
+      <c r="F333" t="n">
+        <v>2579900</v>
+      </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>https://uu-stoks.ru/auto/nissan/murano-2020_suv</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>522</t>
+          <t>514</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
@@ -15201,38 +15177,38 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>Terrano</t>
+          <t>Pathfinder</t>
         </is>
       </c>
       <c r="D334" t="n">
-        <v>890000</v>
+        <v>4000000</v>
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/nissan/terrano</t>
+          <t>https://atc-gagarin.ru/cars-new/nissan/pathfinder/v-allroad-5/</t>
         </is>
       </c>
       <c r="N334" t="n">
-        <v>890000</v>
+        <v>4000000</v>
       </c>
       <c r="O334" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/nissan/terrano</t>
+          <t>https://primeauto-ekb.ru/new/nissan/pathfinder</t>
         </is>
       </c>
       <c r="P334" t="n">
-        <v>899000</v>
+        <v>4000000</v>
       </c>
       <c r="Q334" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/nissan/terrano/iii-allroad-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/nissan/pathfinder/v-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>519</t>
+          <t>520</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
@@ -15242,38 +15218,64 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>Terrano New</t>
+          <t>Qashqai</t>
         </is>
       </c>
       <c r="D335" t="n">
-        <v>899000</v>
+        <v>1300000</v>
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>https://uu-stoks.ru/auto/nissan/terrano-2020_suv</t>
+          <t>https://primeauto-ekb.ru/new/nissan/qashqai</t>
         </is>
       </c>
       <c r="F335" t="n">
-        <v>899000</v>
+        <v>1300300</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
-          <t>https://uu-stoks.ru/auto/nissan/terrano-2020_suv</t>
+          <t>https://uu-stoks.ru/auto/nissan/new-qashqai_2019</t>
+        </is>
+      </c>
+      <c r="H335" t="inlineStr">
+        <is>
+          <t>1300000</t>
+        </is>
+      </c>
+      <c r="I335" t="inlineStr">
+        <is>
+          <t>https://new-auto96.ru/auto/nissan/qashqai/</t>
         </is>
       </c>
       <c r="J335" t="n">
-        <v>1014000</v>
+        <v>1402200</v>
       </c>
       <c r="K335" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/nissan/terrano-2020/suv</t>
+          <t>https://autosalon-kit.ru/auto/nissan/new-qashqai/2019</t>
+        </is>
+      </c>
+      <c r="N335" t="n">
+        <v>1300000</v>
+      </c>
+      <c r="O335" t="inlineStr">
+        <is>
+          <t>https://primeauto-ekb.ru/new/nissan/qashqai</t>
+        </is>
+      </c>
+      <c r="P335" t="n">
+        <v>1300300</v>
+      </c>
+      <c r="Q335" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/nissan/qashqai/ii-res-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>523</t>
+          <t>521</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
@@ -15283,48 +15285,30 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>X-trail</t>
+          <t>Qashqai New</t>
         </is>
       </c>
       <c r="D336" t="n">
-        <v>1530000</v>
+        <v>1600300</v>
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/nissan/x-trail</t>
-        </is>
-      </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>1530000</t>
-        </is>
-      </c>
-      <c r="I336" t="inlineStr">
-        <is>
-          <t>https://new-auto96.ru/auto/nissan/x-trail/</t>
-        </is>
-      </c>
-      <c r="N336" t="n">
-        <v>1530000</v>
-      </c>
-      <c r="O336" t="inlineStr">
-        <is>
-          <t>https://primeauto-ekb.ru/new/nissan/x-trail</t>
+          <t>https://atc-gagarin.ru/cars-new/nissan/qashqai/iii-allroad-5/</t>
         </is>
       </c>
       <c r="P336" t="n">
-        <v>1530100</v>
+        <v>1600300</v>
       </c>
       <c r="Q336" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/nissan/x-trail/iii-res-allroad-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/nissan/qashqai/iii-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>524</t>
+          <t>522</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
@@ -15334,527 +15318,543 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>X-trail New</t>
+          <t>Terrano</t>
         </is>
       </c>
       <c r="D337" t="n">
-        <v>1530100</v>
+        <v>890000</v>
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>https://uu-stoks.ru/auto/nissan/newxtrail_newxtrail</t>
-        </is>
-      </c>
-      <c r="F337" t="n">
-        <v>1530100</v>
-      </c>
-      <c r="G337" t="inlineStr">
-        <is>
-          <t>https://uu-stoks.ru/auto/nissan/newxtrail_newxtrail</t>
+          <t>https://primeauto-ekb.ru/new/nissan/terrano</t>
         </is>
       </c>
       <c r="J337" t="n">
-        <v>1657200</v>
+        <v>1014000</v>
       </c>
       <c r="K337" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/nissan/newxtrail/newxtrail</t>
+          <t>https://autosalon-kit.ru/auto/nissan/terrano-2020/suv</t>
         </is>
       </c>
       <c r="N337" t="n">
-        <v>2850000</v>
+        <v>890000</v>
       </c>
       <c r="O337" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/nissan/x-trail-new</t>
+          <t>https://primeauto-ekb.ru/new/nissan/terrano</t>
         </is>
       </c>
       <c r="P337" t="n">
-        <v>1830000</v>
+        <v>899000</v>
       </c>
       <c r="Q337" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/nissan/x-trail/iv-allroad-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/nissan/terrano/iii-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>519</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>C5</t>
+          <t>Terrano New</t>
         </is>
       </c>
       <c r="D338" t="n">
-        <v>979900</v>
+        <v>899000</v>
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/omoda/c5/cuv</t>
+          <t>https://uu-stoks.ru/auto/nissan/terrano-2020_suv</t>
         </is>
       </c>
       <c r="F338" t="n">
-        <v>1365900</v>
+        <v>899000</v>
       </c>
       <c r="G338" t="inlineStr">
         <is>
-          <t>https://uu-stoks.ru/auto/omoda/c5_cuv</t>
-        </is>
-      </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>1260000</t>
-        </is>
-      </c>
-      <c r="I338" t="inlineStr">
-        <is>
-          <t>https://new-auto96.ru/auto/omoda/c5/</t>
-        </is>
-      </c>
-      <c r="J338" t="n">
-        <v>979900</v>
-      </c>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>https://autosalon-kit.ru/auto/omoda/c5/cuv</t>
-        </is>
-      </c>
-      <c r="N338" t="n">
-        <v>1360000</v>
-      </c>
-      <c r="O338" t="inlineStr">
-        <is>
-          <t>https://primeauto-ekb.ru/new/omoda/c5</t>
-        </is>
-      </c>
-      <c r="P338" t="n">
-        <v>1365900</v>
-      </c>
-      <c r="Q338" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/omoda/c5/2022-allroad-5/</t>
+          <t>https://uu-stoks.ru/auto/nissan/terrano-2020_suv</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>523</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>X-trail</t>
         </is>
       </c>
       <c r="D339" t="n">
-        <v>979900</v>
+        <v>1530000</v>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/omoda/s5/</t>
-        </is>
-      </c>
-      <c r="F339" t="n">
-        <v>1263900</v>
-      </c>
-      <c r="G339" t="inlineStr">
-        <is>
-          <t>https://uu-stoks.ru/auto/omoda/s5-2023_sedan-1gen</t>
+          <t>https://primeauto-ekb.ru/new/nissan/x-trail</t>
         </is>
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>979900</t>
+          <t>1530000</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/omoda/s5/</t>
+          <t>https://new-auto96.ru/auto/nissan/x-trail/</t>
         </is>
       </c>
       <c r="J339" t="n">
-        <v>1299900</v>
+        <v>1657200</v>
       </c>
       <c r="K339" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/omoda/s5_/SEDAN</t>
+          <t>https://autosalon-kit.ru/auto/nissan/newxtrail/newxtrail</t>
         </is>
       </c>
       <c r="N339" t="n">
-        <v>1260000</v>
+        <v>1530000</v>
       </c>
       <c r="O339" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/omoda/s5</t>
+          <t>https://primeauto-ekb.ru/new/nissan/x-trail</t>
         </is>
       </c>
       <c r="P339" t="n">
-        <v>1263900</v>
+        <v>1530100</v>
       </c>
       <c r="Q339" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/omoda/s5/2022-sedan-4/</t>
+          <t>https://atc-gagarin.ru/cars-new/nissan/x-trail/iii-res-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>524</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>S5 GT</t>
+          <t>X-trail New</t>
         </is>
       </c>
       <c r="D340" t="n">
-        <v>1750000</v>
+        <v>1530100</v>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/omoda/s5-gt</t>
+          <t>https://uu-stoks.ru/auto/nissan/newxtrail_newxtrail</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>1755000</v>
+        <v>1530100</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
-          <t>https://uu-stoks.ru/auto/omoda/s5-gt_sedan-1gen</t>
+          <t>https://uu-stoks.ru/auto/nissan/newxtrail_newxtrail</t>
+        </is>
+      </c>
+      <c r="J340" t="n">
+        <v>3670000</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>https://autosalon-kit.ru/auto/nissan/newxtrail/suv-4gen</t>
         </is>
       </c>
       <c r="N340" t="n">
-        <v>1750000</v>
+        <v>2850000</v>
       </c>
       <c r="O340" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/omoda/s5-gt</t>
+          <t>https://primeauto-ekb.ru/new/nissan/x-trail-new</t>
         </is>
       </c>
       <c r="P340" t="n">
-        <v>1755000</v>
+        <v>1830000</v>
       </c>
       <c r="Q340" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/omoda/s5-gt/2023-sedan-4/</t>
+          <t>https://atc-gagarin.ru/cars-new/nissan/x-trail/iv-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>533</t>
+          <t>525</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Opel</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>Crossland X</t>
+          <t>C5</t>
         </is>
       </c>
       <c r="D341" t="n">
-        <v>1789000</v>
+        <v>979900</v>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/opel/crossland-x/i-res-allroad-5/</t>
+          <t>https://autosalon-kit.ru/auto/omoda/c5/cuv</t>
+        </is>
+      </c>
+      <c r="F341" t="n">
+        <v>1365900</v>
+      </c>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>https://uu-stoks.ru/auto/omoda/c5_cuv</t>
+        </is>
+      </c>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>1260000</t>
+        </is>
+      </c>
+      <c r="I341" t="inlineStr">
+        <is>
+          <t>https://new-auto96.ru/auto/omoda/c5/</t>
+        </is>
+      </c>
+      <c r="J341" t="n">
+        <v>979900</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>https://autosalon-kit.ru/auto/omoda/c5/cuv</t>
+        </is>
+      </c>
+      <c r="N341" t="n">
+        <v>1360000</v>
+      </c>
+      <c r="O341" t="inlineStr">
+        <is>
+          <t>https://primeauto-ekb.ru/new/omoda/c5</t>
         </is>
       </c>
       <c r="P341" t="n">
-        <v>1789000</v>
+        <v>1365900</v>
       </c>
       <c r="Q341" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/opel/crossland-x/i-res-allroad-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/omoda/c5/2022-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>529</t>
+          <t>526</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Opel</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>Grandland</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="D342" t="n">
-        <v>1959000</v>
+        <v>979900</v>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/opel/grandland-x/i-allroad-5/</t>
+          <t>https://new-auto96.ru/auto/omoda/s5/</t>
+        </is>
+      </c>
+      <c r="F342" t="n">
+        <v>1263900</v>
+      </c>
+      <c r="G342" t="inlineStr">
+        <is>
+          <t>https://uu-stoks.ru/auto/omoda/s5-2023_sedan-1gen</t>
+        </is>
+      </c>
+      <c r="H342" t="inlineStr">
+        <is>
+          <t>979900</t>
+        </is>
+      </c>
+      <c r="I342" t="inlineStr">
+        <is>
+          <t>https://new-auto96.ru/auto/omoda/s5/</t>
+        </is>
+      </c>
+      <c r="J342" t="n">
+        <v>1299900</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>https://autosalon-kit.ru/auto/omoda/s5_/SEDAN</t>
+        </is>
+      </c>
+      <c r="N342" t="n">
+        <v>1260000</v>
+      </c>
+      <c r="O342" t="inlineStr">
+        <is>
+          <t>https://primeauto-ekb.ru/new/omoda/s5</t>
         </is>
       </c>
       <c r="P342" t="n">
-        <v>1959000</v>
+        <v>1263900</v>
       </c>
       <c r="Q342" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/opel/grandland-x/i-allroad-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/omoda/s5/2022-sedan-4/</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>531</t>
+          <t>527</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Opel</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>Zafira Life</t>
+          <t>S5 GT</t>
         </is>
       </c>
       <c r="D343" t="n">
-        <v>2989000</v>
+        <v>1750000</v>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/opel/zafira-life/i-minivan-l-5/</t>
+          <t>https://primeauto-ekb.ru/new/omoda/s5-gt</t>
+        </is>
+      </c>
+      <c r="F343" t="n">
+        <v>1755000</v>
+      </c>
+      <c r="G343" t="inlineStr">
+        <is>
+          <t>https://uu-stoks.ru/auto/omoda/s5-gt_sedan-1gen</t>
+        </is>
+      </c>
+      <c r="N343" t="n">
+        <v>1750000</v>
+      </c>
+      <c r="O343" t="inlineStr">
+        <is>
+          <t>https://primeauto-ekb.ru/new/omoda/s5-gt</t>
         </is>
       </c>
       <c r="P343" t="n">
-        <v>2989000</v>
+        <v>1755000</v>
       </c>
       <c r="Q343" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/opel/zafira-life/i-minivan-l-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/omoda/s5-gt/2023-sedan-4/</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>533</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Oting</t>
+          <t>Opel</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>Paladin</t>
+          <t>Crossland X</t>
         </is>
       </c>
       <c r="D344" t="n">
-        <v>3490000</v>
+        <v>1789000</v>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/oting/paladin</t>
-        </is>
-      </c>
-      <c r="N344" t="n">
-        <v>3490000</v>
-      </c>
-      <c r="O344" t="inlineStr">
-        <is>
-          <t>https://primeauto-ekb.ru/new/oting/paladin</t>
+          <t>https://atc-gagarin.ru/cars-new/opel/crossland-x/i-res-allroad-5/</t>
+        </is>
+      </c>
+      <c r="P344" t="n">
+        <v>1789000</v>
+      </c>
+      <c r="Q344" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/opel/crossland-x/i-res-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>545</t>
+          <t>529</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Ravon</t>
+          <t>Opel</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>Nexia R3</t>
+          <t>Grandland</t>
         </is>
       </c>
       <c r="D345" t="n">
-        <v>410300</v>
+        <v>1959000</v>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/ravon/nexia-r3/2015-2020-sedan-4/</t>
+          <t>https://atc-gagarin.ru/cars-new/opel/grandland-x/i-allroad-5/</t>
         </is>
       </c>
       <c r="P345" t="n">
-        <v>410300</v>
+        <v>1959000</v>
       </c>
       <c r="Q345" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/ravon/nexia-r3/2015-2020-sedan-4/</t>
+          <t>https://atc-gagarin.ru/cars-new/opel/grandland-x/i-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>531</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Opel</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>Arkana</t>
+          <t>Zafira Life</t>
         </is>
       </c>
       <c r="D346" t="n">
-        <v>909000</v>
+        <v>2989000</v>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/renault/arkana/i-allroad-5/</t>
-        </is>
-      </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>1009000</t>
-        </is>
-      </c>
-      <c r="I346" t="inlineStr">
-        <is>
-          <t>https://new-auto96.ru/auto/renault/arkana/</t>
-        </is>
-      </c>
-      <c r="N346" t="n">
-        <v>910000</v>
-      </c>
-      <c r="O346" t="inlineStr">
-        <is>
-          <t>https://primeauto-ekb.ru/new/renault/arkana</t>
+          <t>https://atc-gagarin.ru/cars-new/opel/zafira-life/i-minivan-l-5/</t>
         </is>
       </c>
       <c r="P346" t="n">
-        <v>909000</v>
+        <v>2989000</v>
       </c>
       <c r="Q346" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/renault/arkana/i-allroad-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/opel/zafira-life/i-minivan-l-5/</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>537</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Oting</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>Arkana New</t>
+          <t>Paladin</t>
         </is>
       </c>
       <c r="D347" t="n">
-        <v>909000</v>
+        <v>3490000</v>
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>https://uu-stoks.ru/auto/renault/new-arkana_2019</t>
-        </is>
-      </c>
-      <c r="F347" t="n">
-        <v>909000</v>
-      </c>
-      <c r="G347" t="inlineStr">
-        <is>
-          <t>https://uu-stoks.ru/auto/renault/new-arkana_2019</t>
-        </is>
-      </c>
-      <c r="J347" t="n">
-        <v>1124400</v>
-      </c>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>https://autosalon-kit.ru/auto/renault/new-arkana/2019</t>
+          <t>https://primeauto-ekb.ru/new/oting/paladin</t>
+        </is>
+      </c>
+      <c r="N347" t="n">
+        <v>3490000</v>
+      </c>
+      <c r="O347" t="inlineStr">
+        <is>
+          <t>https://primeauto-ekb.ru/new/oting/paladin</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>553</t>
+          <t>545</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Ravon</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>Duster</t>
+          <t>Nexia R3</t>
         </is>
       </c>
       <c r="D348" t="n">
-        <v>750000</v>
+        <v>410300</v>
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/renault/duster</t>
-        </is>
-      </c>
-      <c r="N348" t="n">
-        <v>750000</v>
-      </c>
-      <c r="O348" t="inlineStr">
-        <is>
-          <t>https://primeauto-ekb.ru/new/renault/duster</t>
+          <t>https://atc-gagarin.ru/cars-new/ravon/nexia-r3/2015-2020-sedan-4/</t>
+        </is>
+      </c>
+      <c r="P348" t="n">
+        <v>410300</v>
+      </c>
+      <c r="Q348" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/ravon/nexia-r3/2015-2020-sedan-4/</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>554</t>
+          <t>549</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
@@ -15864,30 +15864,56 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>Duster 2021</t>
+          <t>Arkana</t>
         </is>
       </c>
       <c r="D349" t="n">
-        <v>640000</v>
+        <v>909000</v>
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/renault/duster-2021</t>
+          <t>https://atc-gagarin.ru/cars-new/renault/arkana/i-allroad-5/</t>
+        </is>
+      </c>
+      <c r="H349" t="inlineStr">
+        <is>
+          <t>1009000</t>
+        </is>
+      </c>
+      <c r="I349" t="inlineStr">
+        <is>
+          <t>https://new-auto96.ru/auto/renault/arkana/</t>
+        </is>
+      </c>
+      <c r="J349" t="n">
+        <v>1124400</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>https://autosalon-kit.ru/auto/renault/new-arkana/2019</t>
         </is>
       </c>
       <c r="N349" t="n">
-        <v>640000</v>
+        <v>910000</v>
       </c>
       <c r="O349" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/renault/duster-2021</t>
+          <t>https://primeauto-ekb.ru/new/renault/arkana</t>
+        </is>
+      </c>
+      <c r="P349" t="n">
+        <v>909000</v>
+      </c>
+      <c r="Q349" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/renault/arkana/i-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>550</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
@@ -15897,48 +15923,30 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>Duster New</t>
+          <t>Arkana New</t>
         </is>
       </c>
       <c r="D350" t="n">
-        <v>751000</v>
+        <v>909000</v>
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>https://uu-stoks.ru/auto/renault/duster-new_cuv</t>
+          <t>https://uu-stoks.ru/auto/renault/new-arkana_2019</t>
         </is>
       </c>
       <c r="F350" t="n">
-        <v>751000</v>
+        <v>909000</v>
       </c>
       <c r="G350" t="inlineStr">
         <is>
-          <t>https://uu-stoks.ru/auto/renault/duster-new_cuv</t>
-        </is>
-      </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>770000</t>
-        </is>
-      </c>
-      <c r="I350" t="inlineStr">
-        <is>
-          <t>https://new-auto96.ru/auto/renault/duster/</t>
-        </is>
-      </c>
-      <c r="J350" t="n">
-        <v>970800</v>
-      </c>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>https://autosalon-kit.ru/auto/renault/duster-new/cuv</t>
+          <t>https://uu-stoks.ru/auto/renault/new-arkana_2019</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>553</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
@@ -15948,40 +15956,38 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>Kaptur</t>
+          <t>Duster</t>
         </is>
       </c>
       <c r="D351" t="n">
-        <v>780000</v>
+        <v>750000</v>
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/renault/kaptur-2019</t>
-        </is>
-      </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>884000</t>
-        </is>
-      </c>
-      <c r="I351" t="inlineStr">
-        <is>
-          <t>https://new-auto96.ru/auto/renault/kaptur/</t>
+          <t>https://primeauto-ekb.ru/new/renault/duster</t>
+        </is>
+      </c>
+      <c r="J351" t="n">
+        <v>970800</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>https://autosalon-kit.ru/auto/renault/duster-new/cuv</t>
         </is>
       </c>
       <c r="N351" t="n">
-        <v>780000</v>
+        <v>750000</v>
       </c>
       <c r="O351" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/renault/kaptur-2019</t>
+          <t>https://primeauto-ekb.ru/new/renault/duster</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>557</t>
+          <t>554</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
@@ -15991,38 +15997,30 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>Kaptur New</t>
+          <t>Duster 2021</t>
         </is>
       </c>
       <c r="D352" t="n">
-        <v>789900</v>
+        <v>640000</v>
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>https://uu-stoks.ru/auto/renault/kaptur-new_cuv</t>
-        </is>
-      </c>
-      <c r="F352" t="n">
-        <v>789900</v>
-      </c>
-      <c r="G352" t="inlineStr">
-        <is>
-          <t>https://uu-stoks.ru/auto/renault/kaptur-new_cuv</t>
-        </is>
-      </c>
-      <c r="J352" t="n">
-        <v>1034400</v>
-      </c>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>https://autosalon-kit.ru/auto/renault/kaptur-new/cuv</t>
+          <t>https://primeauto-ekb.ru/new/renault/duster-2021</t>
+        </is>
+      </c>
+      <c r="N352" t="n">
+        <v>640000</v>
+      </c>
+      <c r="O352" t="inlineStr">
+        <is>
+          <t>https://primeauto-ekb.ru/new/renault/duster-2021</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>552</t>
+          <t>555</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
@@ -16032,30 +16030,40 @@
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>Koleos</t>
+          <t>Duster New</t>
         </is>
       </c>
       <c r="D353" t="n">
-        <v>1449000</v>
+        <v>751000</v>
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>https://uu-stoks.ru/auto/renault/koleos_suv</t>
+          <t>https://uu-stoks.ru/auto/renault/duster-new_cuv</t>
         </is>
       </c>
       <c r="F353" t="n">
-        <v>1449000</v>
+        <v>751000</v>
       </c>
       <c r="G353" t="inlineStr">
         <is>
-          <t>https://uu-stoks.ru/auto/renault/koleos_suv</t>
+          <t>https://uu-stoks.ru/auto/renault/duster-new_cuv</t>
+        </is>
+      </c>
+      <c r="H353" t="inlineStr">
+        <is>
+          <t>770000</t>
+        </is>
+      </c>
+      <c r="I353" t="inlineStr">
+        <is>
+          <t>https://new-auto96.ru/auto/renault/duster/</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>556</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
@@ -16065,40 +16073,48 @@
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>Logan</t>
+          <t>Kaptur</t>
         </is>
       </c>
       <c r="D354" t="n">
-        <v>499000</v>
+        <v>780000</v>
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/renault/logan/</t>
+          <t>https://primeauto-ekb.ru/new/renault/kaptur-2019</t>
         </is>
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>499000</t>
+          <t>884000</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/renault/logan/</t>
+          <t>https://new-auto96.ru/auto/renault/kaptur/</t>
+        </is>
+      </c>
+      <c r="J354" t="n">
+        <v>1034400</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>https://autosalon-kit.ru/auto/renault/kaptur-new/cuv</t>
         </is>
       </c>
       <c r="N354" t="n">
-        <v>500000</v>
+        <v>780000</v>
       </c>
       <c r="O354" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/renault/logan</t>
+          <t>https://primeauto-ekb.ru/new/renault/kaptur-2019</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>562</t>
+          <t>557</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
@@ -16108,38 +16124,30 @@
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>Logan New</t>
+          <t>Kaptur New</t>
         </is>
       </c>
       <c r="D355" t="n">
-        <v>499000</v>
+        <v>789900</v>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>https://uu-stoks.ru/auto/renault/new-logan_new</t>
+          <t>https://uu-stoks.ru/auto/renault/kaptur-new_cuv</t>
         </is>
       </c>
       <c r="F355" t="n">
-        <v>499000</v>
+        <v>789900</v>
       </c>
       <c r="G355" t="inlineStr">
         <is>
-          <t>https://uu-stoks.ru/auto/renault/new-logan_new</t>
-        </is>
-      </c>
-      <c r="J355" t="n">
-        <v>674400</v>
-      </c>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>https://autosalon-kit.ru/auto/renault/new-logan/new</t>
+          <t>https://uu-stoks.ru/auto/renault/kaptur-new_cuv</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>559</t>
+          <t>552</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
@@ -16149,64 +16157,30 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>Logan Stepway</t>
+          <t>Koleos</t>
         </is>
       </c>
       <c r="D356" t="n">
-        <v>565300</v>
+        <v>1449000</v>
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/renault/logan_stepway/</t>
+          <t>https://uu-stoks.ru/auto/renault/koleos_suv</t>
         </is>
       </c>
       <c r="F356" t="n">
-        <v>655000</v>
+        <v>1449000</v>
       </c>
       <c r="G356" t="inlineStr">
         <is>
-          <t>https://uu-stoks.ru/auto/renault/logan-stepway_sedan</t>
-        </is>
-      </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>565300</t>
-        </is>
-      </c>
-      <c r="I356" t="inlineStr">
-        <is>
-          <t>https://new-auto96.ru/auto/renault/logan_stepway/</t>
-        </is>
-      </c>
-      <c r="J356" t="n">
-        <v>780600</v>
-      </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>https://autosalon-kit.ru/auto/renault/logan-stepway/sedan</t>
-        </is>
-      </c>
-      <c r="N356" t="n">
-        <v>650000</v>
-      </c>
-      <c r="O356" t="inlineStr">
-        <is>
-          <t>https://primeauto-ekb.ru/new/renault/logan-stepway</t>
-        </is>
-      </c>
-      <c r="P356" t="n">
-        <v>655000</v>
-      </c>
-      <c r="Q356" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/renault/logan/ii-res-sedan-stepway-4/</t>
+          <t>https://uu-stoks.ru/auto/renault/koleos_suv</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>558</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
@@ -16216,48 +16190,48 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>Sandero</t>
+          <t>Logan</t>
         </is>
       </c>
       <c r="D357" t="n">
-        <v>540000</v>
+        <v>499000</v>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/renault/sandero</t>
+          <t>https://new-auto96.ru/auto/renault/logan/</t>
         </is>
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>540000</t>
+          <t>499000</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/renault/sandero/</t>
+          <t>https://new-auto96.ru/auto/renault/logan/</t>
+        </is>
+      </c>
+      <c r="J357" t="n">
+        <v>674400</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>https://autosalon-kit.ru/auto/renault/new-logan/new</t>
         </is>
       </c>
       <c r="N357" t="n">
-        <v>540000</v>
+        <v>500000</v>
       </c>
       <c r="O357" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/renault/sandero</t>
-        </is>
-      </c>
-      <c r="P357" t="n">
-        <v>545000</v>
-      </c>
-      <c r="Q357" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/renault/sandero/ii-res-hatchback-5/</t>
+          <t>https://primeauto-ekb.ru/new/renault/logan</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>563</t>
+          <t>562</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
@@ -16267,38 +16241,30 @@
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>Sandero New</t>
+          <t>Logan New</t>
         </is>
       </c>
       <c r="D358" t="n">
-        <v>545000</v>
+        <v>499000</v>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>https://uu-stoks.ru/auto/renault/new-sandero_new</t>
+          <t>https://uu-stoks.ru/auto/renault/new-logan_new</t>
         </is>
       </c>
       <c r="F358" t="n">
-        <v>545000</v>
+        <v>499000</v>
       </c>
       <c r="G358" t="inlineStr">
         <is>
-          <t>https://uu-stoks.ru/auto/renault/new-sandero_new</t>
-        </is>
-      </c>
-      <c r="J358" t="n">
-        <v>754800</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>https://autosalon-kit.ru/auto/renault/new-sandero/new</t>
+          <t>https://uu-stoks.ru/auto/renault/new-logan_new</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>559</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
@@ -16308,40 +16274,64 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>Sandero Stepway</t>
+          <t>Logan Stepway</t>
         </is>
       </c>
       <c r="D359" t="n">
+        <v>565300</v>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>https://new-auto96.ru/auto/renault/logan_stepway/</t>
+        </is>
+      </c>
+      <c r="F359" t="n">
+        <v>655000</v>
+      </c>
+      <c r="G359" t="inlineStr">
+        <is>
+          <t>https://uu-stoks.ru/auto/renault/logan-stepway_sedan</t>
+        </is>
+      </c>
+      <c r="H359" t="inlineStr">
+        <is>
+          <t>565300</t>
+        </is>
+      </c>
+      <c r="I359" t="inlineStr">
+        <is>
+          <t>https://new-auto96.ru/auto/renault/logan_stepway/</t>
+        </is>
+      </c>
+      <c r="J359" t="n">
+        <v>780600</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>https://autosalon-kit.ru/auto/renault/logan-stepway/sedan</t>
+        </is>
+      </c>
+      <c r="N359" t="n">
         <v>650000</v>
       </c>
-      <c r="E359" t="inlineStr">
-        <is>
-          <t>https://new-auto96.ru/auto/renault/sandero_stepway/</t>
-        </is>
-      </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>650000</t>
-        </is>
-      </c>
-      <c r="I359" t="inlineStr">
-        <is>
-          <t>https://new-auto96.ru/auto/renault/sandero_stepway/</t>
-        </is>
-      </c>
-      <c r="N359" t="n">
-        <v>700000</v>
-      </c>
       <c r="O359" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/renault/sandero-stepway</t>
+          <t>https://primeauto-ekb.ru/new/renault/logan-stepway</t>
+        </is>
+      </c>
+      <c r="P359" t="n">
+        <v>655000</v>
+      </c>
+      <c r="Q359" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/renault/logan/ii-res-sedan-stepway-4/</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>564</t>
+          <t>565</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
@@ -16351,302 +16341,296 @@
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>Sandero Stepway New</t>
+          <t>Sandero</t>
         </is>
       </c>
       <c r="D360" t="n">
-        <v>565300</v>
+        <v>540000</v>
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>https://uu-stoks.ru/auto/renault/new-sandero-stepway_stepway</t>
-        </is>
-      </c>
-      <c r="F360" t="n">
-        <v>565300</v>
-      </c>
-      <c r="G360" t="inlineStr">
-        <is>
-          <t>https://uu-stoks.ru/auto/renault/new-sandero-stepway_stepway</t>
+          <t>https://primeauto-ekb.ru/new/renault/sandero</t>
+        </is>
+      </c>
+      <c r="H360" t="inlineStr">
+        <is>
+          <t>540000</t>
+        </is>
+      </c>
+      <c r="I360" t="inlineStr">
+        <is>
+          <t>https://new-auto96.ru/auto/renault/sandero/</t>
         </is>
       </c>
       <c r="J360" t="n">
-        <v>823800</v>
+        <v>754800</v>
       </c>
       <c r="K360" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/renault/new-sandero-stepway/stepway</t>
+          <t>https://autosalon-kit.ru/auto/renault/new-sandero/new</t>
+        </is>
+      </c>
+      <c r="N360" t="n">
+        <v>540000</v>
+      </c>
+      <c r="O360" t="inlineStr">
+        <is>
+          <t>https://primeauto-ekb.ru/new/renault/sandero</t>
+        </is>
+      </c>
+      <c r="P360" t="n">
+        <v>545000</v>
+      </c>
+      <c r="Q360" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/renault/sandero/ii-res-hatchback-5/</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>611</t>
+          <t>563</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>SWM</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>G01</t>
+          <t>Sandero New</t>
         </is>
       </c>
       <c r="D361" t="n">
-        <v>1438220</v>
+        <v>545000</v>
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/swm/g01/2018-allroad-5/</t>
-        </is>
-      </c>
-      <c r="N361" t="n">
-        <v>1730000</v>
-      </c>
-      <c r="O361" t="inlineStr">
-        <is>
-          <t>https://primeauto-ekb.ru/new/swm/g01</t>
-        </is>
-      </c>
-      <c r="P361" t="n">
-        <v>1438220</v>
-      </c>
-      <c r="Q361" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/swm/g01/2018-allroad-5/</t>
+          <t>https://uu-stoks.ru/auto/renault/new-sandero_new</t>
+        </is>
+      </c>
+      <c r="F361" t="n">
+        <v>545000</v>
+      </c>
+      <c r="G361" t="inlineStr">
+        <is>
+          <t>https://uu-stoks.ru/auto/renault/new-sandero_new</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>612</t>
+          <t>566</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>SWM</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>G01F</t>
+          <t>Sandero Stepway</t>
         </is>
       </c>
       <c r="D362" t="n">
-        <v>1588340</v>
+        <v>650000</v>
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/swm/g01f/2018-allroad-5/</t>
+          <t>https://new-auto96.ru/auto/renault/sandero_stepway/</t>
+        </is>
+      </c>
+      <c r="H362" t="inlineStr">
+        <is>
+          <t>650000</t>
+        </is>
+      </c>
+      <c r="I362" t="inlineStr">
+        <is>
+          <t>https://new-auto96.ru/auto/renault/sandero_stepway/</t>
+        </is>
+      </c>
+      <c r="J362" t="n">
+        <v>823800</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>https://autosalon-kit.ru/auto/renault/new-sandero-stepway/stepway</t>
         </is>
       </c>
       <c r="N362" t="n">
-        <v>1860000</v>
+        <v>700000</v>
       </c>
       <c r="O362" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/swm/g01f</t>
-        </is>
-      </c>
-      <c r="P362" t="n">
-        <v>1588340</v>
-      </c>
-      <c r="Q362" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/swm/g01f/2018-allroad-5/</t>
+          <t>https://primeauto-ekb.ru/new/renault/sandero-stepway</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>564</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>SWM</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>G05 Pro</t>
+          <t>Sandero Stepway New</t>
         </is>
       </c>
       <c r="D363" t="n">
-        <v>1625960</v>
+        <v>565300</v>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/swm/g05pro/2021-allroad-5/</t>
-        </is>
-      </c>
-      <c r="N363" t="n">
-        <v>2060000</v>
-      </c>
-      <c r="O363" t="inlineStr">
-        <is>
-          <t>https://primeauto-ekb.ru/new/swm/g05-pro</t>
-        </is>
-      </c>
-      <c r="P363" t="n">
-        <v>1625960</v>
-      </c>
-      <c r="Q363" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/swm/g05pro/2021-allroad-5/</t>
+          <t>https://uu-stoks.ru/auto/renault/new-sandero-stepway_stepway</t>
+        </is>
+      </c>
+      <c r="F363" t="n">
+        <v>565300</v>
+      </c>
+      <c r="G363" t="inlineStr">
+        <is>
+          <t>https://uu-stoks.ru/auto/renault/new-sandero-stepway_stepway</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>571</t>
+          <t>611</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>SWM</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>Karoq</t>
+          <t>G01</t>
         </is>
       </c>
       <c r="D364" t="n">
-        <v>1023000</v>
+        <v>1438220</v>
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/skoda/karoq/karoq</t>
-        </is>
-      </c>
-      <c r="F364" t="n">
-        <v>1240200</v>
-      </c>
-      <c r="G364" t="inlineStr">
-        <is>
-          <t>https://uu-stoks.ru/auto/skoda/karoq_karoq</t>
-        </is>
-      </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>1023000</t>
-        </is>
-      </c>
-      <c r="I364" t="inlineStr">
-        <is>
-          <t>https://new-auto96.ru/auto/skoda/karoq/</t>
-        </is>
-      </c>
-      <c r="J364" t="n">
-        <v>1023000</v>
-      </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>https://autosalon-kit.ru/auto/skoda/karoq/karoq</t>
+          <t>https://atc-gagarin.ru/cars-new/swm/g01/2018-allroad-5/</t>
         </is>
       </c>
       <c r="N364" t="n">
-        <v>1240000</v>
+        <v>1730000</v>
       </c>
       <c r="O364" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/skoda/karoq</t>
+          <t>https://primeauto-ekb.ru/new/swm/g01</t>
         </is>
       </c>
       <c r="P364" t="n">
-        <v>1240200</v>
+        <v>1438220</v>
       </c>
       <c r="Q364" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/skoda/karoq/i-allroad-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/swm/g01/2018-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>573</t>
+          <t>612</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>SWM</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>Karoq Restyling</t>
+          <t>G01F</t>
         </is>
       </c>
       <c r="D365" t="n">
-        <v>1650000</v>
+        <v>1588340</v>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/skoda/karoq/i-res-allroad-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/swm/g01f/2018-allroad-5/</t>
+        </is>
+      </c>
+      <c r="N365" t="n">
+        <v>1860000</v>
+      </c>
+      <c r="O365" t="inlineStr">
+        <is>
+          <t>https://primeauto-ekb.ru/new/swm/g01f</t>
         </is>
       </c>
       <c r="P365" t="n">
-        <v>1650000</v>
+        <v>1588340</v>
       </c>
       <c r="Q365" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/skoda/karoq/i-res-allroad-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/swm/g01f/2018-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>574</t>
+          <t>613</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>SWM</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>Kodiaq</t>
+          <t>G05 Pro</t>
         </is>
       </c>
       <c r="D366" t="n">
-        <v>1740000</v>
+        <v>1625960</v>
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/skoda/kodiaq</t>
-        </is>
-      </c>
-      <c r="F366" t="n">
-        <v>1882000</v>
-      </c>
-      <c r="G366" t="inlineStr">
-        <is>
-          <t>https://uu-stoks.ru/auto/skoda/kodiaq_kodiaq</t>
+          <t>https://atc-gagarin.ru/cars-new/swm/g05pro/2021-allroad-5/</t>
         </is>
       </c>
       <c r="N366" t="n">
-        <v>1740000</v>
+        <v>2060000</v>
       </c>
       <c r="O366" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/skoda/kodiaq</t>
+          <t>https://primeauto-ekb.ru/new/swm/g05-pro</t>
+        </is>
+      </c>
+      <c r="P366" t="n">
+        <v>1625960</v>
+      </c>
+      <c r="Q366" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/swm/g05pro/2021-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>571</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
@@ -16656,40 +16640,64 @@
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>Kodiaq New</t>
+          <t>Karoq</t>
         </is>
       </c>
       <c r="D367" t="n">
-        <v>1234200</v>
+        <v>1023000</v>
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/skoda/new-kodiaq/cuv</t>
+          <t>https://autosalon-kit.ru/auto/skoda/karoq/karoq</t>
+        </is>
+      </c>
+      <c r="F367" t="n">
+        <v>1240200</v>
+      </c>
+      <c r="G367" t="inlineStr">
+        <is>
+          <t>https://uu-stoks.ru/auto/skoda/karoq_karoq</t>
         </is>
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>1234200</t>
+          <t>1023000</t>
         </is>
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/skoda/kodiaq/</t>
+          <t>https://new-auto96.ru/auto/skoda/karoq/</t>
         </is>
       </c>
       <c r="J367" t="n">
-        <v>1234200</v>
+        <v>1023000</v>
       </c>
       <c r="K367" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/skoda/new-kodiaq/cuv</t>
+          <t>https://autosalon-kit.ru/auto/skoda/karoq/karoq</t>
+        </is>
+      </c>
+      <c r="N367" t="n">
+        <v>1240000</v>
+      </c>
+      <c r="O367" t="inlineStr">
+        <is>
+          <t>https://primeauto-ekb.ru/new/skoda/karoq</t>
+        </is>
+      </c>
+      <c r="P367" t="n">
+        <v>1240200</v>
+      </c>
+      <c r="Q367" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/skoda/karoq/i-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>575</t>
+          <t>573</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
@@ -16699,30 +16707,30 @@
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>Kodiaq Restyling</t>
+          <t>Karoq Restyling</t>
         </is>
       </c>
       <c r="D368" t="n">
-        <v>1745000</v>
+        <v>1650000</v>
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/skoda/kodiaq/i-res-allroad-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/skoda/karoq/i-res-allroad-5/</t>
         </is>
       </c>
       <c r="P368" t="n">
-        <v>1745000</v>
+        <v>1650000</v>
       </c>
       <c r="Q368" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/skoda/kodiaq/i-res-allroad-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/skoda/karoq/i-res-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>578</t>
+          <t>574</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
@@ -16732,30 +16740,46 @@
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>Octavia</t>
+          <t>Kodiaq</t>
         </is>
       </c>
       <c r="D369" t="n">
-        <v>1171100</v>
+        <v>1234200</v>
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/skoda/octavia/iv-liftback-5/</t>
-        </is>
-      </c>
-      <c r="P369" t="n">
-        <v>1171100</v>
-      </c>
-      <c r="Q369" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/skoda/octavia/iv-liftback-5/</t>
+          <t>https://autosalon-kit.ru/auto/skoda/new-kodiaq/cuv</t>
+        </is>
+      </c>
+      <c r="F369" t="n">
+        <v>1882000</v>
+      </c>
+      <c r="G369" t="inlineStr">
+        <is>
+          <t>https://uu-stoks.ru/auto/skoda/kodiaq_kodiaq</t>
+        </is>
+      </c>
+      <c r="J369" t="n">
+        <v>1234200</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>https://autosalon-kit.ru/auto/skoda/new-kodiaq/cuv</t>
+        </is>
+      </c>
+      <c r="N369" t="n">
+        <v>1740000</v>
+      </c>
+      <c r="O369" t="inlineStr">
+        <is>
+          <t>https://primeauto-ekb.ru/new/skoda/kodiaq</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>810</t>
+          <t>576</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
@@ -16765,30 +16789,32 @@
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>Octavia A7</t>
+          <t>Kodiaq New</t>
         </is>
       </c>
       <c r="D370" t="n">
-        <v>770000</v>
+        <v>1234200</v>
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/skoda/octavia-a7</t>
-        </is>
-      </c>
-      <c r="N370" t="n">
-        <v>770000</v>
-      </c>
-      <c r="O370" t="inlineStr">
-        <is>
-          <t>https://primeauto-ekb.ru/new/skoda/octavia-a7</t>
+          <t>https://new-auto96.ru/auto/skoda/kodiaq/</t>
+        </is>
+      </c>
+      <c r="H370" t="inlineStr">
+        <is>
+          <t>1234200</t>
+        </is>
+      </c>
+      <c r="I370" t="inlineStr">
+        <is>
+          <t>https://new-auto96.ru/auto/skoda/kodiaq/</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>575</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
@@ -16798,46 +16824,30 @@
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>Octavia A8</t>
+          <t>Kodiaq Restyling</t>
         </is>
       </c>
       <c r="D371" t="n">
-        <v>994200</v>
+        <v>1745000</v>
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/skoda/octavia-a8/2020</t>
-        </is>
-      </c>
-      <c r="F371" t="n">
-        <v>1171100</v>
-      </c>
-      <c r="G371" t="inlineStr">
-        <is>
-          <t>https://uu-stoks.ru/auto/skoda/octavia-a8_2020</t>
-        </is>
-      </c>
-      <c r="J371" t="n">
-        <v>994200</v>
-      </c>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>https://autosalon-kit.ru/auto/skoda/octavia-a8/2020</t>
-        </is>
-      </c>
-      <c r="N371" t="n">
-        <v>1170000</v>
-      </c>
-      <c r="O371" t="inlineStr">
-        <is>
-          <t>https://primeauto-ekb.ru/new/skoda/octavia</t>
+          <t>https://atc-gagarin.ru/cars-new/skoda/kodiaq/i-res-allroad-5/</t>
+        </is>
+      </c>
+      <c r="P371" t="n">
+        <v>1745000</v>
+      </c>
+      <c r="Q371" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/skoda/kodiaq/i-res-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>579</t>
+          <t>578</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
@@ -16847,32 +16857,30 @@
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>Octavia New</t>
+          <t>Octavia</t>
         </is>
       </c>
       <c r="D372" t="n">
-        <v>994200</v>
+        <v>1171100</v>
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/skoda/octavia/</t>
-        </is>
-      </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>994200</t>
-        </is>
-      </c>
-      <c r="I372" t="inlineStr">
-        <is>
-          <t>https://new-auto96.ru/auto/skoda/octavia/</t>
+          <t>https://atc-gagarin.ru/cars-new/skoda/octavia/iv-liftback-5/</t>
+        </is>
+      </c>
+      <c r="P372" t="n">
+        <v>1171100</v>
+      </c>
+      <c r="Q372" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/skoda/octavia/iv-liftback-5/</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>581</t>
+          <t>810</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
@@ -16882,48 +16890,30 @@
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>Rapid</t>
+          <t>Octavia A7</t>
         </is>
       </c>
       <c r="D373" t="n">
-        <v>560000</v>
+        <v>770000</v>
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/skoda/rapid-2019</t>
-        </is>
-      </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>760000</t>
-        </is>
-      </c>
-      <c r="I373" t="inlineStr">
-        <is>
-          <t>https://new-auto96.ru/auto/skoda/rapid/</t>
+          <t>https://primeauto-ekb.ru/new/skoda/octavia-a7</t>
         </is>
       </c>
       <c r="N373" t="n">
-        <v>560000</v>
+        <v>770000</v>
       </c>
       <c r="O373" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/skoda/rapid-2019</t>
-        </is>
-      </c>
-      <c r="P373" t="n">
-        <v>727600</v>
-      </c>
-      <c r="Q373" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/skoda/rapid/ii-liftback-5/</t>
+          <t>https://primeauto-ekb.ru/new/skoda/octavia-a7</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>580</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
@@ -16933,38 +16923,46 @@
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>Rapid New</t>
+          <t>Octavia A8</t>
         </is>
       </c>
       <c r="D374" t="n">
-        <v>630600</v>
+        <v>994200</v>
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/skoda/rapid-new/sedan</t>
+          <t>https://autosalon-kit.ru/auto/skoda/octavia-a8/2020</t>
         </is>
       </c>
       <c r="F374" t="n">
-        <v>727600</v>
+        <v>1171100</v>
       </c>
       <c r="G374" t="inlineStr">
         <is>
-          <t>https://uu-stoks.ru/auto/skoda/rapid-new_sedan</t>
+          <t>https://uu-stoks.ru/auto/skoda/octavia-a8_2020</t>
         </is>
       </c>
       <c r="J374" t="n">
-        <v>630600</v>
+        <v>994200</v>
       </c>
       <c r="K374" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/skoda/rapid-new/sedan</t>
+          <t>https://autosalon-kit.ru/auto/skoda/octavia-a8/2020</t>
+        </is>
+      </c>
+      <c r="N374" t="n">
+        <v>1170000</v>
+      </c>
+      <c r="O374" t="inlineStr">
+        <is>
+          <t>https://primeauto-ekb.ru/new/skoda/octavia</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>579</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
@@ -16974,30 +16972,32 @@
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>Superb</t>
+          <t>Octavia New</t>
         </is>
       </c>
       <c r="D375" t="n">
-        <v>1240000</v>
+        <v>994200</v>
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/skoda/superb</t>
-        </is>
-      </c>
-      <c r="N375" t="n">
-        <v>1240000</v>
-      </c>
-      <c r="O375" t="inlineStr">
-        <is>
-          <t>https://primeauto-ekb.ru/new/skoda/superb</t>
+          <t>https://new-auto96.ru/auto/skoda/octavia/</t>
+        </is>
+      </c>
+      <c r="H375" t="inlineStr">
+        <is>
+          <t>994200</t>
+        </is>
+      </c>
+      <c r="I375" t="inlineStr">
+        <is>
+          <t>https://new-auto96.ru/auto/skoda/octavia/</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>588</t>
+          <t>581</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
@@ -17007,191 +17007,163 @@
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>Superb New</t>
+          <t>Rapid</t>
         </is>
       </c>
       <c r="D376" t="n">
-        <v>1282000</v>
+        <v>560000</v>
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/skoda/superb-new/liftback</t>
-        </is>
-      </c>
-      <c r="F376" t="n">
-        <v>2308000</v>
-      </c>
-      <c r="G376" t="inlineStr">
-        <is>
-          <t>https://uu-stoks.ru/auto/skoda/superb-new_liftback</t>
+          <t>https://primeauto-ekb.ru/new/skoda/rapid-2019</t>
+        </is>
+      </c>
+      <c r="H376" t="inlineStr">
+        <is>
+          <t>760000</t>
+        </is>
+      </c>
+      <c r="I376" t="inlineStr">
+        <is>
+          <t>https://new-auto96.ru/auto/skoda/rapid/</t>
         </is>
       </c>
       <c r="J376" t="n">
-        <v>1282000</v>
+        <v>630600</v>
       </c>
       <c r="K376" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/skoda/superb-new/liftback</t>
+          <t>https://autosalon-kit.ru/auto/skoda/rapid-new/sedan</t>
+        </is>
+      </c>
+      <c r="N376" t="n">
+        <v>560000</v>
+      </c>
+      <c r="O376" t="inlineStr">
+        <is>
+          <t>https://primeauto-ekb.ru/new/skoda/rapid-2019</t>
+        </is>
+      </c>
+      <c r="P376" t="n">
+        <v>727600</v>
+      </c>
+      <c r="Q376" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/skoda/rapid/ii-liftback-5/</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>594</t>
+          <t>584</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>Rapid New</t>
         </is>
       </c>
       <c r="D377" t="n">
-        <v>1590000</v>
+        <v>727600</v>
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/solaris/hc/</t>
-        </is>
-      </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>1590000</t>
-        </is>
-      </c>
-      <c r="I377" t="inlineStr">
-        <is>
-          <t>https://new-auto96.ru/auto/solaris/hc/</t>
-        </is>
-      </c>
-      <c r="J377" t="n">
-        <v>2499000</v>
-      </c>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>https://autosalon-kit.ru/auto/solaris/hc/suv-1gen</t>
-        </is>
-      </c>
-      <c r="P377" t="n">
-        <v>1770000</v>
-      </c>
-      <c r="Q377" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/solaris/hc/2022-allroad-5/</t>
+          <t>https://uu-stoks.ru/auto/skoda/rapid-new_sedan</t>
+        </is>
+      </c>
+      <c r="F377" t="n">
+        <v>727600</v>
+      </c>
+      <c r="G377" t="inlineStr">
+        <is>
+          <t>https://uu-stoks.ru/auto/skoda/rapid-new_sedan</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>585</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>HS</t>
+          <t>Superb</t>
         </is>
       </c>
       <c r="D378" t="n">
-        <v>1110000</v>
+        <v>1240000</v>
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/solaris/hs/2022-sedan-4/</t>
-        </is>
-      </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>1212000</t>
-        </is>
-      </c>
-      <c r="I378" t="inlineStr">
-        <is>
-          <t>https://new-auto96.ru/auto/solaris/hs/</t>
+          <t>https://primeauto-ekb.ru/new/skoda/superb</t>
         </is>
       </c>
       <c r="J378" t="n">
-        <v>2010000</v>
+        <v>1282000</v>
       </c>
       <c r="K378" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/solaris/hs/sedan-1gen</t>
-        </is>
-      </c>
-      <c r="P378" t="n">
-        <v>1110000</v>
-      </c>
-      <c r="Q378" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/solaris/hs/2022-sedan-4/</t>
+          <t>https://autosalon-kit.ru/auto/skoda/superb-new/liftback</t>
+        </is>
+      </c>
+      <c r="N378" t="n">
+        <v>1240000</v>
+      </c>
+      <c r="O378" t="inlineStr">
+        <is>
+          <t>https://primeauto-ekb.ru/new/skoda/superb</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>588</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>KRS</t>
+          <t>Superb New</t>
         </is>
       </c>
       <c r="D379" t="n">
-        <v>1236000</v>
+        <v>2308000</v>
       </c>
       <c r="E379" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/solaris/krs/</t>
-        </is>
-      </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>1236000</t>
-        </is>
-      </c>
-      <c r="I379" t="inlineStr">
-        <is>
-          <t>https://new-auto96.ru/auto/solaris/krs/</t>
-        </is>
-      </c>
-      <c r="J379" t="n">
-        <v>2038000</v>
-      </c>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>https://autosalon-kit.ru/auto/solaris/krs/sedan-1gen</t>
-        </is>
-      </c>
-      <c r="P379" t="n">
-        <v>1280000</v>
-      </c>
-      <c r="Q379" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/solaris/krs/2024-sedan-4/</t>
+          <t>https://uu-stoks.ru/auto/skoda/superb-new_liftback</t>
+        </is>
+      </c>
+      <c r="F379" t="n">
+        <v>2308000</v>
+      </c>
+      <c r="G379" t="inlineStr">
+        <is>
+          <t>https://uu-stoks.ru/auto/skoda/superb-new_liftback</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>594</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
@@ -17201,364 +17173,402 @@
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>KRX</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="D380" t="n">
-        <v>1344600</v>
+        <v>1590000</v>
       </c>
       <c r="E380" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/solaris/krx/</t>
+          <t>https://new-auto96.ru/auto/solaris/hc/</t>
         </is>
       </c>
       <c r="H380" t="inlineStr">
         <is>
-          <t>1344600</t>
+          <t>1590000</t>
         </is>
       </c>
       <c r="I380" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/solaris/krx/</t>
+          <t>https://new-auto96.ru/auto/solaris/hc/</t>
         </is>
       </c>
       <c r="J380" t="n">
-        <v>2064000</v>
+        <v>2499000</v>
       </c>
       <c r="K380" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/solaris/krx/hatchback-1gen</t>
+          <t>https://autosalon-kit.ru/auto/solaris/hc/suv-1gen</t>
         </is>
       </c>
       <c r="P380" t="n">
-        <v>1780000</v>
+        <v>1770000</v>
       </c>
       <c r="Q380" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/solaris/krx/2024-hatchback-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/solaris/hc/2022-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>599</t>
+          <t>595</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Soueast</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>DX5</t>
+          <t>HS</t>
         </is>
       </c>
       <c r="D381" t="n">
-        <v>1550000</v>
+        <v>1110000</v>
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/soueast/dx5/2019-allroad-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/solaris/hs/2022-sedan-4/</t>
+        </is>
+      </c>
+      <c r="H381" t="inlineStr">
+        <is>
+          <t>1212000</t>
+        </is>
+      </c>
+      <c r="I381" t="inlineStr">
+        <is>
+          <t>https://new-auto96.ru/auto/solaris/hs/</t>
+        </is>
+      </c>
+      <c r="J381" t="n">
+        <v>2010000</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>https://autosalon-kit.ru/auto/solaris/hs/sedan-1gen</t>
         </is>
       </c>
       <c r="P381" t="n">
-        <v>1550000</v>
+        <v>1110000</v>
       </c>
       <c r="Q381" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/soueast/dx5/2019-allroad-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/solaris/hs/2022-sedan-4/</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>598</t>
+          <t>596</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Soueast</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>DX8S</t>
+          <t>KRS</t>
         </is>
       </c>
       <c r="D382" t="n">
-        <v>1630000</v>
+        <v>1236000</v>
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/soueast/dx8s/2022-allroad-5/</t>
+          <t>https://new-auto96.ru/auto/solaris/krs/</t>
+        </is>
+      </c>
+      <c r="H382" t="inlineStr">
+        <is>
+          <t>1236000</t>
+        </is>
+      </c>
+      <c r="I382" t="inlineStr">
+        <is>
+          <t>https://new-auto96.ru/auto/solaris/krs/</t>
+        </is>
+      </c>
+      <c r="J382" t="n">
+        <v>2038000</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>https://autosalon-kit.ru/auto/solaris/krs/sedan-1gen</t>
         </is>
       </c>
       <c r="P382" t="n">
-        <v>1630000</v>
+        <v>1280000</v>
       </c>
       <c r="Q382" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/soueast/dx8s/2022-allroad-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/solaris/krs/2024-sedan-4/</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>607</t>
+          <t>597</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Suzuki</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>SX4</t>
+          <t>KRX</t>
         </is>
       </c>
       <c r="D383" t="n">
-        <v>1109000</v>
+        <v>1344600</v>
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/suzuki/sx4/ii-res-hatchback-5/</t>
+          <t>https://new-auto96.ru/auto/solaris/krx/</t>
+        </is>
+      </c>
+      <c r="H383" t="inlineStr">
+        <is>
+          <t>1344600</t>
+        </is>
+      </c>
+      <c r="I383" t="inlineStr">
+        <is>
+          <t>https://new-auto96.ru/auto/solaris/krx/</t>
+        </is>
+      </c>
+      <c r="J383" t="n">
+        <v>2064000</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>https://autosalon-kit.ru/auto/solaris/krx/hatchback-1gen</t>
         </is>
       </c>
       <c r="P383" t="n">
-        <v>1109000</v>
+        <v>1780000</v>
       </c>
       <c r="Q383" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/suzuki/sx4/ii-res-hatchback-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/solaris/krx/2024-hatchback-5/</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>599</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>Soueast</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>DX5</t>
         </is>
       </c>
       <c r="D384" t="n">
-        <v>2699400</v>
+        <v>1550000</v>
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/tank/300/</t>
-        </is>
-      </c>
-      <c r="F384" t="n">
-        <v>4139000</v>
-      </c>
-      <c r="G384" t="inlineStr">
-        <is>
-          <t>https://uu-stoks.ru/auto/tank/300_SUV_5D</t>
-        </is>
-      </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2699400</t>
-        </is>
-      </c>
-      <c r="I384" t="inlineStr">
-        <is>
-          <t>https://new-auto96.ru/auto/tank/300/</t>
+          <t>https://atc-gagarin.ru/cars-new/soueast/dx5/2019-allroad-5/</t>
         </is>
       </c>
       <c r="P384" t="n">
-        <v>2729300</v>
+        <v>1550000</v>
       </c>
       <c r="Q384" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/tank/300/2021-allroad-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/soueast/dx5/2019-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>615</t>
+          <t>598</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>Soueast</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>DX8S</t>
         </is>
       </c>
       <c r="D385" t="n">
-        <v>3788000</v>
+        <v>1630000</v>
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/tank/500/2021-allroad-5/</t>
-        </is>
-      </c>
-      <c r="F385" t="n">
-        <v>5499000</v>
-      </c>
-      <c r="G385" t="inlineStr">
-        <is>
-          <t>https://uu-stoks.ru/auto/tank/500_SUV_5D</t>
-        </is>
-      </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>3788000</t>
-        </is>
-      </c>
-      <c r="I385" t="inlineStr">
-        <is>
-          <t>https://new-auto96.ru/auto/tank/500/</t>
+          <t>https://atc-gagarin.ru/cars-new/soueast/dx8s/2022-allroad-5/</t>
         </is>
       </c>
       <c r="P385" t="n">
-        <v>3788000</v>
+        <v>1630000</v>
       </c>
       <c r="Q385" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/tank/500/2021-allroad-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/soueast/dx8s/2022-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>624</t>
+          <t>607</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>Suzuki</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>CH-R New</t>
+          <t>SX4</t>
         </is>
       </c>
       <c r="D386" t="n">
-        <v>2551000</v>
+        <v>1109000</v>
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>https://uu-stoks.ru/auto/toyota/c-hr-new_cuv</t>
-        </is>
-      </c>
-      <c r="F386" t="n">
-        <v>2551000</v>
-      </c>
-      <c r="G386" t="inlineStr">
-        <is>
-          <t>https://uu-stoks.ru/auto/toyota/c-hr-new_cuv</t>
+          <t>https://atc-gagarin.ru/cars-new/suzuki/sx4/ii-res-hatchback-5/</t>
+        </is>
+      </c>
+      <c r="P386" t="n">
+        <v>1109000</v>
+      </c>
+      <c r="Q386" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/suzuki/sx4/ii-res-hatchback-5/</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>621</t>
+          <t>614</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>Camry</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D387" t="n">
-        <v>1480000</v>
+        <v>2699400</v>
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/toyota/camry-2017</t>
-        </is>
-      </c>
-      <c r="N387" t="n">
-        <v>1480000</v>
-      </c>
-      <c r="O387" t="inlineStr">
-        <is>
-          <t>https://primeauto-ekb.ru/new/toyota/camry-2017</t>
+          <t>https://new-auto96.ru/auto/tank/300/</t>
+        </is>
+      </c>
+      <c r="F387" t="n">
+        <v>4139000</v>
+      </c>
+      <c r="G387" t="inlineStr">
+        <is>
+          <t>https://uu-stoks.ru/auto/tank/300_SUV_5D</t>
+        </is>
+      </c>
+      <c r="H387" t="inlineStr">
+        <is>
+          <t>2699400</t>
+        </is>
+      </c>
+      <c r="I387" t="inlineStr">
+        <is>
+          <t>https://new-auto96.ru/auto/tank/300/</t>
         </is>
       </c>
       <c r="P387" t="n">
-        <v>2079500</v>
+        <v>2729300</v>
       </c>
       <c r="Q387" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/toyota/camry/viii-res-sedan-4/</t>
+          <t>https://atc-gagarin.ru/cars-new/tank/300/2021-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>622</t>
+          <t>615</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>Camry New</t>
+          <t>500</t>
         </is>
       </c>
       <c r="D388" t="n">
-        <v>2070000</v>
+        <v>3788000</v>
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/toyota/camry</t>
+          <t>https://atc-gagarin.ru/cars-new/tank/500/2021-allroad-5/</t>
         </is>
       </c>
       <c r="F388" t="n">
-        <v>2079500</v>
+        <v>5499000</v>
       </c>
       <c r="G388" t="inlineStr">
         <is>
-          <t>https://uu-stoks.ru/auto/toyota/camry-new_sed</t>
-        </is>
-      </c>
-      <c r="N388" t="n">
-        <v>2070000</v>
-      </c>
-      <c r="O388" t="inlineStr">
-        <is>
-          <t>https://primeauto-ekb.ru/new/toyota/camry</t>
+          <t>https://uu-stoks.ru/auto/tank/500_SUV_5D</t>
+        </is>
+      </c>
+      <c r="H388" t="inlineStr">
+        <is>
+          <t>3788000</t>
+        </is>
+      </c>
+      <c r="I388" t="inlineStr">
+        <is>
+          <t>https://new-auto96.ru/auto/tank/500/</t>
+        </is>
+      </c>
+      <c r="P388" t="n">
+        <v>3788000</v>
+      </c>
+      <c r="Q388" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/tank/500/2021-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>617</t>
+          <t>624</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
@@ -17568,30 +17578,30 @@
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>Corolla</t>
+          <t>CH-R New</t>
         </is>
       </c>
       <c r="D389" t="n">
-        <v>1260000</v>
+        <v>2551000</v>
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/toyota/corolla</t>
-        </is>
-      </c>
-      <c r="N389" t="n">
-        <v>1260000</v>
-      </c>
-      <c r="O389" t="inlineStr">
-        <is>
-          <t>https://primeauto-ekb.ru/new/toyota/corolla</t>
+          <t>https://uu-stoks.ru/auto/toyota/c-hr-new_cuv</t>
+        </is>
+      </c>
+      <c r="F389" t="n">
+        <v>2551000</v>
+      </c>
+      <c r="G389" t="inlineStr">
+        <is>
+          <t>https://uu-stoks.ru/auto/toyota/c-hr-new_cuv</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>631</t>
+          <t>621</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
@@ -17601,30 +17611,38 @@
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>Corolla New</t>
+          <t>Camry</t>
         </is>
       </c>
       <c r="D390" t="n">
-        <v>1260100</v>
+        <v>1480000</v>
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>https://uu-stoks.ru/auto/toyota/new-corolla_2019</t>
-        </is>
-      </c>
-      <c r="F390" t="n">
-        <v>1260100</v>
-      </c>
-      <c r="G390" t="inlineStr">
-        <is>
-          <t>https://uu-stoks.ru/auto/toyota/new-corolla_2019</t>
+          <t>https://primeauto-ekb.ru/new/toyota/camry-2017</t>
+        </is>
+      </c>
+      <c r="N390" t="n">
+        <v>1480000</v>
+      </c>
+      <c r="O390" t="inlineStr">
+        <is>
+          <t>https://primeauto-ekb.ru/new/toyota/camry-2017</t>
+        </is>
+      </c>
+      <c r="P390" t="n">
+        <v>2079500</v>
+      </c>
+      <c r="Q390" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/toyota/camry/viii-res-sedan-4/</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>627</t>
+          <t>622</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
@@ -17634,30 +17652,38 @@
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>Hilux</t>
+          <t>Camry New</t>
         </is>
       </c>
       <c r="D391" t="n">
-        <v>2460000</v>
+        <v>2070000</v>
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/toyota/hilux/viii-res-pickup-two-4/</t>
-        </is>
-      </c>
-      <c r="P391" t="n">
-        <v>2460000</v>
-      </c>
-      <c r="Q391" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/toyota/hilux/viii-res-pickup-two-4/</t>
+          <t>https://primeauto-ekb.ru/new/toyota/camry</t>
+        </is>
+      </c>
+      <c r="F391" t="n">
+        <v>2079500</v>
+      </c>
+      <c r="G391" t="inlineStr">
+        <is>
+          <t>https://uu-stoks.ru/auto/toyota/camry-new_sed</t>
+        </is>
+      </c>
+      <c r="N391" t="n">
+        <v>2070000</v>
+      </c>
+      <c r="O391" t="inlineStr">
+        <is>
+          <t>https://primeauto-ekb.ru/new/toyota/camry</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>620</t>
+          <t>617</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
@@ -17667,38 +17693,30 @@
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>RAV4</t>
+          <t>Corolla</t>
         </is>
       </c>
       <c r="D392" t="n">
-        <v>1320000</v>
+        <v>1260000</v>
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/toyota/rav4-2019</t>
+          <t>https://primeauto-ekb.ru/new/toyota/corolla</t>
         </is>
       </c>
       <c r="N392" t="n">
-        <v>1320000</v>
+        <v>1260000</v>
       </c>
       <c r="O392" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/toyota/rav4-2019</t>
-        </is>
-      </c>
-      <c r="P392" t="n">
-        <v>1721700</v>
-      </c>
-      <c r="Q392" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/toyota/rav4/v-allroad-5/</t>
+          <t>https://primeauto-ekb.ru/new/toyota/corolla</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>632</t>
+          <t>631</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
@@ -17708,155 +17726,137 @@
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>RAV4 New</t>
+          <t>Corolla New</t>
         </is>
       </c>
       <c r="D393" t="n">
-        <v>1721700</v>
+        <v>1260100</v>
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>https://uu-stoks.ru/auto/toyota/rav4-new_rav4-new</t>
+          <t>https://uu-stoks.ru/auto/toyota/new-corolla_2019</t>
         </is>
       </c>
       <c r="F393" t="n">
-        <v>1721700</v>
+        <v>1260100</v>
       </c>
       <c r="G393" t="inlineStr">
         <is>
-          <t>https://uu-stoks.ru/auto/toyota/rav4-new_rav4-new</t>
+          <t>https://uu-stoks.ru/auto/toyota/new-corolla_2019</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>633</t>
+          <t>627</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>UAZ</t>
+          <t>Toyota</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>Hunter</t>
+          <t>Hilux</t>
         </is>
       </c>
       <c r="D394" t="n">
-        <v>562900</v>
+        <v>2460000</v>
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>https://uu-stoks.ru/auto/uaz/hunter_suv</t>
-        </is>
-      </c>
-      <c r="F394" t="n">
-        <v>562900</v>
-      </c>
-      <c r="G394" t="inlineStr">
-        <is>
-          <t>https://uu-stoks.ru/auto/uaz/hunter_suv</t>
-        </is>
-      </c>
-      <c r="J394" t="n">
-        <v>834000</v>
-      </c>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>https://autosalon-kit.ru/auto/uaz/hunter/suv</t>
+          <t>https://atc-gagarin.ru/cars-new/toyota/hilux/viii-res-pickup-two-4/</t>
+        </is>
+      </c>
+      <c r="P394" t="n">
+        <v>2460000</v>
+      </c>
+      <c r="Q394" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/toyota/hilux/viii-res-pickup-two-4/</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>634</t>
+          <t>620</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>UAZ</t>
+          <t>Toyota</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>Patriot</t>
+          <t>RAV4</t>
         </is>
       </c>
       <c r="D395" t="n">
-        <v>1008000</v>
+        <v>1320000</v>
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/uaz/patriot/</t>
-        </is>
-      </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>1008000</t>
-        </is>
-      </c>
-      <c r="I395" t="inlineStr">
-        <is>
-          <t>https://new-auto96.ru/auto/uaz/patriot/</t>
+          <t>https://primeauto-ekb.ru/new/toyota/rav4-2019</t>
+        </is>
+      </c>
+      <c r="N395" t="n">
+        <v>1320000</v>
+      </c>
+      <c r="O395" t="inlineStr">
+        <is>
+          <t>https://primeauto-ekb.ru/new/toyota/rav4-2019</t>
+        </is>
+      </c>
+      <c r="P395" t="n">
+        <v>1721700</v>
+      </c>
+      <c r="Q395" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/toyota/rav4/v-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>635</t>
+          <t>632</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>UAZ</t>
+          <t>Toyota</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>Patriot New</t>
+          <t>RAV4 New</t>
         </is>
       </c>
       <c r="D396" t="n">
-        <v>930000</v>
+        <v>1721700</v>
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/uaz/patriot-new/suv</t>
+          <t>https://uu-stoks.ru/auto/toyota/rav4-new_rav4-new</t>
         </is>
       </c>
       <c r="F396" t="n">
-        <v>1009000</v>
+        <v>1721700</v>
       </c>
       <c r="G396" t="inlineStr">
         <is>
-          <t>https://uu-stoks.ru/auto/uaz/patriot-new_suv</t>
-        </is>
-      </c>
-      <c r="J396" t="n">
-        <v>930000</v>
-      </c>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>https://autosalon-kit.ru/auto/uaz/patriot-new/suv</t>
-        </is>
-      </c>
-      <c r="N396" t="n">
-        <v>1010000</v>
-      </c>
-      <c r="O396" t="inlineStr">
-        <is>
-          <t>https://primeauto-ekb.ru/new/uaz/patriot-new</t>
+          <t>https://uu-stoks.ru/auto/toyota/rav4-new_rav4-new</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>637</t>
+          <t>633</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
@@ -17866,30 +17866,38 @@
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>Pickup</t>
+          <t>Hunter</t>
         </is>
       </c>
       <c r="D397" t="n">
-        <v>780000</v>
+        <v>562900</v>
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/uaz/novyi-pikap</t>
-        </is>
-      </c>
-      <c r="N397" t="n">
-        <v>780000</v>
-      </c>
-      <c r="O397" t="inlineStr">
-        <is>
-          <t>https://primeauto-ekb.ru/new/uaz/novyi-pikap</t>
+          <t>https://uu-stoks.ru/auto/uaz/hunter_suv</t>
+        </is>
+      </c>
+      <c r="F397" t="n">
+        <v>562900</v>
+      </c>
+      <c r="G397" t="inlineStr">
+        <is>
+          <t>https://uu-stoks.ru/auto/uaz/hunter_suv</t>
+        </is>
+      </c>
+      <c r="J397" t="n">
+        <v>834000</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>https://autosalon-kit.ru/auto/uaz/hunter/suv</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>638</t>
+          <t>634</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
@@ -17899,287 +17907,287 @@
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>Pickup New</t>
+          <t>Patriot</t>
         </is>
       </c>
       <c r="D398" t="n">
-        <v>783500</v>
+        <v>930000</v>
       </c>
       <c r="E398" t="inlineStr">
         <is>
-          <t>https://uu-stoks.ru/auto/uaz/pickup-new_suv</t>
-        </is>
-      </c>
-      <c r="F398" t="n">
-        <v>783500</v>
-      </c>
-      <c r="G398" t="inlineStr">
-        <is>
-          <t>https://uu-stoks.ru/auto/uaz/pickup-new_suv</t>
+          <t>https://autosalon-kit.ru/auto/uaz/patriot-new/suv</t>
+        </is>
+      </c>
+      <c r="H398" t="inlineStr">
+        <is>
+          <t>1008000</t>
+        </is>
+      </c>
+      <c r="I398" t="inlineStr">
+        <is>
+          <t>https://new-auto96.ru/auto/uaz/patriot/</t>
         </is>
       </c>
       <c r="J398" t="n">
-        <v>945000</v>
+        <v>930000</v>
       </c>
       <c r="K398" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/uaz/pickup-new/suv</t>
+          <t>https://autosalon-kit.ru/auto/uaz/patriot-new/suv</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>666</t>
+          <t>635</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>VOYAH</t>
+          <t>UAZ</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>Dream</t>
+          <t>Patriot New</t>
         </is>
       </c>
       <c r="D399" t="n">
-        <v>6790000</v>
+        <v>1009000</v>
       </c>
       <c r="E399" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/voyah/dream/2021-minivan-5/</t>
-        </is>
-      </c>
-      <c r="P399" t="n">
-        <v>6790000</v>
-      </c>
-      <c r="Q399" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/voyah/dream/2021-minivan-5/</t>
+          <t>https://uu-stoks.ru/auto/uaz/patriot-new_suv</t>
+        </is>
+      </c>
+      <c r="F399" t="n">
+        <v>1009000</v>
+      </c>
+      <c r="G399" t="inlineStr">
+        <is>
+          <t>https://uu-stoks.ru/auto/uaz/patriot-new_suv</t>
+        </is>
+      </c>
+      <c r="N399" t="n">
+        <v>1010000</v>
+      </c>
+      <c r="O399" t="inlineStr">
+        <is>
+          <t>https://primeauto-ekb.ru/new/uaz/patriot-new</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>667</t>
+          <t>637</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>VOYAH</t>
+          <t>UAZ</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>Passion</t>
+          <t>Pickup</t>
         </is>
       </c>
       <c r="D400" t="n">
-        <v>4790000</v>
+        <v>780000</v>
       </c>
       <c r="E400" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/voyah/passion/2022-sedan-4/</t>
-        </is>
-      </c>
-      <c r="P400" t="n">
-        <v>4790000</v>
-      </c>
-      <c r="Q400" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/voyah/passion/2022-sedan-4/</t>
+          <t>https://primeauto-ekb.ru/new/uaz/novyi-pikap</t>
+        </is>
+      </c>
+      <c r="J400" t="n">
+        <v>945000</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>https://autosalon-kit.ru/auto/uaz/pickup-new/suv</t>
+        </is>
+      </c>
+      <c r="N400" t="n">
+        <v>780000</v>
+      </c>
+      <c r="O400" t="inlineStr">
+        <is>
+          <t>https://primeauto-ekb.ru/new/uaz/novyi-pikap</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>662</t>
+          <t>638</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Venucia</t>
+          <t>UAZ</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>D60 Plus</t>
+          <t>Pickup New</t>
         </is>
       </c>
       <c r="D401" t="n">
-        <v>1840000</v>
+        <v>783500</v>
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/venucia/d60-plus/2021-sedan-4/</t>
-        </is>
-      </c>
-      <c r="P401" t="n">
-        <v>1840000</v>
-      </c>
-      <c r="Q401" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/venucia/d60-plus/2021-sedan-4/</t>
+          <t>https://uu-stoks.ru/auto/uaz/pickup-new_suv</t>
+        </is>
+      </c>
+      <c r="F401" t="n">
+        <v>783500</v>
+      </c>
+      <c r="G401" t="inlineStr">
+        <is>
+          <t>https://uu-stoks.ru/auto/uaz/pickup-new_suv</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>663</t>
+          <t>666</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>Venucia</t>
+          <t>VOYAH</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>V-Online</t>
+          <t>Dream</t>
         </is>
       </c>
       <c r="D402" t="n">
-        <v>2080000</v>
+        <v>6790000</v>
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/venucia/v-online/2021-allroad-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/voyah/dream/2021-minivan-5/</t>
         </is>
       </c>
       <c r="P402" t="n">
-        <v>2080000</v>
+        <v>6790000</v>
       </c>
       <c r="Q402" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/venucia/v-online/2021-allroad-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/voyah/dream/2021-minivan-5/</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>639</t>
+          <t>667</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>VOYAH</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>Arteon</t>
+          <t>Passion</t>
         </is>
       </c>
       <c r="D403" t="n">
-        <v>2639000</v>
+        <v>4790000</v>
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/volkswagen/arteon/liftback-1gen-rest</t>
-        </is>
-      </c>
-      <c r="J403" t="n">
-        <v>2639000</v>
-      </c>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>https://autosalon-kit.ru/auto/volkswagen/arteon/liftback-1gen-rest</t>
+          <t>https://atc-gagarin.ru/cars-new/voyah/passion/2022-sedan-4/</t>
+        </is>
+      </c>
+      <c r="P403" t="n">
+        <v>4790000</v>
+      </c>
+      <c r="Q403" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/voyah/passion/2022-sedan-4/</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>640</t>
+          <t>662</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>Venucia</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>Bora</t>
+          <t>D60 Plus</t>
         </is>
       </c>
       <c r="D404" t="n">
-        <v>1750000</v>
+        <v>1840000</v>
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/volkswagen/bora/iv-sedan-4/</t>
+          <t>https://atc-gagarin.ru/cars-new/venucia/d60-plus/2021-sedan-4/</t>
         </is>
       </c>
       <c r="P404" t="n">
-        <v>1750000</v>
+        <v>1840000</v>
       </c>
       <c r="Q404" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/volkswagen/bora/iv-sedan-4/</t>
+          <t>https://atc-gagarin.ru/cars-new/venucia/d60-plus/2021-sedan-4/</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>645</t>
+          <t>663</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>Venucia</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>V-Online</t>
         </is>
       </c>
       <c r="D405" t="n">
-        <v>1180000</v>
+        <v>2080000</v>
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/volkswagen/jetta</t>
-        </is>
-      </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>1210800</t>
-        </is>
-      </c>
-      <c r="I405" t="inlineStr">
-        <is>
-          <t>https://new-auto96.ru/auto/volkswagen/jetta/</t>
-        </is>
-      </c>
-      <c r="N405" t="n">
-        <v>1180000</v>
-      </c>
-      <c r="O405" t="inlineStr">
-        <is>
-          <t>https://primeauto-ekb.ru/new/volkswagen/jetta</t>
+          <t>https://atc-gagarin.ru/cars-new/venucia/v-online/2021-allroad-5/</t>
         </is>
       </c>
       <c r="P405" t="n">
-        <v>1186200</v>
+        <v>2080000</v>
       </c>
       <c r="Q405" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/volkswagen/jetta/vii-sedan-4/</t>
+          <t>https://atc-gagarin.ru/cars-new/venucia/v-online/2021-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>646</t>
+          <t>639</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
@@ -18189,38 +18197,30 @@
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>Jetta New</t>
+          <t>Arteon</t>
         </is>
       </c>
       <c r="D406" t="n">
-        <v>910800</v>
+        <v>2639000</v>
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/volkswagen/jetta-new/sedan</t>
-        </is>
-      </c>
-      <c r="F406" t="n">
-        <v>1186200</v>
-      </c>
-      <c r="G406" t="inlineStr">
-        <is>
-          <t>https://uu-stoks.ru/auto/volkswagen/jetta-new_sedan</t>
+          <t>https://autosalon-kit.ru/auto/volkswagen/arteon/liftback-1gen-rest</t>
         </is>
       </c>
       <c r="J406" t="n">
-        <v>910800</v>
+        <v>2639000</v>
       </c>
       <c r="K406" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/volkswagen/jetta-new/sedan</t>
+          <t>https://autosalon-kit.ru/auto/volkswagen/arteon/liftback-1gen-rest</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>649</t>
+          <t>640</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
@@ -18230,38 +18230,30 @@
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>Passat</t>
+          <t>Bora</t>
         </is>
       </c>
       <c r="D407" t="n">
-        <v>1120000</v>
+        <v>1750000</v>
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/volkswagen/passat-2014</t>
-        </is>
-      </c>
-      <c r="N407" t="n">
-        <v>1120000</v>
-      </c>
-      <c r="O407" t="inlineStr">
-        <is>
-          <t>https://primeauto-ekb.ru/new/volkswagen/passat-2014</t>
+          <t>https://atc-gagarin.ru/cars-new/volkswagen/bora/iv-sedan-4/</t>
         </is>
       </c>
       <c r="P407" t="n">
-        <v>1123700</v>
+        <v>1750000</v>
       </c>
       <c r="Q407" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/volkswagen/passat/b8-res-sedan-4/</t>
+          <t>https://atc-gagarin.ru/cars-new/volkswagen/bora/iv-sedan-4/</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>650</t>
+          <t>645</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
@@ -18271,46 +18263,56 @@
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>Passat New</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="D408" t="n">
-        <v>1639800</v>
+        <v>910800</v>
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/volkswagen/passat-new/sedan</t>
-        </is>
-      </c>
-      <c r="F408" t="n">
-        <v>2483000</v>
-      </c>
-      <c r="G408" t="inlineStr">
-        <is>
-          <t>https://uu-stoks.ru/auto/volkswagen/passat-new_sedan</t>
+          <t>https://autosalon-kit.ru/auto/volkswagen/jetta-new/sedan</t>
+        </is>
+      </c>
+      <c r="H408" t="inlineStr">
+        <is>
+          <t>1210800</t>
+        </is>
+      </c>
+      <c r="I408" t="inlineStr">
+        <is>
+          <t>https://new-auto96.ru/auto/volkswagen/jetta/</t>
         </is>
       </c>
       <c r="J408" t="n">
-        <v>1639800</v>
+        <v>910800</v>
       </c>
       <c r="K408" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/volkswagen/passat-new/sedan</t>
+          <t>https://autosalon-kit.ru/auto/volkswagen/jetta-new/sedan</t>
         </is>
       </c>
       <c r="N408" t="n">
-        <v>2200000</v>
+        <v>1180000</v>
       </c>
       <c r="O408" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/volkswagen/passat</t>
+          <t>https://primeauto-ekb.ru/new/volkswagen/jetta</t>
+        </is>
+      </c>
+      <c r="P408" t="n">
+        <v>1186200</v>
+      </c>
+      <c r="Q408" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/volkswagen/jetta/vii-sedan-4/</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>652</t>
+          <t>646</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
@@ -18320,48 +18322,30 @@
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>Polo</t>
+          <t>Jetta New</t>
         </is>
       </c>
       <c r="D409" t="n">
-        <v>480000</v>
+        <v>1186200</v>
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/volkswagen/polo-sedan</t>
-        </is>
-      </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>680000</t>
-        </is>
-      </c>
-      <c r="I409" t="inlineStr">
-        <is>
-          <t>https://new-auto96.ru/auto/volkswagen/polo/</t>
-        </is>
-      </c>
-      <c r="N409" t="n">
-        <v>480000</v>
-      </c>
-      <c r="O409" t="inlineStr">
-        <is>
-          <t>https://primeauto-ekb.ru/new/volkswagen/polo-sedan</t>
-        </is>
-      </c>
-      <c r="P409" t="n">
-        <v>734000</v>
-      </c>
-      <c r="Q409" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/volkswagen/polo/vi-liftback-5/</t>
+          <t>https://uu-stoks.ru/auto/volkswagen/jetta-new_sedan</t>
+        </is>
+      </c>
+      <c r="F409" t="n">
+        <v>1186200</v>
+      </c>
+      <c r="G409" t="inlineStr">
+        <is>
+          <t>https://uu-stoks.ru/auto/volkswagen/jetta-new_sedan</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>648</t>
+          <t>649</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
@@ -18371,38 +18355,46 @@
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>Polo New</t>
+          <t>Passat</t>
         </is>
       </c>
       <c r="D410" t="n">
-        <v>673440</v>
+        <v>1120000</v>
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/volkswagen/new-polo/sedan</t>
-        </is>
-      </c>
-      <c r="F410" t="n">
-        <v>734000</v>
-      </c>
-      <c r="G410" t="inlineStr">
-        <is>
-          <t>https://uu-stoks.ru/auto/volkswagen/new-polo_sedan</t>
+          <t>https://primeauto-ekb.ru/new/volkswagen/passat-2014</t>
         </is>
       </c>
       <c r="J410" t="n">
-        <v>673440</v>
+        <v>1639800</v>
       </c>
       <c r="K410" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/volkswagen/new-polo/sedan</t>
+          <t>https://autosalon-kit.ru/auto/volkswagen/passat-new/sedan</t>
+        </is>
+      </c>
+      <c r="N410" t="n">
+        <v>1120000</v>
+      </c>
+      <c r="O410" t="inlineStr">
+        <is>
+          <t>https://primeauto-ekb.ru/new/volkswagen/passat-2014</t>
+        </is>
+      </c>
+      <c r="P410" t="n">
+        <v>1123700</v>
+      </c>
+      <c r="Q410" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/volkswagen/passat/b8-res-sedan-4/</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>653</t>
+          <t>650</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
@@ -18412,46 +18404,38 @@
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>Taos</t>
+          <t>Passat New</t>
         </is>
       </c>
       <c r="D411" t="n">
-        <v>1464000</v>
+        <v>2200000</v>
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/volkswagen/taos/2020-allroad-5/</t>
+          <t>https://primeauto-ekb.ru/new/volkswagen/passat</t>
         </is>
       </c>
       <c r="F411" t="n">
-        <v>1464000</v>
+        <v>2483000</v>
       </c>
       <c r="G411" t="inlineStr">
         <is>
-          <t>https://uu-stoks.ru/auto/volkswagen/taos_cuv</t>
-        </is>
-      </c>
-      <c r="J411" t="n">
-        <v>1697340</v>
-      </c>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>https://autosalon-kit.ru/auto/volkswagen/taos/cuv</t>
-        </is>
-      </c>
-      <c r="P411" t="n">
-        <v>1464000</v>
-      </c>
-      <c r="Q411" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/volkswagen/taos/2020-allroad-5/</t>
+          <t>https://uu-stoks.ru/auto/volkswagen/passat-new_sedan</t>
+        </is>
+      </c>
+      <c r="N411" t="n">
+        <v>2200000</v>
+      </c>
+      <c r="O411" t="inlineStr">
+        <is>
+          <t>https://primeauto-ekb.ru/new/volkswagen/passat</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>655</t>
+          <t>652</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
@@ -18461,30 +18445,56 @@
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>Teramont</t>
+          <t>Polo</t>
         </is>
       </c>
       <c r="D412" t="n">
-        <v>2679400</v>
+        <v>480000</v>
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/volkswagen/teramont/i-allroad-5/</t>
+          <t>https://primeauto-ekb.ru/new/volkswagen/polo-sedan</t>
+        </is>
+      </c>
+      <c r="H412" t="inlineStr">
+        <is>
+          <t>680000</t>
+        </is>
+      </c>
+      <c r="I412" t="inlineStr">
+        <is>
+          <t>https://new-auto96.ru/auto/volkswagen/polo/</t>
+        </is>
+      </c>
+      <c r="J412" t="n">
+        <v>673440</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>https://autosalon-kit.ru/auto/volkswagen/new-polo/sedan</t>
+        </is>
+      </c>
+      <c r="N412" t="n">
+        <v>480000</v>
+      </c>
+      <c r="O412" t="inlineStr">
+        <is>
+          <t>https://primeauto-ekb.ru/new/volkswagen/polo-sedan</t>
         </is>
       </c>
       <c r="P412" t="n">
-        <v>2679400</v>
+        <v>734000</v>
       </c>
       <c r="Q412" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/volkswagen/teramont/i-allroad-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/volkswagen/polo/vi-liftback-5/</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>657</t>
+          <t>648</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
@@ -18494,46 +18504,30 @@
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>Tiguan</t>
+          <t>Polo New</t>
         </is>
       </c>
       <c r="D413" t="n">
-        <v>1230000</v>
+        <v>734000</v>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/volkswagen/tiguan-2020</t>
-        </is>
-      </c>
-      <c r="J413" t="n">
-        <v>1280940</v>
-      </c>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>https://autosalon-kit.ru/auto/volkswagen/tiguan-new/cuv</t>
-        </is>
-      </c>
-      <c r="N413" t="n">
-        <v>1230000</v>
-      </c>
-      <c r="O413" t="inlineStr">
-        <is>
-          <t>https://primeauto-ekb.ru/new/volkswagen/tiguan-2020</t>
-        </is>
-      </c>
-      <c r="P413" t="n">
-        <v>1529300</v>
-      </c>
-      <c r="Q413" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/volkswagen/tiguan/ii-res-allroad-5/</t>
+          <t>https://uu-stoks.ru/auto/volkswagen/new-polo_sedan</t>
+        </is>
+      </c>
+      <c r="F413" t="n">
+        <v>734000</v>
+      </c>
+      <c r="G413" t="inlineStr">
+        <is>
+          <t>https://uu-stoks.ru/auto/volkswagen/new-polo_sedan</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>658</t>
+          <t>653</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
@@ -18543,130 +18537,261 @@
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>Tiguan New</t>
+          <t>Taos</t>
         </is>
       </c>
       <c r="D414" t="n">
-        <v>1529300</v>
+        <v>1464000</v>
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>https://uu-stoks.ru/auto/volkswagen/tiguan-new_cuv</t>
+          <t>https://atc-gagarin.ru/cars-new/volkswagen/taos/2020-allroad-5/</t>
         </is>
       </c>
       <c r="F414" t="n">
-        <v>1529300</v>
+        <v>1464000</v>
       </c>
       <c r="G414" t="inlineStr">
         <is>
-          <t>https://uu-stoks.ru/auto/volkswagen/tiguan-new_cuv</t>
-        </is>
-      </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>1830000</t>
-        </is>
-      </c>
-      <c r="I414" t="inlineStr">
-        <is>
-          <t>https://new-auto96.ru/auto/volkswagen/tiguan/</t>
+          <t>https://uu-stoks.ru/auto/volkswagen/taos_cuv</t>
+        </is>
+      </c>
+      <c r="J414" t="n">
+        <v>1697340</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>https://autosalon-kit.ru/auto/volkswagen/taos/cuv</t>
+        </is>
+      </c>
+      <c r="P414" t="n">
+        <v>1464000</v>
+      </c>
+      <c r="Q414" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/volkswagen/taos/2020-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>672</t>
+          <t>655</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Zotye</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>Coupa</t>
+          <t>Teramont</t>
         </is>
       </c>
       <c r="D415" t="n">
-        <v>750300</v>
+        <v>2679400</v>
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/zotye/coupa/2018-allroad-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/volkswagen/teramont/i-allroad-5/</t>
         </is>
       </c>
       <c r="P415" t="n">
-        <v>750300</v>
+        <v>2679400</v>
       </c>
       <c r="Q415" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/zotye/coupa/2018-allroad-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/volkswagen/teramont/i-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>674</t>
+          <t>657</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Zotye</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>T600</t>
+          <t>Tiguan</t>
         </is>
       </c>
       <c r="D416" t="n">
-        <v>570300</v>
+        <v>1230000</v>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/zotye/t600/2013-2021-allroad-5/</t>
+          <t>https://primeauto-ekb.ru/new/volkswagen/tiguan-2020</t>
+        </is>
+      </c>
+      <c r="J416" t="n">
+        <v>1280940</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>https://autosalon-kit.ru/auto/volkswagen/tiguan-new/cuv</t>
+        </is>
+      </c>
+      <c r="N416" t="n">
+        <v>1230000</v>
+      </c>
+      <c r="O416" t="inlineStr">
+        <is>
+          <t>https://primeauto-ekb.ru/new/volkswagen/tiguan-2020</t>
         </is>
       </c>
       <c r="P416" t="n">
-        <v>570300</v>
+        <v>1529300</v>
       </c>
       <c r="Q416" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/zotye/t600/2013-2021-allroad-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/volkswagen/tiguan/ii-res-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
+          <t>658</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>Tiguan New</t>
+        </is>
+      </c>
+      <c r="D417" t="n">
+        <v>1529300</v>
+      </c>
+      <c r="E417" t="inlineStr">
+        <is>
+          <t>https://uu-stoks.ru/auto/volkswagen/tiguan-new_cuv</t>
+        </is>
+      </c>
+      <c r="F417" t="n">
+        <v>1529300</v>
+      </c>
+      <c r="G417" t="inlineStr">
+        <is>
+          <t>https://uu-stoks.ru/auto/volkswagen/tiguan-new_cuv</t>
+        </is>
+      </c>
+      <c r="H417" t="inlineStr">
+        <is>
+          <t>1830000</t>
+        </is>
+      </c>
+      <c r="I417" t="inlineStr">
+        <is>
+          <t>https://new-auto96.ru/auto/volkswagen/tiguan/</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>672</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>Zotye</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>Coupa</t>
+        </is>
+      </c>
+      <c r="D418" t="n">
+        <v>750300</v>
+      </c>
+      <c r="E418" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/zotye/coupa/2018-allroad-5/</t>
+        </is>
+      </c>
+      <c r="P418" t="n">
+        <v>750300</v>
+      </c>
+      <c r="Q418" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/zotye/coupa/2018-allroad-5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>674</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>Zotye</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>T600</t>
+        </is>
+      </c>
+      <c r="D419" t="n">
+        <v>570300</v>
+      </c>
+      <c r="E419" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/zotye/t600/2013-2021-allroad-5/</t>
+        </is>
+      </c>
+      <c r="P419" t="n">
+        <v>570300</v>
+      </c>
+      <c r="Q419" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/zotye/t600/2013-2021-allroad-5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
           <t>673</t>
         </is>
       </c>
-      <c r="B417" t="inlineStr">
+      <c r="B420" t="inlineStr">
         <is>
           <t>Zotye</t>
         </is>
       </c>
-      <c r="C417" t="inlineStr">
+      <c r="C420" t="inlineStr">
         <is>
           <t>Z300</t>
         </is>
       </c>
-      <c r="D417" t="n">
+      <c r="D420" t="n">
         <v>309990</v>
       </c>
-      <c r="E417" t="inlineStr">
+      <c r="E420" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/zotye/z300/2012-2017-sedan-4/</t>
         </is>
       </c>
-      <c r="P417" t="n">
+      <c r="P420" t="n">
         <v>309990</v>
       </c>
-      <c r="Q417" t="inlineStr">
+      <c r="Q420" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/zotye/z300/2012-2017-sedan-4/</t>
         </is>

--- a/xlsx/ekaterinburg.xlsx
+++ b/xlsx/ekaterinburg.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q379"/>
+  <dimension ref="A1:Q380"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9487,18 +9487,18 @@
         </is>
       </c>
       <c r="P214" t="n">
-        <v>1800000</v>
+        <v>1031000</v>
       </c>
       <c r="Q214" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/kia/soul/iii-res-hatchback-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/kia/soul/iii-hatchback-5/</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>391</t>
+          <t>372</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -9508,30 +9508,30 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Sportage</t>
+          <t>Soul New</t>
         </is>
       </c>
       <c r="D215" t="n">
-        <v>1270000</v>
+        <v>1800000</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/kia/sportage</t>
-        </is>
-      </c>
-      <c r="N215" t="n">
-        <v>1270000</v>
-      </c>
-      <c r="O215" t="inlineStr">
-        <is>
-          <t>https://primeauto-ekb.ru/new/kia/sportage</t>
+          <t>https://atc-gagarin.ru/cars-new/kia/soul/iii-res-hatchback-5/</t>
+        </is>
+      </c>
+      <c r="P215" t="n">
+        <v>1800000</v>
+      </c>
+      <c r="Q215" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/kia/soul/iii-res-hatchback-5/</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>391</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -9541,40 +9541,30 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Sportage 5</t>
+          <t>Sportage</t>
         </is>
       </c>
       <c r="D216" t="n">
-        <v>1709940</v>
+        <v>1270000</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/kia/sportage-5/suv</t>
-        </is>
-      </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>1870000</t>
-        </is>
-      </c>
-      <c r="I216" t="inlineStr">
-        <is>
-          <t>https://new-auto96.ru/auto/kia/sportage/</t>
-        </is>
-      </c>
-      <c r="J216" t="n">
-        <v>1709940</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>https://autosalon-kit.ru/auto/kia/sportage-5/suv</t>
+          <t>https://primeauto-ekb.ru/new/kia/sportage</t>
+        </is>
+      </c>
+      <c r="N216" t="n">
+        <v>1270000</v>
+      </c>
+      <c r="O216" t="inlineStr">
+        <is>
+          <t>https://primeauto-ekb.ru/new/kia/sportage</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>392</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -9584,38 +9574,40 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Sportage New</t>
+          <t>Sportage 5</t>
         </is>
       </c>
       <c r="D217" t="n">
-        <v>1860000</v>
+        <v>1709940</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/kia/sportage-new</t>
-        </is>
-      </c>
-      <c r="N217" t="n">
-        <v>1860000</v>
-      </c>
-      <c r="O217" t="inlineStr">
-        <is>
-          <t>https://primeauto-ekb.ru/new/kia/sportage-new</t>
-        </is>
-      </c>
-      <c r="P217" t="n">
-        <v>1865100</v>
-      </c>
-      <c r="Q217" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/kia/sportage/v-allroad-5/</t>
+          <t>https://autosalon-kit.ru/auto/kia/sportage-5/suv</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>1870000</t>
+        </is>
+      </c>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>https://new-auto96.ru/auto/kia/sportage/</t>
+        </is>
+      </c>
+      <c r="J217" t="n">
+        <v>1709940</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>https://autosalon-kit.ru/auto/kia/sportage-5/suv</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>384</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -9625,30 +9617,38 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Stinger</t>
+          <t>Sportage New</t>
         </is>
       </c>
       <c r="D218" t="n">
-        <v>3100000</v>
+        <v>1860000</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/kia/stinger</t>
+          <t>https://primeauto-ekb.ru/new/kia/sportage-new</t>
         </is>
       </c>
       <c r="N218" t="n">
-        <v>3100000</v>
+        <v>1860000</v>
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/kia/stinger</t>
+          <t>https://primeauto-ekb.ru/new/kia/sportage-new</t>
+        </is>
+      </c>
+      <c r="P218" t="n">
+        <v>1865100</v>
+      </c>
+      <c r="Q218" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/kia/sportage/v-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>398</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -9658,7 +9658,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Stinger Restyling</t>
+          <t>Stinger</t>
         </is>
       </c>
       <c r="D219" t="n">
@@ -9666,22 +9666,22 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/kia/stinger/i-res-liftback-5/</t>
-        </is>
-      </c>
-      <c r="P219" t="n">
+          <t>https://primeauto-ekb.ru/new/kia/stinger</t>
+        </is>
+      </c>
+      <c r="N219" t="n">
         <v>3100000</v>
       </c>
-      <c r="Q219" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/kia/stinger/i-res-liftback-5/</t>
+      <c r="O219" t="inlineStr">
+        <is>
+          <t>https://primeauto-ekb.ru/new/kia/stinger</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>393</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -9691,79 +9691,71 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>XCeed</t>
+          <t>Stinger Restyling</t>
         </is>
       </c>
       <c r="D220" t="n">
-        <v>1490000</v>
+        <v>3100000</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/kia/xceed/i-hatchback-5/</t>
-        </is>
-      </c>
-      <c r="N220" t="n">
-        <v>1490000</v>
-      </c>
-      <c r="O220" t="inlineStr">
-        <is>
-          <t>https://primeauto-ekb.ru/new/kia/xceed</t>
+          <t>https://atc-gagarin.ru/cars-new/kia/stinger/i-res-liftback-5/</t>
         </is>
       </c>
       <c r="P220" t="n">
-        <v>1490000</v>
+        <v>3100000</v>
       </c>
       <c r="Q220" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/kia/xceed/i-hatchback-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/kia/stinger/i-res-liftback-5/</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>401</t>
+          <t>395</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>4x4 Bronto</t>
+          <t>XCeed</t>
         </is>
       </c>
       <c r="D221" t="n">
-        <v>575900</v>
+        <v>1490000</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/lada/4x4/bronto</t>
-        </is>
-      </c>
-      <c r="J221" t="n">
-        <v>575900</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>https://autosalon-kit.ru/auto/lada/4x4/bronto</t>
+          <t>https://atc-gagarin.ru/cars-new/kia/xceed/i-hatchback-5/</t>
         </is>
       </c>
       <c r="N221" t="n">
-        <v>620000</v>
+        <v>1490000</v>
       </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/lada/bronto</t>
+          <t>https://primeauto-ekb.ru/new/kia/xceed</t>
+        </is>
+      </c>
+      <c r="P221" t="n">
+        <v>1490000</v>
+      </c>
+      <c r="Q221" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/kia/xceed/i-hatchback-5/</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>795</t>
+          <t>401</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -9773,48 +9765,38 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Aura</t>
+          <t>4x4 Bronto</t>
         </is>
       </c>
       <c r="D222" t="n">
-        <v>1559400</v>
+        <v>575900</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/aura/</t>
-        </is>
-      </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>1559400</t>
-        </is>
-      </c>
-      <c r="I222" t="inlineStr">
-        <is>
-          <t>https://new-auto96.ru/auto/lada/aura/</t>
+          <t>https://autosalon-kit.ru/auto/lada/4x4/bronto</t>
+        </is>
+      </c>
+      <c r="J222" t="n">
+        <v>575900</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>https://autosalon-kit.ru/auto/lada/4x4/bronto</t>
         </is>
       </c>
       <c r="N222" t="n">
-        <v>1599000</v>
+        <v>620000</v>
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/lada/aura</t>
-        </is>
-      </c>
-      <c r="P222" t="n">
-        <v>1649000</v>
-      </c>
-      <c r="Q222" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/lada/aura/2024-sedan-4/</t>
+          <t>https://primeauto-ekb.ru/new/lada/bronto</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>795</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -9824,56 +9806,48 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Granta Cross</t>
+          <t>Aura</t>
         </is>
       </c>
       <c r="D223" t="n">
-        <v>445380</v>
+        <v>1559400</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/lada/granta-cross/2019</t>
+          <t>https://new-auto96.ru/auto/lada/aura/</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>570540</t>
+          <t>1559400</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/granta_cross/</t>
-        </is>
-      </c>
-      <c r="J223" t="n">
-        <v>445380</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>https://autosalon-kit.ru/auto/lada/granta-cross/2019</t>
+          <t>https://new-auto96.ru/auto/lada/aura/</t>
         </is>
       </c>
       <c r="N223" t="n">
-        <v>500000</v>
+        <v>1599000</v>
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/lada/granta-cross</t>
+          <t>https://primeauto-ekb.ru/new/lada/aura</t>
         </is>
       </c>
       <c r="P223" t="n">
-        <v>504000</v>
+        <v>1649000</v>
       </c>
       <c r="Q223" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/lada/granta/i-res-wagon-cross-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/lada/aura/2024-sedan-4/</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>402</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -9883,30 +9857,56 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Granta Drive Active</t>
+          <t>Granta Cross</t>
         </is>
       </c>
       <c r="D224" t="n">
-        <v>496740</v>
+        <v>445380</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/lada/granta-drive-active/granta-drive-active</t>
+          <t>https://autosalon-kit.ru/auto/lada/granta-cross/2019</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>570540</t>
+        </is>
+      </c>
+      <c r="I224" t="inlineStr">
+        <is>
+          <t>https://new-auto96.ru/auto/lada/granta_cross/</t>
         </is>
       </c>
       <c r="J224" t="n">
-        <v>496740</v>
+        <v>445380</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/lada/granta-drive-active/granta-drive-active</t>
+          <t>https://autosalon-kit.ru/auto/lada/granta-cross/2019</t>
+        </is>
+      </c>
+      <c r="N224" t="n">
+        <v>500000</v>
+      </c>
+      <c r="O224" t="inlineStr">
+        <is>
+          <t>https://primeauto-ekb.ru/new/lada/granta-cross</t>
+        </is>
+      </c>
+      <c r="P224" t="n">
+        <v>504000</v>
+      </c>
+      <c r="Q224" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/lada/granta/i-res-wagon-cross-5/</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>408</t>
+          <t>403</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -9916,30 +9916,30 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Granta Drive Active Liftback</t>
+          <t>Granta Drive Active</t>
         </is>
       </c>
       <c r="D225" t="n">
-        <v>550100</v>
+        <v>496740</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/lada/granta/i-res-liftback-drive-activesportline-4/</t>
-        </is>
-      </c>
-      <c r="P225" t="n">
-        <v>550100</v>
-      </c>
-      <c r="Q225" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/lada/granta/i-res-liftback-drive-activesportline-4/</t>
+          <t>https://autosalon-kit.ru/auto/lada/granta-drive-active/granta-drive-active</t>
+        </is>
+      </c>
+      <c r="J225" t="n">
+        <v>496740</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>https://autosalon-kit.ru/auto/lada/granta-drive-active/granta-drive-active</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>408</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -9949,40 +9949,30 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Granta Hatchback</t>
+          <t>Granta Drive Active Liftback</t>
         </is>
       </c>
       <c r="D226" t="n">
-        <v>421580</v>
+        <v>550100</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/granta_hatchback/</t>
-        </is>
-      </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>421580</t>
-        </is>
-      </c>
-      <c r="I226" t="inlineStr">
-        <is>
-          <t>https://new-auto96.ru/auto/lada/granta_hatchback/</t>
+          <t>https://atc-gagarin.ru/cars-new/lada/granta/i-res-liftback-drive-activesportline-4/</t>
         </is>
       </c>
       <c r="P226" t="n">
-        <v>431100</v>
+        <v>550100</v>
       </c>
       <c r="Q226" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/lada/granta/i-res-hatchback-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/lada/granta/i-res-liftback-drive-activesportline-4/</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>417</t>
+          <t>404</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -9992,30 +9982,40 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Granta Hatchback New</t>
+          <t>Granta Hatchback</t>
         </is>
       </c>
       <c r="D227" t="n">
-        <v>467100</v>
+        <v>421580</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/lada/new-granta/hatchback</t>
-        </is>
-      </c>
-      <c r="J227" t="n">
-        <v>467100</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>https://autosalon-kit.ru/auto/lada/new-granta/hatchback</t>
+          <t>https://new-auto96.ru/auto/lada/granta_hatchback/</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>421580</t>
+        </is>
+      </c>
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>https://new-auto96.ru/auto/lada/granta_hatchback/</t>
+        </is>
+      </c>
+      <c r="P227" t="n">
+        <v>431100</v>
+      </c>
+      <c r="Q227" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/lada/granta/i-res-hatchback-5/</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>417</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -10025,48 +10025,30 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Granta Liftback</t>
+          <t>Granta Hatchback New</t>
         </is>
       </c>
       <c r="D228" t="n">
-        <v>440000</v>
+        <v>467100</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/lada/granta-liftbek</t>
-        </is>
-      </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>546000</t>
-        </is>
-      </c>
-      <c r="I228" t="inlineStr">
-        <is>
-          <t>https://new-auto96.ru/auto/lada/granta_liftback/</t>
-        </is>
-      </c>
-      <c r="N228" t="n">
-        <v>440000</v>
-      </c>
-      <c r="O228" t="inlineStr">
-        <is>
-          <t>https://primeauto-ekb.ru/new/lada/granta-liftbek</t>
-        </is>
-      </c>
-      <c r="P228" t="n">
-        <v>441100</v>
-      </c>
-      <c r="Q228" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/lada/granta/i-res-liftback-5/</t>
+          <t>https://autosalon-kit.ru/auto/lada/new-granta/hatchback</t>
+        </is>
+      </c>
+      <c r="J228" t="n">
+        <v>467100</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>https://autosalon-kit.ru/auto/lada/new-granta/hatchback</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>415</t>
+          <t>405</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -10076,30 +10058,48 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Granta Liftback New</t>
+          <t>Granta Liftback</t>
         </is>
       </c>
       <c r="D229" t="n">
-        <v>433380</v>
+        <v>440000</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/lada/new-granta/liftback</t>
-        </is>
-      </c>
-      <c r="J229" t="n">
-        <v>433380</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>https://autosalon-kit.ru/auto/lada/new-granta/liftback</t>
+          <t>https://primeauto-ekb.ru/new/lada/granta-liftbek</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>546000</t>
+        </is>
+      </c>
+      <c r="I229" t="inlineStr">
+        <is>
+          <t>https://new-auto96.ru/auto/lada/granta_liftback/</t>
+        </is>
+      </c>
+      <c r="N229" t="n">
+        <v>440000</v>
+      </c>
+      <c r="O229" t="inlineStr">
+        <is>
+          <t>https://primeauto-ekb.ru/new/lada/granta-liftbek</t>
+        </is>
+      </c>
+      <c r="P229" t="n">
+        <v>441100</v>
+      </c>
+      <c r="Q229" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/lada/granta/i-res-liftback-5/</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>415</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -10109,40 +10109,30 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Granta Sedan</t>
+          <t>Granta Liftback New</t>
         </is>
       </c>
       <c r="D230" t="n">
-        <v>410000</v>
+        <v>433380</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/granta_sedan/</t>
-        </is>
-      </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>410000</t>
-        </is>
-      </c>
-      <c r="I230" t="inlineStr">
-        <is>
-          <t>https://new-auto96.ru/auto/lada/granta_sedan/</t>
-        </is>
-      </c>
-      <c r="P230" t="n">
-        <v>411000</v>
-      </c>
-      <c r="Q230" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/lada/granta/i-res-sedan-4/</t>
+          <t>https://autosalon-kit.ru/auto/lada/new-granta/liftback</t>
+        </is>
+      </c>
+      <c r="J230" t="n">
+        <v>433380</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>https://autosalon-kit.ru/auto/lada/new-granta/liftback</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>406</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -10152,32 +10142,40 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Granta Sedan Drive Active</t>
+          <t>Granta Sedan</t>
         </is>
       </c>
       <c r="D231" t="n">
-        <v>445380</v>
+        <v>410000</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/granta_drive_active/</t>
+          <t>https://new-auto96.ru/auto/lada/granta_sedan/</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>445380</t>
+          <t>410000</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/granta_drive_active/</t>
+          <t>https://new-auto96.ru/auto/lada/granta_sedan/</t>
+        </is>
+      </c>
+      <c r="P231" t="n">
+        <v>411000</v>
+      </c>
+      <c r="Q231" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/lada/granta/i-res-sedan-4/</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>413</t>
+          <t>403</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -10187,38 +10185,32 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Granta Sedan New</t>
+          <t>Granta Sedan Drive Active</t>
         </is>
       </c>
       <c r="D232" t="n">
-        <v>410000</v>
+        <v>445380</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/lada/granta-sedan-new</t>
-        </is>
-      </c>
-      <c r="J232" t="n">
-        <v>415380</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>https://autosalon-kit.ru/auto/lada/new-granta/sedan</t>
-        </is>
-      </c>
-      <c r="N232" t="n">
-        <v>410000</v>
-      </c>
-      <c r="O232" t="inlineStr">
-        <is>
-          <t>https://primeauto-ekb.ru/new/lada/granta-sedan-new</t>
+          <t>https://new-auto96.ru/auto/lada/granta_drive_active/</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>445380</t>
+        </is>
+      </c>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t>https://new-auto96.ru/auto/lada/granta_drive_active/</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>409</t>
+          <t>413</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -10228,32 +10220,38 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Granta Sport Liftback</t>
+          <t>Granta Sedan New</t>
         </is>
       </c>
       <c r="D233" t="n">
-        <v>797340</v>
+        <v>410000</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/granta_sport_liftbek/</t>
-        </is>
-      </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>797340</t>
-        </is>
-      </c>
-      <c r="I233" t="inlineStr">
-        <is>
-          <t>https://new-auto96.ru/auto/lada/granta_sport_liftbek/</t>
+          <t>https://primeauto-ekb.ru/new/lada/granta-sedan-new</t>
+        </is>
+      </c>
+      <c r="J233" t="n">
+        <v>415380</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>https://autosalon-kit.ru/auto/lada/new-granta/sedan</t>
+        </is>
+      </c>
+      <c r="N233" t="n">
+        <v>410000</v>
+      </c>
+      <c r="O233" t="inlineStr">
+        <is>
+          <t>https://primeauto-ekb.ru/new/lada/granta-sedan-new</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>409</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -10263,40 +10261,32 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Granta Sport Sedan</t>
+          <t>Granta Sport Liftback</t>
         </is>
       </c>
       <c r="D234" t="n">
-        <v>749900</v>
+        <v>797340</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/lada/granta/i-res-sedan-sport-4/</t>
+          <t>https://new-auto96.ru/auto/lada/granta_sport_liftbek/</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>790140</t>
+          <t>797340</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/granta_sport/</t>
-        </is>
-      </c>
-      <c r="P234" t="n">
-        <v>749900</v>
-      </c>
-      <c r="Q234" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/lada/granta/i-res-sedan-sport-4/</t>
+          <t>https://new-auto96.ru/auto/lada/granta_sport_liftbek/</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>723</t>
+          <t>411</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -10306,32 +10296,40 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Granta Sportline</t>
+          <t>Granta Sport Sedan</t>
         </is>
       </c>
       <c r="D235" t="n">
-        <v>680000</v>
+        <v>749900</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/granta_sportline/</t>
+          <t>https://atc-gagarin.ru/cars-new/lada/granta/i-res-sedan-sport-4/</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>680000</t>
+          <t>790140</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/granta_sportline/</t>
+          <t>https://new-auto96.ru/auto/lada/granta_sport/</t>
+        </is>
+      </c>
+      <c r="P235" t="n">
+        <v>749900</v>
+      </c>
+      <c r="Q235" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/lada/granta/i-res-sedan-sport-4/</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>732</t>
+          <t>723</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -10341,32 +10339,32 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Granta Sportline Liftback</t>
+          <t>Granta Sportline</t>
         </is>
       </c>
       <c r="D236" t="n">
-        <v>761940</v>
+        <v>680000</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/granta_sportline_liftbek/</t>
+          <t>https://new-auto96.ru/auto/lada/granta_sportline/</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>761940</t>
+          <t>680000</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/granta_sportline_liftbek/</t>
+          <t>https://new-auto96.ru/auto/lada/granta_sportline/</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>732</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -10376,40 +10374,32 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Granta Universal</t>
+          <t>Granta Sportline Liftback</t>
         </is>
       </c>
       <c r="D237" t="n">
-        <v>393000</v>
+        <v>761940</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/granta_universal/</t>
+          <t>https://new-auto96.ru/auto/lada/granta_sportline_liftbek/</t>
         </is>
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>393000</t>
+          <t>761940</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/granta_universal/</t>
-        </is>
-      </c>
-      <c r="N237" t="n">
-        <v>450000</v>
-      </c>
-      <c r="O237" t="inlineStr">
-        <is>
-          <t>https://primeauto-ekb.ru/new/lada/granta-universal</t>
+          <t>https://new-auto96.ru/auto/lada/granta_sportline_liftbek/</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>416</t>
+          <t>414</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -10419,30 +10409,40 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Granta Universal New</t>
+          <t>Granta Universal</t>
         </is>
       </c>
       <c r="D238" t="n">
-        <v>431580</v>
+        <v>393000</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/lada/new-granta/wagon</t>
-        </is>
-      </c>
-      <c r="J238" t="n">
-        <v>431580</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>https://autosalon-kit.ru/auto/lada/new-granta/wagon</t>
+          <t>https://new-auto96.ru/auto/lada/granta_universal/</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>393000</t>
+        </is>
+      </c>
+      <c r="I238" t="inlineStr">
+        <is>
+          <t>https://new-auto96.ru/auto/lada/granta_universal/</t>
+        </is>
+      </c>
+      <c r="N238" t="n">
+        <v>450000</v>
+      </c>
+      <c r="O238" t="inlineStr">
+        <is>
+          <t>https://primeauto-ekb.ru/new/lada/granta-universal</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>416</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -10452,38 +10452,30 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Largus</t>
+          <t>Granta Universal New</t>
         </is>
       </c>
       <c r="D239" t="n">
-        <v>393000</v>
+        <v>431580</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/lada/largus/wa</t>
+          <t>https://autosalon-kit.ru/auto/lada/new-granta/wagon</t>
         </is>
       </c>
       <c r="J239" t="n">
-        <v>393000</v>
+        <v>431580</v>
       </c>
       <c r="K239" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/lada/largus/wa</t>
-        </is>
-      </c>
-      <c r="P239" t="n">
-        <v>718900</v>
-      </c>
-      <c r="Q239" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/lada/largus/i-res-wagon-5/</t>
+          <t>https://autosalon-kit.ru/auto/lada/new-granta/wagon</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>418</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -10493,30 +10485,38 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Largus Cross</t>
+          <t>Largus</t>
         </is>
       </c>
       <c r="D240" t="n">
-        <v>826740</v>
+        <v>393000</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/lada/largus/wag%20rest1</t>
+          <t>https://autosalon-kit.ru/auto/lada/largus/wa</t>
         </is>
       </c>
       <c r="J240" t="n">
-        <v>826740</v>
+        <v>393000</v>
       </c>
       <c r="K240" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/lada/largus/wag%20rest1</t>
+          <t>https://autosalon-kit.ru/auto/lada/largus/wa</t>
+        </is>
+      </c>
+      <c r="P240" t="n">
+        <v>718900</v>
+      </c>
+      <c r="Q240" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/lada/largus/i-res-wagon-5/</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>419</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -10526,40 +10526,30 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Largus Cross New</t>
+          <t>Largus Cross</t>
         </is>
       </c>
       <c r="D241" t="n">
-        <v>760000</v>
+        <v>826740</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/lada/largus-cross-new-5-mest</t>
-        </is>
-      </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>919800</t>
-        </is>
-      </c>
-      <c r="I241" t="inlineStr">
-        <is>
-          <t>https://new-auto96.ru/auto/lada/largus_cross/</t>
-        </is>
-      </c>
-      <c r="N241" t="n">
-        <v>760000</v>
-      </c>
-      <c r="O241" t="inlineStr">
-        <is>
-          <t>https://primeauto-ekb.ru/new/lada/largus-cross-new-5-mest</t>
+          <t>https://autosalon-kit.ru/auto/lada/largus/wag%20rest1</t>
+        </is>
+      </c>
+      <c r="J241" t="n">
+        <v>826740</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>https://autosalon-kit.ru/auto/lada/largus/wag%20rest1</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>452</t>
+          <t>451</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -10569,30 +10559,40 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Largus Cross New 7 мест</t>
+          <t>Largus Cross New</t>
         </is>
       </c>
       <c r="D242" t="n">
-        <v>800000</v>
+        <v>760000</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/lada/largus-cross-new-7-mest</t>
+          <t>https://primeauto-ekb.ru/new/lada/largus-cross-new-5-mest</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>919800</t>
+        </is>
+      </c>
+      <c r="I242" t="inlineStr">
+        <is>
+          <t>https://new-auto96.ru/auto/lada/largus_cross/</t>
         </is>
       </c>
       <c r="N242" t="n">
-        <v>800000</v>
+        <v>760000</v>
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/lada/largus-cross-new-7-mest</t>
+          <t>https://primeauto-ekb.ru/new/lada/largus-cross-new-5-mest</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>449</t>
+          <t>452</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -10602,40 +10602,30 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Largus New</t>
+          <t>Largus Cross New 7 мест</t>
         </is>
       </c>
       <c r="D243" t="n">
-        <v>720000</v>
+        <v>800000</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/lada/largus-new-5-mest</t>
-        </is>
-      </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>828600</t>
-        </is>
-      </c>
-      <c r="I243" t="inlineStr">
-        <is>
-          <t>https://new-auto96.ru/auto/lada/largus/</t>
+          <t>https://primeauto-ekb.ru/new/lada/largus-cross-new-7-mest</t>
         </is>
       </c>
       <c r="N243" t="n">
-        <v>720000</v>
+        <v>800000</v>
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/lada/largus-new-5-mest</t>
+          <t>https://primeauto-ekb.ru/new/lada/largus-cross-new-7-mest</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>449</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -10645,30 +10635,40 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Largus New 7 мест</t>
+          <t>Largus New</t>
         </is>
       </c>
       <c r="D244" t="n">
-        <v>710000</v>
+        <v>720000</v>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/lada/largus-new-7-mest</t>
+          <t>https://primeauto-ekb.ru/new/lada/largus-new-5-mest</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>828600</t>
+        </is>
+      </c>
+      <c r="I244" t="inlineStr">
+        <is>
+          <t>https://new-auto96.ru/auto/lada/largus/</t>
         </is>
       </c>
       <c r="N244" t="n">
-        <v>710000</v>
+        <v>720000</v>
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/lada/largus-new-7-mest</t>
+          <t>https://primeauto-ekb.ru/new/lada/largus-new-5-mest</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>450</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -10678,30 +10678,30 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Largus Фургон</t>
+          <t>Largus New 7 мест</t>
         </is>
       </c>
       <c r="D245" t="n">
-        <v>781140</v>
+        <v>710000</v>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/lada/largus/van%20rest</t>
-        </is>
-      </c>
-      <c r="J245" t="n">
-        <v>781140</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>https://autosalon-kit.ru/auto/lada/largus/van%20rest</t>
+          <t>https://primeauto-ekb.ru/new/lada/largus-new-7-mest</t>
+        </is>
+      </c>
+      <c r="N245" t="n">
+        <v>710000</v>
+      </c>
+      <c r="O245" t="inlineStr">
+        <is>
+          <t>https://primeauto-ekb.ru/new/lada/largus-new-7-mest</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>420</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -10711,30 +10711,30 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Niva</t>
+          <t>Largus Фургон</t>
         </is>
       </c>
       <c r="D246" t="n">
-        <v>517000</v>
+        <v>781140</v>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/lada/niva-new/cuv</t>
+          <t>https://autosalon-kit.ru/auto/lada/largus/van%20rest</t>
         </is>
       </c>
       <c r="J246" t="n">
-        <v>517000</v>
+        <v>781140</v>
       </c>
       <c r="K246" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/lada/niva-new/cuv</t>
+          <t>https://autosalon-kit.ru/auto/lada/largus/van%20rest</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>422</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -10744,38 +10744,30 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Niva Legend 3 двери</t>
+          <t>Niva</t>
         </is>
       </c>
       <c r="D247" t="n">
-        <v>520000</v>
+        <v>517000</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/lada/niva-legend-3d</t>
+          <t>https://autosalon-kit.ru/auto/lada/niva-new/cuv</t>
         </is>
       </c>
       <c r="J247" t="n">
-        <v>679900</v>
+        <v>517000</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/lada/niva-legend/suv</t>
-        </is>
-      </c>
-      <c r="N247" t="n">
-        <v>520000</v>
-      </c>
-      <c r="O247" t="inlineStr">
-        <is>
-          <t>https://primeauto-ekb.ru/new/lada/niva-legend-3d</t>
+          <t>https://autosalon-kit.ru/auto/lada/niva-new/cuv</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>423</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -10785,46 +10777,38 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Niva Legend 5 дверей</t>
+          <t>Niva Legend 3 двери</t>
         </is>
       </c>
       <c r="D248" t="n">
-        <v>570000</v>
+        <v>520000</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/lada/niva-legend-5d</t>
+          <t>https://primeauto-ekb.ru/new/lada/niva-legend-3d</t>
         </is>
       </c>
       <c r="J248" t="n">
-        <v>768900</v>
+        <v>679900</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/lada/niva-legend/cuv</t>
+          <t>https://autosalon-kit.ru/auto/lada/niva-legend/suv</t>
         </is>
       </c>
       <c r="N248" t="n">
-        <v>570000</v>
+        <v>520000</v>
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/lada/niva-legend-5d</t>
-        </is>
-      </c>
-      <c r="P248" t="n">
-        <v>573100</v>
-      </c>
-      <c r="Q248" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/lada/niva-legend/2021-allroad-5/</t>
+          <t>https://primeauto-ekb.ru/new/lada/niva-legend-3d</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>432</t>
+          <t>424</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -10834,30 +10818,46 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Niva Legend Bronto</t>
+          <t>Niva Legend 5 дверей</t>
         </is>
       </c>
       <c r="D249" t="n">
-        <v>620000</v>
+        <v>570000</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/lada/niva-legend/2021-allroad-bronto-3/</t>
+          <t>https://primeauto-ekb.ru/new/lada/niva-legend-5d</t>
+        </is>
+      </c>
+      <c r="J249" t="n">
+        <v>768900</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>https://autosalon-kit.ru/auto/lada/niva-legend/cuv</t>
+        </is>
+      </c>
+      <c r="N249" t="n">
+        <v>570000</v>
+      </c>
+      <c r="O249" t="inlineStr">
+        <is>
+          <t>https://primeauto-ekb.ru/new/lada/niva-legend-5d</t>
         </is>
       </c>
       <c r="P249" t="n">
-        <v>620000</v>
+        <v>573100</v>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/lada/niva-legend/2021-allroad-bronto-3/</t>
+          <t>https://atc-gagarin.ru/cars-new/lada/niva-legend/2021-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>432</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -10867,30 +10867,30 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Niva Legend Urban 3 двери</t>
+          <t>Niva Legend Bronto</t>
         </is>
       </c>
       <c r="D250" t="n">
-        <v>742900</v>
+        <v>620000</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/lada/niva-legend/cuv-urban</t>
-        </is>
-      </c>
-      <c r="J250" t="n">
-        <v>742900</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>https://autosalon-kit.ru/auto/lada/niva-legend/cuv-urban</t>
+          <t>https://atc-gagarin.ru/cars-new/lada/niva-legend/2021-allroad-bronto-3/</t>
+        </is>
+      </c>
+      <c r="P250" t="n">
+        <v>620000</v>
+      </c>
+      <c r="Q250" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/lada/niva-legend/2021-allroad-bronto-3/</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>426</t>
+          <t>425</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -10900,30 +10900,30 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Niva Legend Urban 5 дверей</t>
+          <t>Niva Legend Urban 3 двери</t>
         </is>
       </c>
       <c r="D251" t="n">
-        <v>839900</v>
+        <v>742900</v>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/lada/niva-legend/cuv-urban5</t>
+          <t>https://autosalon-kit.ru/auto/lada/niva-legend/cuv-urban</t>
         </is>
       </c>
       <c r="J251" t="n">
-        <v>839900</v>
+        <v>742900</v>
       </c>
       <c r="K251" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/lada/niva-legend/cuv-urban5</t>
+          <t>https://autosalon-kit.ru/auto/lada/niva-legend/cuv-urban</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>426</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -10933,30 +10933,30 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Niva Off-Road</t>
+          <t>Niva Legend Urban 5 дверей</t>
         </is>
       </c>
       <c r="D252" t="n">
-        <v>627000</v>
+        <v>839900</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/lada/niva-new/suv</t>
+          <t>https://autosalon-kit.ru/auto/lada/niva-legend/cuv-urban5</t>
         </is>
       </c>
       <c r="J252" t="n">
-        <v>627000</v>
+        <v>839900</v>
       </c>
       <c r="K252" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/lada/niva-new/suv</t>
+          <t>https://autosalon-kit.ru/auto/lada/niva-legend/cuv-urban5</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>433</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -10966,56 +10966,30 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Niva Travel</t>
+          <t>Niva Off-Road</t>
         </is>
       </c>
       <c r="D253" t="n">
-        <v>650000</v>
+        <v>627000</v>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/lada/niva-travel</t>
-        </is>
-      </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>650000</t>
-        </is>
-      </c>
-      <c r="I253" t="inlineStr">
-        <is>
-          <t>https://new-auto96.ru/auto/lada/niva_travel/</t>
+          <t>https://autosalon-kit.ru/auto/lada/niva-new/suv</t>
         </is>
       </c>
       <c r="J253" t="n">
-        <v>655740</v>
+        <v>627000</v>
       </c>
       <c r="K253" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/lada/niva-travel/suv</t>
-        </is>
-      </c>
-      <c r="N253" t="n">
-        <v>650000</v>
-      </c>
-      <c r="O253" t="inlineStr">
-        <is>
-          <t>https://primeauto-ekb.ru/new/lada/niva-travel</t>
-        </is>
-      </c>
-      <c r="P253" t="n">
-        <v>656100</v>
-      </c>
-      <c r="Q253" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/lada/niva/i-res-allroad-5/</t>
+          <t>https://autosalon-kit.ru/auto/lada/niva-new/suv</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>427</t>
+          <t>434</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -11025,30 +10999,56 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Niva Urban 3 двери</t>
+          <t>Niva Travel</t>
         </is>
       </c>
       <c r="D254" t="n">
-        <v>466000</v>
+        <v>650000</v>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/lada/4x4/urban-3d</t>
+          <t>https://primeauto-ekb.ru/new/lada/niva-travel</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>650000</t>
+        </is>
+      </c>
+      <c r="I254" t="inlineStr">
+        <is>
+          <t>https://new-auto96.ru/auto/lada/niva_travel/</t>
         </is>
       </c>
       <c r="J254" t="n">
-        <v>466000</v>
+        <v>655740</v>
       </c>
       <c r="K254" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/lada/4x4/urban-3d</t>
+          <t>https://autosalon-kit.ru/auto/lada/niva-travel/suv</t>
+        </is>
+      </c>
+      <c r="N254" t="n">
+        <v>650000</v>
+      </c>
+      <c r="O254" t="inlineStr">
+        <is>
+          <t>https://primeauto-ekb.ru/new/lada/niva-travel</t>
+        </is>
+      </c>
+      <c r="P254" t="n">
+        <v>656100</v>
+      </c>
+      <c r="Q254" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/lada/niva/i-res-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>427</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -11058,30 +11058,30 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Niva Urban 5 дверей</t>
+          <t>Niva Urban 3 двери</t>
         </is>
       </c>
       <c r="D255" t="n">
-        <v>501000</v>
+        <v>466000</v>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/lada/4x4/urban-5d</t>
+          <t>https://autosalon-kit.ru/auto/lada/4x4/urban-3d</t>
         </is>
       </c>
       <c r="J255" t="n">
-        <v>501000</v>
+        <v>466000</v>
       </c>
       <c r="K255" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/lada/4x4/urban-5d</t>
+          <t>https://autosalon-kit.ru/auto/lada/4x4/urban-3d</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>430</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -11091,30 +11091,30 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Vesta Cross</t>
+          <t>Niva Urban 5 дверей</t>
         </is>
       </c>
       <c r="D256" t="n">
-        <v>761940</v>
+        <v>501000</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/lada/vesta/cross</t>
+          <t>https://autosalon-kit.ru/auto/lada/4x4/urban-5d</t>
         </is>
       </c>
       <c r="J256" t="n">
-        <v>761940</v>
+        <v>501000</v>
       </c>
       <c r="K256" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/lada/vesta/cross</t>
+          <t>https://autosalon-kit.ru/auto/lada/4x4/urban-5d</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>437</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -11124,56 +11124,30 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Vesta Cross New</t>
+          <t>Vesta Cross</t>
         </is>
       </c>
       <c r="D257" t="n">
-        <v>895800</v>
+        <v>761940</v>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta_cross/</t>
-        </is>
-      </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>895800</t>
-        </is>
-      </c>
-      <c r="I257" t="inlineStr">
-        <is>
-          <t>https://new-auto96.ru/auto/lada/vesta_cross/</t>
+          <t>https://autosalon-kit.ru/auto/lada/vesta/cross</t>
         </is>
       </c>
       <c r="J257" t="n">
-        <v>985740</v>
+        <v>761940</v>
       </c>
       <c r="K257" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/lada/Vesta-new/cross</t>
-        </is>
-      </c>
-      <c r="N257" t="n">
-        <v>1090000</v>
-      </c>
-      <c r="O257" t="inlineStr">
-        <is>
-          <t>https://primeauto-ekb.ru/new/lada/vesta-cross-new</t>
-        </is>
-      </c>
-      <c r="P257" t="n">
-        <v>1095000</v>
-      </c>
-      <c r="Q257" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/lada/vesta/i-res-sedan-cross-4/</t>
+          <t>https://autosalon-kit.ru/auto/lada/vesta/cross</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>438</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
@@ -11183,30 +11157,56 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Vesta SW</t>
+          <t>Vesta Cross New</t>
         </is>
       </c>
       <c r="D258" t="n">
-        <v>728340</v>
+        <v>895800</v>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/lada/vesta/sw</t>
+          <t>https://new-auto96.ru/auto/lada/vesta_cross/</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>895800</t>
+        </is>
+      </c>
+      <c r="I258" t="inlineStr">
+        <is>
+          <t>https://new-auto96.ru/auto/lada/vesta_cross/</t>
         </is>
       </c>
       <c r="J258" t="n">
-        <v>728340</v>
+        <v>985740</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/lada/vesta/sw</t>
+          <t>https://autosalon-kit.ru/auto/lada/Vesta-new/cross</t>
+        </is>
+      </c>
+      <c r="N258" t="n">
+        <v>1090000</v>
+      </c>
+      <c r="O258" t="inlineStr">
+        <is>
+          <t>https://primeauto-ekb.ru/new/lada/vesta-cross-new</t>
+        </is>
+      </c>
+      <c r="P258" t="n">
+        <v>1095000</v>
+      </c>
+      <c r="Q258" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/lada/vesta/i-res-sedan-cross-4/</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>443</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
@@ -11216,30 +11216,30 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Vesta SW Cross</t>
+          <t>Vesta SW</t>
         </is>
       </c>
       <c r="D259" t="n">
-        <v>797340</v>
+        <v>728340</v>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/lada/vesta/sw-cross</t>
+          <t>https://autosalon-kit.ru/auto/lada/vesta/sw</t>
         </is>
       </c>
       <c r="J259" t="n">
-        <v>797340</v>
+        <v>728340</v>
       </c>
       <c r="K259" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/lada/vesta/sw-cross</t>
+          <t>https://autosalon-kit.ru/auto/lada/vesta/sw</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>445</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
@@ -11249,48 +11249,30 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Vesta SW Cross New</t>
+          <t>Vesta SW Cross</t>
         </is>
       </c>
       <c r="D260" t="n">
-        <v>907140</v>
+        <v>797340</v>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/lada/vestaswcrossnew/vestaswcrossnew</t>
-        </is>
-      </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>907140</t>
-        </is>
-      </c>
-      <c r="I260" t="inlineStr">
-        <is>
-          <t>https://new-auto96.ru/auto/lada/vesta_sw_cross/</t>
+          <t>https://autosalon-kit.ru/auto/lada/vesta/sw-cross</t>
         </is>
       </c>
       <c r="J260" t="n">
-        <v>907140</v>
+        <v>797340</v>
       </c>
       <c r="K260" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/lada/vestaswcrossnew/vestaswcrossnew</t>
-        </is>
-      </c>
-      <c r="N260" t="n">
-        <v>1050000</v>
-      </c>
-      <c r="O260" t="inlineStr">
-        <is>
-          <t>https://primeauto-ekb.ru/new/lada/vesta-sw-cross-new</t>
+          <t>https://autosalon-kit.ru/auto/lada/vesta/sw-cross</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>446</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -11300,56 +11282,48 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Vesta SW New</t>
+          <t>Vesta SW Cross New</t>
         </is>
       </c>
       <c r="D261" t="n">
-        <v>797940</v>
+        <v>907140</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/lada/vestaswnew/vestaswnew</t>
+          <t>https://autosalon-kit.ru/auto/lada/vestaswcrossnew/vestaswcrossnew</t>
         </is>
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>804600</t>
+          <t>907140</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta_sw/</t>
+          <t>https://new-auto96.ru/auto/lada/vesta_sw_cross/</t>
         </is>
       </c>
       <c r="J261" t="n">
-        <v>797940</v>
+        <v>907140</v>
       </c>
       <c r="K261" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/lada/vestaswnew/vestaswnew</t>
+          <t>https://autosalon-kit.ru/auto/lada/vestaswcrossnew/vestaswcrossnew</t>
         </is>
       </c>
       <c r="N261" t="n">
-        <v>950000</v>
+        <v>1050000</v>
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/lada/vesta-sw-new</t>
-        </is>
-      </c>
-      <c r="P261" t="n">
-        <v>950000</v>
-      </c>
-      <c r="Q261" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/lada/vesta/i-res-wagon-sw-5/</t>
+          <t>https://primeauto-ekb.ru/new/lada/vesta-sw-cross-new</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>444</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -11359,30 +11333,56 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Vesta Sedan CNG</t>
+          <t>Vesta SW New</t>
         </is>
       </c>
       <c r="D262" t="n">
-        <v>790140</v>
+        <v>797940</v>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/lada/vesta/cng</t>
+          <t>https://autosalon-kit.ru/auto/lada/vestaswnew/vestaswnew</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>804600</t>
+        </is>
+      </c>
+      <c r="I262" t="inlineStr">
+        <is>
+          <t>https://new-auto96.ru/auto/lada/vesta_sw/</t>
         </is>
       </c>
       <c r="J262" t="n">
-        <v>790140</v>
+        <v>797940</v>
       </c>
       <c r="K262" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/lada/vesta/cng</t>
+          <t>https://autosalon-kit.ru/auto/lada/vestaswnew/vestaswnew</t>
+        </is>
+      </c>
+      <c r="N262" t="n">
+        <v>950000</v>
+      </c>
+      <c r="O262" t="inlineStr">
+        <is>
+          <t>https://primeauto-ekb.ru/new/lada/vesta-sw-new</t>
+        </is>
+      </c>
+      <c r="P262" t="n">
+        <v>950000</v>
+      </c>
+      <c r="Q262" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/lada/vesta/i-res-wagon-sw-5/</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>436</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -11392,56 +11392,30 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Vesta Sedan New</t>
+          <t>Vesta Sedan CNG</t>
         </is>
       </c>
       <c r="D263" t="n">
-        <v>630000</v>
+        <v>790140</v>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/vesta/</t>
-        </is>
-      </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>630000</t>
-        </is>
-      </c>
-      <c r="I263" t="inlineStr">
-        <is>
-          <t>https://new-auto96.ru/auto/lada/vesta/</t>
+          <t>https://autosalon-kit.ru/auto/lada/vesta/cng</t>
         </is>
       </c>
       <c r="J263" t="n">
-        <v>743940</v>
+        <v>790140</v>
       </c>
       <c r="K263" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/lada/Vesta-new/SEDAN</t>
-        </is>
-      </c>
-      <c r="N263" t="n">
-        <v>840000</v>
-      </c>
-      <c r="O263" t="inlineStr">
-        <is>
-          <t>https://primeauto-ekb.ru/new/lada/vesta-new</t>
-        </is>
-      </c>
-      <c r="P263" t="n">
-        <v>840000</v>
-      </c>
-      <c r="Q263" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/lada/vesta/i-res-sedan-4/</t>
+          <t>https://autosalon-kit.ru/auto/lada/vesta/cng</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>439</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -11451,38 +11425,56 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Vesta Sport</t>
+          <t>Vesta Sedan New</t>
         </is>
       </c>
       <c r="D264" t="n">
-        <v>958740</v>
+        <v>630000</v>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/lada/vesta/sport</t>
+          <t>https://new-auto96.ru/auto/lada/vesta/</t>
+        </is>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>630000</t>
+        </is>
+      </c>
+      <c r="I264" t="inlineStr">
+        <is>
+          <t>https://new-auto96.ru/auto/lada/vesta/</t>
         </is>
       </c>
       <c r="J264" t="n">
-        <v>958740</v>
+        <v>743940</v>
       </c>
       <c r="K264" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/lada/vesta/sport</t>
+          <t>https://autosalon-kit.ru/auto/lada/Vesta-new/SEDAN</t>
         </is>
       </c>
       <c r="N264" t="n">
-        <v>1030000</v>
+        <v>840000</v>
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/lada/vesta-sport</t>
+          <t>https://primeauto-ekb.ru/new/lada/vesta-new</t>
+        </is>
+      </c>
+      <c r="P264" t="n">
+        <v>840000</v>
+      </c>
+      <c r="Q264" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/lada/vesta/i-res-sedan-4/</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>440</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -11492,30 +11484,38 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Vesta Sportline</t>
+          <t>Vesta Sport</t>
         </is>
       </c>
       <c r="D265" t="n">
-        <v>2175900</v>
+        <v>958740</v>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/lada/vesta-sportline/sedan-1gen-rest</t>
+          <t>https://autosalon-kit.ru/auto/lada/vesta/sport</t>
         </is>
       </c>
       <c r="J265" t="n">
-        <v>2175900</v>
+        <v>958740</v>
       </c>
       <c r="K265" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/lada/vesta-sportline/sedan-1gen-rest</t>
+          <t>https://autosalon-kit.ru/auto/lada/vesta/sport</t>
+        </is>
+      </c>
+      <c r="N265" t="n">
+        <v>1030000</v>
+      </c>
+      <c r="O265" t="inlineStr">
+        <is>
+          <t>https://primeauto-ekb.ru/new/lada/vesta-sport</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>441</t>
+          <t>442</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -11525,30 +11525,30 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Vesta Sportline New</t>
+          <t>Vesta Sportline</t>
         </is>
       </c>
       <c r="D266" t="n">
-        <v>999000</v>
+        <v>2175900</v>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/lada/vesta/i-res-sedan-sportline-4/</t>
-        </is>
-      </c>
-      <c r="P266" t="n">
-        <v>999000</v>
-      </c>
-      <c r="Q266" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/lada/vesta/i-res-sedan-sportline-4/</t>
+          <t>https://autosalon-kit.ru/auto/lada/vesta-sportline/sedan-1gen-rest</t>
+        </is>
+      </c>
+      <c r="J266" t="n">
+        <v>2175900</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>https://autosalon-kit.ru/auto/lada/vesta-sportline/sedan-1gen-rest</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>441</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
@@ -11558,48 +11558,30 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Xray</t>
+          <t>Vesta Sportline New</t>
         </is>
       </c>
       <c r="D267" t="n">
-        <v>551340</v>
+        <v>999000</v>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/xray/</t>
-        </is>
-      </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>551340</t>
-        </is>
-      </c>
-      <c r="I267" t="inlineStr">
-        <is>
-          <t>https://new-auto96.ru/auto/lada/xray/</t>
-        </is>
-      </c>
-      <c r="J267" t="n">
-        <v>664140</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>https://autosalon-kit.ru/auto/lada/xray/suv</t>
-        </is>
-      </c>
-      <c r="N267" t="n">
-        <v>630000</v>
-      </c>
-      <c r="O267" t="inlineStr">
-        <is>
-          <t>https://primeauto-ekb.ru/new/lada/xray</t>
+          <t>https://atc-gagarin.ru/cars-new/lada/vesta/i-res-sedan-sportline-4/</t>
+        </is>
+      </c>
+      <c r="P267" t="n">
+        <v>999000</v>
+      </c>
+      <c r="Q267" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/lada/vesta/i-res-sedan-sportline-4/</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>447</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
@@ -11609,81 +11591,99 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Xray Cross</t>
+          <t>Xray</t>
         </is>
       </c>
       <c r="D268" t="n">
-        <v>635400</v>
+        <v>551340</v>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/xray_cross/</t>
+          <t>https://new-auto96.ru/auto/lada/xray/</t>
         </is>
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>635400</t>
+          <t>551340</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/lada/xray_cross/</t>
+          <t>https://new-auto96.ru/auto/lada/xray/</t>
         </is>
       </c>
       <c r="J268" t="n">
-        <v>749940</v>
+        <v>664140</v>
       </c>
       <c r="K268" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/lada/xray/xray-cross</t>
+          <t>https://autosalon-kit.ru/auto/lada/xray/suv</t>
         </is>
       </c>
       <c r="N268" t="n">
-        <v>680000</v>
+        <v>630000</v>
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/lada/xray-cross</t>
+          <t>https://primeauto-ekb.ru/new/lada/xray</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>456</t>
+          <t>448</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Lifan</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Murman (820)</t>
+          <t>Xray Cross</t>
         </is>
       </c>
       <c r="D269" t="n">
-        <v>650300</v>
+        <v>635400</v>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/lifan/murman/2015-2020-sedan-4/</t>
-        </is>
-      </c>
-      <c r="P269" t="n">
-        <v>650300</v>
-      </c>
-      <c r="Q269" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/lifan/murman/2015-2020-sedan-4/</t>
+          <t>https://new-auto96.ru/auto/lada/xray_cross/</t>
+        </is>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>635400</t>
+        </is>
+      </c>
+      <c r="I269" t="inlineStr">
+        <is>
+          <t>https://new-auto96.ru/auto/lada/xray_cross/</t>
+        </is>
+      </c>
+      <c r="J269" t="n">
+        <v>749940</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>https://autosalon-kit.ru/auto/lada/xray/xray-cross</t>
+        </is>
+      </c>
+      <c r="N269" t="n">
+        <v>680000</v>
+      </c>
+      <c r="O269" t="inlineStr">
+        <is>
+          <t>https://primeauto-ekb.ru/new/lada/xray-cross</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>457</t>
+          <t>456</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -11693,30 +11693,30 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>MyWay</t>
+          <t>Murman (820)</t>
         </is>
       </c>
       <c r="D270" t="n">
-        <v>701300</v>
+        <v>650300</v>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/lifan/myway/2016-2020-allroad-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/lifan/murman/2015-2020-sedan-4/</t>
         </is>
       </c>
       <c r="P270" t="n">
-        <v>701300</v>
+        <v>650300</v>
       </c>
       <c r="Q270" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/lifan/myway/2016-2020-allroad-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/lifan/murman/2015-2020-sedan-4/</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>458</t>
+          <t>457</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -11726,30 +11726,30 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Solano</t>
+          <t>MyWay</t>
         </is>
       </c>
       <c r="D271" t="n">
-        <v>401300</v>
+        <v>701300</v>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/lifan/solano/ii-sedan-4/</t>
+          <t>https://atc-gagarin.ru/cars-new/lifan/myway/2016-2020-allroad-5/</t>
         </is>
       </c>
       <c r="P271" t="n">
-        <v>401300</v>
+        <v>701300</v>
       </c>
       <c r="Q271" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/lifan/solano/ii-sedan-4/</t>
+          <t>https://atc-gagarin.ru/cars-new/lifan/myway/2016-2020-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>458</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
@@ -11759,30 +11759,30 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>X60</t>
+          <t>Solano</t>
         </is>
       </c>
       <c r="D272" t="n">
-        <v>491300</v>
+        <v>401300</v>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/lifan/x60/i-res2-allroad-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/lifan/solano/ii-sedan-4/</t>
         </is>
       </c>
       <c r="P272" t="n">
-        <v>491300</v>
+        <v>401300</v>
       </c>
       <c r="Q272" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/lifan/x60/i-res2-allroad-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/lifan/solano/ii-sedan-4/</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>463</t>
+          <t>461</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
@@ -11792,71 +11792,63 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>X70</t>
+          <t>X60</t>
         </is>
       </c>
       <c r="D273" t="n">
-        <v>770300</v>
+        <v>491300</v>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/lifan/x70/i-allroad-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/lifan/x60/i-res2-allroad-5/</t>
         </is>
       </c>
       <c r="P273" t="n">
-        <v>770300</v>
+        <v>491300</v>
       </c>
       <c r="Q273" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/lifan/x70/i-allroad-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/lifan/x60/i-res2-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>463</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>Lifan</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>S6 Pro</t>
+          <t>X70</t>
         </is>
       </c>
       <c r="D274" t="n">
-        <v>1549900</v>
+        <v>770300</v>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/livan/s6-pro/2023-sedan-4/</t>
-        </is>
-      </c>
-      <c r="N274" t="n">
-        <v>1780000</v>
-      </c>
-      <c r="O274" t="inlineStr">
-        <is>
-          <t>https://primeauto-ekb.ru/new/livan/s6-pro</t>
+          <t>https://atc-gagarin.ru/cars-new/lifan/x70/i-allroad-5/</t>
         </is>
       </c>
       <c r="P274" t="n">
-        <v>1549900</v>
+        <v>770300</v>
       </c>
       <c r="Q274" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/livan/s6-pro/2023-sedan-4/</t>
+          <t>https://atc-gagarin.ru/cars-new/lifan/x70/i-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>464</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
@@ -11866,38 +11858,38 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>S6 Pro</t>
         </is>
       </c>
       <c r="D275" t="n">
-        <v>1020000</v>
+        <v>1549900</v>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/livan/x3-pro/2022-allroad-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/livan/s6-pro/2023-sedan-4/</t>
         </is>
       </c>
       <c r="N275" t="n">
-        <v>1340000</v>
+        <v>1780000</v>
       </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/livan/x3-pro</t>
+          <t>https://primeauto-ekb.ru/new/livan/s6-pro</t>
         </is>
       </c>
       <c r="P275" t="n">
-        <v>1020000</v>
+        <v>1549900</v>
       </c>
       <c r="Q275" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/livan/x3-pro/2022-allroad-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/livan/s6-pro/2023-sedan-4/</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>466</t>
+          <t>465</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
@@ -11907,71 +11899,79 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>X6 Pro</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D276" t="n">
-        <v>1629900</v>
+        <v>1020000</v>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/livan/x6-pro/2023-allroad-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/livan/x3-pro/2022-allroad-5/</t>
         </is>
       </c>
       <c r="N276" t="n">
-        <v>1840000</v>
+        <v>1340000</v>
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/livan/x6-pro</t>
+          <t>https://primeauto-ekb.ru/new/livan/x3-pro</t>
         </is>
       </c>
       <c r="P276" t="n">
-        <v>1629900</v>
+        <v>1020000</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/livan/x6-pro/2023-allroad-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/livan/x3-pro/2022-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>492</t>
+          <t>466</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>X6 Pro</t>
         </is>
       </c>
       <c r="D277" t="n">
-        <v>2243000</v>
+        <v>1629900</v>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/mg/mg5/ii-sedan-4/</t>
+          <t>https://atc-gagarin.ru/cars-new/livan/x6-pro/2023-allroad-5/</t>
+        </is>
+      </c>
+      <c r="N277" t="n">
+        <v>1840000</v>
+      </c>
+      <c r="O277" t="inlineStr">
+        <is>
+          <t>https://primeauto-ekb.ru/new/livan/x6-pro</t>
         </is>
       </c>
       <c r="P277" t="n">
-        <v>2243000</v>
+        <v>1629900</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/mg/mg5/ii-sedan-4/</t>
+          <t>https://atc-gagarin.ru/cars-new/livan/x6-pro/2023-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>808</t>
+          <t>492</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
@@ -11981,30 +11981,30 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>5 New</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D278" t="n">
-        <v>1490000</v>
+        <v>2243000</v>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/mg/5</t>
-        </is>
-      </c>
-      <c r="N278" t="n">
-        <v>1490000</v>
-      </c>
-      <c r="O278" t="inlineStr">
-        <is>
-          <t>https://primeauto-ekb.ru/new/mg/5</t>
+          <t>https://atc-gagarin.ru/cars-new/mg/mg5/ii-sedan-4/</t>
+        </is>
+      </c>
+      <c r="P278" t="n">
+        <v>2243000</v>
+      </c>
+      <c r="Q278" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/mg/mg5/ii-sedan-4/</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>493</t>
+          <t>808</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -12014,38 +12014,30 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5 New</t>
         </is>
       </c>
       <c r="D279" t="n">
-        <v>1060000</v>
+        <v>1490000</v>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/mg/mg6/ii-res-liftback-5/</t>
+          <t>https://primeauto-ekb.ru/new/mg/5</t>
         </is>
       </c>
       <c r="N279" t="n">
-        <v>1520000</v>
+        <v>1490000</v>
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/mg/6</t>
-        </is>
-      </c>
-      <c r="P279" t="n">
-        <v>1060000</v>
-      </c>
-      <c r="Q279" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/mg/mg6/ii-res-liftback-5/</t>
+          <t>https://primeauto-ekb.ru/new/mg/5</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>493</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -12055,38 +12047,38 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>HS</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D280" t="n">
-        <v>1580000</v>
+        <v>1060000</v>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/mg/hs/i-allroad-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/mg/mg6/ii-res-liftback-5/</t>
         </is>
       </c>
       <c r="N280" t="n">
-        <v>2190000</v>
+        <v>1520000</v>
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/mg/hs</t>
+          <t>https://primeauto-ekb.ru/new/mg/6</t>
         </is>
       </c>
       <c r="P280" t="n">
-        <v>1580000</v>
+        <v>1060000</v>
       </c>
       <c r="Q280" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/mg/hs/i-allroad-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/mg/mg6/ii-res-liftback-5/</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>495</t>
+          <t>494</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
@@ -12096,79 +12088,79 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>ZS</t>
+          <t>HS</t>
         </is>
       </c>
       <c r="D281" t="n">
-        <v>1290000</v>
+        <v>1580000</v>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/mg/zs/ii-res-allroad-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/mg/hs/i-allroad-5/</t>
         </is>
       </c>
       <c r="N281" t="n">
-        <v>1650000</v>
+        <v>2190000</v>
       </c>
       <c r="O281" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/mg/zs</t>
+          <t>https://primeauto-ekb.ru/new/mg/hs</t>
         </is>
       </c>
       <c r="P281" t="n">
-        <v>1290000</v>
+        <v>1580000</v>
       </c>
       <c r="Q281" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/mg/zs/ii-res-allroad-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/mg/hs/i-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>474</t>
+          <t>495</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Mazda</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>ZS</t>
         </is>
       </c>
       <c r="D282" t="n">
-        <v>1160000</v>
+        <v>1290000</v>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/mazda/3/iv-sedan-4/</t>
+          <t>https://atc-gagarin.ru/cars-new/mg/zs/ii-res-allroad-5/</t>
         </is>
       </c>
       <c r="N282" t="n">
-        <v>1160000</v>
+        <v>1650000</v>
       </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/mazda/3</t>
+          <t>https://primeauto-ekb.ru/new/mg/zs</t>
         </is>
       </c>
       <c r="P282" t="n">
-        <v>1160000</v>
+        <v>1290000</v>
       </c>
       <c r="Q282" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/mazda/3/iv-sedan-4/</t>
+          <t>https://atc-gagarin.ru/cars-new/mg/zs/ii-res-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>483</t>
+          <t>474</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -12178,38 +12170,38 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D283" t="n">
-        <v>1430000</v>
+        <v>1160000</v>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/mazda/6/iii-res-sedan-4/</t>
+          <t>https://atc-gagarin.ru/cars-new/mazda/3/iv-sedan-4/</t>
         </is>
       </c>
       <c r="N283" t="n">
-        <v>1430000</v>
+        <v>1160000</v>
       </c>
       <c r="O283" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/mazda/6</t>
+          <t>https://primeauto-ekb.ru/new/mazda/3</t>
         </is>
       </c>
       <c r="P283" t="n">
-        <v>1430000</v>
+        <v>1160000</v>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/mazda/6/iii-res-sedan-4/</t>
+          <t>https://atc-gagarin.ru/cars-new/mazda/3/iv-sedan-4/</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>477</t>
+          <t>483</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -12219,30 +12211,38 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>CX-30</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D284" t="n">
-        <v>1400000</v>
+        <v>1430000</v>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/mazda/cx-30/i-allroad-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/mazda/6/iii-res-sedan-4/</t>
+        </is>
+      </c>
+      <c r="N284" t="n">
+        <v>1430000</v>
+      </c>
+      <c r="O284" t="inlineStr">
+        <is>
+          <t>https://primeauto-ekb.ru/new/mazda/6</t>
         </is>
       </c>
       <c r="P284" t="n">
-        <v>1400000</v>
+        <v>1430000</v>
       </c>
       <c r="Q284" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/mazda/cx-30/i-allroad-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/mazda/6/iii-res-sedan-4/</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>485</t>
+          <t>477</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
@@ -12252,38 +12252,30 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>CX-4</t>
+          <t>CX-30</t>
         </is>
       </c>
       <c r="D285" t="n">
-        <v>1670000</v>
+        <v>1400000</v>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/mazda/cx-4/i-res-allroad-5/</t>
-        </is>
-      </c>
-      <c r="N285" t="n">
-        <v>1670000</v>
-      </c>
-      <c r="O285" t="inlineStr">
-        <is>
-          <t>https://primeauto-ekb.ru/new/mazda/cx-4</t>
+          <t>https://atc-gagarin.ru/cars-new/mazda/cx-30/i-allroad-5/</t>
         </is>
       </c>
       <c r="P285" t="n">
-        <v>1670000</v>
+        <v>1400000</v>
       </c>
       <c r="Q285" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/mazda/cx-4/i-res-allroad-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/mazda/cx-30/i-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>485</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
@@ -12293,38 +12285,38 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>CX-5</t>
+          <t>CX-4</t>
         </is>
       </c>
       <c r="D286" t="n">
-        <v>1600000</v>
+        <v>1670000</v>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/mazda/cx-5</t>
+          <t>https://atc-gagarin.ru/cars-new/mazda/cx-4/i-res-allroad-5/</t>
         </is>
       </c>
       <c r="N286" t="n">
-        <v>1600000</v>
+        <v>1670000</v>
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/mazda/cx-5</t>
+          <t>https://primeauto-ekb.ru/new/mazda/cx-4</t>
         </is>
       </c>
       <c r="P286" t="n">
-        <v>1606300</v>
+        <v>1670000</v>
       </c>
       <c r="Q286" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/mazda/cx-5/ii-allroad-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/mazda/cx-4/i-res-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>478</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
@@ -12334,30 +12326,38 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>CX-60</t>
+          <t>CX-5</t>
         </is>
       </c>
       <c r="D287" t="n">
-        <v>3570000</v>
+        <v>1600000</v>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/mazda/cx-60</t>
+          <t>https://primeauto-ekb.ru/new/mazda/cx-5</t>
         </is>
       </c>
       <c r="N287" t="n">
-        <v>3570000</v>
+        <v>1600000</v>
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/mazda/cx-60</t>
+          <t>https://primeauto-ekb.ru/new/mazda/cx-5</t>
+        </is>
+      </c>
+      <c r="P287" t="n">
+        <v>1606300</v>
+      </c>
+      <c r="Q287" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/mazda/cx-5/ii-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>479</t>
+          <t>487</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
@@ -12367,30 +12367,30 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>CX-9</t>
+          <t>CX-60</t>
         </is>
       </c>
       <c r="D288" t="n">
-        <v>2920000</v>
+        <v>3570000</v>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/mazda/cx-9</t>
+          <t>https://primeauto-ekb.ru/new/mazda/cx-60</t>
         </is>
       </c>
       <c r="N288" t="n">
-        <v>2920000</v>
+        <v>3570000</v>
       </c>
       <c r="O288" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/mazda/cx-9</t>
+          <t>https://primeauto-ekb.ru/new/mazda/cx-60</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>479</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -12400,63 +12400,63 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>CX-9 Restyling</t>
+          <t>CX-9</t>
         </is>
       </c>
       <c r="D289" t="n">
-        <v>2922100</v>
+        <v>2920000</v>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/mazda/cx-9/ii-res-allroad-5/</t>
-        </is>
-      </c>
-      <c r="P289" t="n">
-        <v>2922100</v>
-      </c>
-      <c r="Q289" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/mazda/cx-9/ii-res-allroad-5/</t>
+          <t>https://primeauto-ekb.ru/new/mazda/cx-9</t>
+        </is>
+      </c>
+      <c r="N289" t="n">
+        <v>2920000</v>
+      </c>
+      <c r="O289" t="inlineStr">
+        <is>
+          <t>https://primeauto-ekb.ru/new/mazda/cx-9</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>685</t>
+          <t>480</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Mitsubishi</t>
+          <t>Mazda</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>ASX</t>
+          <t>CX-9 Restyling</t>
         </is>
       </c>
       <c r="D290" t="n">
-        <v>910000</v>
+        <v>2922100</v>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/mitsubishi/asx</t>
-        </is>
-      </c>
-      <c r="N290" t="n">
-        <v>910000</v>
-      </c>
-      <c r="O290" t="inlineStr">
-        <is>
-          <t>https://primeauto-ekb.ru/new/mitsubishi/asx</t>
+          <t>https://atc-gagarin.ru/cars-new/mazda/cx-9/ii-res-allroad-5/</t>
+        </is>
+      </c>
+      <c r="P290" t="n">
+        <v>2922100</v>
+      </c>
+      <c r="Q290" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/mazda/cx-9/ii-res-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>496</t>
+          <t>685</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
@@ -12466,30 +12466,30 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>ASX New</t>
+          <t>ASX</t>
         </is>
       </c>
       <c r="D291" t="n">
-        <v>1340000</v>
+        <v>910000</v>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/mitsubishi/asx-new</t>
+          <t>https://primeauto-ekb.ru/new/mitsubishi/asx</t>
         </is>
       </c>
       <c r="N291" t="n">
-        <v>1340000</v>
+        <v>910000</v>
       </c>
       <c r="O291" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/mitsubishi/asx-new</t>
+          <t>https://primeauto-ekb.ru/new/mitsubishi/asx</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>497</t>
+          <t>496</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -12499,30 +12499,30 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>ASX Restyling 3</t>
+          <t>ASX New</t>
         </is>
       </c>
       <c r="D292" t="n">
-        <v>1372000</v>
+        <v>1340000</v>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/mitsubishi/asx/i-res3-allroad-5/</t>
-        </is>
-      </c>
-      <c r="P292" t="n">
-        <v>1372000</v>
-      </c>
-      <c r="Q292" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/mitsubishi/asx/i-res3-allroad-5/</t>
+          <t>https://primeauto-ekb.ru/new/mitsubishi/asx-new</t>
+        </is>
+      </c>
+      <c r="N292" t="n">
+        <v>1340000</v>
+      </c>
+      <c r="O292" t="inlineStr">
+        <is>
+          <t>https://primeauto-ekb.ru/new/mitsubishi/asx-new</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>498</t>
+          <t>497</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
@@ -12532,30 +12532,30 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>Eclipse Cross</t>
+          <t>ASX Restyling 3</t>
         </is>
       </c>
       <c r="D293" t="n">
-        <v>1450000</v>
+        <v>1372000</v>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/mitsubishi/eclipse-cross/i-res-allroad-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/mitsubishi/asx/i-res3-allroad-5/</t>
         </is>
       </c>
       <c r="P293" t="n">
-        <v>1450000</v>
+        <v>1372000</v>
       </c>
       <c r="Q293" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/mitsubishi/eclipse-cross/i-res-allroad-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/mitsubishi/asx/i-res3-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>499</t>
+          <t>498</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
@@ -12565,30 +12565,30 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>Eclipse Cross New</t>
+          <t>Eclipse Cross</t>
         </is>
       </c>
       <c r="D294" t="n">
-        <v>2010000</v>
+        <v>1450000</v>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/mitsubishi/eclipse-cross-new</t>
-        </is>
-      </c>
-      <c r="N294" t="n">
-        <v>2010000</v>
-      </c>
-      <c r="O294" t="inlineStr">
-        <is>
-          <t>https://primeauto-ekb.ru/new/mitsubishi/eclipse-cross-new</t>
+          <t>https://atc-gagarin.ru/cars-new/mitsubishi/eclipse-cross/i-res-allroad-5/</t>
+        </is>
+      </c>
+      <c r="P294" t="n">
+        <v>1450000</v>
+      </c>
+      <c r="Q294" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/mitsubishi/eclipse-cross/i-res-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>501</t>
+          <t>499</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
@@ -12598,30 +12598,30 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>L200 New</t>
+          <t>Eclipse Cross New</t>
         </is>
       </c>
       <c r="D295" t="n">
-        <v>2450000</v>
+        <v>2010000</v>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/mitsubishi/l200-new</t>
+          <t>https://primeauto-ekb.ru/new/mitsubishi/eclipse-cross-new</t>
         </is>
       </c>
       <c r="N295" t="n">
-        <v>2450000</v>
+        <v>2010000</v>
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/mitsubishi/l200-new</t>
+          <t>https://primeauto-ekb.ru/new/mitsubishi/eclipse-cross-new</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>501</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -12631,30 +12631,30 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>Montero Sport</t>
+          <t>L200 New</t>
         </is>
       </c>
       <c r="D296" t="n">
-        <v>3300000</v>
+        <v>2450000</v>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/mitsubishi/montero-sport/iii-res-allroad-5/</t>
-        </is>
-      </c>
-      <c r="P296" t="n">
-        <v>3300000</v>
-      </c>
-      <c r="Q296" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/mitsubishi/montero-sport/iii-res-allroad-5/</t>
+          <t>https://primeauto-ekb.ru/new/mitsubishi/l200-new</t>
+        </is>
+      </c>
+      <c r="N296" t="n">
+        <v>2450000</v>
+      </c>
+      <c r="O296" t="inlineStr">
+        <is>
+          <t>https://primeauto-ekb.ru/new/mitsubishi/l200-new</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>808</t>
+          <t>500</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
@@ -12664,30 +12664,30 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>Montero Sport New</t>
+          <t>Montero Sport</t>
         </is>
       </c>
       <c r="D297" t="n">
-        <v>2620000</v>
+        <v>3300000</v>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/mitsubishi/montero-sport-new</t>
-        </is>
-      </c>
-      <c r="N297" t="n">
-        <v>2620000</v>
-      </c>
-      <c r="O297" t="inlineStr">
-        <is>
-          <t>https://primeauto-ekb.ru/new/mitsubishi/montero-sport-new</t>
+          <t>https://atc-gagarin.ru/cars-new/mitsubishi/montero-sport/iii-res-allroad-5/</t>
+        </is>
+      </c>
+      <c r="P297" t="n">
+        <v>3300000</v>
+      </c>
+      <c r="Q297" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/mitsubishi/montero-sport/iii-res-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>502</t>
+          <t>808</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -12697,38 +12697,30 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>Outlander</t>
+          <t>Montero Sport New</t>
         </is>
       </c>
       <c r="D298" t="n">
-        <v>1251400</v>
+        <v>2620000</v>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/mitsubishi/outlander/iii-res3-allroad-5/</t>
+          <t>https://primeauto-ekb.ru/new/mitsubishi/montero-sport-new</t>
         </is>
       </c>
       <c r="N298" t="n">
-        <v>1500000</v>
+        <v>2620000</v>
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/mitsubishi/outlander-new</t>
-        </is>
-      </c>
-      <c r="P298" t="n">
-        <v>1251400</v>
-      </c>
-      <c r="Q298" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/mitsubishi/outlander/iii-res3-allroad-5/</t>
+          <t>https://primeauto-ekb.ru/new/mitsubishi/montero-sport-new</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>503</t>
+          <t>502</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -12738,38 +12730,38 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>Outlander New</t>
+          <t>Outlander</t>
         </is>
       </c>
       <c r="D299" t="n">
-        <v>2070000</v>
+        <v>1251400</v>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/mitsubishi/outlander/iv-allroad-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/mitsubishi/outlander/iii-res3-allroad-5/</t>
         </is>
       </c>
       <c r="N299" t="n">
-        <v>2240000</v>
+        <v>1500000</v>
       </c>
       <c r="O299" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/mitsubishi/outlander</t>
+          <t>https://primeauto-ekb.ru/new/mitsubishi/outlander-new</t>
         </is>
       </c>
       <c r="P299" t="n">
-        <v>2070000</v>
+        <v>1251400</v>
       </c>
       <c r="Q299" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/mitsubishi/outlander/iv-allroad-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/mitsubishi/outlander/iii-res3-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>506</t>
+          <t>503</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
@@ -12779,30 +12771,38 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>Pajero Sport</t>
+          <t>Outlander New</t>
         </is>
       </c>
       <c r="D300" t="n">
-        <v>2479000</v>
+        <v>2070000</v>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/mitsubishi/pajero-sport/iii-allroad-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/mitsubishi/outlander/iv-allroad-5/</t>
+        </is>
+      </c>
+      <c r="N300" t="n">
+        <v>2240000</v>
+      </c>
+      <c r="O300" t="inlineStr">
+        <is>
+          <t>https://primeauto-ekb.ru/new/mitsubishi/outlander</t>
         </is>
       </c>
       <c r="P300" t="n">
-        <v>2479000</v>
+        <v>2070000</v>
       </c>
       <c r="Q300" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/mitsubishi/pajero-sport/iii-allroad-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/mitsubishi/outlander/iv-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>507</t>
+          <t>506</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
@@ -12812,30 +12812,30 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>Pajero Sport New</t>
+          <t>Pajero Sport</t>
         </is>
       </c>
       <c r="D301" t="n">
-        <v>2600000</v>
+        <v>2479000</v>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/mitsubishi/pajero-sport-new</t>
-        </is>
-      </c>
-      <c r="N301" t="n">
-        <v>2600000</v>
-      </c>
-      <c r="O301" t="inlineStr">
-        <is>
-          <t>https://primeauto-ekb.ru/new/mitsubishi/pajero-sport-new</t>
+          <t>https://atc-gagarin.ru/cars-new/mitsubishi/pajero-sport/iii-allroad-5/</t>
+        </is>
+      </c>
+      <c r="P301" t="n">
+        <v>2479000</v>
+      </c>
+      <c r="Q301" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/mitsubishi/pajero-sport/iii-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>508</t>
+          <t>507</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
@@ -12845,81 +12845,63 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>Xpander</t>
+          <t>Pajero Sport New</t>
         </is>
       </c>
       <c r="D302" t="n">
-        <v>1450000</v>
+        <v>2600000</v>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/mitsubishi/xpander</t>
+          <t>https://primeauto-ekb.ru/new/mitsubishi/pajero-sport-new</t>
         </is>
       </c>
       <c r="N302" t="n">
-        <v>1450000</v>
+        <v>2600000</v>
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/mitsubishi/xpander</t>
+          <t>https://primeauto-ekb.ru/new/mitsubishi/pajero-sport-new</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>508</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>Mitsubishi</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>Xpander</t>
         </is>
       </c>
       <c r="D303" t="n">
-        <v>1014000</v>
+        <v>1450000</v>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/moskvich/3/</t>
-        </is>
-      </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>1014000</t>
-        </is>
-      </c>
-      <c r="I303" t="inlineStr">
-        <is>
-          <t>https://new-auto96.ru/auto/moskvich/3/</t>
+          <t>https://primeauto-ekb.ru/new/mitsubishi/xpander</t>
         </is>
       </c>
       <c r="N303" t="n">
-        <v>1200000</v>
+        <v>1450000</v>
       </c>
       <c r="O303" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/moskvich/3</t>
-        </is>
-      </c>
-      <c r="P303" t="n">
-        <v>1202100</v>
-      </c>
-      <c r="Q303" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/moscvich/3/2022-allroad-5/</t>
+          <t>https://primeauto-ekb.ru/new/mitsubishi/xpander</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>510</t>
+          <t>509</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
@@ -12929,38 +12911,48 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>3e</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D304" t="n">
-        <v>1750000</v>
+        <v>1014000</v>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/moskvich/3e</t>
-        </is>
-      </c>
-      <c r="J304" t="n">
-        <v>3025000</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>https://autosalon-kit.ru/auto/moskvich/3e/suv-1gen</t>
+          <t>https://new-auto96.ru/auto/moskvich/3/</t>
+        </is>
+      </c>
+      <c r="H304" t="inlineStr">
+        <is>
+          <t>1014000</t>
+        </is>
+      </c>
+      <c r="I304" t="inlineStr">
+        <is>
+          <t>https://new-auto96.ru/auto/moskvich/3/</t>
         </is>
       </c>
       <c r="N304" t="n">
-        <v>1750000</v>
+        <v>1200000</v>
       </c>
       <c r="O304" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/moskvich/3e</t>
+          <t>https://primeauto-ekb.ru/new/moskvich/3</t>
+        </is>
+      </c>
+      <c r="P304" t="n">
+        <v>1202100</v>
+      </c>
+      <c r="Q304" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/moscvich/3/2022-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>510</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
@@ -12970,89 +12962,97 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3e</t>
         </is>
       </c>
       <c r="D305" t="n">
-        <v>1136000</v>
+        <v>1750000</v>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/moscvich/6/2023-liftback-5/</t>
-        </is>
-      </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>1320000</t>
-        </is>
-      </c>
-      <c r="I305" t="inlineStr">
-        <is>
-          <t>https://new-auto96.ru/auto/moskvich/6/</t>
+          <t>https://primeauto-ekb.ru/new/moskvich/3e</t>
         </is>
       </c>
       <c r="J305" t="n">
-        <v>2136000</v>
+        <v>3025000</v>
       </c>
       <c r="K305" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/moskvich/moskvich6/liftback-1gen</t>
+          <t>https://autosalon-kit.ru/auto/moskvich/3e/suv-1gen</t>
         </is>
       </c>
       <c r="N305" t="n">
-        <v>1430000</v>
+        <v>1750000</v>
       </c>
       <c r="O305" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/moskvich/6</t>
-        </is>
-      </c>
-      <c r="P305" t="n">
-        <v>1136000</v>
-      </c>
-      <c r="Q305" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/moscvich/6/2023-liftback-5/</t>
+          <t>https://primeauto-ekb.ru/new/moskvich/3e</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>809</t>
+          <t>511</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>Almera</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D306" t="n">
-        <v>470000</v>
+        <v>1136000</v>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/nissan/almera</t>
+          <t>https://atc-gagarin.ru/cars-new/moscvich/6/2023-liftback-5/</t>
+        </is>
+      </c>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>1320000</t>
+        </is>
+      </c>
+      <c r="I306" t="inlineStr">
+        <is>
+          <t>https://new-auto96.ru/auto/moskvich/6/</t>
+        </is>
+      </c>
+      <c r="J306" t="n">
+        <v>2136000</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>https://autosalon-kit.ru/auto/moskvich/moskvich6/liftback-1gen</t>
         </is>
       </c>
       <c r="N306" t="n">
-        <v>470000</v>
+        <v>1430000</v>
       </c>
       <c r="O306" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/nissan/almera</t>
+          <t>https://primeauto-ekb.ru/new/moskvich/6</t>
+        </is>
+      </c>
+      <c r="P306" t="n">
+        <v>1136000</v>
+      </c>
+      <c r="Q306" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/moscvich/6/2023-liftback-5/</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>517</t>
+          <t>809</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
@@ -13062,46 +13062,30 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>Murano</t>
+          <t>Almera</t>
         </is>
       </c>
       <c r="D307" t="n">
-        <v>1379400</v>
+        <v>470000</v>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/nissan/murano/suv</t>
-        </is>
-      </c>
-      <c r="J307" t="n">
-        <v>1379400</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>https://autosalon-kit.ru/auto/nissan/murano/suv</t>
+          <t>https://primeauto-ekb.ru/new/nissan/almera</t>
         </is>
       </c>
       <c r="N307" t="n">
-        <v>2570000</v>
+        <v>470000</v>
       </c>
       <c r="O307" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/nissan/murano</t>
-        </is>
-      </c>
-      <c r="P307" t="n">
-        <v>2299000</v>
-      </c>
-      <c r="Q307" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/nissan/murano/iii-allroad-5/</t>
+          <t>https://primeauto-ekb.ru/new/nissan/almera</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>514</t>
+          <t>517</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
@@ -13111,38 +13095,46 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>Pathfinder</t>
+          <t>Murano</t>
         </is>
       </c>
       <c r="D308" t="n">
-        <v>4000000</v>
+        <v>1379400</v>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/nissan/pathfinder/v-allroad-5/</t>
+          <t>https://autosalon-kit.ru/auto/nissan/murano/suv</t>
+        </is>
+      </c>
+      <c r="J308" t="n">
+        <v>1379400</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>https://autosalon-kit.ru/auto/nissan/murano/suv</t>
         </is>
       </c>
       <c r="N308" t="n">
-        <v>4000000</v>
+        <v>2570000</v>
       </c>
       <c r="O308" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/nissan/pathfinder</t>
+          <t>https://primeauto-ekb.ru/new/nissan/murano</t>
         </is>
       </c>
       <c r="P308" t="n">
-        <v>4000000</v>
+        <v>2299000</v>
       </c>
       <c r="Q308" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/nissan/pathfinder/v-allroad-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/nissan/murano/iii-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>514</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
@@ -13152,56 +13144,38 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>Qashqai</t>
+          <t>Pathfinder</t>
         </is>
       </c>
       <c r="D309" t="n">
-        <v>1300000</v>
+        <v>4000000</v>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/nissan/qashqai</t>
-        </is>
-      </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>1300000</t>
-        </is>
-      </c>
-      <c r="I309" t="inlineStr">
-        <is>
-          <t>https://new-auto96.ru/auto/nissan/qashqai/</t>
-        </is>
-      </c>
-      <c r="J309" t="n">
-        <v>1402200</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>https://autosalon-kit.ru/auto/nissan/new-qashqai/2019</t>
+          <t>https://atc-gagarin.ru/cars-new/nissan/pathfinder/v-allroad-5/</t>
         </is>
       </c>
       <c r="N309" t="n">
-        <v>1300000</v>
+        <v>4000000</v>
       </c>
       <c r="O309" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/nissan/qashqai</t>
+          <t>https://primeauto-ekb.ru/new/nissan/pathfinder</t>
         </is>
       </c>
       <c r="P309" t="n">
-        <v>1300300</v>
+        <v>4000000</v>
       </c>
       <c r="Q309" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/nissan/qashqai/ii-res-allroad-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/nissan/pathfinder/v-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>521</t>
+          <t>520</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
@@ -13211,30 +13185,56 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>Qashqai New</t>
+          <t>Qashqai</t>
         </is>
       </c>
       <c r="D310" t="n">
-        <v>1600300</v>
+        <v>1300000</v>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/nissan/qashqai/iii-allroad-5/</t>
+          <t>https://primeauto-ekb.ru/new/nissan/qashqai</t>
+        </is>
+      </c>
+      <c r="H310" t="inlineStr">
+        <is>
+          <t>1300000</t>
+        </is>
+      </c>
+      <c r="I310" t="inlineStr">
+        <is>
+          <t>https://new-auto96.ru/auto/nissan/qashqai/</t>
+        </is>
+      </c>
+      <c r="J310" t="n">
+        <v>1402200</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>https://autosalon-kit.ru/auto/nissan/new-qashqai/2019</t>
+        </is>
+      </c>
+      <c r="N310" t="n">
+        <v>1300000</v>
+      </c>
+      <c r="O310" t="inlineStr">
+        <is>
+          <t>https://primeauto-ekb.ru/new/nissan/qashqai</t>
         </is>
       </c>
       <c r="P310" t="n">
-        <v>1600300</v>
+        <v>1300300</v>
       </c>
       <c r="Q310" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/nissan/qashqai/iii-allroad-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/nissan/qashqai/ii-res-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>522</t>
+          <t>521</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
@@ -13244,46 +13244,30 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>Terrano</t>
+          <t>Qashqai New</t>
         </is>
       </c>
       <c r="D311" t="n">
-        <v>890000</v>
+        <v>1600300</v>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/nissan/terrano</t>
-        </is>
-      </c>
-      <c r="J311" t="n">
-        <v>1014000</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>https://autosalon-kit.ru/auto/nissan/terrano-2020/suv</t>
-        </is>
-      </c>
-      <c r="N311" t="n">
-        <v>890000</v>
-      </c>
-      <c r="O311" t="inlineStr">
-        <is>
-          <t>https://primeauto-ekb.ru/new/nissan/terrano</t>
+          <t>https://atc-gagarin.ru/cars-new/nissan/qashqai/iii-allroad-5/</t>
         </is>
       </c>
       <c r="P311" t="n">
-        <v>899000</v>
+        <v>1600300</v>
       </c>
       <c r="Q311" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/nissan/terrano/iii-allroad-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/nissan/qashqai/iii-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>523</t>
+          <t>522</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -13293,56 +13277,46 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>X-trail</t>
+          <t>Terrano</t>
         </is>
       </c>
       <c r="D312" t="n">
-        <v>1530000</v>
+        <v>890000</v>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/nissan/x-trail</t>
-        </is>
-      </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>1530000</t>
-        </is>
-      </c>
-      <c r="I312" t="inlineStr">
-        <is>
-          <t>https://new-auto96.ru/auto/nissan/x-trail/</t>
+          <t>https://primeauto-ekb.ru/new/nissan/terrano</t>
         </is>
       </c>
       <c r="J312" t="n">
-        <v>1657200</v>
+        <v>1014000</v>
       </c>
       <c r="K312" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/nissan/newxtrail/newxtrail</t>
+          <t>https://autosalon-kit.ru/auto/nissan/terrano-2020/suv</t>
         </is>
       </c>
       <c r="N312" t="n">
-        <v>1530000</v>
+        <v>890000</v>
       </c>
       <c r="O312" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/nissan/x-trail</t>
+          <t>https://primeauto-ekb.ru/new/nissan/terrano</t>
         </is>
       </c>
       <c r="P312" t="n">
-        <v>1530100</v>
+        <v>899000</v>
       </c>
       <c r="Q312" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/nissan/x-trail/iii-res-allroad-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/nissan/terrano/iii-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>524</t>
+          <t>523</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
@@ -13352,105 +13326,105 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>X-trail New</t>
+          <t>X-trail</t>
         </is>
       </c>
       <c r="D313" t="n">
-        <v>1830000</v>
+        <v>1530000</v>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/nissan/x-trail/iv-allroad-5/</t>
+          <t>https://primeauto-ekb.ru/new/nissan/x-trail</t>
+        </is>
+      </c>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>1530000</t>
+        </is>
+      </c>
+      <c r="I313" t="inlineStr">
+        <is>
+          <t>https://new-auto96.ru/auto/nissan/x-trail/</t>
         </is>
       </c>
       <c r="J313" t="n">
-        <v>3670000</v>
+        <v>1657200</v>
       </c>
       <c r="K313" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/nissan/newxtrail/suv-4gen</t>
+          <t>https://autosalon-kit.ru/auto/nissan/newxtrail/newxtrail</t>
         </is>
       </c>
       <c r="N313" t="n">
-        <v>2850000</v>
+        <v>1530000</v>
       </c>
       <c r="O313" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/nissan/x-trail-new</t>
+          <t>https://primeauto-ekb.ru/new/nissan/x-trail</t>
         </is>
       </c>
       <c r="P313" t="n">
-        <v>1830000</v>
+        <v>1530100</v>
       </c>
       <c r="Q313" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/nissan/x-trail/iv-allroad-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/nissan/x-trail/iii-res-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>524</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>C5</t>
+          <t>X-trail New</t>
         </is>
       </c>
       <c r="D314" t="n">
-        <v>979900</v>
+        <v>1830000</v>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/omoda/c5/cuv</t>
-        </is>
-      </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>1260000</t>
-        </is>
-      </c>
-      <c r="I314" t="inlineStr">
-        <is>
-          <t>https://new-auto96.ru/auto/omoda/c5/</t>
+          <t>https://atc-gagarin.ru/cars-new/nissan/x-trail/iv-allroad-5/</t>
         </is>
       </c>
       <c r="J314" t="n">
-        <v>979900</v>
+        <v>3670000</v>
       </c>
       <c r="K314" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/omoda/c5/cuv</t>
+          <t>https://autosalon-kit.ru/auto/nissan/newxtrail/suv-4gen</t>
         </is>
       </c>
       <c r="N314" t="n">
-        <v>1360000</v>
+        <v>2850000</v>
       </c>
       <c r="O314" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/omoda/c5</t>
+          <t>https://primeauto-ekb.ru/new/nissan/x-trail-new</t>
         </is>
       </c>
       <c r="P314" t="n">
-        <v>1365900</v>
+        <v>1830000</v>
       </c>
       <c r="Q314" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/omoda/c5/2022-allroad-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/nissan/x-trail/iv-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>525</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
@@ -13460,7 +13434,7 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>C5</t>
         </is>
       </c>
       <c r="D315" t="n">
@@ -13468,48 +13442,48 @@
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/omoda/s5/</t>
+          <t>https://autosalon-kit.ru/auto/omoda/c5/cuv</t>
         </is>
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>979900</t>
+          <t>1260000</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/omoda/s5/</t>
+          <t>https://new-auto96.ru/auto/omoda/c5/</t>
         </is>
       </c>
       <c r="J315" t="n">
-        <v>1299900</v>
+        <v>979900</v>
       </c>
       <c r="K315" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/omoda/s5_/SEDAN</t>
+          <t>https://autosalon-kit.ru/auto/omoda/c5/cuv</t>
         </is>
       </c>
       <c r="N315" t="n">
-        <v>1260000</v>
+        <v>1360000</v>
       </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/omoda/s5</t>
+          <t>https://primeauto-ekb.ru/new/omoda/c5</t>
         </is>
       </c>
       <c r="P315" t="n">
-        <v>1263900</v>
+        <v>1365900</v>
       </c>
       <c r="Q315" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/omoda/s5/2022-sedan-4/</t>
+          <t>https://atc-gagarin.ru/cars-new/omoda/c5/2022-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>526</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
@@ -13519,71 +13493,97 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>S5 GT</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="D316" t="n">
-        <v>1750000</v>
+        <v>979900</v>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/omoda/s5-gt</t>
+          <t>https://new-auto96.ru/auto/omoda/s5/</t>
+        </is>
+      </c>
+      <c r="H316" t="inlineStr">
+        <is>
+          <t>979900</t>
+        </is>
+      </c>
+      <c r="I316" t="inlineStr">
+        <is>
+          <t>https://new-auto96.ru/auto/omoda/s5/</t>
+        </is>
+      </c>
+      <c r="J316" t="n">
+        <v>1299900</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>https://autosalon-kit.ru/auto/omoda/s5_/SEDAN</t>
         </is>
       </c>
       <c r="N316" t="n">
-        <v>1750000</v>
+        <v>1260000</v>
       </c>
       <c r="O316" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/omoda/s5-gt</t>
+          <t>https://primeauto-ekb.ru/new/omoda/s5</t>
         </is>
       </c>
       <c r="P316" t="n">
-        <v>1755000</v>
+        <v>1263900</v>
       </c>
       <c r="Q316" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/omoda/s5-gt/2023-sedan-4/</t>
+          <t>https://atc-gagarin.ru/cars-new/omoda/s5/2022-sedan-4/</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>533</t>
+          <t>527</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Opel</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>Crossland X</t>
+          <t>S5 GT</t>
         </is>
       </c>
       <c r="D317" t="n">
-        <v>1789000</v>
+        <v>1750000</v>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/opel/crossland-x/i-res-allroad-5/</t>
+          <t>https://primeauto-ekb.ru/new/omoda/s5-gt</t>
+        </is>
+      </c>
+      <c r="N317" t="n">
+        <v>1750000</v>
+      </c>
+      <c r="O317" t="inlineStr">
+        <is>
+          <t>https://primeauto-ekb.ru/new/omoda/s5-gt</t>
         </is>
       </c>
       <c r="P317" t="n">
-        <v>1789000</v>
+        <v>1755000</v>
       </c>
       <c r="Q317" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/opel/crossland-x/i-res-allroad-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/omoda/s5-gt/2023-sedan-4/</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>529</t>
+          <t>533</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
@@ -13593,30 +13593,30 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>Grandland</t>
+          <t>Crossland X</t>
         </is>
       </c>
       <c r="D318" t="n">
-        <v>1959000</v>
+        <v>1789000</v>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/opel/grandland-x/i-allroad-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/opel/crossland-x/i-res-allroad-5/</t>
         </is>
       </c>
       <c r="P318" t="n">
-        <v>1959000</v>
+        <v>1789000</v>
       </c>
       <c r="Q318" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/opel/grandland-x/i-allroad-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/opel/crossland-x/i-res-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>531</t>
+          <t>529</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
@@ -13626,155 +13626,129 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>Zafira Life</t>
+          <t>Grandland</t>
         </is>
       </c>
       <c r="D319" t="n">
-        <v>2989000</v>
+        <v>1959000</v>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/opel/zafira-life/i-minivan-l-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/opel/grandland-x/i-allroad-5/</t>
         </is>
       </c>
       <c r="P319" t="n">
-        <v>2989000</v>
+        <v>1959000</v>
       </c>
       <c r="Q319" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/opel/zafira-life/i-minivan-l-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/opel/grandland-x/i-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>531</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Oting</t>
+          <t>Opel</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>Paladin</t>
+          <t>Zafira Life</t>
         </is>
       </c>
       <c r="D320" t="n">
-        <v>3490000</v>
+        <v>2989000</v>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/oting/paladin</t>
-        </is>
-      </c>
-      <c r="N320" t="n">
-        <v>3490000</v>
-      </c>
-      <c r="O320" t="inlineStr">
-        <is>
-          <t>https://primeauto-ekb.ru/new/oting/paladin</t>
+          <t>https://atc-gagarin.ru/cars-new/opel/zafira-life/i-minivan-l-5/</t>
+        </is>
+      </c>
+      <c r="P320" t="n">
+        <v>2989000</v>
+      </c>
+      <c r="Q320" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/opel/zafira-life/i-minivan-l-5/</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>545</t>
+          <t>537</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Ravon</t>
+          <t>Oting</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>Nexia R3</t>
+          <t>Paladin</t>
         </is>
       </c>
       <c r="D321" t="n">
-        <v>410300</v>
+        <v>3490000</v>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/ravon/nexia-r3/2015-2020-sedan-4/</t>
-        </is>
-      </c>
-      <c r="P321" t="n">
-        <v>410300</v>
-      </c>
-      <c r="Q321" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/ravon/nexia-r3/2015-2020-sedan-4/</t>
+          <t>https://primeauto-ekb.ru/new/oting/paladin</t>
+        </is>
+      </c>
+      <c r="N321" t="n">
+        <v>3490000</v>
+      </c>
+      <c r="O321" t="inlineStr">
+        <is>
+          <t>https://primeauto-ekb.ru/new/oting/paladin</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>545</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Ravon</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>Arkana</t>
+          <t>Nexia R3</t>
         </is>
       </c>
       <c r="D322" t="n">
-        <v>909000</v>
+        <v>410300</v>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/renault/arkana/i-allroad-5/</t>
-        </is>
-      </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>1009000</t>
-        </is>
-      </c>
-      <c r="I322" t="inlineStr">
-        <is>
-          <t>https://new-auto96.ru/auto/renault/arkana/</t>
-        </is>
-      </c>
-      <c r="J322" t="n">
-        <v>1124400</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>https://autosalon-kit.ru/auto/renault/new-arkana/2019</t>
-        </is>
-      </c>
-      <c r="N322" t="n">
-        <v>910000</v>
-      </c>
-      <c r="O322" t="inlineStr">
-        <is>
-          <t>https://primeauto-ekb.ru/new/renault/arkana</t>
+          <t>https://atc-gagarin.ru/cars-new/ravon/nexia-r3/2015-2020-sedan-4/</t>
         </is>
       </c>
       <c r="P322" t="n">
-        <v>909000</v>
+        <v>410300</v>
       </c>
       <c r="Q322" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/renault/arkana/i-allroad-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/ravon/nexia-r3/2015-2020-sedan-4/</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>553</t>
+          <t>549</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
@@ -13784,38 +13758,56 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>Duster</t>
+          <t>Arkana</t>
         </is>
       </c>
       <c r="D323" t="n">
-        <v>750000</v>
+        <v>909000</v>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/renault/duster</t>
+          <t>https://atc-gagarin.ru/cars-new/renault/arkana/i-allroad-5/</t>
+        </is>
+      </c>
+      <c r="H323" t="inlineStr">
+        <is>
+          <t>1009000</t>
+        </is>
+      </c>
+      <c r="I323" t="inlineStr">
+        <is>
+          <t>https://new-auto96.ru/auto/renault/arkana/</t>
         </is>
       </c>
       <c r="J323" t="n">
-        <v>970800</v>
+        <v>1124400</v>
       </c>
       <c r="K323" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/renault/duster-new/cuv</t>
+          <t>https://autosalon-kit.ru/auto/renault/new-arkana/2019</t>
         </is>
       </c>
       <c r="N323" t="n">
-        <v>750000</v>
+        <v>910000</v>
       </c>
       <c r="O323" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/renault/duster</t>
+          <t>https://primeauto-ekb.ru/new/renault/arkana</t>
+        </is>
+      </c>
+      <c r="P323" t="n">
+        <v>909000</v>
+      </c>
+      <c r="Q323" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/renault/arkana/i-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>554</t>
+          <t>553</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
@@ -13825,30 +13817,38 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>Duster 2021</t>
+          <t>Duster</t>
         </is>
       </c>
       <c r="D324" t="n">
-        <v>640000</v>
+        <v>750000</v>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/renault/duster-2021</t>
+          <t>https://primeauto-ekb.ru/new/renault/duster</t>
+        </is>
+      </c>
+      <c r="J324" t="n">
+        <v>970800</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>https://autosalon-kit.ru/auto/renault/duster-new/cuv</t>
         </is>
       </c>
       <c r="N324" t="n">
-        <v>640000</v>
+        <v>750000</v>
       </c>
       <c r="O324" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/renault/duster-2021</t>
+          <t>https://primeauto-ekb.ru/new/renault/duster</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>554</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
@@ -13858,32 +13858,30 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>Duster New</t>
+          <t>Duster 2021</t>
         </is>
       </c>
       <c r="D325" t="n">
-        <v>770000</v>
+        <v>640000</v>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/renault/duster/</t>
-        </is>
-      </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>770000</t>
-        </is>
-      </c>
-      <c r="I325" t="inlineStr">
-        <is>
-          <t>https://new-auto96.ru/auto/renault/duster/</t>
+          <t>https://primeauto-ekb.ru/new/renault/duster-2021</t>
+        </is>
+      </c>
+      <c r="N325" t="n">
+        <v>640000</v>
+      </c>
+      <c r="O325" t="inlineStr">
+        <is>
+          <t>https://primeauto-ekb.ru/new/renault/duster-2021</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>555</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
@@ -13893,48 +13891,32 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>Kaptur</t>
+          <t>Duster New</t>
         </is>
       </c>
       <c r="D326" t="n">
-        <v>780000</v>
+        <v>770000</v>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/renault/kaptur-2019</t>
+          <t>https://new-auto96.ru/auto/renault/duster/</t>
         </is>
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>884000</t>
+          <t>770000</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/renault/kaptur/</t>
-        </is>
-      </c>
-      <c r="J326" t="n">
-        <v>1034400</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>https://autosalon-kit.ru/auto/renault/kaptur-new/cuv</t>
-        </is>
-      </c>
-      <c r="N326" t="n">
-        <v>780000</v>
-      </c>
-      <c r="O326" t="inlineStr">
-        <is>
-          <t>https://primeauto-ekb.ru/new/renault/kaptur-2019</t>
+          <t>https://new-auto96.ru/auto/renault/duster/</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>556</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
@@ -13944,48 +13926,48 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>Logan</t>
+          <t>Kaptur</t>
         </is>
       </c>
       <c r="D327" t="n">
-        <v>499000</v>
+        <v>780000</v>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/renault/logan/</t>
+          <t>https://primeauto-ekb.ru/new/renault/kaptur-2019</t>
         </is>
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>499000</t>
+          <t>884000</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/renault/logan/</t>
+          <t>https://new-auto96.ru/auto/renault/kaptur/</t>
         </is>
       </c>
       <c r="J327" t="n">
-        <v>674400</v>
+        <v>1034400</v>
       </c>
       <c r="K327" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/renault/new-logan/new</t>
+          <t>https://autosalon-kit.ru/auto/renault/kaptur-new/cuv</t>
         </is>
       </c>
       <c r="N327" t="n">
-        <v>500000</v>
+        <v>780000</v>
       </c>
       <c r="O327" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/renault/logan</t>
+          <t>https://primeauto-ekb.ru/new/renault/kaptur-2019</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>559</t>
+          <t>558</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
@@ -13995,56 +13977,48 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>Logan Stepway</t>
+          <t>Logan</t>
         </is>
       </c>
       <c r="D328" t="n">
-        <v>565300</v>
+        <v>499000</v>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/renault/logan_stepway/</t>
+          <t>https://new-auto96.ru/auto/renault/logan/</t>
         </is>
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>565300</t>
+          <t>499000</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/renault/logan_stepway/</t>
+          <t>https://new-auto96.ru/auto/renault/logan/</t>
         </is>
       </c>
       <c r="J328" t="n">
-        <v>780600</v>
+        <v>674400</v>
       </c>
       <c r="K328" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/renault/logan-stepway/sedan</t>
+          <t>https://autosalon-kit.ru/auto/renault/new-logan/new</t>
         </is>
       </c>
       <c r="N328" t="n">
-        <v>650000</v>
+        <v>500000</v>
       </c>
       <c r="O328" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/renault/logan-stepway</t>
-        </is>
-      </c>
-      <c r="P328" t="n">
-        <v>655000</v>
-      </c>
-      <c r="Q328" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/renault/logan/ii-res-sedan-stepway-4/</t>
+          <t>https://primeauto-ekb.ru/new/renault/logan</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>559</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
@@ -14054,56 +14028,56 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>Sandero</t>
+          <t>Logan Stepway</t>
         </is>
       </c>
       <c r="D329" t="n">
-        <v>540000</v>
+        <v>565300</v>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/renault/sandero</t>
+          <t>https://new-auto96.ru/auto/renault/logan_stepway/</t>
         </is>
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>540000</t>
+          <t>565300</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/renault/sandero/</t>
+          <t>https://new-auto96.ru/auto/renault/logan_stepway/</t>
         </is>
       </c>
       <c r="J329" t="n">
-        <v>754800</v>
+        <v>780600</v>
       </c>
       <c r="K329" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/renault/new-sandero/new</t>
+          <t>https://autosalon-kit.ru/auto/renault/logan-stepway/sedan</t>
         </is>
       </c>
       <c r="N329" t="n">
-        <v>540000</v>
+        <v>650000</v>
       </c>
       <c r="O329" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/renault/sandero</t>
+          <t>https://primeauto-ekb.ru/new/renault/logan-stepway</t>
         </is>
       </c>
       <c r="P329" t="n">
-        <v>545000</v>
+        <v>655000</v>
       </c>
       <c r="Q329" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/renault/sandero/ii-res-hatchback-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/renault/logan/ii-res-sedan-stepway-4/</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>565</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
@@ -14113,89 +14087,107 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>Sandero Stepway</t>
+          <t>Sandero</t>
         </is>
       </c>
       <c r="D330" t="n">
-        <v>650000</v>
+        <v>540000</v>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/renault/sandero_stepway/</t>
+          <t>https://primeauto-ekb.ru/new/renault/sandero</t>
         </is>
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>650000</t>
+          <t>540000</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/renault/sandero_stepway/</t>
+          <t>https://new-auto96.ru/auto/renault/sandero/</t>
         </is>
       </c>
       <c r="J330" t="n">
-        <v>823800</v>
+        <v>754800</v>
       </c>
       <c r="K330" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/renault/new-sandero-stepway/stepway</t>
+          <t>https://autosalon-kit.ru/auto/renault/new-sandero/new</t>
         </is>
       </c>
       <c r="N330" t="n">
-        <v>700000</v>
+        <v>540000</v>
       </c>
       <c r="O330" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/renault/sandero-stepway</t>
+          <t>https://primeauto-ekb.ru/new/renault/sandero</t>
+        </is>
+      </c>
+      <c r="P330" t="n">
+        <v>545000</v>
+      </c>
+      <c r="Q330" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/renault/sandero/ii-res-hatchback-5/</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>611</t>
+          <t>566</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>SWM</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>G01</t>
+          <t>Sandero Stepway</t>
         </is>
       </c>
       <c r="D331" t="n">
-        <v>1438220</v>
+        <v>650000</v>
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/swm/g01/2018-allroad-5/</t>
+          <t>https://new-auto96.ru/auto/renault/sandero_stepway/</t>
+        </is>
+      </c>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>650000</t>
+        </is>
+      </c>
+      <c r="I331" t="inlineStr">
+        <is>
+          <t>https://new-auto96.ru/auto/renault/sandero_stepway/</t>
+        </is>
+      </c>
+      <c r="J331" t="n">
+        <v>823800</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>https://autosalon-kit.ru/auto/renault/new-sandero-stepway/stepway</t>
         </is>
       </c>
       <c r="N331" t="n">
-        <v>1730000</v>
+        <v>700000</v>
       </c>
       <c r="O331" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/swm/g01</t>
-        </is>
-      </c>
-      <c r="P331" t="n">
-        <v>1438220</v>
-      </c>
-      <c r="Q331" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/swm/g01/2018-allroad-5/</t>
+          <t>https://primeauto-ekb.ru/new/renault/sandero-stepway</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>612</t>
+          <t>611</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
@@ -14205,38 +14197,38 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>G01F</t>
+          <t>G01</t>
         </is>
       </c>
       <c r="D332" t="n">
-        <v>1588340</v>
+        <v>1438220</v>
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/swm/g01f/2018-allroad-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/swm/g01/2018-allroad-5/</t>
         </is>
       </c>
       <c r="N332" t="n">
-        <v>1860000</v>
+        <v>1730000</v>
       </c>
       <c r="O332" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/swm/g01f</t>
+          <t>https://primeauto-ekb.ru/new/swm/g01</t>
         </is>
       </c>
       <c r="P332" t="n">
-        <v>1588340</v>
+        <v>1438220</v>
       </c>
       <c r="Q332" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/swm/g01f/2018-allroad-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/swm/g01/2018-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>612</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
@@ -14246,97 +14238,79 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>G05 Pro</t>
+          <t>G01F</t>
         </is>
       </c>
       <c r="D333" t="n">
-        <v>1625960</v>
+        <v>1588340</v>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/swm/g05pro/2021-allroad-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/swm/g01f/2018-allroad-5/</t>
         </is>
       </c>
       <c r="N333" t="n">
-        <v>2060000</v>
+        <v>1860000</v>
       </c>
       <c r="O333" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/swm/g05-pro</t>
+          <t>https://primeauto-ekb.ru/new/swm/g01f</t>
         </is>
       </c>
       <c r="P333" t="n">
-        <v>1625960</v>
+        <v>1588340</v>
       </c>
       <c r="Q333" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/swm/g05pro/2021-allroad-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/swm/g01f/2018-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>571</t>
+          <t>613</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>SWM</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>Karoq</t>
+          <t>G05 Pro</t>
         </is>
       </c>
       <c r="D334" t="n">
-        <v>1023000</v>
+        <v>1625960</v>
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/skoda/karoq/karoq</t>
-        </is>
-      </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>1023000</t>
-        </is>
-      </c>
-      <c r="I334" t="inlineStr">
-        <is>
-          <t>https://new-auto96.ru/auto/skoda/karoq/</t>
-        </is>
-      </c>
-      <c r="J334" t="n">
-        <v>1023000</v>
-      </c>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>https://autosalon-kit.ru/auto/skoda/karoq/karoq</t>
+          <t>https://atc-gagarin.ru/cars-new/swm/g05pro/2021-allroad-5/</t>
         </is>
       </c>
       <c r="N334" t="n">
-        <v>1240000</v>
+        <v>2060000</v>
       </c>
       <c r="O334" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/skoda/karoq</t>
+          <t>https://primeauto-ekb.ru/new/swm/g05-pro</t>
         </is>
       </c>
       <c r="P334" t="n">
-        <v>1240200</v>
+        <v>1625960</v>
       </c>
       <c r="Q334" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/skoda/karoq/i-allroad-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/swm/g05pro/2021-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>573</t>
+          <t>571</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
@@ -14346,30 +14320,56 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>Karoq Restyling</t>
+          <t>Karoq</t>
         </is>
       </c>
       <c r="D335" t="n">
-        <v>1650000</v>
+        <v>1023000</v>
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/skoda/karoq/i-res-allroad-5/</t>
+          <t>https://autosalon-kit.ru/auto/skoda/karoq/karoq</t>
+        </is>
+      </c>
+      <c r="H335" t="inlineStr">
+        <is>
+          <t>1023000</t>
+        </is>
+      </c>
+      <c r="I335" t="inlineStr">
+        <is>
+          <t>https://new-auto96.ru/auto/skoda/karoq/</t>
+        </is>
+      </c>
+      <c r="J335" t="n">
+        <v>1023000</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>https://autosalon-kit.ru/auto/skoda/karoq/karoq</t>
+        </is>
+      </c>
+      <c r="N335" t="n">
+        <v>1240000</v>
+      </c>
+      <c r="O335" t="inlineStr">
+        <is>
+          <t>https://primeauto-ekb.ru/new/skoda/karoq</t>
         </is>
       </c>
       <c r="P335" t="n">
-        <v>1650000</v>
+        <v>1240200</v>
       </c>
       <c r="Q335" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/skoda/karoq/i-res-allroad-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/skoda/karoq/i-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>574</t>
+          <t>573</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
@@ -14379,38 +14379,30 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>Kodiaq</t>
+          <t>Karoq Restyling</t>
         </is>
       </c>
       <c r="D336" t="n">
-        <v>1234200</v>
+        <v>1650000</v>
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/skoda/new-kodiaq/cuv</t>
-        </is>
-      </c>
-      <c r="J336" t="n">
-        <v>1234200</v>
-      </c>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>https://autosalon-kit.ru/auto/skoda/new-kodiaq/cuv</t>
-        </is>
-      </c>
-      <c r="N336" t="n">
-        <v>1740000</v>
-      </c>
-      <c r="O336" t="inlineStr">
-        <is>
-          <t>https://primeauto-ekb.ru/new/skoda/kodiaq</t>
+          <t>https://atc-gagarin.ru/cars-new/skoda/karoq/i-res-allroad-5/</t>
+        </is>
+      </c>
+      <c r="P336" t="n">
+        <v>1650000</v>
+      </c>
+      <c r="Q336" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/skoda/karoq/i-res-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>574</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
@@ -14420,7 +14412,7 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>Kodiaq New</t>
+          <t>Kodiaq</t>
         </is>
       </c>
       <c r="D337" t="n">
@@ -14428,24 +14420,30 @@
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/skoda/kodiaq/</t>
-        </is>
-      </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>1234200</t>
-        </is>
-      </c>
-      <c r="I337" t="inlineStr">
-        <is>
-          <t>https://new-auto96.ru/auto/skoda/kodiaq/</t>
+          <t>https://autosalon-kit.ru/auto/skoda/new-kodiaq/cuv</t>
+        </is>
+      </c>
+      <c r="J337" t="n">
+        <v>1234200</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>https://autosalon-kit.ru/auto/skoda/new-kodiaq/cuv</t>
+        </is>
+      </c>
+      <c r="N337" t="n">
+        <v>1740000</v>
+      </c>
+      <c r="O337" t="inlineStr">
+        <is>
+          <t>https://primeauto-ekb.ru/new/skoda/kodiaq</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>575</t>
+          <t>576</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
@@ -14455,30 +14453,32 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>Kodiaq Restyling</t>
+          <t>Kodiaq New</t>
         </is>
       </c>
       <c r="D338" t="n">
-        <v>1745000</v>
+        <v>1234200</v>
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/skoda/kodiaq/i-res-allroad-5/</t>
-        </is>
-      </c>
-      <c r="P338" t="n">
-        <v>1745000</v>
-      </c>
-      <c r="Q338" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/skoda/kodiaq/i-res-allroad-5/</t>
+          <t>https://new-auto96.ru/auto/skoda/kodiaq/</t>
+        </is>
+      </c>
+      <c r="H338" t="inlineStr">
+        <is>
+          <t>1234200</t>
+        </is>
+      </c>
+      <c r="I338" t="inlineStr">
+        <is>
+          <t>https://new-auto96.ru/auto/skoda/kodiaq/</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>578</t>
+          <t>575</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
@@ -14488,30 +14488,30 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>Octavia</t>
+          <t>Kodiaq Restyling</t>
         </is>
       </c>
       <c r="D339" t="n">
-        <v>1171100</v>
+        <v>1745000</v>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/skoda/octavia/iv-liftback-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/skoda/kodiaq/i-res-allroad-5/</t>
         </is>
       </c>
       <c r="P339" t="n">
-        <v>1171100</v>
+        <v>1745000</v>
       </c>
       <c r="Q339" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/skoda/octavia/iv-liftback-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/skoda/kodiaq/i-res-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>810</t>
+          <t>578</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
@@ -14521,30 +14521,30 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>Octavia A7</t>
+          <t>Octavia</t>
         </is>
       </c>
       <c r="D340" t="n">
-        <v>770000</v>
+        <v>1171100</v>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/skoda/octavia-a7</t>
-        </is>
-      </c>
-      <c r="N340" t="n">
-        <v>770000</v>
-      </c>
-      <c r="O340" t="inlineStr">
-        <is>
-          <t>https://primeauto-ekb.ru/new/skoda/octavia-a7</t>
+          <t>https://atc-gagarin.ru/cars-new/skoda/octavia/iv-liftback-5/</t>
+        </is>
+      </c>
+      <c r="P340" t="n">
+        <v>1171100</v>
+      </c>
+      <c r="Q340" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/skoda/octavia/iv-liftback-5/</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>810</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
@@ -14554,38 +14554,30 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>Octavia A8</t>
+          <t>Octavia A7</t>
         </is>
       </c>
       <c r="D341" t="n">
-        <v>994200</v>
+        <v>770000</v>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/skoda/octavia-a8/2020</t>
-        </is>
-      </c>
-      <c r="J341" t="n">
-        <v>994200</v>
-      </c>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>https://autosalon-kit.ru/auto/skoda/octavia-a8/2020</t>
+          <t>https://primeauto-ekb.ru/new/skoda/octavia-a7</t>
         </is>
       </c>
       <c r="N341" t="n">
-        <v>1170000</v>
+        <v>770000</v>
       </c>
       <c r="O341" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/skoda/octavia</t>
+          <t>https://primeauto-ekb.ru/new/skoda/octavia-a7</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>579</t>
+          <t>580</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
@@ -14595,7 +14587,7 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>Octavia New</t>
+          <t>Octavia A8</t>
         </is>
       </c>
       <c r="D342" t="n">
@@ -14603,24 +14595,30 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/skoda/octavia/</t>
-        </is>
-      </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>994200</t>
-        </is>
-      </c>
-      <c r="I342" t="inlineStr">
-        <is>
-          <t>https://new-auto96.ru/auto/skoda/octavia/</t>
+          <t>https://autosalon-kit.ru/auto/skoda/octavia-a8/2020</t>
+        </is>
+      </c>
+      <c r="J342" t="n">
+        <v>994200</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>https://autosalon-kit.ru/auto/skoda/octavia-a8/2020</t>
+        </is>
+      </c>
+      <c r="N342" t="n">
+        <v>1170000</v>
+      </c>
+      <c r="O342" t="inlineStr">
+        <is>
+          <t>https://primeauto-ekb.ru/new/skoda/octavia</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>581</t>
+          <t>579</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
@@ -14630,56 +14628,32 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>Rapid</t>
+          <t>Octavia New</t>
         </is>
       </c>
       <c r="D343" t="n">
-        <v>560000</v>
+        <v>994200</v>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/skoda/rapid-2019</t>
+          <t>https://new-auto96.ru/auto/skoda/octavia/</t>
         </is>
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>760000</t>
+          <t>994200</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/skoda/rapid/</t>
-        </is>
-      </c>
-      <c r="J343" t="n">
-        <v>630600</v>
-      </c>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>https://autosalon-kit.ru/auto/skoda/rapid-new/sedan</t>
-        </is>
-      </c>
-      <c r="N343" t="n">
-        <v>560000</v>
-      </c>
-      <c r="O343" t="inlineStr">
-        <is>
-          <t>https://primeauto-ekb.ru/new/skoda/rapid-2019</t>
-        </is>
-      </c>
-      <c r="P343" t="n">
-        <v>727600</v>
-      </c>
-      <c r="Q343" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/skoda/rapid/ii-liftback-5/</t>
+          <t>https://new-auto96.ru/auto/skoda/octavia/</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>581</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
@@ -14689,89 +14663,97 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>Superb</t>
+          <t>Rapid</t>
         </is>
       </c>
       <c r="D344" t="n">
-        <v>1240000</v>
+        <v>560000</v>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/skoda/superb</t>
+          <t>https://primeauto-ekb.ru/new/skoda/rapid-2019</t>
+        </is>
+      </c>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>760000</t>
+        </is>
+      </c>
+      <c r="I344" t="inlineStr">
+        <is>
+          <t>https://new-auto96.ru/auto/skoda/rapid/</t>
         </is>
       </c>
       <c r="J344" t="n">
-        <v>1282000</v>
+        <v>630600</v>
       </c>
       <c r="K344" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/skoda/superb-new/liftback</t>
+          <t>https://autosalon-kit.ru/auto/skoda/rapid-new/sedan</t>
         </is>
       </c>
       <c r="N344" t="n">
-        <v>1240000</v>
+        <v>560000</v>
       </c>
       <c r="O344" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/skoda/superb</t>
+          <t>https://primeauto-ekb.ru/new/skoda/rapid-2019</t>
+        </is>
+      </c>
+      <c r="P344" t="n">
+        <v>727600</v>
+      </c>
+      <c r="Q344" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/skoda/rapid/ii-liftback-5/</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>594</t>
+          <t>585</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>Superb</t>
         </is>
       </c>
       <c r="D345" t="n">
-        <v>1590000</v>
+        <v>1240000</v>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/solaris/hc/</t>
-        </is>
-      </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>1590000</t>
-        </is>
-      </c>
-      <c r="I345" t="inlineStr">
-        <is>
-          <t>https://new-auto96.ru/auto/solaris/hc/</t>
+          <t>https://primeauto-ekb.ru/new/skoda/superb</t>
         </is>
       </c>
       <c r="J345" t="n">
-        <v>2499000</v>
+        <v>1282000</v>
       </c>
       <c r="K345" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/solaris/hc/suv-1gen</t>
-        </is>
-      </c>
-      <c r="P345" t="n">
-        <v>1770000</v>
-      </c>
-      <c r="Q345" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/solaris/hc/2022-allroad-5/</t>
+          <t>https://autosalon-kit.ru/auto/skoda/superb-new/liftback</t>
+        </is>
+      </c>
+      <c r="N345" t="n">
+        <v>1240000</v>
+      </c>
+      <c r="O345" t="inlineStr">
+        <is>
+          <t>https://primeauto-ekb.ru/new/skoda/superb</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>594</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
@@ -14781,48 +14763,48 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>HS</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="D346" t="n">
-        <v>1110000</v>
+        <v>1590000</v>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/solaris/hs/2022-sedan-4/</t>
+          <t>https://new-auto96.ru/auto/solaris/hc/</t>
         </is>
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>1212000</t>
+          <t>1590000</t>
         </is>
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/solaris/hs/</t>
+          <t>https://new-auto96.ru/auto/solaris/hc/</t>
         </is>
       </c>
       <c r="J346" t="n">
-        <v>2010000</v>
+        <v>2499000</v>
       </c>
       <c r="K346" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/solaris/hs/sedan-1gen</t>
+          <t>https://autosalon-kit.ru/auto/solaris/hc/suv-1gen</t>
         </is>
       </c>
       <c r="P346" t="n">
-        <v>1110000</v>
+        <v>1770000</v>
       </c>
       <c r="Q346" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/solaris/hs/2022-sedan-4/</t>
+          <t>https://atc-gagarin.ru/cars-new/solaris/hc/2022-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>595</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
@@ -14832,48 +14814,48 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>KRS</t>
+          <t>HS</t>
         </is>
       </c>
       <c r="D347" t="n">
-        <v>1236000</v>
+        <v>1110000</v>
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/solaris/krs/</t>
+          <t>https://atc-gagarin.ru/cars-new/solaris/hs/2022-sedan-4/</t>
         </is>
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>1236000</t>
+          <t>1212000</t>
         </is>
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/solaris/krs/</t>
+          <t>https://new-auto96.ru/auto/solaris/hs/</t>
         </is>
       </c>
       <c r="J347" t="n">
-        <v>2038000</v>
+        <v>2010000</v>
       </c>
       <c r="K347" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/solaris/krs/sedan-1gen</t>
+          <t>https://autosalon-kit.ru/auto/solaris/hs/sedan-1gen</t>
         </is>
       </c>
       <c r="P347" t="n">
-        <v>1280000</v>
+        <v>1110000</v>
       </c>
       <c r="Q347" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/solaris/krs/2024-sedan-4/</t>
+          <t>https://atc-gagarin.ru/cars-new/solaris/hs/2022-sedan-4/</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>596</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
@@ -14883,81 +14865,99 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>KRX</t>
+          <t>KRS</t>
         </is>
       </c>
       <c r="D348" t="n">
-        <v>1344600</v>
+        <v>1236000</v>
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/solaris/krx/</t>
+          <t>https://new-auto96.ru/auto/solaris/krs/</t>
         </is>
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>1344600</t>
+          <t>1236000</t>
         </is>
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/solaris/krx/</t>
+          <t>https://new-auto96.ru/auto/solaris/krs/</t>
         </is>
       </c>
       <c r="J348" t="n">
-        <v>2064000</v>
+        <v>2038000</v>
       </c>
       <c r="K348" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/solaris/krx/hatchback-1gen</t>
+          <t>https://autosalon-kit.ru/auto/solaris/krs/sedan-1gen</t>
         </is>
       </c>
       <c r="P348" t="n">
-        <v>1780000</v>
+        <v>1280000</v>
       </c>
       <c r="Q348" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/solaris/krx/2024-hatchback-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/solaris/krs/2024-sedan-4/</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>599</t>
+          <t>597</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Soueast</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>DX5</t>
+          <t>KRX</t>
         </is>
       </c>
       <c r="D349" t="n">
-        <v>1550000</v>
+        <v>1344600</v>
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/soueast/dx5/2019-allroad-5/</t>
+          <t>https://new-auto96.ru/auto/solaris/krx/</t>
+        </is>
+      </c>
+      <c r="H349" t="inlineStr">
+        <is>
+          <t>1344600</t>
+        </is>
+      </c>
+      <c r="I349" t="inlineStr">
+        <is>
+          <t>https://new-auto96.ru/auto/solaris/krx/</t>
+        </is>
+      </c>
+      <c r="J349" t="n">
+        <v>2064000</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>https://autosalon-kit.ru/auto/solaris/krx/hatchback-1gen</t>
         </is>
       </c>
       <c r="P349" t="n">
-        <v>1550000</v>
+        <v>1780000</v>
       </c>
       <c r="Q349" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/soueast/dx5/2019-allroad-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/solaris/krx/2024-hatchback-5/</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>598</t>
+          <t>599</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
@@ -14967,106 +14967,96 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>DX8S</t>
+          <t>DX5</t>
         </is>
       </c>
       <c r="D350" t="n">
-        <v>1630000</v>
+        <v>1550000</v>
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/soueast/dx8s/2022-allroad-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/soueast/dx5/2019-allroad-5/</t>
         </is>
       </c>
       <c r="P350" t="n">
-        <v>1630000</v>
+        <v>1550000</v>
       </c>
       <c r="Q350" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/soueast/dx8s/2022-allroad-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/soueast/dx5/2019-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>607</t>
+          <t>598</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Suzuki</t>
+          <t>Soueast</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>SX4</t>
+          <t>DX8S</t>
         </is>
       </c>
       <c r="D351" t="n">
-        <v>1109000</v>
+        <v>1630000</v>
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/suzuki/sx4/ii-res-hatchback-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/soueast/dx8s/2022-allroad-5/</t>
         </is>
       </c>
       <c r="P351" t="n">
-        <v>1109000</v>
+        <v>1630000</v>
       </c>
       <c r="Q351" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/suzuki/sx4/ii-res-hatchback-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/soueast/dx8s/2022-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>607</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>Suzuki</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>SX4</t>
         </is>
       </c>
       <c r="D352" t="n">
-        <v>2699400</v>
+        <v>1109000</v>
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/tank/300/</t>
-        </is>
-      </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2699400</t>
-        </is>
-      </c>
-      <c r="I352" t="inlineStr">
-        <is>
-          <t>https://new-auto96.ru/auto/tank/300/</t>
+          <t>https://atc-gagarin.ru/cars-new/suzuki/sx4/ii-res-hatchback-5/</t>
         </is>
       </c>
       <c r="P352" t="n">
-        <v>2729300</v>
+        <v>1109000</v>
       </c>
       <c r="Q352" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/tank/300/2021-allroad-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/suzuki/sx4/ii-res-hatchback-5/</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>615</t>
+          <t>614</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
@@ -15076,81 +15066,83 @@
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D353" t="n">
-        <v>3788000</v>
+        <v>2699400</v>
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/tank/500/2021-allroad-5/</t>
+          <t>https://new-auto96.ru/auto/tank/300/</t>
         </is>
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>3788000</t>
+          <t>2699400</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/tank/500/</t>
+          <t>https://new-auto96.ru/auto/tank/300/</t>
         </is>
       </c>
       <c r="P353" t="n">
-        <v>3788000</v>
+        <v>2729300</v>
       </c>
       <c r="Q353" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/tank/500/2021-allroad-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/tank/300/2021-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>621</t>
+          <t>615</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>Camry</t>
+          <t>500</t>
         </is>
       </c>
       <c r="D354" t="n">
-        <v>1480000</v>
+        <v>3788000</v>
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/toyota/camry-2017</t>
-        </is>
-      </c>
-      <c r="N354" t="n">
-        <v>1480000</v>
-      </c>
-      <c r="O354" t="inlineStr">
-        <is>
-          <t>https://primeauto-ekb.ru/new/toyota/camry-2017</t>
+          <t>https://atc-gagarin.ru/cars-new/tank/500/2021-allroad-5/</t>
+        </is>
+      </c>
+      <c r="H354" t="inlineStr">
+        <is>
+          <t>3788000</t>
+        </is>
+      </c>
+      <c r="I354" t="inlineStr">
+        <is>
+          <t>https://new-auto96.ru/auto/tank/500/</t>
         </is>
       </c>
       <c r="P354" t="n">
-        <v>2079500</v>
+        <v>3788000</v>
       </c>
       <c r="Q354" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/toyota/camry/viii-res-sedan-4/</t>
+          <t>https://atc-gagarin.ru/cars-new/tank/500/2021-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>622</t>
+          <t>621</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
@@ -15160,30 +15152,38 @@
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>Camry New</t>
+          <t>Camry</t>
         </is>
       </c>
       <c r="D355" t="n">
-        <v>2070000</v>
+        <v>1480000</v>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/toyota/camry</t>
+          <t>https://primeauto-ekb.ru/new/toyota/camry-2017</t>
         </is>
       </c>
       <c r="N355" t="n">
-        <v>2070000</v>
+        <v>1480000</v>
       </c>
       <c r="O355" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/toyota/camry</t>
+          <t>https://primeauto-ekb.ru/new/toyota/camry-2017</t>
+        </is>
+      </c>
+      <c r="P355" t="n">
+        <v>2079500</v>
+      </c>
+      <c r="Q355" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/toyota/camry/viii-res-sedan-4/</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>617</t>
+          <t>622</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
@@ -15193,30 +15193,30 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>Corolla</t>
+          <t>Camry New</t>
         </is>
       </c>
       <c r="D356" t="n">
-        <v>1260000</v>
+        <v>2070000</v>
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/toyota/corolla</t>
+          <t>https://primeauto-ekb.ru/new/toyota/camry</t>
         </is>
       </c>
       <c r="N356" t="n">
-        <v>1260000</v>
+        <v>2070000</v>
       </c>
       <c r="O356" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/toyota/corolla</t>
+          <t>https://primeauto-ekb.ru/new/toyota/camry</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>627</t>
+          <t>617</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
@@ -15226,30 +15226,30 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>Hilux</t>
+          <t>Corolla</t>
         </is>
       </c>
       <c r="D357" t="n">
-        <v>2460000</v>
+        <v>1260000</v>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/toyota/hilux/viii-res-pickup-two-4/</t>
-        </is>
-      </c>
-      <c r="P357" t="n">
-        <v>2460000</v>
-      </c>
-      <c r="Q357" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/toyota/hilux/viii-res-pickup-two-4/</t>
+          <t>https://primeauto-ekb.ru/new/toyota/corolla</t>
+        </is>
+      </c>
+      <c r="N357" t="n">
+        <v>1260000</v>
+      </c>
+      <c r="O357" t="inlineStr">
+        <is>
+          <t>https://primeauto-ekb.ru/new/toyota/corolla</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>620</t>
+          <t>627</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
@@ -15259,71 +15259,71 @@
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>RAV4</t>
+          <t>Hilux</t>
         </is>
       </c>
       <c r="D358" t="n">
-        <v>1320000</v>
+        <v>2460000</v>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/toyota/rav4-2019</t>
-        </is>
-      </c>
-      <c r="N358" t="n">
-        <v>1320000</v>
-      </c>
-      <c r="O358" t="inlineStr">
-        <is>
-          <t>https://primeauto-ekb.ru/new/toyota/rav4-2019</t>
+          <t>https://atc-gagarin.ru/cars-new/toyota/hilux/viii-res-pickup-two-4/</t>
         </is>
       </c>
       <c r="P358" t="n">
-        <v>1721700</v>
+        <v>2460000</v>
       </c>
       <c r="Q358" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/toyota/rav4/v-allroad-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/toyota/hilux/viii-res-pickup-two-4/</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>633</t>
+          <t>620</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>UAZ</t>
+          <t>Toyota</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>Hunter</t>
+          <t>RAV4</t>
         </is>
       </c>
       <c r="D359" t="n">
-        <v>834000</v>
+        <v>1320000</v>
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/uaz/hunter/suv</t>
-        </is>
-      </c>
-      <c r="J359" t="n">
-        <v>834000</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>https://autosalon-kit.ru/auto/uaz/hunter/suv</t>
+          <t>https://primeauto-ekb.ru/new/toyota/rav4-2019</t>
+        </is>
+      </c>
+      <c r="N359" t="n">
+        <v>1320000</v>
+      </c>
+      <c r="O359" t="inlineStr">
+        <is>
+          <t>https://primeauto-ekb.ru/new/toyota/rav4-2019</t>
+        </is>
+      </c>
+      <c r="P359" t="n">
+        <v>1721700</v>
+      </c>
+      <c r="Q359" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/toyota/rav4/v-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>634</t>
+          <t>633</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
@@ -15333,40 +15333,30 @@
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>Patriot</t>
+          <t>Hunter</t>
         </is>
       </c>
       <c r="D360" t="n">
-        <v>930000</v>
+        <v>834000</v>
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/uaz/patriot-new/suv</t>
-        </is>
-      </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>1008000</t>
-        </is>
-      </c>
-      <c r="I360" t="inlineStr">
-        <is>
-          <t>https://new-auto96.ru/auto/uaz/patriot/</t>
+          <t>https://autosalon-kit.ru/auto/uaz/hunter/suv</t>
         </is>
       </c>
       <c r="J360" t="n">
-        <v>930000</v>
+        <v>834000</v>
       </c>
       <c r="K360" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/uaz/patriot-new/suv</t>
+          <t>https://autosalon-kit.ru/auto/uaz/hunter/suv</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>635</t>
+          <t>634</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
@@ -15376,30 +15366,40 @@
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>Patriot New</t>
+          <t>Patriot</t>
         </is>
       </c>
       <c r="D361" t="n">
-        <v>1010000</v>
+        <v>930000</v>
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/uaz/patriot-new</t>
-        </is>
-      </c>
-      <c r="N361" t="n">
-        <v>1010000</v>
-      </c>
-      <c r="O361" t="inlineStr">
-        <is>
-          <t>https://primeauto-ekb.ru/new/uaz/patriot-new</t>
+          <t>https://autosalon-kit.ru/auto/uaz/patriot-new/suv</t>
+        </is>
+      </c>
+      <c r="H361" t="inlineStr">
+        <is>
+          <t>1008000</t>
+        </is>
+      </c>
+      <c r="I361" t="inlineStr">
+        <is>
+          <t>https://new-auto96.ru/auto/uaz/patriot/</t>
+        </is>
+      </c>
+      <c r="J361" t="n">
+        <v>930000</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>https://autosalon-kit.ru/auto/uaz/patriot-new/suv</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>637</t>
+          <t>635</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
@@ -15409,71 +15409,71 @@
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>Pickup</t>
+          <t>Patriot New</t>
         </is>
       </c>
       <c r="D362" t="n">
-        <v>780000</v>
+        <v>1010000</v>
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/uaz/novyi-pikap</t>
-        </is>
-      </c>
-      <c r="J362" t="n">
-        <v>945000</v>
-      </c>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>https://autosalon-kit.ru/auto/uaz/pickup-new/suv</t>
+          <t>https://primeauto-ekb.ru/new/uaz/patriot-new</t>
         </is>
       </c>
       <c r="N362" t="n">
-        <v>780000</v>
+        <v>1010000</v>
       </c>
       <c r="O362" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/uaz/novyi-pikap</t>
+          <t>https://primeauto-ekb.ru/new/uaz/patriot-new</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>666</t>
+          <t>637</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>VOYAH</t>
+          <t>UAZ</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>Dream</t>
+          <t>Pickup</t>
         </is>
       </c>
       <c r="D363" t="n">
-        <v>6790000</v>
+        <v>780000</v>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/voyah/dream/2021-minivan-5/</t>
-        </is>
-      </c>
-      <c r="P363" t="n">
-        <v>6790000</v>
-      </c>
-      <c r="Q363" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/voyah/dream/2021-minivan-5/</t>
+          <t>https://primeauto-ekb.ru/new/uaz/novyi-pikap</t>
+        </is>
+      </c>
+      <c r="J363" t="n">
+        <v>945000</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>https://autosalon-kit.ru/auto/uaz/pickup-new/suv</t>
+        </is>
+      </c>
+      <c r="N363" t="n">
+        <v>780000</v>
+      </c>
+      <c r="O363" t="inlineStr">
+        <is>
+          <t>https://primeauto-ekb.ru/new/uaz/novyi-pikap</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>667</t>
+          <t>666</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
@@ -15483,63 +15483,63 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>Passion</t>
+          <t>Dream</t>
         </is>
       </c>
       <c r="D364" t="n">
-        <v>4790000</v>
+        <v>6790000</v>
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/voyah/passion/2022-sedan-4/</t>
+          <t>https://atc-gagarin.ru/cars-new/voyah/dream/2021-minivan-5/</t>
         </is>
       </c>
       <c r="P364" t="n">
-        <v>4790000</v>
+        <v>6790000</v>
       </c>
       <c r="Q364" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/voyah/passion/2022-sedan-4/</t>
+          <t>https://atc-gagarin.ru/cars-new/voyah/dream/2021-minivan-5/</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>662</t>
+          <t>667</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Venucia</t>
+          <t>VOYAH</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>D60 Plus</t>
+          <t>Passion</t>
         </is>
       </c>
       <c r="D365" t="n">
-        <v>1840000</v>
+        <v>4790000</v>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/venucia/d60-plus/2021-sedan-4/</t>
+          <t>https://atc-gagarin.ru/cars-new/voyah/passion/2022-sedan-4/</t>
         </is>
       </c>
       <c r="P365" t="n">
-        <v>1840000</v>
+        <v>4790000</v>
       </c>
       <c r="Q365" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/venucia/d60-plus/2021-sedan-4/</t>
+          <t>https://atc-gagarin.ru/cars-new/voyah/passion/2022-sedan-4/</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>663</t>
+          <t>662</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
@@ -15549,63 +15549,63 @@
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>V-Online</t>
+          <t>D60 Plus</t>
         </is>
       </c>
       <c r="D366" t="n">
-        <v>2080000</v>
+        <v>1840000</v>
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/venucia/v-online/2021-allroad-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/venucia/d60-plus/2021-sedan-4/</t>
         </is>
       </c>
       <c r="P366" t="n">
-        <v>2080000</v>
+        <v>1840000</v>
       </c>
       <c r="Q366" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/venucia/v-online/2021-allroad-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/venucia/d60-plus/2021-sedan-4/</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>639</t>
+          <t>663</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>Venucia</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>Arteon</t>
+          <t>V-Online</t>
         </is>
       </c>
       <c r="D367" t="n">
-        <v>2639000</v>
+        <v>2080000</v>
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/volkswagen/arteon/liftback-1gen-rest</t>
-        </is>
-      </c>
-      <c r="J367" t="n">
-        <v>2639000</v>
-      </c>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>https://autosalon-kit.ru/auto/volkswagen/arteon/liftback-1gen-rest</t>
+          <t>https://atc-gagarin.ru/cars-new/venucia/v-online/2021-allroad-5/</t>
+        </is>
+      </c>
+      <c r="P367" t="n">
+        <v>2080000</v>
+      </c>
+      <c r="Q367" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/venucia/v-online/2021-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>640</t>
+          <t>639</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
@@ -15615,30 +15615,30 @@
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>Bora</t>
+          <t>Arteon</t>
         </is>
       </c>
       <c r="D368" t="n">
-        <v>1750000</v>
+        <v>2639000</v>
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/volkswagen/bora/iv-sedan-4/</t>
-        </is>
-      </c>
-      <c r="P368" t="n">
-        <v>1750000</v>
-      </c>
-      <c r="Q368" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/volkswagen/bora/iv-sedan-4/</t>
+          <t>https://autosalon-kit.ru/auto/volkswagen/arteon/liftback-1gen-rest</t>
+        </is>
+      </c>
+      <c r="J368" t="n">
+        <v>2639000</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>https://autosalon-kit.ru/auto/volkswagen/arteon/liftback-1gen-rest</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>645</t>
+          <t>640</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
@@ -15648,56 +15648,30 @@
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Bora</t>
         </is>
       </c>
       <c r="D369" t="n">
-        <v>910800</v>
+        <v>1750000</v>
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/volkswagen/jetta-new/sedan</t>
-        </is>
-      </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>1210800</t>
-        </is>
-      </c>
-      <c r="I369" t="inlineStr">
-        <is>
-          <t>https://new-auto96.ru/auto/volkswagen/jetta/</t>
-        </is>
-      </c>
-      <c r="J369" t="n">
-        <v>910800</v>
-      </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>https://autosalon-kit.ru/auto/volkswagen/jetta-new/sedan</t>
-        </is>
-      </c>
-      <c r="N369" t="n">
-        <v>1180000</v>
-      </c>
-      <c r="O369" t="inlineStr">
-        <is>
-          <t>https://primeauto-ekb.ru/new/volkswagen/jetta</t>
+          <t>https://atc-gagarin.ru/cars-new/volkswagen/bora/iv-sedan-4/</t>
         </is>
       </c>
       <c r="P369" t="n">
-        <v>1186200</v>
+        <v>1750000</v>
       </c>
       <c r="Q369" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/volkswagen/jetta/vii-sedan-4/</t>
+          <t>https://atc-gagarin.ru/cars-new/volkswagen/bora/iv-sedan-4/</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>649</t>
+          <t>645</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
@@ -15707,46 +15681,56 @@
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>Passat</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="D370" t="n">
-        <v>1120000</v>
+        <v>910800</v>
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/volkswagen/passat-2014</t>
+          <t>https://autosalon-kit.ru/auto/volkswagen/jetta-new/sedan</t>
+        </is>
+      </c>
+      <c r="H370" t="inlineStr">
+        <is>
+          <t>1210800</t>
+        </is>
+      </c>
+      <c r="I370" t="inlineStr">
+        <is>
+          <t>https://new-auto96.ru/auto/volkswagen/jetta/</t>
         </is>
       </c>
       <c r="J370" t="n">
-        <v>1639800</v>
+        <v>910800</v>
       </c>
       <c r="K370" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/volkswagen/passat-new/sedan</t>
+          <t>https://autosalon-kit.ru/auto/volkswagen/jetta-new/sedan</t>
         </is>
       </c>
       <c r="N370" t="n">
-        <v>1120000</v>
+        <v>1180000</v>
       </c>
       <c r="O370" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/volkswagen/passat-2014</t>
+          <t>https://primeauto-ekb.ru/new/volkswagen/jetta</t>
         </is>
       </c>
       <c r="P370" t="n">
-        <v>1123700</v>
+        <v>1186200</v>
       </c>
       <c r="Q370" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/volkswagen/passat/b8-res-sedan-4/</t>
+          <t>https://atc-gagarin.ru/cars-new/volkswagen/jetta/vii-sedan-4/</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>650</t>
+          <t>649</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
@@ -15756,30 +15740,46 @@
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>Passat New</t>
+          <t>Passat</t>
         </is>
       </c>
       <c r="D371" t="n">
-        <v>2200000</v>
+        <v>1120000</v>
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/volkswagen/passat</t>
+          <t>https://primeauto-ekb.ru/new/volkswagen/passat-2014</t>
+        </is>
+      </c>
+      <c r="J371" t="n">
+        <v>1639800</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>https://autosalon-kit.ru/auto/volkswagen/passat-new/sedan</t>
         </is>
       </c>
       <c r="N371" t="n">
-        <v>2200000</v>
+        <v>1120000</v>
       </c>
       <c r="O371" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/volkswagen/passat</t>
+          <t>https://primeauto-ekb.ru/new/volkswagen/passat-2014</t>
+        </is>
+      </c>
+      <c r="P371" t="n">
+        <v>1123700</v>
+      </c>
+      <c r="Q371" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/volkswagen/passat/b8-res-sedan-4/</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>652</t>
+          <t>650</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
@@ -15789,56 +15789,30 @@
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>Polo</t>
+          <t>Passat New</t>
         </is>
       </c>
       <c r="D372" t="n">
-        <v>480000</v>
+        <v>2200000</v>
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/volkswagen/polo-sedan</t>
-        </is>
-      </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>680000</t>
-        </is>
-      </c>
-      <c r="I372" t="inlineStr">
-        <is>
-          <t>https://new-auto96.ru/auto/volkswagen/polo/</t>
-        </is>
-      </c>
-      <c r="J372" t="n">
-        <v>673440</v>
-      </c>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>https://autosalon-kit.ru/auto/volkswagen/new-polo/sedan</t>
+          <t>https://primeauto-ekb.ru/new/volkswagen/passat</t>
         </is>
       </c>
       <c r="N372" t="n">
-        <v>480000</v>
+        <v>2200000</v>
       </c>
       <c r="O372" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/volkswagen/polo-sedan</t>
-        </is>
-      </c>
-      <c r="P372" t="n">
-        <v>734000</v>
-      </c>
-      <c r="Q372" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/volkswagen/polo/vi-liftback-5/</t>
+          <t>https://primeauto-ekb.ru/new/volkswagen/passat</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>653</t>
+          <t>652</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
@@ -15848,38 +15822,56 @@
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>Taos</t>
+          <t>Polo</t>
         </is>
       </c>
       <c r="D373" t="n">
-        <v>1464000</v>
+        <v>480000</v>
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/volkswagen/taos/2020-allroad-5/</t>
+          <t>https://primeauto-ekb.ru/new/volkswagen/polo-sedan</t>
+        </is>
+      </c>
+      <c r="H373" t="inlineStr">
+        <is>
+          <t>680000</t>
+        </is>
+      </c>
+      <c r="I373" t="inlineStr">
+        <is>
+          <t>https://new-auto96.ru/auto/volkswagen/polo/</t>
         </is>
       </c>
       <c r="J373" t="n">
-        <v>1697340</v>
+        <v>673440</v>
       </c>
       <c r="K373" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/volkswagen/taos/cuv</t>
+          <t>https://autosalon-kit.ru/auto/volkswagen/new-polo/sedan</t>
+        </is>
+      </c>
+      <c r="N373" t="n">
+        <v>480000</v>
+      </c>
+      <c r="O373" t="inlineStr">
+        <is>
+          <t>https://primeauto-ekb.ru/new/volkswagen/polo-sedan</t>
         </is>
       </c>
       <c r="P373" t="n">
-        <v>1464000</v>
+        <v>734000</v>
       </c>
       <c r="Q373" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/volkswagen/taos/2020-allroad-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/volkswagen/polo/vi-liftback-5/</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>655</t>
+          <t>653</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
@@ -15889,30 +15881,38 @@
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>Teramont</t>
+          <t>Taos</t>
         </is>
       </c>
       <c r="D374" t="n">
-        <v>2679400</v>
+        <v>1464000</v>
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/volkswagen/teramont/i-allroad-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/volkswagen/taos/2020-allroad-5/</t>
+        </is>
+      </c>
+      <c r="J374" t="n">
+        <v>1697340</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>https://autosalon-kit.ru/auto/volkswagen/taos/cuv</t>
         </is>
       </c>
       <c r="P374" t="n">
-        <v>2679400</v>
+        <v>1464000</v>
       </c>
       <c r="Q374" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/volkswagen/teramont/i-allroad-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/volkswagen/taos/2020-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>657</t>
+          <t>655</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
@@ -15922,46 +15922,30 @@
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>Tiguan</t>
+          <t>Teramont</t>
         </is>
       </c>
       <c r="D375" t="n">
-        <v>1230000</v>
+        <v>2679400</v>
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/volkswagen/tiguan-2020</t>
-        </is>
-      </c>
-      <c r="J375" t="n">
-        <v>1280940</v>
-      </c>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>https://autosalon-kit.ru/auto/volkswagen/tiguan-new/cuv</t>
-        </is>
-      </c>
-      <c r="N375" t="n">
-        <v>1230000</v>
-      </c>
-      <c r="O375" t="inlineStr">
-        <is>
-          <t>https://primeauto-ekb.ru/new/volkswagen/tiguan-2020</t>
+          <t>https://atc-gagarin.ru/cars-new/volkswagen/teramont/i-allroad-5/</t>
         </is>
       </c>
       <c r="P375" t="n">
-        <v>1529300</v>
+        <v>2679400</v>
       </c>
       <c r="Q375" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/volkswagen/tiguan/ii-res-allroad-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/volkswagen/teramont/i-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>658</t>
+          <t>657</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
@@ -15971,65 +15955,81 @@
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>Tiguan New</t>
+          <t>Tiguan</t>
         </is>
       </c>
       <c r="D376" t="n">
-        <v>1830000</v>
+        <v>1230000</v>
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>https://new-auto96.ru/auto/volkswagen/tiguan/</t>
-        </is>
-      </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>1830000</t>
-        </is>
-      </c>
-      <c r="I376" t="inlineStr">
-        <is>
-          <t>https://new-auto96.ru/auto/volkswagen/tiguan/</t>
+          <t>https://primeauto-ekb.ru/new/volkswagen/tiguan-2020</t>
+        </is>
+      </c>
+      <c r="J376" t="n">
+        <v>1280940</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>https://autosalon-kit.ru/auto/volkswagen/tiguan-new/cuv</t>
+        </is>
+      </c>
+      <c r="N376" t="n">
+        <v>1230000</v>
+      </c>
+      <c r="O376" t="inlineStr">
+        <is>
+          <t>https://primeauto-ekb.ru/new/volkswagen/tiguan-2020</t>
+        </is>
+      </c>
+      <c r="P376" t="n">
+        <v>1529300</v>
+      </c>
+      <c r="Q376" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/volkswagen/tiguan/ii-res-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>672</t>
+          <t>658</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Zotye</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>Coupa</t>
+          <t>Tiguan New</t>
         </is>
       </c>
       <c r="D377" t="n">
-        <v>750300</v>
+        <v>1830000</v>
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/zotye/coupa/2018-allroad-5/</t>
-        </is>
-      </c>
-      <c r="P377" t="n">
-        <v>750300</v>
-      </c>
-      <c r="Q377" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/zotye/coupa/2018-allroad-5/</t>
+          <t>https://new-auto96.ru/auto/volkswagen/tiguan/</t>
+        </is>
+      </c>
+      <c r="H377" t="inlineStr">
+        <is>
+          <t>1830000</t>
+        </is>
+      </c>
+      <c r="I377" t="inlineStr">
+        <is>
+          <t>https://new-auto96.ru/auto/volkswagen/tiguan/</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>674</t>
+          <t>672</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
@@ -16039,54 +16039,87 @@
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>T600</t>
+          <t>Coupa</t>
         </is>
       </c>
       <c r="D378" t="n">
-        <v>570300</v>
+        <v>750300</v>
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/zotye/t600/2013-2021-allroad-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/zotye/coupa/2018-allroad-5/</t>
         </is>
       </c>
       <c r="P378" t="n">
-        <v>570300</v>
+        <v>750300</v>
       </c>
       <c r="Q378" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/zotye/t600/2013-2021-allroad-5/</t>
+          <t>https://atc-gagarin.ru/cars-new/zotye/coupa/2018-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
+          <t>674</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>Zotye</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>T600</t>
+        </is>
+      </c>
+      <c r="D379" t="n">
+        <v>570300</v>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/zotye/t600/2013-2021-allroad-5/</t>
+        </is>
+      </c>
+      <c r="P379" t="n">
+        <v>570300</v>
+      </c>
+      <c r="Q379" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/zotye/t600/2013-2021-allroad-5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
           <t>673</t>
         </is>
       </c>
-      <c r="B379" t="inlineStr">
+      <c r="B380" t="inlineStr">
         <is>
           <t>Zotye</t>
         </is>
       </c>
-      <c r="C379" t="inlineStr">
+      <c r="C380" t="inlineStr">
         <is>
           <t>Z300</t>
         </is>
       </c>
-      <c r="D379" t="n">
+      <c r="D380" t="n">
         <v>309990</v>
       </c>
-      <c r="E379" t="inlineStr">
+      <c r="E380" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/zotye/z300/2012-2017-sedan-4/</t>
         </is>
       </c>
-      <c r="P379" t="n">
+      <c r="P380" t="n">
         <v>309990</v>
       </c>
-      <c r="Q379" t="inlineStr">
+      <c r="Q380" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/zotye/z300/2012-2017-sedan-4/</t>
         </is>

--- a/xlsx/ekaterinburg.xlsx
+++ b/xlsx/ekaterinburg.xlsx
@@ -2141,11 +2141,11 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>1469000</v>
+        <v>1390000</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/chery/tiggo-7-pro-max/2022-allroad-5/</t>
+          <t>https://primeauto-ekb.ru/new/chery/tiggo-7-pro-max</t>
         </is>
       </c>
       <c r="J44" t="n">
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2350000</v>
+        <v>1390000</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
@@ -2354,11 +2354,11 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2148540</v>
+        <v>2119000</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/chery/tiggo-8-pro-max/tiggo-8-pro-max</t>
+          <t>https://primeauto-ekb.ru/new/chery/tiggo-8-pro-max</t>
         </is>
       </c>
       <c r="J49" t="n">
@@ -2370,7 +2370,7 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>2370000</v>
+        <v>2119000</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
@@ -3291,15 +3291,15 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>1740000</v>
+        <v>1744200</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/faw/bestune-t55</t>
+          <t>https://atc-gagarin.ru/cars-new/faw/bestune-t55/2021-allroad-5/</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>1740000</v>
+        <v>1860000</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>

--- a/xlsx/ekaterinburg.xlsx
+++ b/xlsx/ekaterinburg.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O393"/>
+  <dimension ref="A1:M393"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,12 +459,12 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>auto-196.ru_price</t>
+          <t>atc-gagarin.ru_price</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>auto-196.ru</t>
+          <t>atc-gagarin.ru</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
@@ -485,16 +485,6 @@
       <c r="M1" t="inlineStr">
         <is>
           <t>primeauto-ekb.ru</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>atc-gagarin.ru_price</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>atc-gagarin.ru</t>
         </is>
       </c>
     </row>
@@ -522,10 +512,10 @@
           <t>https://atc-gagarin.ru/cars-new/baic/bj40/i-res-allroad-5/</t>
         </is>
       </c>
-      <c r="N2" t="n">
+      <c r="H2" t="n">
         <v>2835000</v>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/baic/bj40/i-res-allroad-5/</t>
         </is>
@@ -555,10 +545,10 @@
           <t>https://atc-gagarin.ru/cars-new/baic/u5-plus/2021-sedan-4/</t>
         </is>
       </c>
-      <c r="N3" t="n">
+      <c r="H3" t="n">
         <v>1210000</v>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/baic/u5-plus/2021-sedan-4/</t>
         </is>
@@ -588,10 +578,10 @@
           <t>https://atc-gagarin.ru/cars-new/baic/x35/2019-allroad-5/</t>
         </is>
       </c>
-      <c r="N4" t="n">
+      <c r="H4" t="n">
         <v>1241400</v>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/baic/x35/2019-allroad-5/</t>
         </is>
@@ -621,10 +611,10 @@
           <t>https://atc-gagarin.ru/cars-new/baic/x55/2022-allroad-5/</t>
         </is>
       </c>
-      <c r="N5" t="n">
+      <c r="H5" t="n">
         <v>1780000</v>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/baic/x55/2022-allroad-5/</t>
         </is>
@@ -654,10 +644,10 @@
           <t>https://atc-gagarin.ru/cars-new/baic/x7/i-allroad-5/</t>
         </is>
       </c>
-      <c r="N6" t="n">
+      <c r="H6" t="n">
         <v>1900000</v>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/baic/x7/i-allroad-5/</t>
         </is>
@@ -687,10 +677,10 @@
           <t>https://atc-gagarin.ru/cars-new/byd/qin/ii-sedan-plus-4/</t>
         </is>
       </c>
-      <c r="N7" t="n">
+      <c r="H7" t="n">
         <v>1599900</v>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/byd/qin/ii-sedan-plus-4/</t>
         </is>
@@ -728,10 +718,10 @@
           <t>https://uu-stoks.ru/auto/belgee/x-50_suv-1gen</t>
         </is>
       </c>
-      <c r="N8" t="n">
+      <c r="H8" t="n">
         <v>1389000</v>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/belgee/x50/2023-allroad-5/</t>
         </is>
@@ -802,6 +792,14 @@
           <t>https://uu-stoks.ru/auto/changan/alsvin_sed</t>
         </is>
       </c>
+      <c r="H10" t="n">
+        <v>855000</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/changan/alsvin/2018-sedan-4/</t>
+        </is>
+      </c>
       <c r="J10" t="n">
         <v>1116910</v>
       </c>
@@ -818,14 +816,6 @@
           <t>https://primeauto-ekb.ru/new/changan/alsvin</t>
         </is>
       </c>
-      <c r="N10" t="n">
-        <v>855000</v>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/changan/alsvin/2018-sedan-4/</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -892,6 +882,14 @@
           <t>https://uu-stoks.ru/auto/changan/cs35-plus_cs35-plus</t>
         </is>
       </c>
+      <c r="H12" t="n">
+        <v>1168900</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/changan/cs35plus/i-allroad-5/</t>
+        </is>
+      </c>
       <c r="J12" t="n">
         <v>1403940</v>
       </c>
@@ -908,14 +906,6 @@
           <t>https://primeauto-ekb.ru/new/changan/cs35-plus</t>
         </is>
       </c>
-      <c r="N12" t="n">
-        <v>1168900</v>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/changan/cs35plus/i-allroad-5/</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -982,10 +972,10 @@
           <t>https://atc-gagarin.ru/cars-new/changan/cs35plus/i-res-allroad-5/</t>
         </is>
       </c>
-      <c r="N14" t="n">
+      <c r="H14" t="n">
         <v>1099900</v>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/changan/cs35plus/i-res-allroad-5/</t>
         </is>
@@ -1023,6 +1013,14 @@
           <t>https://uu-stoks.ru/auto/changan/cs55_cuv</t>
         </is>
       </c>
+      <c r="H15" t="n">
+        <v>1299100</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/changan/cs55/i-allroad-5/</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1300000</v>
       </c>
@@ -1031,14 +1029,6 @@
           <t>https://primeauto-ekb.ru/new/changan/cs55</t>
         </is>
       </c>
-      <c r="N15" t="n">
-        <v>1299100</v>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/changan/cs55/i-allroad-5/</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1072,6 +1062,14 @@
           <t>https://uu-stoks.ru/auto/changan/cs55plus_cuv-1gen</t>
         </is>
       </c>
+      <c r="H16" t="n">
+        <v>1139900</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/changan/cs55plus/i-res-allroad-5/</t>
+        </is>
+      </c>
       <c r="J16" t="n">
         <v>1211900</v>
       </c>
@@ -1080,14 +1078,6 @@
           <t>https://autosalon-kit.ru/auto/changan/cs55plus/cuv</t>
         </is>
       </c>
-      <c r="N16" t="n">
-        <v>1139900</v>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/changan/cs55plus/i-res-allroad-5/</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1121,6 +1111,14 @@
           <t>https://uu-stoks.ru/auto/changan/CS75plus_suv-1gen</t>
         </is>
       </c>
+      <c r="H17" t="n">
+        <v>1974000</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/changan/cs75plus/i-res-allroad-5/</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1970000</v>
       </c>
@@ -1129,14 +1127,6 @@
           <t>https://primeauto-ekb.ru/new/changan/cs75-plus</t>
         </is>
       </c>
-      <c r="N17" t="n">
-        <v>1974000</v>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/changan/cs75plus/i-res-allroad-5/</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1162,10 +1152,10 @@
           <t>https://atc-gagarin.ru/cars-new/changan/cs75plus/ii-allroad-5/</t>
         </is>
       </c>
-      <c r="N18" t="n">
+      <c r="H18" t="n">
         <v>1419900</v>
       </c>
-      <c r="O18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/changan/cs75plus/ii-allroad-5/</t>
         </is>
@@ -1195,10 +1185,10 @@
           <t>https://atc-gagarin.ru/cars-new/changan/cs75/i-res-allroad-5/</t>
         </is>
       </c>
-      <c r="N19" t="n">
+      <c r="H19" t="n">
         <v>1110300</v>
       </c>
-      <c r="O19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/changan/cs75/i-res-allroad-5/</t>
         </is>
@@ -1277,10 +1267,10 @@
           <t>https://atc-gagarin.ru/cars-new/changan/cs85/2019-allroad-5/</t>
         </is>
       </c>
-      <c r="N21" t="n">
+      <c r="H21" t="n">
         <v>2722100</v>
       </c>
-      <c r="O21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/changan/cs85/2019-allroad-5/</t>
         </is>
@@ -1367,6 +1357,14 @@
           <t>https://uu-stoks.ru/auto/changan/cs95_suv-1gen-rest</t>
         </is>
       </c>
+      <c r="H23" t="n">
+        <v>2799900</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/changan/cs95/i-res-allroad-5/</t>
+        </is>
+      </c>
       <c r="J23" t="n">
         <v>4099900</v>
       </c>
@@ -1383,14 +1381,6 @@
           <t>https://primeauto-ekb.ru/new/changan/cs95</t>
         </is>
       </c>
-      <c r="N23" t="n">
-        <v>2799900</v>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/changan/cs95/i-res-allroad-5/</t>
-        </is>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1416,10 +1406,10 @@
           <t>https://atc-gagarin.ru/cars-new/changan/cs95/i-res2-allroad-5/</t>
         </is>
       </c>
-      <c r="N24" t="n">
+      <c r="H24" t="n">
         <v>3099900</v>
       </c>
-      <c r="O24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/changan/cs95/i-res2-allroad-5/</t>
         </is>
@@ -1498,6 +1488,14 @@
           <t>https://uu-stoks.ru/auto/changan/eado-plus_sedan-2gen-rest</t>
         </is>
       </c>
+      <c r="H26" t="n">
+        <v>1688100</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/changan/eado-plus/2020-sedan-4/</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1680000</v>
       </c>
@@ -1506,14 +1504,6 @@
           <t>https://primeauto-ekb.ru/new/changan/eado-plus</t>
         </is>
       </c>
-      <c r="N26" t="n">
-        <v>1688100</v>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/changan/eado-plus/2020-sedan-4/</t>
-        </is>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1547,6 +1537,14 @@
           <t>https://uu-stoks.ru/auto/changan/hunter-plus_pickup-1gen-rest</t>
         </is>
       </c>
+      <c r="H27" t="n">
+        <v>2478100</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/changan/hunter-plus/2023-pickup-two-4/</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>2470000</v>
       </c>
@@ -1555,14 +1553,6 @@
           <t>https://primeauto-ekb.ru/new/changan/hunter-plus</t>
         </is>
       </c>
-      <c r="N27" t="n">
-        <v>2478100</v>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/changan/hunter-plus/2023-pickup-two-4/</t>
-        </is>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1596,6 +1586,14 @@
           <t>https://uu-stoks.ru/auto/changan/lamore_sedan-1gen</t>
         </is>
       </c>
+      <c r="H28" t="n">
+        <v>1789900</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/changan/lamore/2023-sedan-4/</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1560000</v>
       </c>
@@ -1604,14 +1602,6 @@
           <t>https://primeauto-ekb.ru/new/changan/lamore</t>
         </is>
       </c>
-      <c r="N28" t="n">
-        <v>1789900</v>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/changan/lamore/2023-sedan-4/</t>
-        </is>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1678,6 +1668,14 @@
           <t>https://uu-stoks.ru/auto/changan/raeton-plus_sedan-1gen</t>
         </is>
       </c>
+      <c r="H30" t="n">
+        <v>1839000</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/changan/raeton-plus/2022-sedan-4/</t>
+        </is>
+      </c>
       <c r="J30" t="n">
         <v>2785000</v>
       </c>
@@ -1694,14 +1692,6 @@
           <t>https://primeauto-ekb.ru/new/changan/raeton-plus</t>
         </is>
       </c>
-      <c r="N30" t="n">
-        <v>1839000</v>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/changan/raeton-plus/2022-sedan-4/</t>
-        </is>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1735,6 +1725,14 @@
           <t>https://uu-stoks.ru/auto/changan/uni-k_suv-1gen</t>
         </is>
       </c>
+      <c r="H31" t="n">
+        <v>2426900</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/changan/uni-k/2020-allroad-5/</t>
+        </is>
+      </c>
       <c r="J31" t="n">
         <v>2183940</v>
       </c>
@@ -1751,14 +1749,6 @@
           <t>https://primeauto-ekb.ru/new/changan/uni-k</t>
         </is>
       </c>
-      <c r="N31" t="n">
-        <v>2426900</v>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/changan/uni-k/2020-allroad-5/</t>
-        </is>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1825,6 +1815,14 @@
           <t>https://uu-stoks.ru/auto/changan/UNI-T_suv_5d-1gen</t>
         </is>
       </c>
+      <c r="H33" t="n">
+        <v>1829200</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/changan/uni-t/i-res-allroad-5/</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1830000</v>
       </c>
@@ -1833,14 +1831,6 @@
           <t>https://primeauto-ekb.ru/new/changan/uni-t</t>
         </is>
       </c>
-      <c r="N33" t="n">
-        <v>1829200</v>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/changan/uni-t/i-res-allroad-5/</t>
-        </is>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1874,6 +1864,14 @@
           <t>https://uu-stoks.ru/auto/changan/uni-v_liftback-1gen</t>
         </is>
       </c>
+      <c r="H34" t="n">
+        <v>1969000</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/changan/uni-v/2022-liftback-5/</t>
+        </is>
+      </c>
       <c r="J34" t="n">
         <v>1715940</v>
       </c>
@@ -1890,14 +1888,6 @@
           <t>https://primeauto-ekb.ru/new/changan/uni-v</t>
         </is>
       </c>
-      <c r="N34" t="n">
-        <v>1969000</v>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/changan/uni-v/2022-liftback-5/</t>
-        </is>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1964,6 +1954,14 @@
           <t>https://atc-gagarin.ru/cars-new/chery/explore-06/2023-allroad-5/</t>
         </is>
       </c>
+      <c r="H36" t="n">
+        <v>1340000</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/chery/explore-06/2023-allroad-5/</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1590000</v>
       </c>
@@ -1972,14 +1970,6 @@
           <t>https://primeauto-ekb.ru/new/chery/explore-06</t>
         </is>
       </c>
-      <c r="N36" t="n">
-        <v>1340000</v>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/chery/explore-06/2023-allroad-5/</t>
-        </is>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2054,10 +2044,10 @@
           <t>https://uu-stoks.ru/auto/chery/tiggo-2-pro_suv-2gen</t>
         </is>
       </c>
-      <c r="N38" t="n">
+      <c r="H38" t="n">
         <v>799900</v>
       </c>
-      <c r="O38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/chery/tiggo-2-pro/2021-allroad-5/</t>
         </is>
@@ -2169,6 +2159,14 @@
           <t>https://uu-stoks.ru/auto/chery/tiggo-4_2019</t>
         </is>
       </c>
+      <c r="H41" t="n">
+        <v>865100</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/chery/tiggo-4/i-res-allroad-5/</t>
+        </is>
+      </c>
       <c r="J41" t="n">
         <v>1019940</v>
       </c>
@@ -2185,14 +2183,6 @@
           <t>https://primeauto-ekb.ru/new/chery/tiggo-4</t>
         </is>
       </c>
-      <c r="N41" t="n">
-        <v>865100</v>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/chery/tiggo-4/i-res-allroad-5/</t>
-        </is>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2218,10 +2208,10 @@
           <t>https://atc-gagarin.ru/cars-new/chery/tiggo-4/i-res2-allroad-5/</t>
         </is>
       </c>
-      <c r="N42" t="n">
+      <c r="H42" t="n">
         <v>1389000</v>
       </c>
-      <c r="O42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/chery/tiggo-4/i-res2-allroad-5/</t>
         </is>
@@ -2259,6 +2249,14 @@
           <t>https://uu-stoks.ru/auto/chery/tiggo-4-pro_cuv</t>
         </is>
       </c>
+      <c r="H43" t="n">
+        <v>1195100</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/chery/tiggo-4-pro/i-allroad-5/</t>
+        </is>
+      </c>
       <c r="J43" t="n">
         <v>1331940</v>
       </c>
@@ -2275,14 +2273,6 @@
           <t>https://primeauto-ekb.ru/new/chery/tiggo-4-pro</t>
         </is>
       </c>
-      <c r="N43" t="n">
-        <v>1195100</v>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/chery/tiggo-4-pro/i-allroad-5/</t>
-        </is>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2305,7 +2295,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/chery/tiggo-7/i-allroad-5/</t>
+          <t>https://primeauto-ekb.ru/new/chery/tiggo-7</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -2316,6 +2306,14 @@
           <t>https://uu-stoks.ru/auto/chery/tiggo-7_2019</t>
         </is>
       </c>
+      <c r="H44" t="n">
+        <v>980000</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/chery/tiggo-7/i-allroad-5/</t>
+        </is>
+      </c>
       <c r="J44" t="n">
         <v>1437940</v>
       </c>
@@ -2332,14 +2330,6 @@
           <t>https://primeauto-ekb.ru/new/chery/tiggo-7</t>
         </is>
       </c>
-      <c r="N44" t="n">
-        <v>980000</v>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/chery/tiggo-7/i-allroad-5/</t>
-        </is>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2373,6 +2363,14 @@
           <t>https://uu-stoks.ru/auto/chery/tiggo-7-pro_cuv</t>
         </is>
       </c>
+      <c r="H45" t="n">
+        <v>1260100</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/chery/tiggo-7-pro/i-allroad-5/</t>
+        </is>
+      </c>
       <c r="J45" t="n">
         <v>1691940</v>
       </c>
@@ -2389,14 +2387,6 @@
           <t>https://primeauto-ekb.ru/new/chery/tiggo-7-pro</t>
         </is>
       </c>
-      <c r="N45" t="n">
-        <v>1260100</v>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/chery/tiggo-7-pro/i-allroad-5/</t>
-        </is>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2430,6 +2420,14 @@
           <t>https://uu-stoks.ru/auto/chery/tiggo-7-pro-max_cuv-2gen-rest</t>
         </is>
       </c>
+      <c r="H46" t="n">
+        <v>1469000</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/chery/tiggo-7-pro-max/2022-allroad-5/</t>
+        </is>
+      </c>
       <c r="J46" t="n">
         <v>1721940</v>
       </c>
@@ -2446,14 +2444,6 @@
           <t>https://primeauto-ekb.ru/new/chery/tiggo-7-pro-max</t>
         </is>
       </c>
-      <c r="N46" t="n">
-        <v>1469000</v>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/chery/tiggo-7-pro-max/2022-allroad-5/</t>
-        </is>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2487,10 +2477,10 @@
           <t>https://uu-stoks.ru/auto/chery/tiggo-7-pro-max_suv-1gen-rest</t>
         </is>
       </c>
-      <c r="N47" t="n">
+      <c r="H47" t="n">
         <v>1770000</v>
       </c>
-      <c r="O47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/chery/tiggo-7-pro-max/i-res-allroad-5/</t>
         </is>
@@ -2528,6 +2518,14 @@
           <t>https://uu-stoks.ru/auto/chery/tiggo-8_crossover</t>
         </is>
       </c>
+      <c r="H48" t="n">
+        <v>1390100</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/chery/tiggo-8/i-allroad-5/</t>
+        </is>
+      </c>
       <c r="J48" t="n">
         <v>1829940</v>
       </c>
@@ -2544,14 +2542,6 @@
           <t>https://primeauto-ekb.ru/new/chery/tiggo-8</t>
         </is>
       </c>
-      <c r="N48" t="n">
-        <v>1390100</v>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/chery/tiggo-8/i-allroad-5/</t>
-        </is>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2618,6 +2608,14 @@
           <t>https://uu-stoks.ru/auto/chery/tiggo-8-pro_cuv</t>
         </is>
       </c>
+      <c r="H50" t="n">
+        <v>1570100</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/chery/tiggo-8-pro/i-allroad-5/</t>
+        </is>
+      </c>
       <c r="J50" t="n">
         <v>2089940</v>
       </c>
@@ -2634,14 +2632,6 @@
           <t>https://primeauto-ekb.ru/new/chery/tiggo-8-pro</t>
         </is>
       </c>
-      <c r="N50" t="n">
-        <v>1570100</v>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/chery/tiggo-8-pro/i-allroad-5/</t>
-        </is>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2675,6 +2665,14 @@
           <t>https://uu-stoks.ru/auto/chery/tiggo-8-pro-max_suv-1gen-2rest</t>
         </is>
       </c>
+      <c r="H51" t="n">
+        <v>2371100</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/chery/tiggo-8-pro-max/i-allroad-5/</t>
+        </is>
+      </c>
       <c r="J51" t="n">
         <v>2148540</v>
       </c>
@@ -2691,14 +2689,6 @@
           <t>https://primeauto-ekb.ru/new/chery/tiggo-8-pro-max</t>
         </is>
       </c>
-      <c r="N51" t="n">
-        <v>2371100</v>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/chery/tiggo-8-pro-max/i-allroad-5/</t>
-        </is>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2724,10 +2714,10 @@
           <t>https://atc-gagarin.ru/cars-new/chery/tiggo-8-pro-max/i-res-allroad-5/</t>
         </is>
       </c>
-      <c r="N52" t="n">
+      <c r="H52" t="n">
         <v>2540900</v>
       </c>
-      <c r="O52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/chery/tiggo-8-pro-max/i-res-allroad-5/</t>
         </is>
@@ -2765,6 +2755,14 @@
           <t>https://uu-stoks.ru/auto/chery/tiggo-8-pro-e+_suv-1gen</t>
         </is>
       </c>
+      <c r="H53" t="n">
+        <v>2915940</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/chery/tiggo-8-pro-eplus/2021-allroad-5/</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>2000000</v>
       </c>
@@ -2773,14 +2771,6 @@
           <t>https://primeauto-ekb.ru/new/chery/tiggo-8-pro-e</t>
         </is>
       </c>
-      <c r="N53" t="n">
-        <v>2915940</v>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/chery/tiggo-8-pro-eplus/2021-allroad-5/</t>
-        </is>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2814,6 +2804,14 @@
           <t>https://uu-stoks.ru/auto/chery/tiggo-9_suv-1gen</t>
         </is>
       </c>
+      <c r="H54" t="n">
+        <v>2650000</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/chery/tiggo-9/2023-allroad-5/</t>
+        </is>
+      </c>
       <c r="J54" t="n">
         <v>4800000</v>
       </c>
@@ -2830,14 +2828,6 @@
           <t>https://primeauto-ekb.ru/new/chery/tiggo-9</t>
         </is>
       </c>
-      <c r="N54" t="n">
-        <v>2650000</v>
-      </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/chery/tiggo-9/2023-allroad-5/</t>
-        </is>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2863,10 +2853,10 @@
           <t>https://atc-gagarin.ru/cars-new/chery/tiggo-9/i-allroad-5/</t>
         </is>
       </c>
-      <c r="N55" t="n">
+      <c r="H55" t="n">
         <v>2905000</v>
       </c>
-      <c r="O55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/chery/tiggo-9/i-allroad-5/</t>
         </is>
@@ -2896,6 +2886,14 @@
           <t>https://atc-gagarin.ru/cars-new/chevrolet/captiva/ii-allroad-5/</t>
         </is>
       </c>
+      <c r="H56" t="n">
+        <v>1249000</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/chevrolet/captiva/ii-allroad-5/</t>
+        </is>
+      </c>
       <c r="J56" t="n">
         <v>2249000</v>
       </c>
@@ -2904,14 +2902,6 @@
           <t>https://autosalon-kit.ru/auto/chevrolet/Captiva-new/suv-2gen</t>
         </is>
       </c>
-      <c r="N56" t="n">
-        <v>1249000</v>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/chevrolet/captiva/ii-allroad-5/</t>
-        </is>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3003,10 +2993,10 @@
           <t>https://atc-gagarin.ru/cars-new/chevrolet/niva/i-res-allroad-5/</t>
         </is>
       </c>
-      <c r="N59" t="n">
+      <c r="H59" t="n">
         <v>437900</v>
       </c>
-      <c r="O59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/chevrolet/niva/i-res-allroad-5/</t>
         </is>
@@ -3077,10 +3067,10 @@
           <t>https://uu-stoks.ru/auto/chevrolet/railblazer_cuv</t>
         </is>
       </c>
-      <c r="N61" t="n">
+      <c r="H61" t="n">
         <v>1670000</v>
       </c>
-      <c r="O61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/chevrolet/trailblazer/iii-allroad-5/</t>
         </is>
@@ -3110,10 +3100,10 @@
           <t>https://atc-gagarin.ru/cars-new/chevrolet/traverse/ii-allroad-5/</t>
         </is>
       </c>
-      <c r="N62" t="n">
+      <c r="H62" t="n">
         <v>2940000</v>
       </c>
-      <c r="O62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/chevrolet/traverse/ii-allroad-5/</t>
         </is>
@@ -3217,6 +3207,14 @@
           <t>https://uu-stoks.ru/auto/dongfeng/dfm-580_dfm-580</t>
         </is>
       </c>
+      <c r="H65" t="n">
+        <v>989000</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/dongfeng/580/i-allroad-5/</t>
+        </is>
+      </c>
       <c r="J65" t="n">
         <v>1157400</v>
       </c>
@@ -3225,14 +3223,6 @@
           <t>https://autosalon-kit.ru/auto/dongfeng/580/580</t>
         </is>
       </c>
-      <c r="N65" t="n">
-        <v>989000</v>
-      </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/dongfeng/580/i-allroad-5/</t>
-        </is>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3258,10 +3248,10 @@
           <t>https://atc-gagarin.ru/cars-new/dongfeng/580/ii-allroad-5/</t>
         </is>
       </c>
-      <c r="N66" t="n">
+      <c r="H66" t="n">
         <v>1499000</v>
       </c>
-      <c r="O66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/dongfeng/580/ii-allroad-5/</t>
         </is>
@@ -3291,6 +3281,14 @@
           <t>https://autosalon-kit.ru/auto/dongfeng/ax7/suv</t>
         </is>
       </c>
+      <c r="H67" t="n">
+        <v>1028900</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/dongfeng/ax7/i-allroad-5/</t>
+        </is>
+      </c>
       <c r="J67" t="n">
         <v>737400</v>
       </c>
@@ -3299,14 +3297,6 @@
           <t>https://autosalon-kit.ru/auto/dongfeng/ax7/suv</t>
         </is>
       </c>
-      <c r="N67" t="n">
-        <v>1028900</v>
-      </c>
-      <c r="O67" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/dongfeng/ax7/i-allroad-5/</t>
-        </is>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3340,10 +3330,10 @@
           <t>https://uu-stoks.ru/auto/dongfeng/df6_df6</t>
         </is>
       </c>
-      <c r="N68" t="n">
+      <c r="H68" t="n">
         <v>1790000</v>
       </c>
-      <c r="O68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/dongfeng/df6/2022-pickup-4/</t>
         </is>
@@ -3463,10 +3453,10 @@
           <t>https://uu-stoks.ru/auto/dongfeng/shine-max_SEDAN</t>
         </is>
       </c>
-      <c r="N71" t="n">
+      <c r="H71" t="n">
         <v>1990000</v>
       </c>
-      <c r="O71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/dongfeng/shine-max/2023-sedan-4/</t>
         </is>
@@ -3504,6 +3494,14 @@
           <t>https://uu-stoks.ru/auto/exeed/lx_suv-1gen</t>
         </is>
       </c>
+      <c r="H72" t="n">
+        <v>1934200</v>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/cheryexeed/lx/2019-allroad-5/</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1930000</v>
       </c>
@@ -3512,14 +3510,6 @@
           <t>https://primeauto-ekb.ru/new/exeed/lx</t>
         </is>
       </c>
-      <c r="N72" t="n">
-        <v>1934200</v>
-      </c>
-      <c r="O72" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/cheryexeed/lx/2019-allroad-5/</t>
-        </is>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3553,6 +3543,14 @@
           <t>https://uu-stoks.ru/auto/exeed/rx_suv-1gen</t>
         </is>
       </c>
+      <c r="H73" t="n">
+        <v>3115000</v>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/cheryexeed/rx/2023-allroad-5/</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>2700000</v>
       </c>
@@ -3561,14 +3559,6 @@
           <t>https://primeauto-ekb.ru/new/exeed/rx</t>
         </is>
       </c>
-      <c r="N73" t="n">
-        <v>3115000</v>
-      </c>
-      <c r="O73" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/cheryexeed/rx/2023-allroad-5/</t>
-        </is>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3602,6 +3592,14 @@
           <t>https://uu-stoks.ru/auto/exeed/txl_cuv</t>
         </is>
       </c>
+      <c r="H74" t="n">
+        <v>1929900</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/cheryexeed/txl/i-allroad-5/</t>
+        </is>
+      </c>
       <c r="J74" t="n">
         <v>2399940</v>
       </c>
@@ -3618,14 +3616,6 @@
           <t>https://primeauto-ekb.ru/new/exeed/txl</t>
         </is>
       </c>
-      <c r="N74" t="n">
-        <v>1929900</v>
-      </c>
-      <c r="O74" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/cheryexeed/txl/i-allroad-5/</t>
-        </is>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3692,10 +3682,10 @@
           <t>https://atc-gagarin.ru/cars-new/cheryexeed/txl/i-res-allroad-5/</t>
         </is>
       </c>
-      <c r="N76" t="n">
+      <c r="H76" t="n">
         <v>2229900</v>
       </c>
-      <c r="O76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/cheryexeed/txl/i-res-allroad-5/</t>
         </is>
@@ -3733,6 +3723,14 @@
           <t>https://uu-stoks.ru/auto/exeed/vx_cuv</t>
         </is>
       </c>
+      <c r="H77" t="n">
+        <v>2830100</v>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/cheryexeed/vx/i-allroad-5/</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>2830000</v>
       </c>
@@ -3741,14 +3739,6 @@
           <t>https://primeauto-ekb.ru/new/exeed/vx</t>
         </is>
       </c>
-      <c r="N77" t="n">
-        <v>2830100</v>
-      </c>
-      <c r="O77" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/cheryexeed/vx/i-allroad-5/</t>
-        </is>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3856,10 +3846,10 @@
           <t>https://atc-gagarin.ru/cars-new/cheryexeed/vx/i-res-allroad-5/</t>
         </is>
       </c>
-      <c r="N80" t="n">
+      <c r="H80" t="n">
         <v>4349000</v>
       </c>
-      <c r="O80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/cheryexeed/vx/i-res-allroad-5/</t>
         </is>
@@ -3922,6 +3912,14 @@
           <t>https://atc-gagarin.ru/cars-new/faw/bestune-t55/2021-allroad-5/</t>
         </is>
       </c>
+      <c r="H82" t="n">
+        <v>1744200</v>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/faw/bestune-t55/2021-allroad-5/</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1860000</v>
       </c>
@@ -3930,14 +3928,6 @@
           <t>https://primeauto-ekb.ru/new/faw/bestune-t55</t>
         </is>
       </c>
-      <c r="N82" t="n">
-        <v>1744200</v>
-      </c>
-      <c r="O82" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/faw/bestune-t55/2021-allroad-5/</t>
-        </is>
-      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3971,6 +3961,14 @@
           <t>https://uu-stoks.ru/auto/faw/bestune-t77_cuv</t>
         </is>
       </c>
+      <c r="H83" t="n">
+        <v>1868100</v>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/faw/bestune-t77/2018-allroad-5/</t>
+        </is>
+      </c>
       <c r="J83" t="n">
         <v>1302000</v>
       </c>
@@ -3987,14 +3985,6 @@
           <t>https://primeauto-ekb.ru/new/faw/bestune-t77</t>
         </is>
       </c>
-      <c r="N83" t="n">
-        <v>1868100</v>
-      </c>
-      <c r="O83" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/faw/bestune-t77/2018-allroad-5/</t>
-        </is>
-      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -4053,10 +4043,10 @@
           <t>https://atc-gagarin.ru/cars-new/faw/bestune-t99/i-res-allroad-5/</t>
         </is>
       </c>
-      <c r="N85" t="n">
+      <c r="H85" t="n">
         <v>2240000</v>
       </c>
-      <c r="O85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/faw/bestune-t99/i-res-allroad-5/</t>
         </is>
@@ -4193,6 +4183,14 @@
           <t>https://atc-gagarin.ru/cars-new/faw/besturn-x40/i-allroad-5/</t>
         </is>
       </c>
+      <c r="H89" t="n">
+        <v>640300</v>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/faw/besturn-x40/i-allroad-5/</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1190000</v>
       </c>
@@ -4201,14 +4199,6 @@
           <t>https://primeauto-ekb.ru/new/faw/besturn-x40</t>
         </is>
       </c>
-      <c r="N89" t="n">
-        <v>640300</v>
-      </c>
-      <c r="O89" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/faw/besturn-x40/i-allroad-5/</t>
-        </is>
-      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -4242,6 +4232,14 @@
           <t>https://uu-stoks.ru/auto/faw/besturn-x80-new_cuv</t>
         </is>
       </c>
+      <c r="H90" t="n">
+        <v>782000</v>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/faw/besturn-x80/i-res-allroad-5/</t>
+        </is>
+      </c>
       <c r="J90" t="n">
         <v>904800</v>
       </c>
@@ -4250,14 +4248,6 @@
           <t>https://autosalon-kit.ru/auto/faw/besturn-x80-new/cuv</t>
         </is>
       </c>
-      <c r="N90" t="n">
-        <v>782000</v>
-      </c>
-      <c r="O90" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/faw/besturn-x80/i-res-allroad-5/</t>
-        </is>
-      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -4349,10 +4339,10 @@
           <t>https://atc-gagarin.ru/cars-new/forthing/t5-evo/2020-allroad-5/</t>
         </is>
       </c>
-      <c r="N93" t="n">
+      <c r="H93" t="n">
         <v>2080000</v>
       </c>
-      <c r="O93" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/forthing/t5-evo/2020-allroad-5/</t>
         </is>
@@ -4382,10 +4372,10 @@
           <t>https://atc-gagarin.ru/cars-new/forthing/yacht/2022-minivan-5/</t>
         </is>
       </c>
-      <c r="N94" t="n">
+      <c r="H94" t="n">
         <v>3090000</v>
       </c>
-      <c r="O94" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/forthing/yacht/2022-minivan-5/</t>
         </is>
@@ -4423,6 +4413,14 @@
           <t>https://uu-stoks.ru/auto/gac/gn-8_van</t>
         </is>
       </c>
+      <c r="H95" t="n">
+        <v>2240000</v>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/gac/gn8/i-minivan-5/</t>
+        </is>
+      </c>
       <c r="J95" t="n">
         <v>2039400</v>
       </c>
@@ -4439,14 +4437,6 @@
           <t>https://primeauto-ekb.ru/new/gac/gn8</t>
         </is>
       </c>
-      <c r="N95" t="n">
-        <v>2240000</v>
-      </c>
-      <c r="O95" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/gac/gn8/i-minivan-5/</t>
-        </is>
-      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -4472,10 +4462,10 @@
           <t>https://atc-gagarin.ru/cars-new/gac/gs3/2024-allroad-5/</t>
         </is>
       </c>
-      <c r="N96" t="n">
+      <c r="H96" t="n">
         <v>1552500</v>
       </c>
-      <c r="O96" t="inlineStr">
+      <c r="I96" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/gac/gs3/2024-allroad-5/</t>
         </is>
@@ -4538,10 +4528,10 @@
           <t>https://atc-gagarin.ru/cars-new/trumpchi/gs3/ii-allroad-5/</t>
         </is>
       </c>
-      <c r="N98" t="n">
+      <c r="H98" t="n">
         <v>2299000</v>
       </c>
-      <c r="O98" t="inlineStr">
+      <c r="I98" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/trumpchi/gs3/ii-allroad-5/</t>
         </is>
@@ -4579,6 +4569,14 @@
           <t>https://uu-stoks.ru/auto/gac/gs-5_cuv</t>
         </is>
       </c>
+      <c r="H99" t="n">
+        <v>1268100</v>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/gac/gs5/i-allroad-5/</t>
+        </is>
+      </c>
       <c r="J99" t="n">
         <v>1349400</v>
       </c>
@@ -4595,14 +4593,6 @@
           <t>https://primeauto-ekb.ru/new/gac/gs5</t>
         </is>
       </c>
-      <c r="N99" t="n">
-        <v>1268100</v>
-      </c>
-      <c r="O99" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/gac/gs5/i-allroad-5/</t>
-        </is>
-      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -4636,6 +4626,14 @@
           <t>https://uu-stoks.ru/auto/gac/gc-8_crossover</t>
         </is>
       </c>
+      <c r="H100" t="n">
+        <v>2309000</v>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/gac/gs8/i-allroad-5/</t>
+        </is>
+      </c>
       <c r="J100" t="n">
         <v>1793400</v>
       </c>
@@ -4644,14 +4642,6 @@
           <t>https://autosalon-kit.ru/auto/gac/gc-8/crossover</t>
         </is>
       </c>
-      <c r="N100" t="n">
-        <v>2309000</v>
-      </c>
-      <c r="O100" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/gac/gs8/i-allroad-5/</t>
-        </is>
-      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -4824,6 +4814,14 @@
           <t>https://uu-stoks.ru/auto/geely/atlas-pro_cuv</t>
         </is>
       </c>
+      <c r="H104" t="n">
+        <v>1619990</v>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/geely/atlas-pro/2021-allroad-5/</t>
+        </is>
+      </c>
       <c r="J104" t="n">
         <v>1331394</v>
       </c>
@@ -4840,14 +4838,6 @@
           <t>https://primeauto-ekb.ru/new/geely/atlas-pro</t>
         </is>
       </c>
-      <c r="N104" t="n">
-        <v>1619990</v>
-      </c>
-      <c r="O104" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/geely/atlas-pro/2021-allroad-5/</t>
-        </is>
-      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -4906,10 +4896,10 @@
           <t>https://atc-gagarin.ru/cars-new/geely/cityray/2024-allroad-5/</t>
         </is>
       </c>
-      <c r="N106" t="n">
+      <c r="H106" t="n">
         <v>1299000</v>
       </c>
-      <c r="O106" t="inlineStr">
+      <c r="I106" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/geely/cityray/2024-allroad-5/</t>
         </is>
@@ -4947,6 +4937,14 @@
           <t>https://uu-stoks.ru/auto/geely/coolray_cuv</t>
         </is>
       </c>
+      <c r="H107" t="n">
+        <v>966300</v>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/geely/coolray/i-allroad-5/</t>
+        </is>
+      </c>
       <c r="J107" t="n">
         <v>997994</v>
       </c>
@@ -4963,14 +4961,6 @@
           <t>https://primeauto-ekb.ru/new/geely/coolray</t>
         </is>
       </c>
-      <c r="N107" t="n">
-        <v>966300</v>
-      </c>
-      <c r="O107" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/geely/coolray/i-allroad-5/</t>
-        </is>
-      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -5053,6 +5043,14 @@
           <t>https://uu-stoks.ru/auto/geely/emgrand_sedan-2gen</t>
         </is>
       </c>
+      <c r="H109" t="n">
+        <v>1248990</v>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/geely/emgrand/ii-sedan-4/</t>
+        </is>
+      </c>
       <c r="J109" t="n">
         <v>1609990</v>
       </c>
@@ -5069,14 +5067,6 @@
           <t>https://primeauto-ekb.ru/new/geely/emgrand-2023</t>
         </is>
       </c>
-      <c r="N109" t="n">
-        <v>1248990</v>
-      </c>
-      <c r="O109" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/geely/emgrand/ii-sedan-4/</t>
-        </is>
-      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -5135,10 +5125,10 @@
           <t>https://atc-gagarin.ru/cars-new/geely/emgrand-x7/i-res2-allroad-5/</t>
         </is>
       </c>
-      <c r="N111" t="n">
+      <c r="H111" t="n">
         <v>871200</v>
       </c>
-      <c r="O111" t="inlineStr">
+      <c r="I111" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/geely/emgrand-x7/i-res2-allroad-5/</t>
         </is>
@@ -5168,6 +5158,14 @@
           <t>https://autosalon-kit.ru/auto/geely/gs/cuv</t>
         </is>
       </c>
+      <c r="H112" t="n">
+        <v>1000300</v>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/geely/gs/i-allroad-5/</t>
+        </is>
+      </c>
       <c r="J112" t="n">
         <v>791994</v>
       </c>
@@ -5184,14 +5182,6 @@
           <t>https://primeauto-ekb.ru/new/geely/gs</t>
         </is>
       </c>
-      <c r="N112" t="n">
-        <v>1000300</v>
-      </c>
-      <c r="O112" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/geely/gs/i-allroad-5/</t>
-        </is>
-      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -5225,6 +5215,14 @@
           <t>https://uu-stoks.ru/auto/geely/monjaro_monjaro</t>
         </is>
       </c>
+      <c r="H113" t="n">
+        <v>2819900</v>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/geely/monjaro/2021-allroad-5/</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>2820000</v>
       </c>
@@ -5233,14 +5231,6 @@
           <t>https://primeauto-ekb.ru/new/geely/monjaro</t>
         </is>
       </c>
-      <c r="N113" t="n">
-        <v>2819900</v>
-      </c>
-      <c r="O113" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/geely/monjaro/2021-allroad-5/</t>
-        </is>
-      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -5274,6 +5264,14 @@
           <t>https://uu-stoks.ru/auto/geely/okavango_suv-1gen</t>
         </is>
       </c>
+      <c r="H114" t="n">
+        <v>2449990</v>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/geely/okavango/i-allroad-5/</t>
+        </is>
+      </c>
       <c r="J114" t="n">
         <v>2200000</v>
       </c>
@@ -5290,14 +5288,6 @@
           <t>https://primeauto-ekb.ru/new/geely/okavango</t>
         </is>
       </c>
-      <c r="N114" t="n">
-        <v>2449990</v>
-      </c>
-      <c r="O114" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/geely/okavango/i-allroad-5/</t>
-        </is>
-      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -5331,10 +5321,10 @@
           <t>https://uu-stoks.ru/auto/geely/okavango_suv-1gen-rest</t>
         </is>
       </c>
-      <c r="N115" t="n">
+      <c r="H115" t="n">
         <v>2649990</v>
       </c>
-      <c r="O115" t="inlineStr">
+      <c r="I115" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/geely/okavango/i-res-allroad-5/</t>
         </is>
@@ -5372,6 +5362,14 @@
           <t>https://uu-stoks.ru/auto/geely/preface_sedan-1gen-rest</t>
         </is>
       </c>
+      <c r="H116" t="n">
+        <v>1549000</v>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/geely/preface/i-res-sedan-4/</t>
+        </is>
+      </c>
       <c r="J116" t="n">
         <v>1500000</v>
       </c>
@@ -5388,14 +5386,6 @@
           <t>https://primeauto-ekb.ru/new/geely/preface</t>
         </is>
       </c>
-      <c r="N116" t="n">
-        <v>1549000</v>
-      </c>
-      <c r="O116" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/geely/preface/i-res-sedan-4/</t>
-        </is>
-      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -5421,10 +5411,10 @@
           <t>https://atc-gagarin.ru/cars-new/geely/preface/i-res2-sedan-4/</t>
         </is>
       </c>
-      <c r="N117" t="n">
+      <c r="H117" t="n">
         <v>2699000</v>
       </c>
-      <c r="O117" t="inlineStr">
+      <c r="I117" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/geely/preface/i-res2-sedan-4/</t>
         </is>
@@ -5462,6 +5452,14 @@
           <t>https://uu-stoks.ru/auto/geely/tugella_cuv</t>
         </is>
       </c>
+      <c r="H118" t="n">
+        <v>1919500</v>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/geely/tugella/i-allroad-5/</t>
+        </is>
+      </c>
       <c r="J118" t="n">
         <v>2239994</v>
       </c>
@@ -5478,14 +5476,6 @@
           <t>https://primeauto-ekb.ru/new/geely/tugella</t>
         </is>
       </c>
-      <c r="N118" t="n">
-        <v>1919500</v>
-      </c>
-      <c r="O118" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/geely/tugella/i-allroad-5/</t>
-        </is>
-      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -5544,10 +5534,10 @@
           <t>https://atc-gagarin.ru/cars-new/geely/tugella/i-res-allroad-5/</t>
         </is>
       </c>
-      <c r="N120" t="n">
+      <c r="H120" t="n">
         <v>1999000</v>
       </c>
-      <c r="O120" t="inlineStr">
+      <c r="I120" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/geely/tugella/i-res-allroad-5/</t>
         </is>
@@ -5692,10 +5682,10 @@
           <t>https://atc-gagarin.ru/cars-new/haima/7x/2020-minivan-5/</t>
         </is>
       </c>
-      <c r="N124" t="n">
+      <c r="H124" t="n">
         <v>3100000</v>
       </c>
-      <c r="O124" t="inlineStr">
+      <c r="I124" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/haima/7x/2020-minivan-5/</t>
         </is>
@@ -5725,10 +5715,10 @@
           <t>https://atc-gagarin.ru/cars-new/haima/8s/2019-allroad-5/</t>
         </is>
       </c>
-      <c r="N125" t="n">
+      <c r="H125" t="n">
         <v>2100000</v>
       </c>
-      <c r="O125" t="inlineStr">
+      <c r="I125" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/haima/8s/2019-allroad-5/</t>
         </is>
@@ -5766,6 +5756,14 @@
           <t>https://uu-stoks.ru/auto/haval/dargo_cuv-1gen</t>
         </is>
       </c>
+      <c r="H126" t="n">
+        <v>1978100</v>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/haval/dargo/2022-allroad-5/</t>
+        </is>
+      </c>
       <c r="J126" t="n">
         <v>1599400</v>
       </c>
@@ -5782,14 +5780,6 @@
           <t>https://primeauto-ekb.ru/new/haval/dargo</t>
         </is>
       </c>
-      <c r="N126" t="n">
-        <v>1978100</v>
-      </c>
-      <c r="O126" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/haval/dargo/2022-allroad-5/</t>
-        </is>
-      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -5823,6 +5813,14 @@
           <t>https://uu-stoks.ru/auto/haval/dargo-x_cuv-1gen</t>
         </is>
       </c>
+      <c r="H127" t="n">
+        <v>2069000</v>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/haval/dargo/2022-allroad-x-5/</t>
+        </is>
+      </c>
       <c r="J127" t="n">
         <v>1861400</v>
       </c>
@@ -5839,14 +5837,6 @@
           <t>https://primeauto-ekb.ru/new/haval/dargo-x</t>
         </is>
       </c>
-      <c r="N127" t="n">
-        <v>2069000</v>
-      </c>
-      <c r="O127" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/haval/dargo/2022-allroad-x-5/</t>
-        </is>
-      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -5929,6 +5919,14 @@
           <t>https://uu-stoks.ru/auto/haval/new-f-7_cuv</t>
         </is>
       </c>
+      <c r="H129" t="n">
+        <v>1699000</v>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/haval/f7/ii-allroad-5/</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1420000</v>
       </c>
@@ -5937,14 +5935,6 @@
           <t>https://primeauto-ekb.ru/new/haval/new-f7</t>
         </is>
       </c>
-      <c r="N129" t="n">
-        <v>1699000</v>
-      </c>
-      <c r="O129" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/haval/f7/ii-allroad-5/</t>
-        </is>
-      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -5970,10 +5960,10 @@
           <t>https://atc-gagarin.ru/cars-new/haval/f7/i-res-allroad-5/</t>
         </is>
       </c>
-      <c r="N130" t="n">
+      <c r="H130" t="n">
         <v>949000</v>
       </c>
-      <c r="O130" t="inlineStr">
+      <c r="I130" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/haval/f7/i-res-allroad-5/</t>
         </is>
@@ -6090,7 +6080,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/haval/h3/2024-allroad-5/</t>
+          <t>https://autosalon-kit.ru/auto/haval/h3/suv-1gen</t>
         </is>
       </c>
       <c r="F133" t="n">
@@ -6101,6 +6091,14 @@
           <t>https://uu-stoks.ru/auto/haval/h3_suv-1gen</t>
         </is>
       </c>
+      <c r="H133" t="n">
+        <v>1599000</v>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/haval/h3/2024-allroad-5/</t>
+        </is>
+      </c>
       <c r="J133" t="n">
         <v>1599000</v>
       </c>
@@ -6109,14 +6107,6 @@
           <t>https://autosalon-kit.ru/auto/haval/h3/suv-1gen</t>
         </is>
       </c>
-      <c r="N133" t="n">
-        <v>1599000</v>
-      </c>
-      <c r="O133" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/haval/h3/2024-allroad-5/</t>
-        </is>
-      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -6216,10 +6206,10 @@
           <t>https://uu-stoks.ru/auto/haval/h-5_suv-2gen</t>
         </is>
       </c>
-      <c r="N136" t="n">
+      <c r="H136" t="n">
         <v>2599000</v>
       </c>
-      <c r="O136" t="inlineStr">
+      <c r="I136" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/haval/h5/ii-allroad-5/</t>
         </is>
@@ -6246,6 +6236,14 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
+          <t>https://primeauto-ekb.ru/new/haval/h6</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>880000</v>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
           <t>https://atc-gagarin.ru/cars-new/haval/h6/i-allroad-5/</t>
         </is>
       </c>
@@ -6257,14 +6255,6 @@
           <t>https://primeauto-ekb.ru/new/haval/h6</t>
         </is>
       </c>
-      <c r="N137" t="n">
-        <v>880000</v>
-      </c>
-      <c r="O137" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/haval/h6/i-allroad-5/</t>
-        </is>
-      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -6290,6 +6280,14 @@
           <t>https://atc-gagarin.ru/cars-new/haval/h6/iii-allroad-5/</t>
         </is>
       </c>
+      <c r="H138" t="n">
+        <v>1600000</v>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/haval/h6/iii-allroad-5/</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1830000</v>
       </c>
@@ -6298,14 +6296,6 @@
           <t>https://primeauto-ekb.ru/new/haval/h6-new</t>
         </is>
       </c>
-      <c r="N138" t="n">
-        <v>1600000</v>
-      </c>
-      <c r="O138" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/haval/h6/iii-allroad-5/</t>
-        </is>
-      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -6339,6 +6329,14 @@
           <t>https://uu-stoks.ru/auto/haval/h9_suv</t>
         </is>
       </c>
+      <c r="H139" t="n">
+        <v>2368000</v>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/haval/h9/i-res-allroad-5/</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>2360000</v>
       </c>
@@ -6347,14 +6345,6 @@
           <t>https://primeauto-ekb.ru/new/haval/h9</t>
         </is>
       </c>
-      <c r="N139" t="n">
-        <v>2368000</v>
-      </c>
-      <c r="O139" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/haval/h9/i-res-allroad-5/</t>
-        </is>
-      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -6388,10 +6378,10 @@
           <t>https://uu-stoks.ru/auto/haval/h9_suv-2gen</t>
         </is>
       </c>
-      <c r="N140" t="n">
+      <c r="H140" t="n">
         <v>3099000</v>
       </c>
-      <c r="O140" t="inlineStr">
+      <c r="I140" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/haval/h9/ii-allroad-5/</t>
         </is>
@@ -6519,10 +6509,10 @@
           <t>https://atc-gagarin.ru/cars-new/haval/jolion/i-res-allroad-5/</t>
         </is>
       </c>
-      <c r="N143" t="n">
+      <c r="H143" t="n">
         <v>1289000</v>
       </c>
-      <c r="O143" t="inlineStr">
+      <c r="I143" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/haval/jolion/i-res-allroad-5/</t>
         </is>
@@ -6560,6 +6550,14 @@
           <t>https://uu-stoks.ru/auto/haval/m6_wagon-1gen</t>
         </is>
       </c>
+      <c r="H144" t="n">
+        <v>911000</v>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/haval/m6/ii-allroad-5/</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1280000</v>
       </c>
@@ -6568,14 +6566,6 @@
           <t>https://primeauto-ekb.ru/new/haval/m6</t>
         </is>
       </c>
-      <c r="N144" t="n">
-        <v>911000</v>
-      </c>
-      <c r="O144" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/haval/m6/ii-allroad-5/</t>
-        </is>
-      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -6601,10 +6591,10 @@
           <t>https://atc-gagarin.ru/cars-new/hawtai/boliger/2011-2020-allroad-5/</t>
         </is>
       </c>
-      <c r="N145" t="n">
+      <c r="H145" t="n">
         <v>639800</v>
       </c>
-      <c r="O145" t="inlineStr">
+      <c r="I145" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/hawtai/boliger/2011-2020-allroad-5/</t>
         </is>
@@ -6634,10 +6624,10 @@
           <t>https://atc-gagarin.ru/cars-new/hawtai/laville/i-allroad-5/</t>
         </is>
       </c>
-      <c r="N146" t="n">
+      <c r="H146" t="n">
         <v>679000</v>
       </c>
-      <c r="O146" t="inlineStr">
+      <c r="I146" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/hawtai/laville/i-allroad-5/</t>
         </is>
@@ -6667,6 +6657,14 @@
           <t>https://primeauto-ekb.ru/new/hyundai/bayon</t>
         </is>
       </c>
+      <c r="H147" t="n">
+        <v>1621100</v>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/hyundai/bayon/2021-allroad-5/</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1620000</v>
       </c>
@@ -6675,14 +6673,6 @@
           <t>https://primeauto-ekb.ru/new/hyundai/bayon</t>
         </is>
       </c>
-      <c r="N147" t="n">
-        <v>1621100</v>
-      </c>
-      <c r="O147" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/hyundai/bayon/2021-allroad-5/</t>
-        </is>
-      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -6708,6 +6698,14 @@
           <t>https://primeauto-ekb.ru/new/hyundai/creta</t>
         </is>
       </c>
+      <c r="H148" t="n">
+        <v>919200</v>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/hyundai/creta/ii-allroad-5/</t>
+        </is>
+      </c>
       <c r="J148" t="n">
         <v>1115400</v>
       </c>
@@ -6724,14 +6722,6 @@
           <t>https://primeauto-ekb.ru/new/hyundai/creta</t>
         </is>
       </c>
-      <c r="N148" t="n">
-        <v>919200</v>
-      </c>
-      <c r="O148" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/hyundai/creta/ii-allroad-5/</t>
-        </is>
-      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -6831,6 +6821,14 @@
           <t>https://primeauto-ekb.ru/new/hyundai/elantra</t>
         </is>
       </c>
+      <c r="H151" t="n">
+        <v>1107200</v>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/hyundai/elantra/vii-sedan-4/</t>
+        </is>
+      </c>
       <c r="J151" t="n">
         <v>1289400</v>
       </c>
@@ -6847,14 +6845,6 @@
           <t>https://primeauto-ekb.ru/new/hyundai/elantra</t>
         </is>
       </c>
-      <c r="N151" t="n">
-        <v>1107200</v>
-      </c>
-      <c r="O151" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/hyundai/elantra/vii-sedan-4/</t>
-        </is>
-      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -6987,6 +6977,14 @@
           <t>https://uu-stoks.ru/auto/hyundai/palisade_cuv</t>
         </is>
       </c>
+      <c r="H155" t="n">
+        <v>3401300</v>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/hyundai/palisade/i-allroad-5/</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>3890000</v>
       </c>
@@ -6995,14 +6993,6 @@
           <t>https://primeauto-ekb.ru/new/hyundai/palisade</t>
         </is>
       </c>
-      <c r="N155" t="n">
-        <v>3401300</v>
-      </c>
-      <c r="O155" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/hyundai/palisade/i-allroad-5/</t>
-        </is>
-      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -7094,10 +7084,10 @@
           <t>https://atc-gagarin.ru/cars-new/hyundai/santa-fe/iv-res-allroad-5/</t>
         </is>
       </c>
-      <c r="N158" t="n">
+      <c r="H158" t="n">
         <v>2186400</v>
       </c>
-      <c r="O158" t="inlineStr">
+      <c r="I158" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/hyundai/santa-fe/iv-res-allroad-5/</t>
         </is>
@@ -7127,6 +7117,14 @@
           <t>https://primeauto-ekb.ru/new/hyundai/solaris</t>
         </is>
       </c>
+      <c r="H159" t="n">
+        <v>691200</v>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/hyundai/solaris/ii-res-sedan-4/</t>
+        </is>
+      </c>
       <c r="J159" t="n">
         <v>844800</v>
       </c>
@@ -7143,14 +7141,6 @@
           <t>https://primeauto-ekb.ru/new/hyundai/solaris</t>
         </is>
       </c>
-      <c r="N159" t="n">
-        <v>691200</v>
-      </c>
-      <c r="O159" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/hyundai/solaris/ii-res-sedan-4/</t>
-        </is>
-      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -7209,6 +7199,14 @@
           <t>https://primeauto-ekb.ru/new/hyundai/sonata</t>
         </is>
       </c>
+      <c r="H161" t="n">
+        <v>1391200</v>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/hyundai/sonata/viii-sedan-4/</t>
+        </is>
+      </c>
       <c r="J161" t="n">
         <v>1661400</v>
       </c>
@@ -7225,14 +7223,6 @@
           <t>https://primeauto-ekb.ru/new/hyundai/sonata</t>
         </is>
       </c>
-      <c r="N161" t="n">
-        <v>1391200</v>
-      </c>
-      <c r="O161" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/hyundai/sonata/viii-sedan-4/</t>
-        </is>
-      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -7288,7 +7278,7 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/hyundai/staria/2021-minivan-5/</t>
+          <t>https://primeauto-ekb.ru/new/hyundai/staria</t>
         </is>
       </c>
       <c r="F163" t="n">
@@ -7299,6 +7289,14 @@
           <t>https://uu-stoks.ru/auto/hyundai/staria_upv</t>
         </is>
       </c>
+      <c r="H163" t="n">
+        <v>3790000</v>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/hyundai/staria/2021-minivan-5/</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>3790000</v>
       </c>
@@ -7307,14 +7305,6 @@
           <t>https://primeauto-ekb.ru/new/hyundai/staria</t>
         </is>
       </c>
-      <c r="N163" t="n">
-        <v>3790000</v>
-      </c>
-      <c r="O163" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/hyundai/staria/2021-minivan-5/</t>
-        </is>
-      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -7447,10 +7437,10 @@
           <t>https://atc-gagarin.ru/cars-new/hyundai/i30-n/i-hatchback-5/</t>
         </is>
       </c>
-      <c r="N167" t="n">
+      <c r="H167" t="n">
         <v>1800000</v>
       </c>
-      <c r="O167" t="inlineStr">
+      <c r="I167" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/hyundai/i30-n/i-hatchback-5/</t>
         </is>
@@ -7488,6 +7478,14 @@
           <t>https://uu-stoks.ru/auto/jac/j7_liftback</t>
         </is>
       </c>
+      <c r="H168" t="n">
+        <v>863100</v>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/jac/j7/i-liftback-5/</t>
+        </is>
+      </c>
       <c r="J168" t="n">
         <v>1277400</v>
       </c>
@@ -7504,14 +7502,6 @@
           <t>https://primeauto-ekb.ru/new/jac/j7</t>
         </is>
       </c>
-      <c r="N168" t="n">
-        <v>863100</v>
-      </c>
-      <c r="O168" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/jac/j7/i-liftback-5/</t>
-        </is>
-      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -7537,10 +7527,10 @@
           <t>https://atc-gagarin.ru/cars-new/jac/js3/2023-allroad-5/</t>
         </is>
       </c>
-      <c r="N169" t="n">
+      <c r="H169" t="n">
         <v>1299000</v>
       </c>
-      <c r="O169" t="inlineStr">
+      <c r="I169" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/jac/js3/2023-allroad-5/</t>
         </is>
@@ -7578,6 +7568,14 @@
           <t>https://uu-stoks.ru/auto/jac/js4_cuv</t>
         </is>
       </c>
+      <c r="H170" t="n">
+        <v>1310200</v>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/jac/js4/2020-allroad-5/</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1310000</v>
       </c>
@@ -7586,14 +7584,6 @@
           <t>https://primeauto-ekb.ru/new/jac/js4</t>
         </is>
       </c>
-      <c r="N170" t="n">
-        <v>1310200</v>
-      </c>
-      <c r="O170" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/jac/js4/2020-allroad-5/</t>
-        </is>
-      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -7627,10 +7617,10 @@
           <t>https://uu-stoks.ru/auto/jac/js6_cuv</t>
         </is>
       </c>
-      <c r="N171" t="n">
+      <c r="H171" t="n">
         <v>1499000</v>
       </c>
-      <c r="O171" t="inlineStr">
+      <c r="I171" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/jac/js6/2022-allroad-5/</t>
         </is>
@@ -7742,6 +7732,14 @@
           <t>https://uu-stoks.ru/auto/jac/s7_cuv</t>
         </is>
       </c>
+      <c r="H174" t="n">
+        <v>1189100</v>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/jac/s7/i-allroad-5/</t>
+        </is>
+      </c>
       <c r="J174" t="n">
         <v>1067400</v>
       </c>
@@ -7758,14 +7756,6 @@
           <t>https://primeauto-ekb.ru/new/jac/s7</t>
         </is>
       </c>
-      <c r="N174" t="n">
-        <v>1189100</v>
-      </c>
-      <c r="O174" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/jac/s7/i-allroad-5/</t>
-        </is>
-      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -7791,6 +7781,14 @@
           <t>https://primeauto-ekb.ru/new/jac/t6</t>
         </is>
       </c>
+      <c r="H175" t="n">
+        <v>1229100</v>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/jac/t6/2015-pickup-two-4/</t>
+        </is>
+      </c>
       <c r="J175" t="n">
         <v>1739400</v>
       </c>
@@ -7807,14 +7805,6 @@
           <t>https://primeauto-ekb.ru/new/jac/t6</t>
         </is>
       </c>
-      <c r="N175" t="n">
-        <v>1229100</v>
-      </c>
-      <c r="O175" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/jac/t6/2015-pickup-two-4/</t>
-        </is>
-      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -7955,6 +7945,14 @@
           <t>https://uu-stoks.ru/auto/jaecoo/j-7_suv-1gen</t>
         </is>
       </c>
+      <c r="H179" t="n">
+        <v>1903940</v>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/jaecoo/j7/2023-allroad-5/</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>2600000</v>
       </c>
@@ -7963,14 +7961,6 @@
           <t>https://primeauto-ekb.ru/new/jaecoo/j7</t>
         </is>
       </c>
-      <c r="N179" t="n">
-        <v>1903940</v>
-      </c>
-      <c r="O179" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/jaecoo/j7/2023-allroad-5/</t>
-        </is>
-      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -8070,10 +8060,10 @@
           <t>https://atc-gagarin.ru/cars-new/jetour/t2/2023-allroad-5/</t>
         </is>
       </c>
-      <c r="N182" t="n">
+      <c r="H182" t="n">
         <v>2759000</v>
       </c>
-      <c r="O182" t="inlineStr">
+      <c r="I182" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/jetour/t2/2023-allroad-5/</t>
         </is>
@@ -8136,10 +8126,10 @@
           <t>https://atc-gagarin.ru/cars-new/jetour/x50/2024-allroad-5/</t>
         </is>
       </c>
-      <c r="N184" t="n">
+      <c r="H184" t="n">
         <v>1640000</v>
       </c>
-      <c r="O184" t="inlineStr">
+      <c r="I184" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/jetour/x50/2024-allroad-5/</t>
         </is>
@@ -8177,6 +8167,14 @@
           <t>https://uu-stoks.ru/auto/jetour/jetour-x70-plus_suv-1gen</t>
         </is>
       </c>
+      <c r="H185" t="n">
+        <v>2070900</v>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/jetour/x70-plus/i-allroad-5/</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>2180000</v>
       </c>
@@ -8185,14 +8183,6 @@
           <t>https://primeauto-ekb.ru/new/jetour/x70-plus</t>
         </is>
       </c>
-      <c r="N185" t="n">
-        <v>2070900</v>
-      </c>
-      <c r="O185" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/jetour/x70-plus/i-allroad-5/</t>
-        </is>
-      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -8226,6 +8216,14 @@
           <t>https://uu-stoks.ru/auto/jetour/x90plus_suv-1gen</t>
         </is>
       </c>
+      <c r="H186" t="n">
+        <v>2275100</v>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/jetour/x90-plus/2021-allroad-5/</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>2270000</v>
       </c>
@@ -8234,14 +8232,6 @@
           <t>https://primeauto-ekb.ru/new/jetour/x90-plus</t>
         </is>
       </c>
-      <c r="N186" t="n">
-        <v>2275100</v>
-      </c>
-      <c r="O186" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/jetour/x90-plus/2021-allroad-5/</t>
-        </is>
-      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -8275,10 +8265,10 @@
           <t>https://uu-stoks.ru/auto/jetta/va3_va3</t>
         </is>
       </c>
-      <c r="N187" t="n">
+      <c r="H187" t="n">
         <v>690000</v>
       </c>
-      <c r="O187" t="inlineStr">
+      <c r="I187" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/jetta/va3/2019-sedan-4/</t>
         </is>
@@ -8316,10 +8306,10 @@
           <t>https://uu-stoks.ru/auto/jetta/vs5_vs5</t>
         </is>
       </c>
-      <c r="N188" t="n">
+      <c r="H188" t="n">
         <v>990000</v>
       </c>
-      <c r="O188" t="inlineStr">
+      <c r="I188" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/jetta/vs5/2019-allroad-5/</t>
         </is>
@@ -8357,10 +8347,10 @@
           <t>https://uu-stoks.ru/auto/jetta/vs7_vs7</t>
         </is>
       </c>
-      <c r="N189" t="n">
+      <c r="H189" t="n">
         <v>1149000</v>
       </c>
-      <c r="O189" t="inlineStr">
+      <c r="I189" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/jetta/vs7/2019-allroad-5/</t>
         </is>
@@ -8398,6 +8388,14 @@
           <t>https://uu-stoks.ru/auto/kaiyi/e5_wagon-1gen</t>
         </is>
       </c>
+      <c r="H190" t="n">
+        <v>1159000</v>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/kaiyi/e5/2021-sedan-4/</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1463200</v>
       </c>
@@ -8406,14 +8404,6 @@
           <t>https://primeauto-ekb.ru/new/kaiyi/e5</t>
         </is>
       </c>
-      <c r="N190" t="n">
-        <v>1159000</v>
-      </c>
-      <c r="O190" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/kaiyi/e5/2021-sedan-4/</t>
-        </is>
-      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -8439,6 +8429,14 @@
           <t>https://primeauto-ekb.ru/new/kaiyi/x3</t>
         </is>
       </c>
+      <c r="H191" t="n">
+        <v>1270590</v>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/kaiyi/x3/2020-allroad-5/</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>970000</v>
       </c>
@@ -8447,14 +8445,6 @@
           <t>https://primeauto-ekb.ru/new/kaiyi/x3</t>
         </is>
       </c>
-      <c r="N191" t="n">
-        <v>1270590</v>
-      </c>
-      <c r="O191" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/kaiyi/x3/2020-allroad-5/</t>
-        </is>
-      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -8488,6 +8478,14 @@
           <t>https://uu-stoks.ru/auto/kaiyi/x3-pro_suv-1gen</t>
         </is>
       </c>
+      <c r="H192" t="n">
+        <v>1494000</v>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/kaiyi/x3-pro/2022-allroad-5/</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1070000</v>
       </c>
@@ -8496,14 +8494,6 @@
           <t>https://primeauto-ekb.ru/new/kaiyi/x3-pro</t>
         </is>
       </c>
-      <c r="N192" t="n">
-        <v>1494000</v>
-      </c>
-      <c r="O192" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/kaiyi/x3-pro/2022-allroad-5/</t>
-        </is>
-      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -8537,6 +8527,14 @@
           <t>https://uu-stoks.ru/auto/kaiyi/x7-kunlun_suv-1gen</t>
         </is>
       </c>
+      <c r="H193" t="n">
+        <v>1997900</v>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/kaiyi/x7/2023-allroad-5/</t>
+        </is>
+      </c>
       <c r="J193" t="n">
         <v>1798740</v>
       </c>
@@ -8553,14 +8551,6 @@
           <t>https://primeauto-ekb.ru/new/kaiyi/x7-kunlun</t>
         </is>
       </c>
-      <c r="N193" t="n">
-        <v>1997900</v>
-      </c>
-      <c r="O193" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/kaiyi/x7/2023-allroad-5/</t>
-        </is>
-      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -8586,6 +8576,14 @@
           <t>https://primeauto-ekb.ru/new/kia/carnival</t>
         </is>
       </c>
+      <c r="H194" t="n">
+        <v>2530100</v>
+      </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/kia/carnival/iv-minivan-5/</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>2530000</v>
       </c>
@@ -8594,14 +8592,6 @@
           <t>https://primeauto-ekb.ru/new/kia/carnival</t>
         </is>
       </c>
-      <c r="N194" t="n">
-        <v>2530100</v>
-      </c>
-      <c r="O194" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/kia/carnival/iv-minivan-5/</t>
-        </is>
-      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -8635,6 +8625,14 @@
           <t>https://uu-stoks.ru/auto/kia/ceed_hatchback</t>
         </is>
       </c>
+      <c r="H195" t="n">
+        <v>1216900</v>
+      </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/kia/ceed/iii-hatchback-5/</t>
+        </is>
+      </c>
       <c r="J195" t="n">
         <v>1346940</v>
       </c>
@@ -8651,14 +8649,6 @@
           <t>https://primeauto-ekb.ru/new/kia/ceed</t>
         </is>
       </c>
-      <c r="N195" t="n">
-        <v>1216900</v>
-      </c>
-      <c r="O195" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/kia/ceed/iii-hatchback-5/</t>
-        </is>
-      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -8799,10 +8789,10 @@
           <t>https://atc-gagarin.ru/cars-new/kia/ceed/iii-wagon-5/</t>
         </is>
       </c>
-      <c r="N199" t="n">
+      <c r="H199" t="n">
         <v>1258100</v>
       </c>
-      <c r="O199" t="inlineStr">
+      <c r="I199" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/kia/ceed/iii-wagon-5/</t>
         </is>
@@ -8914,10 +8904,10 @@
           <t>https://atc-gagarin.ru/cars-new/kia/cerato/iv-res-sedan-4/</t>
         </is>
       </c>
-      <c r="N202" t="n">
+      <c r="H202" t="n">
         <v>1035100</v>
       </c>
-      <c r="O202" t="inlineStr">
+      <c r="I202" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/kia/cerato/iv-res-sedan-4/</t>
         </is>
@@ -8955,6 +8945,14 @@
           <t>https://uu-stoks.ru/auto/kia/k5_sedan</t>
         </is>
       </c>
+      <c r="H203" t="n">
+        <v>1398000</v>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/kia/k5/iii-sedan-4/</t>
+        </is>
+      </c>
       <c r="J203" t="n">
         <v>1640940</v>
       </c>
@@ -8971,14 +8969,6 @@
           <t>https://primeauto-ekb.ru/new/kia/k5</t>
         </is>
       </c>
-      <c r="N203" t="n">
-        <v>1398000</v>
-      </c>
-      <c r="O203" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/kia/k5/iii-sedan-4/</t>
-        </is>
-      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -9004,10 +8994,10 @@
           <t>https://atc-gagarin.ru/cars-new/kia/k9/ii-res-sedan-4/</t>
         </is>
       </c>
-      <c r="N204" t="n">
+      <c r="H204" t="n">
         <v>6224900</v>
       </c>
-      <c r="O204" t="inlineStr">
+      <c r="I204" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/kia/k9/ii-res-sedan-4/</t>
         </is>
@@ -9037,6 +9027,14 @@
           <t>https://primeauto-ekb.ru/new/kia/mohave</t>
         </is>
       </c>
+      <c r="H205" t="n">
+        <v>3771000</v>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/kia/mohave/i-res2-allroad-5/</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>3770000</v>
       </c>
@@ -9045,14 +9043,6 @@
           <t>https://primeauto-ekb.ru/new/kia/mohave</t>
         </is>
       </c>
-      <c r="N205" t="n">
-        <v>3771000</v>
-      </c>
-      <c r="O205" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/kia/mohave/i-res2-allroad-5/</t>
-        </is>
-      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -9218,6 +9208,14 @@
           <t>https://primeauto-ekb.ru/new/kia/rio</t>
         </is>
       </c>
+      <c r="H210" t="n">
+        <v>710100</v>
+      </c>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/kia/rio/iv-res-sedan-4/</t>
+        </is>
+      </c>
       <c r="J210" t="n">
         <v>860940</v>
       </c>
@@ -9234,14 +9232,6 @@
           <t>https://primeauto-ekb.ru/new/kia/rio</t>
         </is>
       </c>
-      <c r="N210" t="n">
-        <v>710100</v>
-      </c>
-      <c r="O210" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/kia/rio/iv-res-sedan-4/</t>
-        </is>
-      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -9308,6 +9298,14 @@
           <t>https://uu-stoks.ru/auto/kia/rio-x_hatch</t>
         </is>
       </c>
+      <c r="H212" t="n">
+        <v>830900</v>
+      </c>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/kia/rio/iv-res-hatchback-x-5/</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>830000</v>
       </c>
@@ -9316,14 +9314,6 @@
           <t>https://primeauto-ekb.ru/new/kia/rio-x</t>
         </is>
       </c>
-      <c r="N212" t="n">
-        <v>830900</v>
-      </c>
-      <c r="O212" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/kia/rio/iv-res-hatchback-x-5/</t>
-        </is>
-      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -9513,6 +9503,14 @@
           <t>https://primeauto-ekb.ru/new/kia/soul</t>
         </is>
       </c>
+      <c r="H217" t="n">
+        <v>1031000</v>
+      </c>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/kia/soul/iii-hatchback-5/</t>
+        </is>
+      </c>
       <c r="J217" t="n">
         <v>1097940</v>
       </c>
@@ -9529,14 +9527,6 @@
           <t>https://primeauto-ekb.ru/new/kia/soul</t>
         </is>
       </c>
-      <c r="N217" t="n">
-        <v>1031000</v>
-      </c>
-      <c r="O217" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/kia/soul/iii-hatchback-5/</t>
-        </is>
-      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -9570,10 +9560,10 @@
           <t>https://uu-stoks.ru/auto/kia/new-soul_new</t>
         </is>
       </c>
-      <c r="N218" t="n">
+      <c r="H218" t="n">
         <v>1800000</v>
       </c>
-      <c r="O218" t="inlineStr">
+      <c r="I218" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/kia/soul/iii-res-hatchback-5/</t>
         </is>
@@ -9685,6 +9675,14 @@
           <t>https://primeauto-ekb.ru/new/kia/sportage-new</t>
         </is>
       </c>
+      <c r="H221" t="n">
+        <v>1865100</v>
+      </c>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/kia/sportage/v-allroad-5/</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1860000</v>
       </c>
@@ -9693,14 +9691,6 @@
           <t>https://primeauto-ekb.ru/new/kia/sportage-new</t>
         </is>
       </c>
-      <c r="N221" t="n">
-        <v>1865100</v>
-      </c>
-      <c r="O221" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/kia/sportage/v-allroad-5/</t>
-        </is>
-      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -9792,10 +9782,10 @@
           <t>https://atc-gagarin.ru/cars-new/kia/stinger/i-res-liftback-5/</t>
         </is>
       </c>
-      <c r="N224" t="n">
+      <c r="H224" t="n">
         <v>3100000</v>
       </c>
-      <c r="O224" t="inlineStr">
+      <c r="I224" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/kia/stinger/i-res-liftback-5/</t>
         </is>
@@ -9822,6 +9812,14 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
+          <t>https://primeauto-ekb.ru/new/kia/xceed</t>
+        </is>
+      </c>
+      <c r="H225" t="n">
+        <v>1490000</v>
+      </c>
+      <c r="I225" t="inlineStr">
+        <is>
           <t>https://atc-gagarin.ru/cars-new/kia/xceed/i-hatchback-5/</t>
         </is>
       </c>
@@ -9833,14 +9831,6 @@
           <t>https://primeauto-ekb.ru/new/kia/xceed</t>
         </is>
       </c>
-      <c r="N225" t="n">
-        <v>1490000</v>
-      </c>
-      <c r="O225" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/kia/xceed/i-hatchback-5/</t>
-        </is>
-      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -9915,6 +9905,14 @@
           <t>https://primeauto-ekb.ru/new/lada/aura</t>
         </is>
       </c>
+      <c r="H227" t="n">
+        <v>1649000</v>
+      </c>
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/lada/aura/2024-sedan-4/</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1599000</v>
       </c>
@@ -9923,14 +9921,6 @@
           <t>https://primeauto-ekb.ru/new/lada/aura</t>
         </is>
       </c>
-      <c r="N227" t="n">
-        <v>1649000</v>
-      </c>
-      <c r="O227" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/lada/aura/2024-sedan-4/</t>
-        </is>
-      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -9964,6 +9954,14 @@
           <t>https://uu-stoks.ru/auto/lada/granta-cross_2019</t>
         </is>
       </c>
+      <c r="H228" t="n">
+        <v>504000</v>
+      </c>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/lada/granta/i-res-wagon-cross-5/</t>
+        </is>
+      </c>
       <c r="J228" t="n">
         <v>445380</v>
       </c>
@@ -9980,14 +9978,6 @@
           <t>https://primeauto-ekb.ru/new/lada/granta-cross</t>
         </is>
       </c>
-      <c r="N228" t="n">
-        <v>504000</v>
-      </c>
-      <c r="O228" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/lada/granta/i-res-wagon-cross-5/</t>
-        </is>
-      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -10046,10 +10036,10 @@
           <t>https://atc-gagarin.ru/cars-new/lada/granta/i-res-liftback-drive-activesportline-4/</t>
         </is>
       </c>
-      <c r="N230" t="n">
+      <c r="H230" t="n">
         <v>550100</v>
       </c>
-      <c r="O230" t="inlineStr">
+      <c r="I230" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/lada/granta/i-res-liftback-drive-activesportline-4/</t>
         </is>
@@ -10079,10 +10069,10 @@
           <t>https://atc-gagarin.ru/cars-new/lada/granta/i-res-hatchback-5/</t>
         </is>
       </c>
-      <c r="N231" t="n">
+      <c r="H231" t="n">
         <v>431100</v>
       </c>
-      <c r="O231" t="inlineStr">
+      <c r="I231" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/lada/granta/i-res-hatchback-5/</t>
         </is>
@@ -10153,6 +10143,14 @@
           <t>https://primeauto-ekb.ru/new/lada/granta-liftbek</t>
         </is>
       </c>
+      <c r="H233" t="n">
+        <v>441100</v>
+      </c>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/lada/granta/i-res-liftback-5/</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>440000</v>
       </c>
@@ -10161,14 +10159,6 @@
           <t>https://primeauto-ekb.ru/new/lada/granta-liftbek</t>
         </is>
       </c>
-      <c r="N233" t="n">
-        <v>441100</v>
-      </c>
-      <c r="O233" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/lada/granta/i-res-liftback-5/</t>
-        </is>
-      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -10235,10 +10225,10 @@
           <t>https://atc-gagarin.ru/cars-new/lada/granta/i-res-sedan-4/</t>
         </is>
       </c>
-      <c r="N235" t="n">
+      <c r="H235" t="n">
         <v>411000</v>
       </c>
-      <c r="O235" t="inlineStr">
+      <c r="I235" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/lada/granta/i-res-sedan-4/</t>
         </is>
@@ -10317,10 +10307,10 @@
           <t>https://atc-gagarin.ru/cars-new/lada/granta/i-res-sedan-sport-4/</t>
         </is>
       </c>
-      <c r="N237" t="n">
+      <c r="H237" t="n">
         <v>749900</v>
       </c>
-      <c r="O237" t="inlineStr">
+      <c r="I237" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/lada/granta/i-res-sedan-sport-4/</t>
         </is>
@@ -10424,6 +10414,14 @@
           <t>https://autosalon-kit.ru/auto/lada/largus/wa</t>
         </is>
       </c>
+      <c r="H240" t="n">
+        <v>718900</v>
+      </c>
+      <c r="I240" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/lada/largus/i-res-wagon-5/</t>
+        </is>
+      </c>
       <c r="J240" t="n">
         <v>393000</v>
       </c>
@@ -10432,14 +10430,6 @@
           <t>https://autosalon-kit.ru/auto/lada/largus/wa</t>
         </is>
       </c>
-      <c r="N240" t="n">
-        <v>718900</v>
-      </c>
-      <c r="O240" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/lada/largus/i-res-wagon-5/</t>
-        </is>
-      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -10810,6 +10800,14 @@
           <t>https://uu-stoks.ru/auto/lada/niva-legend_cuv</t>
         </is>
       </c>
+      <c r="H250" t="n">
+        <v>573100</v>
+      </c>
+      <c r="I250" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/lada/niva-legend/2021-allroad-5/</t>
+        </is>
+      </c>
       <c r="J250" t="n">
         <v>768900</v>
       </c>
@@ -10826,14 +10824,6 @@
           <t>https://primeauto-ekb.ru/new/lada/niva-legend-5d</t>
         </is>
       </c>
-      <c r="N250" t="n">
-        <v>573100</v>
-      </c>
-      <c r="O250" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/lada/niva-legend/2021-allroad-5/</t>
-        </is>
-      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -10859,10 +10849,10 @@
           <t>https://atc-gagarin.ru/cars-new/lada/niva-legend/2021-allroad-bronto-3/</t>
         </is>
       </c>
-      <c r="N251" t="n">
+      <c r="H251" t="n">
         <v>620000</v>
       </c>
-      <c r="O251" t="inlineStr">
+      <c r="I251" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/lada/niva-legend/2021-allroad-bronto-3/</t>
         </is>
@@ -11023,6 +11013,14 @@
           <t>https://uu-stoks.ru/auto/lada/niva-travel_suv</t>
         </is>
       </c>
+      <c r="H255" t="n">
+        <v>656100</v>
+      </c>
+      <c r="I255" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/lada/niva/i-res-allroad-5/</t>
+        </is>
+      </c>
       <c r="J255" t="n">
         <v>655740</v>
       </c>
@@ -11039,14 +11037,6 @@
           <t>https://primeauto-ekb.ru/new/lada/niva-travel</t>
         </is>
       </c>
-      <c r="N255" t="n">
-        <v>656100</v>
-      </c>
-      <c r="O255" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/lada/niva/i-res-allroad-5/</t>
-        </is>
-      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -11179,6 +11169,14 @@
           <t>https://autosalon-kit.ru/auto/lada/Vesta-new/cross</t>
         </is>
       </c>
+      <c r="H259" t="n">
+        <v>1095000</v>
+      </c>
+      <c r="I259" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/lada/vesta/i-res-sedan-cross-4/</t>
+        </is>
+      </c>
       <c r="J259" t="n">
         <v>985740</v>
       </c>
@@ -11195,14 +11193,6 @@
           <t>https://primeauto-ekb.ru/new/lada/vesta-cross-new</t>
         </is>
       </c>
-      <c r="N259" t="n">
-        <v>1095000</v>
-      </c>
-      <c r="O259" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/lada/vesta/i-res-sedan-cross-4/</t>
-        </is>
-      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -11351,6 +11341,14 @@
           <t>https://autosalon-kit.ru/auto/lada/vestaswnew/vestaswnew</t>
         </is>
       </c>
+      <c r="H263" t="n">
+        <v>950000</v>
+      </c>
+      <c r="I263" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/lada/vesta/i-res-wagon-sw-5/</t>
+        </is>
+      </c>
       <c r="J263" t="n">
         <v>797940</v>
       </c>
@@ -11367,14 +11365,6 @@
           <t>https://primeauto-ekb.ru/new/lada/vesta-sw-new</t>
         </is>
       </c>
-      <c r="N263" t="n">
-        <v>950000</v>
-      </c>
-      <c r="O263" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/lada/vesta/i-res-wagon-sw-5/</t>
-        </is>
-      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -11466,6 +11456,14 @@
           <t>https://autosalon-kit.ru/auto/lada/Vesta-new/SEDAN</t>
         </is>
       </c>
+      <c r="H266" t="n">
+        <v>840000</v>
+      </c>
+      <c r="I266" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/lada/vesta/i-res-sedan-4/</t>
+        </is>
+      </c>
       <c r="J266" t="n">
         <v>743940</v>
       </c>
@@ -11482,14 +11480,6 @@
           <t>https://primeauto-ekb.ru/new/lada/vesta-new</t>
         </is>
       </c>
-      <c r="N266" t="n">
-        <v>840000</v>
-      </c>
-      <c r="O266" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/lada/vesta/i-res-sedan-4/</t>
-        </is>
-      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -11597,10 +11587,10 @@
           <t>https://atc-gagarin.ru/cars-new/lada/vesta/i-res-sedan-sportline-4/</t>
         </is>
       </c>
-      <c r="N269" t="n">
+      <c r="H269" t="n">
         <v>999000</v>
       </c>
-      <c r="O269" t="inlineStr">
+      <c r="I269" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/lada/vesta/i-res-sedan-sportline-4/</t>
         </is>
@@ -11728,10 +11718,10 @@
           <t>https://atc-gagarin.ru/cars-new/lifan/murman/2015-2020-sedan-4/</t>
         </is>
       </c>
-      <c r="N272" t="n">
+      <c r="H272" t="n">
         <v>650300</v>
       </c>
-      <c r="O272" t="inlineStr">
+      <c r="I272" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/lifan/murman/2015-2020-sedan-4/</t>
         </is>
@@ -11761,10 +11751,10 @@
           <t>https://atc-gagarin.ru/cars-new/lifan/myway/2016-2020-allroad-5/</t>
         </is>
       </c>
-      <c r="N273" t="n">
+      <c r="H273" t="n">
         <v>701300</v>
       </c>
-      <c r="O273" t="inlineStr">
+      <c r="I273" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/lifan/myway/2016-2020-allroad-5/</t>
         </is>
@@ -11794,10 +11784,10 @@
           <t>https://atc-gagarin.ru/cars-new/lifan/solano/ii-sedan-4/</t>
         </is>
       </c>
-      <c r="N274" t="n">
+      <c r="H274" t="n">
         <v>401300</v>
       </c>
-      <c r="O274" t="inlineStr">
+      <c r="I274" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/lifan/solano/ii-sedan-4/</t>
         </is>
@@ -11827,10 +11817,10 @@
           <t>https://atc-gagarin.ru/cars-new/lifan/x60/i-res2-allroad-5/</t>
         </is>
       </c>
-      <c r="N275" t="n">
+      <c r="H275" t="n">
         <v>491300</v>
       </c>
-      <c r="O275" t="inlineStr">
+      <c r="I275" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/lifan/x60/i-res2-allroad-5/</t>
         </is>
@@ -11860,10 +11850,10 @@
           <t>https://atc-gagarin.ru/cars-new/lifan/x70/i-allroad-5/</t>
         </is>
       </c>
-      <c r="N276" t="n">
+      <c r="H276" t="n">
         <v>770300</v>
       </c>
-      <c r="O276" t="inlineStr">
+      <c r="I276" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/lifan/x70/i-allroad-5/</t>
         </is>
@@ -11893,6 +11883,14 @@
           <t>https://atc-gagarin.ru/cars-new/livan/s6-pro/2023-sedan-4/</t>
         </is>
       </c>
+      <c r="H277" t="n">
+        <v>1549900</v>
+      </c>
+      <c r="I277" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/livan/s6-pro/2023-sedan-4/</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1780000</v>
       </c>
@@ -11901,14 +11899,6 @@
           <t>https://primeauto-ekb.ru/new/livan/s6-pro</t>
         </is>
       </c>
-      <c r="N277" t="n">
-        <v>1549900</v>
-      </c>
-      <c r="O277" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/livan/s6-pro/2023-sedan-4/</t>
-        </is>
-      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -11934,6 +11924,14 @@
           <t>https://atc-gagarin.ru/cars-new/livan/x3-pro/2022-allroad-5/</t>
         </is>
       </c>
+      <c r="H278" t="n">
+        <v>1020000</v>
+      </c>
+      <c r="I278" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/livan/x3-pro/2022-allroad-5/</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1340000</v>
       </c>
@@ -11942,14 +11940,6 @@
           <t>https://primeauto-ekb.ru/new/livan/x3-pro</t>
         </is>
       </c>
-      <c r="N278" t="n">
-        <v>1020000</v>
-      </c>
-      <c r="O278" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/livan/x3-pro/2022-allroad-5/</t>
-        </is>
-      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -11975,6 +11965,14 @@
           <t>https://atc-gagarin.ru/cars-new/livan/x6-pro/2023-allroad-5/</t>
         </is>
       </c>
+      <c r="H279" t="n">
+        <v>1629900</v>
+      </c>
+      <c r="I279" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/livan/x6-pro/2023-allroad-5/</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1840000</v>
       </c>
@@ -11983,14 +11981,6 @@
           <t>https://primeauto-ekb.ru/new/livan/x6-pro</t>
         </is>
       </c>
-      <c r="N279" t="n">
-        <v>1629900</v>
-      </c>
-      <c r="O279" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/livan/x6-pro/2023-allroad-5/</t>
-        </is>
-      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -12024,10 +12014,10 @@
           <t>https://uu-stoks.ru/auto/mg/5_sedan-2gen</t>
         </is>
       </c>
-      <c r="N280" t="n">
+      <c r="H280" t="n">
         <v>2243000</v>
       </c>
-      <c r="O280" t="inlineStr">
+      <c r="I280" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/mg/mg5/ii-sedan-4/</t>
         </is>
@@ -12065,10 +12055,10 @@
           <t>https://uu-stoks.ru/auto/mg/6_liftback-2gen-rest</t>
         </is>
       </c>
-      <c r="N281" t="n">
+      <c r="H281" t="n">
         <v>1060000</v>
       </c>
-      <c r="O281" t="inlineStr">
+      <c r="I281" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/mg/mg6/ii-res-liftback-5/</t>
         </is>
@@ -12106,10 +12096,10 @@
           <t>https://uu-stoks.ru/auto/mg/hs_suv_5d-1gen</t>
         </is>
       </c>
-      <c r="N282" t="n">
+      <c r="H282" t="n">
         <v>1580000</v>
       </c>
-      <c r="O282" t="inlineStr">
+      <c r="I282" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/mg/hs/i-allroad-5/</t>
         </is>
@@ -12147,10 +12137,10 @@
           <t>https://uu-stoks.ru/auto/mg/zs_cuv-2gen-rest</t>
         </is>
       </c>
-      <c r="N283" t="n">
+      <c r="H283" t="n">
         <v>1290000</v>
       </c>
-      <c r="O283" t="inlineStr">
+      <c r="I283" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/mg/zs/ii-res-allroad-5/</t>
         </is>
@@ -12177,6 +12167,14 @@
       </c>
       <c r="E284" t="inlineStr">
         <is>
+          <t>https://primeauto-ekb.ru/new/mazda/3</t>
+        </is>
+      </c>
+      <c r="H284" t="n">
+        <v>1160000</v>
+      </c>
+      <c r="I284" t="inlineStr">
+        <is>
           <t>https://atc-gagarin.ru/cars-new/mazda/3/iv-sedan-4/</t>
         </is>
       </c>
@@ -12188,14 +12186,6 @@
           <t>https://primeauto-ekb.ru/new/mazda/3</t>
         </is>
       </c>
-      <c r="N284" t="n">
-        <v>1160000</v>
-      </c>
-      <c r="O284" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/mazda/3/iv-sedan-4/</t>
-        </is>
-      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -12218,6 +12208,14 @@
       </c>
       <c r="E285" t="inlineStr">
         <is>
+          <t>https://primeauto-ekb.ru/new/mazda/6</t>
+        </is>
+      </c>
+      <c r="H285" t="n">
+        <v>1430000</v>
+      </c>
+      <c r="I285" t="inlineStr">
+        <is>
           <t>https://atc-gagarin.ru/cars-new/mazda/6/iii-res-sedan-4/</t>
         </is>
       </c>
@@ -12229,14 +12227,6 @@
           <t>https://primeauto-ekb.ru/new/mazda/6</t>
         </is>
       </c>
-      <c r="N285" t="n">
-        <v>1430000</v>
-      </c>
-      <c r="O285" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/mazda/6/iii-res-sedan-4/</t>
-        </is>
-      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -12303,10 +12293,10 @@
           <t>https://uu-stoks.ru/auto/mazda/cx-30_cuv</t>
         </is>
       </c>
-      <c r="N287" t="n">
+      <c r="H287" t="n">
         <v>1400000</v>
       </c>
-      <c r="O287" t="inlineStr">
+      <c r="I287" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/mazda/cx-30/i-allroad-5/</t>
         </is>
@@ -12333,6 +12323,14 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
+          <t>https://primeauto-ekb.ru/new/mazda/cx-4</t>
+        </is>
+      </c>
+      <c r="H288" t="n">
+        <v>1670000</v>
+      </c>
+      <c r="I288" t="inlineStr">
+        <is>
           <t>https://atc-gagarin.ru/cars-new/mazda/cx-4/i-res-allroad-5/</t>
         </is>
       </c>
@@ -12344,14 +12342,6 @@
           <t>https://primeauto-ekb.ru/new/mazda/cx-4</t>
         </is>
       </c>
-      <c r="N288" t="n">
-        <v>1670000</v>
-      </c>
-      <c r="O288" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/mazda/cx-4/i-res-allroad-5/</t>
-        </is>
-      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -12385,6 +12375,14 @@
           <t>https://uu-stoks.ru/auto/mazda/cx5_cuv</t>
         </is>
       </c>
+      <c r="H289" t="n">
+        <v>1606300</v>
+      </c>
+      <c r="I289" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/mazda/cx-5/ii-allroad-5/</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1600000</v>
       </c>
@@ -12393,14 +12391,6 @@
           <t>https://primeauto-ekb.ru/new/mazda/cx-5</t>
         </is>
       </c>
-      <c r="N289" t="n">
-        <v>1606300</v>
-      </c>
-      <c r="O289" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/mazda/cx-5/ii-allroad-5/</t>
-        </is>
-      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -12500,10 +12490,10 @@
           <t>https://atc-gagarin.ru/cars-new/mazda/cx-9/ii-res-allroad-5/</t>
         </is>
       </c>
-      <c r="N292" t="n">
+      <c r="H292" t="n">
         <v>2922100</v>
       </c>
-      <c r="O292" t="inlineStr">
+      <c r="I292" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/mazda/cx-9/ii-res-allroad-5/</t>
         </is>
@@ -12566,10 +12556,10 @@
           <t>https://atc-gagarin.ru/cars-new/mitsubishi/asx/i-res3-allroad-5/</t>
         </is>
       </c>
-      <c r="N294" t="n">
+      <c r="H294" t="n">
         <v>1372000</v>
       </c>
-      <c r="O294" t="inlineStr">
+      <c r="I294" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/mitsubishi/asx/i-res3-allroad-5/</t>
         </is>
@@ -12599,10 +12589,10 @@
           <t>https://atc-gagarin.ru/cars-new/mitsubishi/eclipse-cross/i-res-allroad-5/</t>
         </is>
       </c>
-      <c r="N295" t="n">
+      <c r="H295" t="n">
         <v>1450000</v>
       </c>
-      <c r="O295" t="inlineStr">
+      <c r="I295" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/mitsubishi/eclipse-cross/i-res-allroad-5/</t>
         </is>
@@ -12698,10 +12688,10 @@
           <t>https://atc-gagarin.ru/cars-new/mitsubishi/montero-sport/iii-res-allroad-5/</t>
         </is>
       </c>
-      <c r="N298" t="n">
+      <c r="H298" t="n">
         <v>3300000</v>
       </c>
-      <c r="O298" t="inlineStr">
+      <c r="I298" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/mitsubishi/montero-sport/iii-res-allroad-5/</t>
         </is>
@@ -12739,10 +12729,10 @@
           <t>https://uu-stoks.ru/auto/mitsubishi/outlander_outlander-7</t>
         </is>
       </c>
-      <c r="N299" t="n">
+      <c r="H299" t="n">
         <v>1251400</v>
       </c>
-      <c r="O299" t="inlineStr">
+      <c r="I299" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/mitsubishi/outlander/iii-res3-allroad-5/</t>
         </is>
@@ -12780,10 +12770,10 @@
           <t>https://uu-stoks.ru/auto/mitsubishi/outlander-new_suv</t>
         </is>
       </c>
-      <c r="N300" t="n">
+      <c r="H300" t="n">
         <v>2070000</v>
       </c>
-      <c r="O300" t="inlineStr">
+      <c r="I300" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/mitsubishi/outlander/iv-allroad-5/</t>
         </is>
@@ -12813,10 +12803,10 @@
           <t>https://atc-gagarin.ru/cars-new/mitsubishi/pajero-sport/iii-allroad-5/</t>
         </is>
       </c>
-      <c r="N301" t="n">
+      <c r="H301" t="n">
         <v>2479000</v>
       </c>
-      <c r="O301" t="inlineStr">
+      <c r="I301" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/mitsubishi/pajero-sport/iii-allroad-5/</t>
         </is>
@@ -12887,6 +12877,14 @@
           <t>https://uu-stoks.ru/auto/moskvich/moskvich3_cuv</t>
         </is>
       </c>
+      <c r="H303" t="n">
+        <v>1202100</v>
+      </c>
+      <c r="I303" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/moscvich/3/2022-allroad-5/</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1200000</v>
       </c>
@@ -12895,14 +12893,6 @@
           <t>https://primeauto-ekb.ru/new/moskvich/3</t>
         </is>
       </c>
-      <c r="N303" t="n">
-        <v>1202100</v>
-      </c>
-      <c r="O303" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/moscvich/3/2022-allroad-5/</t>
-        </is>
-      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -12985,6 +12975,14 @@
           <t>https://uu-stoks.ru/auto/moskvich/moskvich6_liftback-1gen</t>
         </is>
       </c>
+      <c r="H305" t="n">
+        <v>1136000</v>
+      </c>
+      <c r="I305" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/moscvich/6/2023-liftback-5/</t>
+        </is>
+      </c>
       <c r="J305" t="n">
         <v>2136000</v>
       </c>
@@ -13001,14 +12999,6 @@
           <t>https://primeauto-ekb.ru/new/moskvich/6</t>
         </is>
       </c>
-      <c r="N305" t="n">
-        <v>1136000</v>
-      </c>
-      <c r="O305" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/moscvich/6/2023-liftback-5/</t>
-        </is>
-      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -13108,6 +13098,14 @@
           <t>https://autosalon-kit.ru/auto/nissan/murano/suv</t>
         </is>
       </c>
+      <c r="H308" t="n">
+        <v>2299000</v>
+      </c>
+      <c r="I308" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/nissan/murano/iii-allroad-5/</t>
+        </is>
+      </c>
       <c r="J308" t="n">
         <v>1379400</v>
       </c>
@@ -13124,14 +13122,6 @@
           <t>https://primeauto-ekb.ru/new/nissan/murano</t>
         </is>
       </c>
-      <c r="N308" t="n">
-        <v>2299000</v>
-      </c>
-      <c r="O308" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/nissan/murano/iii-allroad-5/</t>
-        </is>
-      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -13187,6 +13177,14 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
+          <t>https://primeauto-ekb.ru/new/nissan/pathfinder</t>
+        </is>
+      </c>
+      <c r="H310" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="I310" t="inlineStr">
+        <is>
           <t>https://atc-gagarin.ru/cars-new/nissan/pathfinder/v-allroad-5/</t>
         </is>
       </c>
@@ -13198,14 +13196,6 @@
           <t>https://primeauto-ekb.ru/new/nissan/pathfinder</t>
         </is>
       </c>
-      <c r="N310" t="n">
-        <v>4000000</v>
-      </c>
-      <c r="O310" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/nissan/pathfinder/v-allroad-5/</t>
-        </is>
-      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -13239,6 +13229,14 @@
           <t>https://uu-stoks.ru/auto/nissan/new-qashqai_2019</t>
         </is>
       </c>
+      <c r="H311" t="n">
+        <v>1300300</v>
+      </c>
+      <c r="I311" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/nissan/qashqai/ii-res-allroad-5/</t>
+        </is>
+      </c>
       <c r="J311" t="n">
         <v>1402200</v>
       </c>
@@ -13255,14 +13253,6 @@
           <t>https://primeauto-ekb.ru/new/nissan/qashqai</t>
         </is>
       </c>
-      <c r="N311" t="n">
-        <v>1300300</v>
-      </c>
-      <c r="O311" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/nissan/qashqai/ii-res-allroad-5/</t>
-        </is>
-      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -13288,10 +13278,10 @@
           <t>https://atc-gagarin.ru/cars-new/nissan/qashqai/iii-allroad-5/</t>
         </is>
       </c>
-      <c r="N312" t="n">
+      <c r="H312" t="n">
         <v>1600300</v>
       </c>
-      <c r="O312" t="inlineStr">
+      <c r="I312" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/nissan/qashqai/iii-allroad-5/</t>
         </is>
@@ -13321,6 +13311,14 @@
           <t>https://primeauto-ekb.ru/new/nissan/terrano</t>
         </is>
       </c>
+      <c r="H313" t="n">
+        <v>899000</v>
+      </c>
+      <c r="I313" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/nissan/terrano/iii-allroad-5/</t>
+        </is>
+      </c>
       <c r="J313" t="n">
         <v>1014000</v>
       </c>
@@ -13337,14 +13335,6 @@
           <t>https://primeauto-ekb.ru/new/nissan/terrano</t>
         </is>
       </c>
-      <c r="N313" t="n">
-        <v>899000</v>
-      </c>
-      <c r="O313" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/nissan/terrano/iii-allroad-5/</t>
-        </is>
-      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -13403,6 +13393,14 @@
           <t>https://primeauto-ekb.ru/new/nissan/x-trail</t>
         </is>
       </c>
+      <c r="H315" t="n">
+        <v>1530100</v>
+      </c>
+      <c r="I315" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/nissan/x-trail/iii-res-allroad-5/</t>
+        </is>
+      </c>
       <c r="J315" t="n">
         <v>1657200</v>
       </c>
@@ -13419,14 +13417,6 @@
           <t>https://primeauto-ekb.ru/new/nissan/x-trail</t>
         </is>
       </c>
-      <c r="N315" t="n">
-        <v>1530100</v>
-      </c>
-      <c r="O315" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/nissan/x-trail/iii-res-allroad-5/</t>
-        </is>
-      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -13460,6 +13450,14 @@
           <t>https://uu-stoks.ru/auto/nissan/newxtrail_newxtrail</t>
         </is>
       </c>
+      <c r="H316" t="n">
+        <v>1830000</v>
+      </c>
+      <c r="I316" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/nissan/x-trail/iv-allroad-5/</t>
+        </is>
+      </c>
       <c r="J316" t="n">
         <v>3670000</v>
       </c>
@@ -13476,14 +13474,6 @@
           <t>https://primeauto-ekb.ru/new/nissan/x-trail-new</t>
         </is>
       </c>
-      <c r="N316" t="n">
-        <v>1830000</v>
-      </c>
-      <c r="O316" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/nissan/x-trail/iv-allroad-5/</t>
-        </is>
-      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -13517,6 +13507,14 @@
           <t>https://uu-stoks.ru/auto/omoda/c5_cuv</t>
         </is>
       </c>
+      <c r="H317" t="n">
+        <v>1365900</v>
+      </c>
+      <c r="I317" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/omoda/c5/2022-allroad-5/</t>
+        </is>
+      </c>
       <c r="J317" t="n">
         <v>979900</v>
       </c>
@@ -13533,14 +13531,6 @@
           <t>https://primeauto-ekb.ru/new/omoda/c5</t>
         </is>
       </c>
-      <c r="N317" t="n">
-        <v>1365900</v>
-      </c>
-      <c r="O317" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/omoda/c5/2022-allroad-5/</t>
-        </is>
-      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -13574,6 +13564,14 @@
           <t>https://uu-stoks.ru/auto/omoda/s5-2023_sedan-1gen</t>
         </is>
       </c>
+      <c r="H318" t="n">
+        <v>1263900</v>
+      </c>
+      <c r="I318" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/omoda/s5/2022-sedan-4/</t>
+        </is>
+      </c>
       <c r="J318" t="n">
         <v>1299900</v>
       </c>
@@ -13590,14 +13588,6 @@
           <t>https://primeauto-ekb.ru/new/omoda/s5</t>
         </is>
       </c>
-      <c r="N318" t="n">
-        <v>1263900</v>
-      </c>
-      <c r="O318" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/omoda/s5/2022-sedan-4/</t>
-        </is>
-      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -13631,6 +13621,14 @@
           <t>https://uu-stoks.ru/auto/omoda/s5-gt_sedan-1gen</t>
         </is>
       </c>
+      <c r="H319" t="n">
+        <v>1755000</v>
+      </c>
+      <c r="I319" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/omoda/s5-gt/2023-sedan-4/</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1750000</v>
       </c>
@@ -13639,14 +13637,6 @@
           <t>https://primeauto-ekb.ru/new/omoda/s5-gt</t>
         </is>
       </c>
-      <c r="N319" t="n">
-        <v>1755000</v>
-      </c>
-      <c r="O319" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/omoda/s5-gt/2023-sedan-4/</t>
-        </is>
-      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -13672,10 +13662,10 @@
           <t>https://atc-gagarin.ru/cars-new/opel/crossland-x/i-res-allroad-5/</t>
         </is>
       </c>
-      <c r="N320" t="n">
+      <c r="H320" t="n">
         <v>1789000</v>
       </c>
-      <c r="O320" t="inlineStr">
+      <c r="I320" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/opel/crossland-x/i-res-allroad-5/</t>
         </is>
@@ -13705,10 +13695,10 @@
           <t>https://atc-gagarin.ru/cars-new/opel/grandland-x/i-allroad-5/</t>
         </is>
       </c>
-      <c r="N321" t="n">
+      <c r="H321" t="n">
         <v>1959000</v>
       </c>
-      <c r="O321" t="inlineStr">
+      <c r="I321" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/opel/grandland-x/i-allroad-5/</t>
         </is>
@@ -13738,10 +13728,10 @@
           <t>https://atc-gagarin.ru/cars-new/opel/zafira-life/i-minivan-l-5/</t>
         </is>
       </c>
-      <c r="N322" t="n">
+      <c r="H322" t="n">
         <v>2989000</v>
       </c>
-      <c r="O322" t="inlineStr">
+      <c r="I322" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/opel/zafira-life/i-minivan-l-5/</t>
         </is>
@@ -13771,10 +13761,10 @@
           <t>https://atc-gagarin.ru/cars-new/ravon/nexia-r3/2015-2020-sedan-4/</t>
         </is>
       </c>
-      <c r="N323" t="n">
+      <c r="H323" t="n">
         <v>410300</v>
       </c>
-      <c r="O323" t="inlineStr">
+      <c r="I323" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/ravon/nexia-r3/2015-2020-sedan-4/</t>
         </is>
@@ -13804,6 +13794,14 @@
           <t>https://atc-gagarin.ru/cars-new/renault/arkana/i-allroad-5/</t>
         </is>
       </c>
+      <c r="H324" t="n">
+        <v>909000</v>
+      </c>
+      <c r="I324" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/renault/arkana/i-allroad-5/</t>
+        </is>
+      </c>
       <c r="J324" t="n">
         <v>1124400</v>
       </c>
@@ -13820,14 +13818,6 @@
           <t>https://primeauto-ekb.ru/new/renault/arkana</t>
         </is>
       </c>
-      <c r="N324" t="n">
-        <v>909000</v>
-      </c>
-      <c r="O324" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/renault/arkana/i-allroad-5/</t>
-        </is>
-      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -14182,6 +14172,14 @@
           <t>https://uu-stoks.ru/auto/renault/logan-stepway_sedan</t>
         </is>
       </c>
+      <c r="H334" t="n">
+        <v>655000</v>
+      </c>
+      <c r="I334" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/renault/logan/ii-res-sedan-stepway-4/</t>
+        </is>
+      </c>
       <c r="J334" t="n">
         <v>780600</v>
       </c>
@@ -14198,14 +14196,6 @@
           <t>https://primeauto-ekb.ru/new/renault/logan-stepway</t>
         </is>
       </c>
-      <c r="N334" t="n">
-        <v>655000</v>
-      </c>
-      <c r="O334" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/renault/logan/ii-res-sedan-stepway-4/</t>
-        </is>
-      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -14231,6 +14221,14 @@
           <t>https://primeauto-ekb.ru/new/renault/sandero</t>
         </is>
       </c>
+      <c r="H335" t="n">
+        <v>545000</v>
+      </c>
+      <c r="I335" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/renault/sandero/ii-res-hatchback-5/</t>
+        </is>
+      </c>
       <c r="J335" t="n">
         <v>754800</v>
       </c>
@@ -14247,14 +14245,6 @@
           <t>https://primeauto-ekb.ru/new/renault/sandero</t>
         </is>
       </c>
-      <c r="N335" t="n">
-        <v>545000</v>
-      </c>
-      <c r="O335" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/renault/sandero/ii-res-hatchback-5/</t>
-        </is>
-      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -14387,6 +14377,14 @@
           <t>https://atc-gagarin.ru/cars-new/swm/g01/2018-allroad-5/</t>
         </is>
       </c>
+      <c r="H339" t="n">
+        <v>1438220</v>
+      </c>
+      <c r="I339" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/swm/g01/2018-allroad-5/</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1730000</v>
       </c>
@@ -14395,14 +14393,6 @@
           <t>https://primeauto-ekb.ru/new/swm/g01</t>
         </is>
       </c>
-      <c r="N339" t="n">
-        <v>1438220</v>
-      </c>
-      <c r="O339" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/swm/g01/2018-allroad-5/</t>
-        </is>
-      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -14428,6 +14418,14 @@
           <t>https://atc-gagarin.ru/cars-new/swm/g01f/2018-allroad-5/</t>
         </is>
       </c>
+      <c r="H340" t="n">
+        <v>1588340</v>
+      </c>
+      <c r="I340" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/swm/g01f/2018-allroad-5/</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1860000</v>
       </c>
@@ -14436,14 +14434,6 @@
           <t>https://primeauto-ekb.ru/new/swm/g01f</t>
         </is>
       </c>
-      <c r="N340" t="n">
-        <v>1588340</v>
-      </c>
-      <c r="O340" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/swm/g01f/2018-allroad-5/</t>
-        </is>
-      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -14469,6 +14459,14 @@
           <t>https://atc-gagarin.ru/cars-new/swm/g05pro/2021-allroad-5/</t>
         </is>
       </c>
+      <c r="H341" t="n">
+        <v>1625960</v>
+      </c>
+      <c r="I341" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/swm/g05pro/2021-allroad-5/</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>2060000</v>
       </c>
@@ -14477,14 +14475,6 @@
           <t>https://primeauto-ekb.ru/new/swm/g05-pro</t>
         </is>
       </c>
-      <c r="N341" t="n">
-        <v>1625960</v>
-      </c>
-      <c r="O341" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/swm/g05pro/2021-allroad-5/</t>
-        </is>
-      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -14518,6 +14508,14 @@
           <t>https://uu-stoks.ru/auto/skoda/karoq_karoq</t>
         </is>
       </c>
+      <c r="H342" t="n">
+        <v>1240200</v>
+      </c>
+      <c r="I342" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/skoda/karoq/i-allroad-5/</t>
+        </is>
+      </c>
       <c r="J342" t="n">
         <v>1023000</v>
       </c>
@@ -14534,14 +14532,6 @@
           <t>https://primeauto-ekb.ru/new/skoda/karoq</t>
         </is>
       </c>
-      <c r="N342" t="n">
-        <v>1240200</v>
-      </c>
-      <c r="O342" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/skoda/karoq/i-allroad-5/</t>
-        </is>
-      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -14567,10 +14557,10 @@
           <t>https://atc-gagarin.ru/cars-new/skoda/karoq/i-res-allroad-5/</t>
         </is>
       </c>
-      <c r="N343" t="n">
+      <c r="H343" t="n">
         <v>1650000</v>
       </c>
-      <c r="O343" t="inlineStr">
+      <c r="I343" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/skoda/karoq/i-res-allroad-5/</t>
         </is>
@@ -14649,10 +14639,10 @@
           <t>https://atc-gagarin.ru/cars-new/skoda/kodiaq/i-res-allroad-5/</t>
         </is>
       </c>
-      <c r="N345" t="n">
+      <c r="H345" t="n">
         <v>1745000</v>
       </c>
-      <c r="O345" t="inlineStr">
+      <c r="I345" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/skoda/kodiaq/i-res-allroad-5/</t>
         </is>
@@ -14682,10 +14672,10 @@
           <t>https://atc-gagarin.ru/cars-new/skoda/octavia/iv-liftback-5/</t>
         </is>
       </c>
-      <c r="N346" t="n">
+      <c r="H346" t="n">
         <v>1171100</v>
       </c>
-      <c r="O346" t="inlineStr">
+      <c r="I346" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/skoda/octavia/iv-liftback-5/</t>
         </is>
@@ -14797,6 +14787,14 @@
           <t>https://primeauto-ekb.ru/new/skoda/rapid-2019</t>
         </is>
       </c>
+      <c r="H349" t="n">
+        <v>727600</v>
+      </c>
+      <c r="I349" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/skoda/rapid/ii-liftback-5/</t>
+        </is>
+      </c>
       <c r="J349" t="n">
         <v>630600</v>
       </c>
@@ -14813,14 +14811,6 @@
           <t>https://primeauto-ekb.ru/new/skoda/rapid-2019</t>
         </is>
       </c>
-      <c r="N349" t="n">
-        <v>727600</v>
-      </c>
-      <c r="O349" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/skoda/rapid/ii-liftback-5/</t>
-        </is>
-      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -14953,6 +14943,14 @@
           <t>https://atc-gagarin.ru/cars-new/solaris/hc/2022-allroad-5/</t>
         </is>
       </c>
+      <c r="H353" t="n">
+        <v>1770000</v>
+      </c>
+      <c r="I353" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/solaris/hc/2022-allroad-5/</t>
+        </is>
+      </c>
       <c r="J353" t="n">
         <v>2499000</v>
       </c>
@@ -14961,14 +14959,6 @@
           <t>https://autosalon-kit.ru/auto/solaris/hc/suv-1gen</t>
         </is>
       </c>
-      <c r="N353" t="n">
-        <v>1770000</v>
-      </c>
-      <c r="O353" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/solaris/hc/2022-allroad-5/</t>
-        </is>
-      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -14994,6 +14984,14 @@
           <t>https://atc-gagarin.ru/cars-new/solaris/hs/2022-sedan-4/</t>
         </is>
       </c>
+      <c r="H354" t="n">
+        <v>1110000</v>
+      </c>
+      <c r="I354" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/solaris/hs/2022-sedan-4/</t>
+        </is>
+      </c>
       <c r="J354" t="n">
         <v>2010000</v>
       </c>
@@ -15002,14 +15000,6 @@
           <t>https://autosalon-kit.ru/auto/solaris/hs/sedan-1gen</t>
         </is>
       </c>
-      <c r="N354" t="n">
-        <v>1110000</v>
-      </c>
-      <c r="O354" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/solaris/hs/2022-sedan-4/</t>
-        </is>
-      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -15035,6 +15025,14 @@
           <t>https://atc-gagarin.ru/cars-new/solaris/krs/2024-sedan-4/</t>
         </is>
       </c>
+      <c r="H355" t="n">
+        <v>1280000</v>
+      </c>
+      <c r="I355" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/solaris/krs/2024-sedan-4/</t>
+        </is>
+      </c>
       <c r="J355" t="n">
         <v>2038000</v>
       </c>
@@ -15043,14 +15041,6 @@
           <t>https://autosalon-kit.ru/auto/solaris/krs/sedan-1gen</t>
         </is>
       </c>
-      <c r="N355" t="n">
-        <v>1280000</v>
-      </c>
-      <c r="O355" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/solaris/krs/2024-sedan-4/</t>
-        </is>
-      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -15076,6 +15066,14 @@
           <t>https://atc-gagarin.ru/cars-new/solaris/krx/2024-hatchback-5/</t>
         </is>
       </c>
+      <c r="H356" t="n">
+        <v>1780000</v>
+      </c>
+      <c r="I356" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/solaris/krx/2024-hatchback-5/</t>
+        </is>
+      </c>
       <c r="J356" t="n">
         <v>2064000</v>
       </c>
@@ -15084,14 +15082,6 @@
           <t>https://autosalon-kit.ru/auto/solaris/krx/hatchback-1gen</t>
         </is>
       </c>
-      <c r="N356" t="n">
-        <v>1780000</v>
-      </c>
-      <c r="O356" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/solaris/krx/2024-hatchback-5/</t>
-        </is>
-      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -15117,10 +15107,10 @@
           <t>https://atc-gagarin.ru/cars-new/soueast/dx5/2019-allroad-5/</t>
         </is>
       </c>
-      <c r="N357" t="n">
+      <c r="H357" t="n">
         <v>1550000</v>
       </c>
-      <c r="O357" t="inlineStr">
+      <c r="I357" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/soueast/dx5/2019-allroad-5/</t>
         </is>
@@ -15150,10 +15140,10 @@
           <t>https://atc-gagarin.ru/cars-new/soueast/dx8s/2022-allroad-5/</t>
         </is>
       </c>
-      <c r="N358" t="n">
+      <c r="H358" t="n">
         <v>1630000</v>
       </c>
-      <c r="O358" t="inlineStr">
+      <c r="I358" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/soueast/dx8s/2022-allroad-5/</t>
         </is>
@@ -15183,10 +15173,10 @@
           <t>https://atc-gagarin.ru/cars-new/suzuki/sx4/ii-res-hatchback-5/</t>
         </is>
       </c>
-      <c r="N359" t="n">
+      <c r="H359" t="n">
         <v>1109000</v>
       </c>
-      <c r="O359" t="inlineStr">
+      <c r="I359" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/suzuki/sx4/ii-res-hatchback-5/</t>
         </is>
@@ -15224,10 +15214,10 @@
           <t>https://uu-stoks.ru/auto/tank/300_SUV_5D</t>
         </is>
       </c>
-      <c r="N360" t="n">
+      <c r="H360" t="n">
         <v>2729300</v>
       </c>
-      <c r="O360" t="inlineStr">
+      <c r="I360" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/tank/300/2021-allroad-5/</t>
         </is>
@@ -15265,10 +15255,10 @@
           <t>https://uu-stoks.ru/auto/tank/500_SUV_5D</t>
         </is>
       </c>
-      <c r="N361" t="n">
+      <c r="H361" t="n">
         <v>3788000</v>
       </c>
-      <c r="O361" t="inlineStr">
+      <c r="I361" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/tank/500/2021-allroad-5/</t>
         </is>
@@ -15331,6 +15321,14 @@
           <t>https://primeauto-ekb.ru/new/toyota/camry-2017</t>
         </is>
       </c>
+      <c r="H363" t="n">
+        <v>2079500</v>
+      </c>
+      <c r="I363" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/toyota/camry/viii-res-sedan-4/</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1480000</v>
       </c>
@@ -15339,14 +15337,6 @@
           <t>https://primeauto-ekb.ru/new/toyota/camry-2017</t>
         </is>
       </c>
-      <c r="N363" t="n">
-        <v>2079500</v>
-      </c>
-      <c r="O363" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/toyota/camry/viii-res-sedan-4/</t>
-        </is>
-      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -15479,10 +15469,10 @@
           <t>https://atc-gagarin.ru/cars-new/toyota/hilux/viii-res-pickup-two-4/</t>
         </is>
       </c>
-      <c r="N367" t="n">
+      <c r="H367" t="n">
         <v>2460000</v>
       </c>
-      <c r="O367" t="inlineStr">
+      <c r="I367" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/toyota/hilux/viii-res-pickup-two-4/</t>
         </is>
@@ -15512,6 +15502,14 @@
           <t>https://primeauto-ekb.ru/new/toyota/rav4-2019</t>
         </is>
       </c>
+      <c r="H368" t="n">
+        <v>1721700</v>
+      </c>
+      <c r="I368" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/toyota/rav4/v-allroad-5/</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1320000</v>
       </c>
@@ -15520,14 +15518,6 @@
           <t>https://primeauto-ekb.ru/new/toyota/rav4-2019</t>
         </is>
       </c>
-      <c r="N368" t="n">
-        <v>1721700</v>
-      </c>
-      <c r="O368" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/toyota/rav4/v-allroad-5/</t>
-        </is>
-      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -15775,10 +15765,10 @@
           <t>https://atc-gagarin.ru/cars-new/voyah/dream/2021-minivan-5/</t>
         </is>
       </c>
-      <c r="N375" t="n">
+      <c r="H375" t="n">
         <v>6790000</v>
       </c>
-      <c r="O375" t="inlineStr">
+      <c r="I375" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/voyah/dream/2021-minivan-5/</t>
         </is>
@@ -15808,10 +15798,10 @@
           <t>https://atc-gagarin.ru/cars-new/voyah/passion/2022-sedan-4/</t>
         </is>
       </c>
-      <c r="N376" t="n">
+      <c r="H376" t="n">
         <v>4790000</v>
       </c>
-      <c r="O376" t="inlineStr">
+      <c r="I376" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/voyah/passion/2022-sedan-4/</t>
         </is>
@@ -15841,10 +15831,10 @@
           <t>https://atc-gagarin.ru/cars-new/venucia/d60-plus/2021-sedan-4/</t>
         </is>
       </c>
-      <c r="N377" t="n">
+      <c r="H377" t="n">
         <v>1840000</v>
       </c>
-      <c r="O377" t="inlineStr">
+      <c r="I377" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/venucia/d60-plus/2021-sedan-4/</t>
         </is>
@@ -15874,10 +15864,10 @@
           <t>https://atc-gagarin.ru/cars-new/venucia/v-online/2021-allroad-5/</t>
         </is>
       </c>
-      <c r="N378" t="n">
+      <c r="H378" t="n">
         <v>2080000</v>
       </c>
-      <c r="O378" t="inlineStr">
+      <c r="I378" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/venucia/v-online/2021-allroad-5/</t>
         </is>
@@ -15940,10 +15930,10 @@
           <t>https://atc-gagarin.ru/cars-new/volkswagen/bora/iv-sedan-4/</t>
         </is>
       </c>
-      <c r="N380" t="n">
+      <c r="H380" t="n">
         <v>1750000</v>
       </c>
-      <c r="O380" t="inlineStr">
+      <c r="I380" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/volkswagen/bora/iv-sedan-4/</t>
         </is>
@@ -15973,6 +15963,14 @@
           <t>https://autosalon-kit.ru/auto/volkswagen/jetta-new/sedan</t>
         </is>
       </c>
+      <c r="H381" t="n">
+        <v>1186200</v>
+      </c>
+      <c r="I381" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/volkswagen/jetta/vii-sedan-4/</t>
+        </is>
+      </c>
       <c r="J381" t="n">
         <v>910800</v>
       </c>
@@ -15989,14 +15987,6 @@
           <t>https://primeauto-ekb.ru/new/volkswagen/jetta</t>
         </is>
       </c>
-      <c r="N381" t="n">
-        <v>1186200</v>
-      </c>
-      <c r="O381" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/volkswagen/jetta/vii-sedan-4/</t>
-        </is>
-      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -16055,6 +16045,14 @@
           <t>https://primeauto-ekb.ru/new/volkswagen/passat-2014</t>
         </is>
       </c>
+      <c r="H383" t="n">
+        <v>1123700</v>
+      </c>
+      <c r="I383" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/volkswagen/passat/b8-res-sedan-4/</t>
+        </is>
+      </c>
       <c r="J383" t="n">
         <v>1639800</v>
       </c>
@@ -16071,14 +16069,6 @@
           <t>https://primeauto-ekb.ru/new/volkswagen/passat-2014</t>
         </is>
       </c>
-      <c r="N383" t="n">
-        <v>1123700</v>
-      </c>
-      <c r="O383" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/volkswagen/passat/b8-res-sedan-4/</t>
-        </is>
-      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -16145,6 +16135,14 @@
           <t>https://primeauto-ekb.ru/new/volkswagen/polo-sedan</t>
         </is>
       </c>
+      <c r="H385" t="n">
+        <v>734000</v>
+      </c>
+      <c r="I385" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/volkswagen/polo/vi-liftback-5/</t>
+        </is>
+      </c>
       <c r="J385" t="n">
         <v>673440</v>
       </c>
@@ -16161,14 +16159,6 @@
           <t>https://primeauto-ekb.ru/new/volkswagen/polo-sedan</t>
         </is>
       </c>
-      <c r="N385" t="n">
-        <v>734000</v>
-      </c>
-      <c r="O385" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/volkswagen/polo/vi-liftback-5/</t>
-        </is>
-      </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -16235,6 +16225,14 @@
           <t>https://uu-stoks.ru/auto/volkswagen/taos_cuv</t>
         </is>
       </c>
+      <c r="H387" t="n">
+        <v>1464000</v>
+      </c>
+      <c r="I387" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/volkswagen/taos/2020-allroad-5/</t>
+        </is>
+      </c>
       <c r="J387" t="n">
         <v>1697340</v>
       </c>
@@ -16243,14 +16241,6 @@
           <t>https://autosalon-kit.ru/auto/volkswagen/taos/cuv</t>
         </is>
       </c>
-      <c r="N387" t="n">
-        <v>1464000</v>
-      </c>
-      <c r="O387" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/volkswagen/taos/2020-allroad-5/</t>
-        </is>
-      </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -16276,10 +16266,10 @@
           <t>https://atc-gagarin.ru/cars-new/volkswagen/teramont/i-allroad-5/</t>
         </is>
       </c>
-      <c r="N388" t="n">
+      <c r="H388" t="n">
         <v>2679400</v>
       </c>
-      <c r="O388" t="inlineStr">
+      <c r="I388" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/volkswagen/teramont/i-allroad-5/</t>
         </is>
@@ -16309,6 +16299,14 @@
           <t>https://primeauto-ekb.ru/new/volkswagen/tiguan-2020</t>
         </is>
       </c>
+      <c r="H389" t="n">
+        <v>1529300</v>
+      </c>
+      <c r="I389" t="inlineStr">
+        <is>
+          <t>https://atc-gagarin.ru/cars-new/volkswagen/tiguan/ii-res-allroad-5/</t>
+        </is>
+      </c>
       <c r="J389" t="n">
         <v>1280940</v>
       </c>
@@ -16325,14 +16323,6 @@
           <t>https://primeauto-ekb.ru/new/volkswagen/tiguan-2020</t>
         </is>
       </c>
-      <c r="N389" t="n">
-        <v>1529300</v>
-      </c>
-      <c r="O389" t="inlineStr">
-        <is>
-          <t>https://atc-gagarin.ru/cars-new/volkswagen/tiguan/ii-res-allroad-5/</t>
-        </is>
-      </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -16391,10 +16381,10 @@
           <t>https://atc-gagarin.ru/cars-new/zotye/coupa/2018-allroad-5/</t>
         </is>
       </c>
-      <c r="N391" t="n">
+      <c r="H391" t="n">
         <v>750300</v>
       </c>
-      <c r="O391" t="inlineStr">
+      <c r="I391" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/zotye/coupa/2018-allroad-5/</t>
         </is>
@@ -16424,10 +16414,10 @@
           <t>https://atc-gagarin.ru/cars-new/zotye/t600/2013-2021-allroad-5/</t>
         </is>
       </c>
-      <c r="N392" t="n">
+      <c r="H392" t="n">
         <v>570300</v>
       </c>
-      <c r="O392" t="inlineStr">
+      <c r="I392" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/zotye/t600/2013-2021-allroad-5/</t>
         </is>
@@ -16457,10 +16447,10 @@
           <t>https://atc-gagarin.ru/cars-new/zotye/z300/2012-2017-sedan-4/</t>
         </is>
       </c>
-      <c r="N393" t="n">
+      <c r="H393" t="n">
         <v>309990</v>
       </c>
-      <c r="O393" t="inlineStr">
+      <c r="I393" t="inlineStr">
         <is>
           <t>https://atc-gagarin.ru/cars-new/zotye/z300/2012-2017-sedan-4/</t>
         </is>

--- a/xlsx/ekaterinburg.xlsx
+++ b/xlsx/ekaterinburg.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M393"/>
+  <dimension ref="A1:Q393"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,6 +487,26 @@
           <t>primeauto-ekb.ru</t>
         </is>
       </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>autoworld-ekb.ru_price</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>autoworld-ekb.ru</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>swmauto-dealer.ru_price</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>swmauto-dealer.ru</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -520,6 +540,14 @@
           <t>https://atc-gagarin.ru/cars-new/baic/bj40/i-res-allroad-5/</t>
         </is>
       </c>
+      <c r="P2" t="n">
+        <v>2870000</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/baic/bj-40-plus</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -542,7 +570,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/baic/u5-plus/2021-sedan-4/</t>
+          <t>https://autoworld-ekb.ru/auto/baic/u5_plus/</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -553,6 +581,24 @@
           <t>https://atc-gagarin.ru/cars-new/baic/u5-plus/2021-sedan-4/</t>
         </is>
       </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>1210000</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/baic/u5_plus/</t>
+        </is>
+      </c>
+      <c r="P3" t="n">
+        <v>1230000</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/baic/u5-plus</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -571,11 +617,11 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1241400</v>
+        <v>1220000</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/baic/x35/2019-allroad-5/</t>
+          <t>https://swmauto-dealer.ru/new/baic/x35</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -586,6 +632,14 @@
           <t>https://atc-gagarin.ru/cars-new/baic/x35/2019-allroad-5/</t>
         </is>
       </c>
+      <c r="P4" t="n">
+        <v>1220000</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/baic/x35</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -608,7 +662,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/baic/x55/2022-allroad-5/</t>
+          <t>https://autoworld-ekb.ru/auto/baic/x55/</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -619,6 +673,16 @@
           <t>https://atc-gagarin.ru/cars-new/baic/x55/2022-allroad-5/</t>
         </is>
       </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>1780000</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/baic/x55/</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -641,7 +705,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/baic/x7/i-allroad-5/</t>
+          <t>https://autoworld-ekb.ru/auto/baic/x7/</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -652,6 +716,16 @@
           <t>https://atc-gagarin.ru/cars-new/baic/x7/i-allroad-5/</t>
         </is>
       </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>1900000</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/baic/x7/</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -707,7 +781,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/belgee/x50/2023-allroad-5/</t>
+          <t>https://autoworld-ekb.ru/auto/belgee/x50/</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -726,6 +800,16 @@
           <t>https://atc-gagarin.ru/cars-new/belgee/x50/2023-allroad-5/</t>
         </is>
       </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>1389000</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/belgee/x50/</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -748,7 +832,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://uu-stoks.ru/auto/belgee/x70_suv-1gen</t>
+          <t>https://autoworld-ekb.ru/auto/belgee/x70/</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -759,6 +843,16 @@
           <t>https://uu-stoks.ru/auto/belgee/x70_suv-1gen</t>
         </is>
       </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>1914990</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/belgee/x70/</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -781,7 +875,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/changan/alsvin/2018-sedan-4/</t>
+          <t>https://autoworld-ekb.ru/auto/changan/alsvin/</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -816,6 +910,24 @@
           <t>https://primeauto-ekb.ru/new/changan/alsvin</t>
         </is>
       </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>855000</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/changan/alsvin/</t>
+        </is>
+      </c>
+      <c r="P10" t="n">
+        <v>970000</v>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/changan/alsvin</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -838,7 +950,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/changan/cs15</t>
+          <t>https://swmauto-dealer.ru/new/changan/cs15</t>
         </is>
       </c>
       <c r="L11" t="n">
@@ -849,6 +961,14 @@
           <t>https://primeauto-ekb.ru/new/changan/cs15</t>
         </is>
       </c>
+      <c r="P11" t="n">
+        <v>1250000</v>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/changan/cs15</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -871,7 +991,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/changan/cs35-plus</t>
+          <t>https://swmauto-dealer.ru/new/changan/cs35-plus</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -906,6 +1026,14 @@
           <t>https://primeauto-ekb.ru/new/changan/cs35-plus</t>
         </is>
       </c>
+      <c r="P12" t="n">
+        <v>1160000</v>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/changan/cs35-plus</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -928,7 +1056,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://uu-stoks.ru/auto/changan/cs35plusnew_cuv-1gen-rest</t>
+          <t>https://autoworld-ekb.ru/auto/changan/cs35_plus/</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -947,6 +1075,24 @@
           <t>https://primeauto-ekb.ru/new/changan/cs35plus-new</t>
         </is>
       </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>1099900</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/changan/cs35_plus/</t>
+        </is>
+      </c>
+      <c r="P13" t="n">
+        <v>1670000</v>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/changan/cs35plus-new</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1002,7 +1148,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/changan/cs55/i-allroad-5/</t>
+          <t>https://autoworld-ekb.ru/auto/changan/cs55/</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1029,6 +1175,24 @@
           <t>https://primeauto-ekb.ru/new/changan/cs55</t>
         </is>
       </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>1299100</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/changan/cs55/</t>
+        </is>
+      </c>
+      <c r="P15" t="n">
+        <v>1300000</v>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/changan/cs55</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1051,7 +1215,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/changan/cs55plus/i-res-allroad-5/</t>
+          <t>https://autoworld-ekb.ru/auto/changan/cs55_plus/</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -1078,6 +1242,16 @@
           <t>https://autosalon-kit.ru/auto/changan/cs55plus/cuv</t>
         </is>
       </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>1139900</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/changan/cs55_plus/</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1100,7 +1274,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/changan/cs75-plus</t>
+          <t>https://swmauto-dealer.ru/new/changan/cs75-plus</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -1127,6 +1301,14 @@
           <t>https://primeauto-ekb.ru/new/changan/cs75-plus</t>
         </is>
       </c>
+      <c r="P17" t="n">
+        <v>1970000</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/changan/cs75-plus</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1242,6 +1424,14 @@
           <t>https://primeauto-ekb.ru/new/changan/cs75fl</t>
         </is>
       </c>
+      <c r="P20" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/changan/cs75fl</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1324,6 +1514,24 @@
           <t>https://primeauto-ekb.ru/new/changan/cs85coupe</t>
         </is>
       </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>2720000</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/changan/cs85_coupe/</t>
+        </is>
+      </c>
+      <c r="P22" t="n">
+        <v>2720000</v>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/changan/cs85coupe</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1346,7 +1554,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/changan/cs95</t>
+          <t>https://swmauto-dealer.ru/new/changan/cs95</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -1381,6 +1589,14 @@
           <t>https://primeauto-ekb.ru/new/changan/cs95</t>
         </is>
       </c>
+      <c r="P23" t="n">
+        <v>2280000</v>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/changan/cs95</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1477,7 +1693,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/changan/eado-plus</t>
+          <t>https://swmauto-dealer.ru/new/changan/eado-plus</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -1504,6 +1720,24 @@
           <t>https://primeauto-ekb.ru/new/changan/eado-plus</t>
         </is>
       </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>1680000</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/changan/eado_plus/</t>
+        </is>
+      </c>
+      <c r="P26" t="n">
+        <v>1680000</v>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/changan/eado-plus</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1526,7 +1760,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/changan/hunter-plus</t>
+          <t>https://swmauto-dealer.ru/new/changan/hunter-plus</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -1553,6 +1787,14 @@
           <t>https://primeauto-ekb.ru/new/changan/hunter-plus</t>
         </is>
       </c>
+      <c r="P27" t="n">
+        <v>2470000</v>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/changan/hunter-plus</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1575,7 +1817,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/changan/lamore</t>
+          <t>https://swmauto-dealer.ru/new/changan/lamore</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -1602,6 +1844,24 @@
           <t>https://primeauto-ekb.ru/new/changan/lamore</t>
         </is>
       </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>1560000</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/changan/lamore/</t>
+        </is>
+      </c>
+      <c r="P28" t="n">
+        <v>1560000</v>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/changan/lamore</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1692,6 +1952,14 @@
           <t>https://primeauto-ekb.ru/new/changan/raeton-plus</t>
         </is>
       </c>
+      <c r="P30" t="n">
+        <v>1840000</v>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/changan/raeton-plus</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1749,6 +2017,24 @@
           <t>https://primeauto-ekb.ru/new/changan/uni-k</t>
         </is>
       </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>2420000</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/changan/uni-k/</t>
+        </is>
+      </c>
+      <c r="P31" t="n">
+        <v>2420000</v>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/changan/uni-k</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1771,7 +2057,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/changan/cs55plus</t>
+          <t>https://swmauto-dealer.ru/new/changan/cs55plus</t>
         </is>
       </c>
       <c r="L32" t="n">
@@ -1782,6 +2068,14 @@
           <t>https://primeauto-ekb.ru/new/changan/cs55plus</t>
         </is>
       </c>
+      <c r="P32" t="n">
+        <v>2030000</v>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/changan/cs55plus</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1804,7 +2098,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/changan/uni-t/i-res-allroad-5/</t>
+          <t>https://autoworld-ekb.ru/auto/changan/uni-t/</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -1831,6 +2125,24 @@
           <t>https://primeauto-ekb.ru/new/changan/uni-t</t>
         </is>
       </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>1829200</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/changan/uni-t/</t>
+        </is>
+      </c>
+      <c r="P33" t="n">
+        <v>1830000</v>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/changan/uni-t</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1888,6 +2200,24 @@
           <t>https://primeauto-ekb.ru/new/changan/uni-v</t>
         </is>
       </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>1969000</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/changan/uni-v/</t>
+        </is>
+      </c>
+      <c r="P34" t="n">
+        <v>1970000</v>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/changan/uni-v</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1910,7 +2240,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/chery/arrizo-8</t>
+          <t>https://swmauto-dealer.ru/new/chery/arrizo-8</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -1929,6 +2259,24 @@
           <t>https://primeauto-ekb.ru/new/chery/arrizo-8</t>
         </is>
       </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>1890000</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/chery/arrizo_8/</t>
+        </is>
+      </c>
+      <c r="P35" t="n">
+        <v>1890000</v>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/chery/arrizo-8</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1970,6 +2318,14 @@
           <t>https://primeauto-ekb.ru/new/chery/explore-06</t>
         </is>
       </c>
+      <c r="P36" t="n">
+        <v>1590000</v>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/chery/explore-06</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2074,7 +2430,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/chery/tiggo-3x</t>
+          <t>https://swmauto-dealer.ru/new/chery/tiggo-3x</t>
         </is>
       </c>
       <c r="L39" t="n">
@@ -2085,6 +2441,14 @@
           <t>https://primeauto-ekb.ru/new/chery/tiggo-3x</t>
         </is>
       </c>
+      <c r="P39" t="n">
+        <v>840000</v>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/chery/tiggo-3x</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2148,7 +2512,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/chery/tiggo-4</t>
+          <t>https://swmauto-dealer.ru/new/chery/tiggo-4</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -2183,6 +2547,14 @@
           <t>https://primeauto-ekb.ru/new/chery/tiggo-4</t>
         </is>
       </c>
+      <c r="P41" t="n">
+        <v>860000</v>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/chery/tiggo-4</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2205,7 +2577,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/chery/tiggo-4/i-res2-allroad-5/</t>
+          <t>https://autoworld-ekb.ru/auto/chery/tiggo_4/</t>
         </is>
       </c>
       <c r="H42" t="n">
@@ -2216,6 +2588,16 @@
           <t>https://atc-gagarin.ru/cars-new/chery/tiggo-4/i-res2-allroad-5/</t>
         </is>
       </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>1389000</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/chery/tiggo_4/</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2238,7 +2620,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/chery/tiggo-4-pro</t>
+          <t>https://swmauto-dealer.ru/new/chery/tiggo-4-pro</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -2273,6 +2655,24 @@
           <t>https://primeauto-ekb.ru/new/chery/tiggo-4-pro</t>
         </is>
       </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>1190000</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/chery/tiggo_4_pro/</t>
+        </is>
+      </c>
+      <c r="P43" t="n">
+        <v>1190000</v>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/chery/tiggo-4-pro</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2295,7 +2695,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/chery/tiggo-7</t>
+          <t>https://swmauto-dealer.ru/new/chery/tiggo-7</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -2330,6 +2730,14 @@
           <t>https://primeauto-ekb.ru/new/chery/tiggo-7</t>
         </is>
       </c>
+      <c r="P44" t="n">
+        <v>980000</v>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/chery/tiggo-7</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2352,7 +2760,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/chery/tiggo-7-pro</t>
+          <t>https://swmauto-dealer.ru/new/chery/tiggo-7-pro</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -2387,6 +2795,24 @@
           <t>https://primeauto-ekb.ru/new/chery/tiggo-7-pro</t>
         </is>
       </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>1260000</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/chery/tiggo_7_pro/</t>
+        </is>
+      </c>
+      <c r="P45" t="n">
+        <v>1260000</v>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/chery/tiggo-7-pro</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2444,6 +2870,24 @@
           <t>https://primeauto-ekb.ru/new/chery/tiggo-7-pro-max</t>
         </is>
       </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>1469000</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/chery/tiggo_7_pro_max_1/</t>
+        </is>
+      </c>
+      <c r="P46" t="n">
+        <v>1550000</v>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/chery/tiggo-7-pro-max</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2466,7 +2910,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/chery/tiggo-7-pro-max/i-res-allroad-5/</t>
+          <t>https://autoworld-ekb.ru/auto/chery/tiggo_7_pro_max/</t>
         </is>
       </c>
       <c r="F47" t="n">
@@ -2485,6 +2929,16 @@
           <t>https://atc-gagarin.ru/cars-new/chery/tiggo-7-pro-max/i-res-allroad-5/</t>
         </is>
       </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>1770000</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/chery/tiggo_7_pro_max/</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2507,7 +2961,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/chery/tiggo-8</t>
+          <t>https://swmauto-dealer.ru/new/chery/tiggo-8</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -2542,6 +2996,14 @@
           <t>https://primeauto-ekb.ru/new/chery/tiggo-8</t>
         </is>
       </c>
+      <c r="P48" t="n">
+        <v>1390000</v>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/chery/tiggo-8</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2564,7 +3026,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/chery/new-tiggo-8</t>
+          <t>https://swmauto-dealer.ru/new/chery/new-tiggo-8</t>
         </is>
       </c>
       <c r="L49" t="n">
@@ -2575,6 +3037,14 @@
           <t>https://primeauto-ekb.ru/new/chery/new-tiggo-8</t>
         </is>
       </c>
+      <c r="P49" t="n">
+        <v>1530000</v>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/chery/new-tiggo-8</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2597,7 +3067,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/chery/tiggo-8-pro</t>
+          <t>https://swmauto-dealer.ru/new/chery/tiggo-8-pro</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -2632,6 +3102,24 @@
           <t>https://primeauto-ekb.ru/new/chery/tiggo-8-pro</t>
         </is>
       </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>1570000</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/chery/tiggo_8_pro/</t>
+        </is>
+      </c>
+      <c r="P50" t="n">
+        <v>1570000</v>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/chery/tiggo-8-pro</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2654,7 +3142,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/chery/tiggo-8-pro-max</t>
+          <t>https://swmauto-dealer.ru/new/chery/tiggo-8-pro-max</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -2689,6 +3177,24 @@
           <t>https://primeauto-ekb.ru/new/chery/tiggo-8-pro-max</t>
         </is>
       </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>2119000</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/chery/tiggo_8_pro_max_1/</t>
+        </is>
+      </c>
+      <c r="P51" t="n">
+        <v>2119000</v>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/chery/tiggo-8-pro-max</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2744,7 +3250,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/chery/tiggo-8-pro-e</t>
+          <t>https://swmauto-dealer.ru/new/chery/tiggo-8-pro-e</t>
         </is>
       </c>
       <c r="F53" t="n">
@@ -2771,6 +3277,14 @@
           <t>https://primeauto-ekb.ru/new/chery/tiggo-8-pro-e</t>
         </is>
       </c>
+      <c r="P53" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/chery/tiggo-8-pro-e</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2793,7 +3307,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/chery/tiggo-9</t>
+          <t>https://swmauto-dealer.ru/new/chery/tiggo-9</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -2828,6 +3342,24 @@
           <t>https://primeauto-ekb.ru/new/chery/tiggo-9</t>
         </is>
       </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>1950000</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/chery/tiggo_9/</t>
+        </is>
+      </c>
+      <c r="P54" t="n">
+        <v>1950000</v>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/chery/tiggo-9</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2902,6 +3434,14 @@
           <t>https://autosalon-kit.ru/auto/chevrolet/Captiva-new/suv-2gen</t>
         </is>
       </c>
+      <c r="P56" t="n">
+        <v>1350000</v>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/chevrolet/captiva</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2920,11 +3460,11 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>873900</v>
+        <v>590000</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://uu-stoks.ru/auto/chevrolet/cobalt_sedan</t>
+          <t>https://swmauto-dealer.ru/new/chevrolet/cobalt</t>
         </is>
       </c>
       <c r="F57" t="n">
@@ -2935,6 +3475,24 @@
           <t>https://uu-stoks.ru/auto/chevrolet/cobalt_sedan</t>
         </is>
       </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>590000</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/chevrolet/cobalt/</t>
+        </is>
+      </c>
+      <c r="P57" t="n">
+        <v>590000</v>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/chevrolet/cobalt</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2953,11 +3511,11 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>800900</v>
+        <v>540000</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://uu-stoks.ru/auto/chevrolet/nexia-2020_sedan</t>
+          <t>https://swmauto-dealer.ru/new/chevrolet/nexia</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -2968,6 +3526,24 @@
           <t>https://uu-stoks.ru/auto/chevrolet/nexia-2020_sedan</t>
         </is>
       </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>540000</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/chevrolet/nexia/</t>
+        </is>
+      </c>
+      <c r="P58" t="n">
+        <v>540000</v>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/chevrolet/nexia</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3019,11 +3595,11 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>870900</v>
+        <v>500000</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://uu-stoks.ru/auto/chevrolet/spark_hatchback</t>
+          <t>https://swmauto-dealer.ru/new/chevrolet/spark</t>
         </is>
       </c>
       <c r="F60" t="n">
@@ -3034,6 +3610,24 @@
           <t>https://uu-stoks.ru/auto/chevrolet/spark_hatchback</t>
         </is>
       </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>500000</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/chevrolet/spark/</t>
+        </is>
+      </c>
+      <c r="P60" t="n">
+        <v>500000</v>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/chevrolet/spark</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3056,7 +3650,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/chevrolet/trailblazer/iii-allroad-5/</t>
+          <t>https://swmauto-dealer.ru/new/chevrolet/trailblazer</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -3075,6 +3669,14 @@
           <t>https://atc-gagarin.ru/cars-new/chevrolet/trailblazer/iii-allroad-5/</t>
         </is>
       </c>
+      <c r="P61" t="n">
+        <v>1670000</v>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/chevrolet/trailblazer</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3097,7 +3699,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/chevrolet/traverse/ii-allroad-5/</t>
+          <t>https://swmauto-dealer.ru/new/chevrolet/traverse</t>
         </is>
       </c>
       <c r="H62" t="n">
@@ -3108,6 +3710,14 @@
           <t>https://atc-gagarin.ru/cars-new/chevrolet/traverse/ii-allroad-5/</t>
         </is>
       </c>
+      <c r="P62" t="n">
+        <v>2940000</v>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/chevrolet/traverse</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3223,6 +3833,14 @@
           <t>https://autosalon-kit.ru/auto/dongfeng/580/580</t>
         </is>
       </c>
+      <c r="P65" t="n">
+        <v>1140000</v>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/dongfeng/sk-580</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3297,6 +3915,14 @@
           <t>https://autosalon-kit.ru/auto/dongfeng/ax7/suv</t>
         </is>
       </c>
+      <c r="P67" t="n">
+        <v>900000</v>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/dongfeng/ax7</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3319,7 +3945,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/dongfeng/df6/2022-pickup-4/</t>
+          <t>https://swmauto-dealer.ru/new/dongfeng/df6</t>
         </is>
       </c>
       <c r="F68" t="n">
@@ -3338,6 +3964,14 @@
           <t>https://atc-gagarin.ru/cars-new/dongfeng/df6/2022-pickup-4/</t>
         </is>
       </c>
+      <c r="P68" t="n">
+        <v>1790000</v>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/dongfeng/df6</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3438,11 +4072,11 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1990000</v>
+        <v>1540000</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/dongfeng/shine-max/2023-sedan-4/</t>
+          <t>https://swmauto-dealer.ru/new/dongfeng/shine-max</t>
         </is>
       </c>
       <c r="F71" t="n">
@@ -3461,6 +4095,14 @@
           <t>https://atc-gagarin.ru/cars-new/dongfeng/shine-max/2023-sedan-4/</t>
         </is>
       </c>
+      <c r="P71" t="n">
+        <v>1540000</v>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/dongfeng/shine-max</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3483,7 +4125,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/exeed/lx</t>
+          <t>https://swmauto-dealer.ru/new/exeed/lx</t>
         </is>
       </c>
       <c r="F72" t="n">
@@ -3510,6 +4152,14 @@
           <t>https://primeauto-ekb.ru/new/exeed/lx</t>
         </is>
       </c>
+      <c r="P72" t="n">
+        <v>1930000</v>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/exeed/lx</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3532,7 +4182,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/exeed/rx</t>
+          <t>https://swmauto-dealer.ru/new/exeed/rx</t>
         </is>
       </c>
       <c r="F73" t="n">
@@ -3559,6 +4209,24 @@
           <t>https://primeauto-ekb.ru/new/exeed/rx</t>
         </is>
       </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>2700000</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/exeed/rx/</t>
+        </is>
+      </c>
+      <c r="P73" t="n">
+        <v>2700000</v>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/exeed/rx</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3581,7 +4249,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/exeed/txl</t>
+          <t>https://swmauto-dealer.ru/new/exeed/txl</t>
         </is>
       </c>
       <c r="F74" t="n">
@@ -3616,6 +4284,24 @@
           <t>https://primeauto-ekb.ru/new/exeed/txl</t>
         </is>
       </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>2220000</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/exeed/txl/</t>
+        </is>
+      </c>
+      <c r="P74" t="n">
+        <v>1920000</v>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/exeed/txl</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3638,7 +4324,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/exeed/txl-new</t>
+          <t>https://swmauto-dealer.ru/new/exeed/txl-new</t>
         </is>
       </c>
       <c r="F75" t="n">
@@ -3657,6 +4343,14 @@
           <t>https://primeauto-ekb.ru/new/exeed/txl-new</t>
         </is>
       </c>
+      <c r="P75" t="n">
+        <v>2220000</v>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/exeed/txl-new</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3712,7 +4406,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/exeed/vx</t>
+          <t>https://swmauto-dealer.ru/new/exeed/vx</t>
         </is>
       </c>
       <c r="F77" t="n">
@@ -3739,6 +4433,24 @@
           <t>https://primeauto-ekb.ru/new/exeed/vx</t>
         </is>
       </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>2830000</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/exeed/vx/</t>
+        </is>
+      </c>
+      <c r="P77" t="n">
+        <v>2830000</v>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/exeed/vx</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3794,7 +4506,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/exeed/vx-new</t>
+          <t>https://swmauto-dealer.ru/new/exeed/vx-new</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -3821,6 +4533,14 @@
           <t>https://primeauto-ekb.ru/new/exeed/vx-new</t>
         </is>
       </c>
+      <c r="P79" t="n">
+        <v>4350000</v>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/exeed/vx-new</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3872,11 +4592,11 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>1860000</v>
+        <v>1328000</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/faw/bestune-b70</t>
+          <t>https://autoworld-ekb.ru/auto/faw/bestune_b70/</t>
         </is>
       </c>
       <c r="L81" t="n">
@@ -3887,6 +4607,24 @@
           <t>https://primeauto-ekb.ru/new/faw/bestune-b70</t>
         </is>
       </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>1328000</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/faw/bestune_b70/</t>
+        </is>
+      </c>
+      <c r="P81" t="n">
+        <v>1860000</v>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/faw/bestune-b70</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3905,11 +4643,11 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1744200</v>
+        <v>1740000</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/faw/bestune-t55/2021-allroad-5/</t>
+          <t>https://autoworld-ekb.ru/auto/faw/bestune_t55/</t>
         </is>
       </c>
       <c r="H82" t="n">
@@ -3928,6 +4666,24 @@
           <t>https://primeauto-ekb.ru/new/faw/bestune-t55</t>
         </is>
       </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>1740000</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/faw/bestune_t55/</t>
+        </is>
+      </c>
+      <c r="P82" t="n">
+        <v>1860000</v>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/faw/bestune-t55</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3985,6 +4741,24 @@
           <t>https://primeauto-ekb.ru/new/faw/bestune-t77</t>
         </is>
       </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>1460000</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/faw/besturn_t77/</t>
+        </is>
+      </c>
+      <c r="P83" t="n">
+        <v>1460000</v>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/faw/bestune-t77</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -4007,7 +4781,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/faw/bestune-t99</t>
+          <t>https://swmauto-dealer.ru/new/faw/bestune-t99</t>
         </is>
       </c>
       <c r="L84" t="n">
@@ -4018,6 +4792,14 @@
           <t>https://primeauto-ekb.ru/new/faw/bestune-t99</t>
         </is>
       </c>
+      <c r="P84" t="n">
+        <v>2250000</v>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/faw/bestune-t99</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -4199,6 +4981,14 @@
           <t>https://primeauto-ekb.ru/new/faw/besturn-x40</t>
         </is>
       </c>
+      <c r="P89" t="n">
+        <v>1190000</v>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/faw/besturn-x40</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -4266,11 +5056,11 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>961200</v>
+        <v>640300</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/faw/new-x40/2019</t>
+          <t>https://autoworld-ekb.ru/auto/faw/x40/</t>
         </is>
       </c>
       <c r="J91" t="n">
@@ -4281,6 +5071,16 @@
           <t>https://autosalon-kit.ru/auto/faw/new-x40/2019</t>
         </is>
       </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>640300</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/faw/x40/</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -4347,6 +5147,14 @@
           <t>https://atc-gagarin.ru/cars-new/forthing/t5-evo/2020-allroad-5/</t>
         </is>
       </c>
+      <c r="P93" t="n">
+        <v>2210000</v>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/forthing/t5-evo</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -4365,11 +5173,11 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>3090000</v>
+        <v>2950000</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/forthing/yacht/2022-minivan-5/</t>
+          <t>https://swmauto-dealer.ru/new/forthing/yacht</t>
         </is>
       </c>
       <c r="H94" t="n">
@@ -4380,6 +5188,14 @@
           <t>https://atc-gagarin.ru/cars-new/forthing/yacht/2022-minivan-5/</t>
         </is>
       </c>
+      <c r="P94" t="n">
+        <v>2950000</v>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/forthing/yacht</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -4437,6 +5253,14 @@
           <t>https://primeauto-ekb.ru/new/gac/gn8</t>
         </is>
       </c>
+      <c r="P95" t="n">
+        <v>2240000</v>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/gac/gn8</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -4459,7 +5283,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/gac/gs3/2024-allroad-5/</t>
+          <t>https://autoworld-ekb.ru/auto/gac/gs3/</t>
         </is>
       </c>
       <c r="H96" t="n">
@@ -4470,6 +5294,16 @@
           <t>https://atc-gagarin.ru/cars-new/gac/gs3/2024-allroad-5/</t>
         </is>
       </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>1552500</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/gac/gs3/</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -4558,7 +5392,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/gac/gs5</t>
+          <t>https://swmauto-dealer.ru/new/gac/gs5</t>
         </is>
       </c>
       <c r="F99" t="n">
@@ -4593,6 +5427,24 @@
           <t>https://primeauto-ekb.ru/new/gac/gs5</t>
         </is>
       </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>1260000</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/gac/gs5/</t>
+        </is>
+      </c>
+      <c r="P99" t="n">
+        <v>1260000</v>
+      </c>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/gac/gs5</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -4642,6 +5494,16 @@
           <t>https://autosalon-kit.ru/auto/gac/gc-8/crossover</t>
         </is>
       </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>2748300</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/gac/gs8/</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -4732,6 +5594,14 @@
           <t>https://primeauto-ekb.ru/new/geely/atlas</t>
         </is>
       </c>
+      <c r="P102" t="n">
+        <v>1040000</v>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/geely/atlas</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -4754,7 +5624,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>https://uu-stoks.ru/auto/geely/Atlas_suv-2gen</t>
+          <t>https://autoworld-ekb.ru/auto/geely/atlas/</t>
         </is>
       </c>
       <c r="F103" t="n">
@@ -4781,6 +5651,24 @@
           <t>https://primeauto-ekb.ru/new/geely/atlas-new</t>
         </is>
       </c>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>1929900</t>
+        </is>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/geely/atlas/</t>
+        </is>
+      </c>
+      <c r="P103" t="n">
+        <v>1930000</v>
+      </c>
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/geely/atlas-new</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -4838,6 +5726,24 @@
           <t>https://primeauto-ekb.ru/new/geely/atlas-pro</t>
         </is>
       </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>1519990</t>
+        </is>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/geely/atlas_pro/</t>
+        </is>
+      </c>
+      <c r="P104" t="n">
+        <v>1560000</v>
+      </c>
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/geely/atlas-pro</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -4860,7 +5766,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/geely/belgee-x50</t>
+          <t>https://swmauto-dealer.ru/new/geely/belgee-x50</t>
         </is>
       </c>
       <c r="L105" t="n">
@@ -4871,6 +5777,14 @@
           <t>https://primeauto-ekb.ru/new/geely/belgee-x50</t>
         </is>
       </c>
+      <c r="P105" t="n">
+        <v>1550000</v>
+      </c>
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/geely/belgee-x50</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -4926,7 +5840,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/geely/coolray/i-allroad-5/</t>
+          <t>https://autoworld-ekb.ru/auto/geely/coolray_1/</t>
         </is>
       </c>
       <c r="F107" t="n">
@@ -4961,6 +5875,24 @@
           <t>https://primeauto-ekb.ru/new/geely/coolray</t>
         </is>
       </c>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>966300</t>
+        </is>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/geely/coolray_1/</t>
+        </is>
+      </c>
+      <c r="P107" t="n">
+        <v>1030000</v>
+      </c>
+      <c r="Q107" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/geely/coolray</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -5010,6 +5942,24 @@
           <t>https://primeauto-ekb.ru/new/geely/coolray-new</t>
         </is>
       </c>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>1594990</t>
+        </is>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/geely/coolray/</t>
+        </is>
+      </c>
+      <c r="P108" t="n">
+        <v>1620000</v>
+      </c>
+      <c r="Q108" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/geely/coolray-new</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -5067,6 +6017,14 @@
           <t>https://primeauto-ekb.ru/new/geely/emgrand-2023</t>
         </is>
       </c>
+      <c r="P109" t="n">
+        <v>1240000</v>
+      </c>
+      <c r="Q109" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/geely/emgrand-2023</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -5089,7 +6047,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/geely/emgrand-7</t>
+          <t>https://swmauto-dealer.ru/new/geely/emgrand-7</t>
         </is>
       </c>
       <c r="L110" t="n">
@@ -5100,6 +6058,14 @@
           <t>https://primeauto-ekb.ru/new/geely/emgrand-7</t>
         </is>
       </c>
+      <c r="P110" t="n">
+        <v>570000</v>
+      </c>
+      <c r="Q110" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/geely/emgrand-7</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -5182,6 +6148,14 @@
           <t>https://primeauto-ekb.ru/new/geely/gs</t>
         </is>
       </c>
+      <c r="P112" t="n">
+        <v>1070000</v>
+      </c>
+      <c r="Q112" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/geely/gs</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -5204,7 +6178,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/geely/monjaro/2021-allroad-5/</t>
+          <t>https://autoworld-ekb.ru/auto/geely/monjaro/</t>
         </is>
       </c>
       <c r="F113" t="n">
@@ -5231,6 +6205,24 @@
           <t>https://primeauto-ekb.ru/new/geely/monjaro</t>
         </is>
       </c>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>2819900</t>
+        </is>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/geely/monjaro/</t>
+        </is>
+      </c>
+      <c r="P113" t="n">
+        <v>2820000</v>
+      </c>
+      <c r="Q113" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/geely/monjaro</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -5288,6 +6280,14 @@
           <t>https://primeauto-ekb.ru/new/geely/okavango</t>
         </is>
       </c>
+      <c r="P114" t="n">
+        <v>2500000</v>
+      </c>
+      <c r="Q114" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/geely/okavango</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -5329,6 +6329,16 @@
           <t>https://atc-gagarin.ru/cars-new/geely/okavango/i-res-allroad-5/</t>
         </is>
       </c>
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>2779990</t>
+        </is>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/geely/okavango/</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -5386,6 +6396,14 @@
           <t>https://primeauto-ekb.ru/new/geely/preface</t>
         </is>
       </c>
+      <c r="P116" t="n">
+        <v>1550000</v>
+      </c>
+      <c r="Q116" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/geely/preface</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -5476,6 +6494,14 @@
           <t>https://primeauto-ekb.ru/new/geely/tugella</t>
         </is>
       </c>
+      <c r="P118" t="n">
+        <v>1920000</v>
+      </c>
+      <c r="Q118" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/geely/tugella</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -5494,11 +6520,11 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>2000000</v>
+        <v>1999000</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/geely/tugella-new</t>
+          <t>https://autoworld-ekb.ru/auto/geely/tugella/</t>
         </is>
       </c>
       <c r="L119" t="n">
@@ -5509,6 +6535,24 @@
           <t>https://primeauto-ekb.ru/new/geely/tugella-new</t>
         </is>
       </c>
+      <c r="N119" t="inlineStr">
+        <is>
+          <t>1999000</t>
+        </is>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/geely/tugella/</t>
+        </is>
+      </c>
+      <c r="P119" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="Q119" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/geely/tugella-new</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -5564,7 +6608,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/great-wall/pao</t>
+          <t>https://swmauto-dealer.ru/new/great-wall/pao</t>
         </is>
       </c>
       <c r="J121" t="n">
@@ -5583,6 +6627,14 @@
           <t>https://primeauto-ekb.ru/new/great-wall/pao</t>
         </is>
       </c>
+      <c r="P121" t="n">
+        <v>2800000</v>
+      </c>
+      <c r="Q121" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/great-wall/pao</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -5605,7 +6657,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/great-wall/poer-kingkong</t>
+          <t>https://swmauto-dealer.ru/new/great-wall/poer-kingkong</t>
         </is>
       </c>
       <c r="J122" t="n">
@@ -5624,6 +6676,14 @@
           <t>https://primeauto-ekb.ru/new/great-wall/poer-kingkong</t>
         </is>
       </c>
+      <c r="P122" t="n">
+        <v>2490000</v>
+      </c>
+      <c r="Q122" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/great-wall/poer-kingkong</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -5646,7 +6706,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/great-wall/wingle-7</t>
+          <t>https://swmauto-dealer.ru/new/great-wall/wingle-7</t>
         </is>
       </c>
       <c r="L123" t="n">
@@ -5657,6 +6717,14 @@
           <t>https://primeauto-ekb.ru/new/great-wall/wingle-7</t>
         </is>
       </c>
+      <c r="P123" t="n">
+        <v>2200000</v>
+      </c>
+      <c r="Q123" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/great-wall/wingle-7</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -5780,6 +6848,14 @@
           <t>https://primeauto-ekb.ru/new/haval/dargo</t>
         </is>
       </c>
+      <c r="P126" t="n">
+        <v>1970000</v>
+      </c>
+      <c r="Q126" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/haval/dargo</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -5837,6 +6913,14 @@
           <t>https://primeauto-ekb.ru/new/haval/dargo-x</t>
         </is>
       </c>
+      <c r="P127" t="n">
+        <v>2140000</v>
+      </c>
+      <c r="Q127" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/haval/dargo-x</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -5859,7 +6943,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/haval/f7</t>
+          <t>https://swmauto-dealer.ru/new/haval/f7</t>
         </is>
       </c>
       <c r="F128" t="n">
@@ -5886,6 +6970,14 @@
           <t>https://primeauto-ekb.ru/new/haval/f7</t>
         </is>
       </c>
+      <c r="P128" t="n">
+        <v>950000</v>
+      </c>
+      <c r="Q128" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/haval/f7</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -5908,7 +7000,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>https://uu-stoks.ru/auto/haval/new-f-7_cuv</t>
+          <t>https://autoworld-ekb.ru/auto/haval/f7/</t>
         </is>
       </c>
       <c r="F129" t="n">
@@ -5935,6 +7027,24 @@
           <t>https://primeauto-ekb.ru/new/haval/new-f7</t>
         </is>
       </c>
+      <c r="N129" t="inlineStr">
+        <is>
+          <t>949000</t>
+        </is>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/haval/f7/</t>
+        </is>
+      </c>
+      <c r="P129" t="n">
+        <v>1420000</v>
+      </c>
+      <c r="Q129" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/haval/new-f7</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -5990,7 +7100,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/haval/f7x</t>
+          <t>https://swmauto-dealer.ru/new/haval/f7x</t>
         </is>
       </c>
       <c r="F131" t="n">
@@ -6017,6 +7127,14 @@
           <t>https://primeauto-ekb.ru/new/haval/f7x</t>
         </is>
       </c>
+      <c r="P131" t="n">
+        <v>990000</v>
+      </c>
+      <c r="Q131" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/haval/f7x</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -6039,7 +7157,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>https://uu-stoks.ru/auto/haval/new-f-7-x_cuv</t>
+          <t>https://autoworld-ekb.ru/auto/haval/f7x/</t>
         </is>
       </c>
       <c r="F132" t="n">
@@ -6058,6 +7176,24 @@
           <t>https://primeauto-ekb.ru/new/haval/new-f7x</t>
         </is>
       </c>
+      <c r="N132" t="inlineStr">
+        <is>
+          <t>989000</t>
+        </is>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/haval/f7x/</t>
+        </is>
+      </c>
+      <c r="P132" t="n">
+        <v>1620000</v>
+      </c>
+      <c r="Q132" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/haval/new-f7x</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -6080,7 +7216,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>https://autosalon-kit.ru/auto/haval/h3/suv-1gen</t>
+          <t>https://autoworld-ekb.ru/auto/haval/h3/</t>
         </is>
       </c>
       <c r="F133" t="n">
@@ -6107,6 +7243,16 @@
           <t>https://autosalon-kit.ru/auto/haval/h3/suv-1gen</t>
         </is>
       </c>
+      <c r="N133" t="inlineStr">
+        <is>
+          <t>1599000</t>
+        </is>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/haval/h3/</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -6129,7 +7275,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/haval/h3</t>
+          <t>https://swmauto-dealer.ru/new/haval/h3</t>
         </is>
       </c>
       <c r="L134" t="n">
@@ -6140,6 +7286,14 @@
           <t>https://primeauto-ekb.ru/new/haval/h3</t>
         </is>
       </c>
+      <c r="P134" t="n">
+        <v>1650000</v>
+      </c>
+      <c r="Q134" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/haval/h3</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -6236,7 +7390,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/haval/h6</t>
+          <t>https://swmauto-dealer.ru/new/haval/h6</t>
         </is>
       </c>
       <c r="H137" t="n">
@@ -6255,6 +7409,14 @@
           <t>https://primeauto-ekb.ru/new/haval/h6</t>
         </is>
       </c>
+      <c r="P137" t="n">
+        <v>880000</v>
+      </c>
+      <c r="Q137" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/haval/h6</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -6296,6 +7458,14 @@
           <t>https://primeauto-ekb.ru/new/haval/h6-new</t>
         </is>
       </c>
+      <c r="P138" t="n">
+        <v>1830000</v>
+      </c>
+      <c r="Q138" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/haval/h6-new</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -6318,7 +7488,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/haval/h9</t>
+          <t>https://swmauto-dealer.ru/new/haval/h9</t>
         </is>
       </c>
       <c r="F139" t="n">
@@ -6345,6 +7515,14 @@
           <t>https://primeauto-ekb.ru/new/haval/h9</t>
         </is>
       </c>
+      <c r="P139" t="n">
+        <v>2360000</v>
+      </c>
+      <c r="Q139" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/haval/h9</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -6435,6 +7613,24 @@
           <t>https://primeauto-ekb.ru/new/haval/jolion</t>
         </is>
       </c>
+      <c r="N141" t="inlineStr">
+        <is>
+          <t>889000</t>
+        </is>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/haval/jolion_1/</t>
+        </is>
+      </c>
+      <c r="P141" t="n">
+        <v>890000</v>
+      </c>
+      <c r="Q141" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/haval/jolion</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -6457,7 +7653,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>https://uu-stoks.ru/auto/haval/jolion_suv-1gen-rest</t>
+          <t>https://autoworld-ekb.ru/auto/haval/jolion/</t>
         </is>
       </c>
       <c r="F142" t="n">
@@ -6484,6 +7680,24 @@
           <t>https://primeauto-ekb.ru/new/haval/jolion-new</t>
         </is>
       </c>
+      <c r="N142" t="inlineStr">
+        <is>
+          <t>1289000</t>
+        </is>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/haval/jolion/</t>
+        </is>
+      </c>
+      <c r="P142" t="n">
+        <v>1290000</v>
+      </c>
+      <c r="Q142" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/haval/jolion-new</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -6566,6 +7780,14 @@
           <t>https://primeauto-ekb.ru/new/haval/m6</t>
         </is>
       </c>
+      <c r="P144" t="n">
+        <v>1280000</v>
+      </c>
+      <c r="Q144" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/haval/m6</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -6654,7 +7876,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/hyundai/bayon</t>
+          <t>https://swmauto-dealer.ru/new/hyundai/bayon</t>
         </is>
       </c>
       <c r="H147" t="n">
@@ -6673,6 +7895,14 @@
           <t>https://primeauto-ekb.ru/new/hyundai/bayon</t>
         </is>
       </c>
+      <c r="P147" t="n">
+        <v>1620000</v>
+      </c>
+      <c r="Q147" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/hyundai/bayon</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -6695,7 +7925,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/hyundai/creta</t>
+          <t>https://swmauto-dealer.ru/new/hyundai/creta</t>
         </is>
       </c>
       <c r="H148" t="n">
@@ -6722,6 +7952,14 @@
           <t>https://primeauto-ekb.ru/new/hyundai/creta</t>
         </is>
       </c>
+      <c r="P148" t="n">
+        <v>760000</v>
+      </c>
+      <c r="Q148" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/hyundai/creta</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -6744,7 +7982,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>https://uu-stoks.ru/auto/hyundai/creta-new_cuv</t>
+          <t>https://autoworld-ekb.ru/auto/hyundai/creta/</t>
         </is>
       </c>
       <c r="F149" t="n">
@@ -6763,6 +8001,24 @@
           <t>https://primeauto-ekb.ru/new/hyundai/new-creta</t>
         </is>
       </c>
+      <c r="N149" t="inlineStr">
+        <is>
+          <t>919200</t>
+        </is>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/hyundai/creta/</t>
+        </is>
+      </c>
+      <c r="P149" t="n">
+        <v>920000</v>
+      </c>
+      <c r="Q149" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/hyundai/new-creta</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -6785,7 +8041,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/hyundai/custo</t>
+          <t>https://swmauto-dealer.ru/new/hyundai/custo</t>
         </is>
       </c>
       <c r="L150" t="n">
@@ -6796,6 +8052,14 @@
           <t>https://primeauto-ekb.ru/new/hyundai/custo</t>
         </is>
       </c>
+      <c r="P150" t="n">
+        <v>2110000</v>
+      </c>
+      <c r="Q150" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/hyundai/custo</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -6818,7 +8082,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/hyundai/elantra</t>
+          <t>https://swmauto-dealer.ru/new/hyundai/elantra</t>
         </is>
       </c>
       <c r="H151" t="n">
@@ -6845,6 +8109,14 @@
           <t>https://primeauto-ekb.ru/new/hyundai/elantra</t>
         </is>
       </c>
+      <c r="P151" t="n">
+        <v>1100000</v>
+      </c>
+      <c r="Q151" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/hyundai/elantra</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -6863,11 +8135,11 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>1107200</v>
+        <v>1100000</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>https://uu-stoks.ru/auto/hyundai/elantra-new_sedan</t>
+          <t>https://autoworld-ekb.ru/auto/hyundai/elantra/</t>
         </is>
       </c>
       <c r="F152" t="n">
@@ -6878,6 +8150,16 @@
           <t>https://uu-stoks.ru/auto/hyundai/elantra-new_sedan</t>
         </is>
       </c>
+      <c r="N152" t="inlineStr">
+        <is>
+          <t>1100000</t>
+        </is>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/hyundai/elantra/</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -6900,7 +8182,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/hyundai/h-1</t>
+          <t>https://swmauto-dealer.ru/new/hyundai/h-1</t>
         </is>
       </c>
       <c r="L153" t="n">
@@ -6911,6 +8193,14 @@
           <t>https://primeauto-ekb.ru/new/hyundai/h-1</t>
         </is>
       </c>
+      <c r="P153" t="n">
+        <v>2090000</v>
+      </c>
+      <c r="Q153" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/hyundai/h-1</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -6933,7 +8223,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/hyundai/ioniq-5</t>
+          <t>https://swmauto-dealer.ru/new/hyundai/ioniq-5</t>
         </is>
       </c>
       <c r="L154" t="n">
@@ -6944,6 +8234,14 @@
           <t>https://primeauto-ekb.ru/new/hyundai/ioniq-5</t>
         </is>
       </c>
+      <c r="P154" t="n">
+        <v>3660000</v>
+      </c>
+      <c r="Q154" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/hyundai/ioniq-5</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -6993,6 +8291,14 @@
           <t>https://primeauto-ekb.ru/new/hyundai/palisade</t>
         </is>
       </c>
+      <c r="P155" t="n">
+        <v>3890000</v>
+      </c>
+      <c r="Q155" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/hyundai/palisade</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -7015,7 +8321,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/hyundai/santa-fe-2020</t>
+          <t>https://swmauto-dealer.ru/new/hyundai/santa-fe-2020</t>
         </is>
       </c>
       <c r="L156" t="n">
@@ -7026,6 +8332,24 @@
           <t>https://primeauto-ekb.ru/new/hyundai/santa-fe-2020</t>
         </is>
       </c>
+      <c r="N156" t="inlineStr">
+        <is>
+          <t>2186400</t>
+        </is>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/hyundai/santa_fe/</t>
+        </is>
+      </c>
+      <c r="P156" t="n">
+        <v>1900000</v>
+      </c>
+      <c r="Q156" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/hyundai/santa-fe-2020</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -7114,7 +8438,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/hyundai/solaris</t>
+          <t>https://swmauto-dealer.ru/new/hyundai/solaris</t>
         </is>
       </c>
       <c r="H159" t="n">
@@ -7141,6 +8465,24 @@
           <t>https://primeauto-ekb.ru/new/hyundai/solaris</t>
         </is>
       </c>
+      <c r="N159" t="inlineStr">
+        <is>
+          <t>690000</t>
+        </is>
+      </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/hyundai/solaris/</t>
+        </is>
+      </c>
+      <c r="P159" t="n">
+        <v>690000</v>
+      </c>
+      <c r="Q159" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/hyundai/solaris</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -7196,7 +8538,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/hyundai/sonata</t>
+          <t>https://swmauto-dealer.ru/new/hyundai/sonata</t>
         </is>
       </c>
       <c r="H161" t="n">
@@ -7223,6 +8565,24 @@
           <t>https://primeauto-ekb.ru/new/hyundai/sonata</t>
         </is>
       </c>
+      <c r="N161" t="inlineStr">
+        <is>
+          <t>1390000</t>
+        </is>
+      </c>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/hyundai/sonata/</t>
+        </is>
+      </c>
+      <c r="P161" t="n">
+        <v>1390000</v>
+      </c>
+      <c r="Q161" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/hyundai/sonata</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -7278,7 +8638,7 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/hyundai/staria</t>
+          <t>https://swmauto-dealer.ru/new/hyundai/staria</t>
         </is>
       </c>
       <c r="F163" t="n">
@@ -7305,6 +8665,14 @@
           <t>https://primeauto-ekb.ru/new/hyundai/staria</t>
         </is>
       </c>
+      <c r="P163" t="n">
+        <v>3790000</v>
+      </c>
+      <c r="Q163" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/hyundai/staria</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -7379,6 +8747,14 @@
           <t>https://primeauto-ekb.ru/new/hyundai/tucson-2020</t>
         </is>
       </c>
+      <c r="P165" t="n">
+        <v>1470000</v>
+      </c>
+      <c r="Q165" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/hyundai/tucson</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -7397,11 +8773,11 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>1476200</v>
+        <v>1470000</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>https://uu-stoks.ru/auto/hyundai/tucson-new_cuv</t>
+          <t>https://autoworld-ekb.ru/auto/hyundai/tucson/</t>
         </is>
       </c>
       <c r="F166" t="n">
@@ -7412,6 +8788,16 @@
           <t>https://uu-stoks.ru/auto/hyundai/tucson-new_cuv</t>
         </is>
       </c>
+      <c r="N166" t="inlineStr">
+        <is>
+          <t>1470000</t>
+        </is>
+      </c>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/hyundai/tucson/</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -7467,7 +8853,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/jac/j7</t>
+          <t>https://swmauto-dealer.ru/new/jac/j7</t>
         </is>
       </c>
       <c r="F168" t="n">
@@ -7502,6 +8888,24 @@
           <t>https://primeauto-ekb.ru/new/jac/j7</t>
         </is>
       </c>
+      <c r="N168" t="inlineStr">
+        <is>
+          <t>860000</t>
+        </is>
+      </c>
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/jac/j7/</t>
+        </is>
+      </c>
+      <c r="P168" t="n">
+        <v>860000</v>
+      </c>
+      <c r="Q168" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/jac/j7</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -7557,7 +8961,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/jac/js4</t>
+          <t>https://swmauto-dealer.ru/new/jac/js4</t>
         </is>
       </c>
       <c r="F170" t="n">
@@ -7584,6 +8988,14 @@
           <t>https://primeauto-ekb.ru/new/jac/js4</t>
         </is>
       </c>
+      <c r="P170" t="n">
+        <v>1310000</v>
+      </c>
+      <c r="Q170" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/jac/js4</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -7647,7 +9059,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/jac/s3</t>
+          <t>https://swmauto-dealer.ru/new/jac/s3</t>
         </is>
       </c>
       <c r="J172" t="n">
@@ -7666,6 +9078,14 @@
           <t>https://primeauto-ekb.ru/new/jac/s3</t>
         </is>
       </c>
+      <c r="P172" t="n">
+        <v>720000</v>
+      </c>
+      <c r="Q172" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/jac/s3</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -7756,6 +9176,24 @@
           <t>https://primeauto-ekb.ru/new/jac/s7</t>
         </is>
       </c>
+      <c r="N174" t="inlineStr">
+        <is>
+          <t>1180000</t>
+        </is>
+      </c>
+      <c r="O174" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/jac/s7/</t>
+        </is>
+      </c>
+      <c r="P174" t="n">
+        <v>1180000</v>
+      </c>
+      <c r="Q174" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/jac/s7</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -7778,7 +9216,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/jac/t6</t>
+          <t>https://swmauto-dealer.ru/new/jac/t6</t>
         </is>
       </c>
       <c r="H175" t="n">
@@ -7805,6 +9243,14 @@
           <t>https://primeauto-ekb.ru/new/jac/t6</t>
         </is>
       </c>
+      <c r="P175" t="n">
+        <v>1120000</v>
+      </c>
+      <c r="Q175" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/jac/t6</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -7901,7 +9347,7 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/jac/iev7s</t>
+          <t>https://swmauto-dealer.ru/new/jac/iev7s</t>
         </is>
       </c>
       <c r="L178" t="n">
@@ -7912,6 +9358,14 @@
           <t>https://primeauto-ekb.ru/new/jac/iev7s</t>
         </is>
       </c>
+      <c r="P178" t="n">
+        <v>2040000</v>
+      </c>
+      <c r="Q178" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/jac/iev7s</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -7934,7 +9388,7 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/jaecoo/j7/2023-allroad-5/</t>
+          <t>https://autoworld-ekb.ru/auto/jaecoo/j7/</t>
         </is>
       </c>
       <c r="F179" t="n">
@@ -7961,6 +9415,24 @@
           <t>https://primeauto-ekb.ru/new/jaecoo/j7</t>
         </is>
       </c>
+      <c r="N179" t="inlineStr">
+        <is>
+          <t>1903940</t>
+        </is>
+      </c>
+      <c r="O179" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/jaecoo/j7/</t>
+        </is>
+      </c>
+      <c r="P179" t="n">
+        <v>2600000</v>
+      </c>
+      <c r="Q179" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/jaecoo/j7</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -7979,11 +9451,11 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>4149000</v>
+        <v>2399000</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>https://uu-stoks.ru/auto/jaecoo/j8_suv-1gen</t>
+          <t>https://autoworld-ekb.ru/auto/jaecoo/j8/</t>
         </is>
       </c>
       <c r="F180" t="n">
@@ -7994,6 +9466,16 @@
           <t>https://uu-stoks.ru/auto/jaecoo/j8_suv-1gen</t>
         </is>
       </c>
+      <c r="N180" t="inlineStr">
+        <is>
+          <t>2399000</t>
+        </is>
+      </c>
+      <c r="O180" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/jaecoo/j8/</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -8016,7 +9498,7 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/jetour/dashing</t>
+          <t>https://swmauto-dealer.ru/new/jetour/dashing</t>
         </is>
       </c>
       <c r="F181" t="n">
@@ -8035,6 +9517,24 @@
           <t>https://primeauto-ekb.ru/new/jetour/dashing</t>
         </is>
       </c>
+      <c r="N181" t="inlineStr">
+        <is>
+          <t>1750000</t>
+        </is>
+      </c>
+      <c r="O181" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/jetour/dashing/</t>
+        </is>
+      </c>
+      <c r="P181" t="n">
+        <v>1750000</v>
+      </c>
+      <c r="Q181" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/jetour/dashing</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -8057,7 +9557,7 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/jetour/t2/2023-allroad-5/</t>
+          <t>https://autoworld-ekb.ru/auto/jetour/t2/</t>
         </is>
       </c>
       <c r="H182" t="n">
@@ -8068,6 +9568,16 @@
           <t>https://atc-gagarin.ru/cars-new/jetour/t2/2023-allroad-5/</t>
         </is>
       </c>
+      <c r="N182" t="inlineStr">
+        <is>
+          <t>2759000</t>
+        </is>
+      </c>
+      <c r="O182" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/jetour/t2/</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -8156,7 +9666,7 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/jetour/x70-plus/i-allroad-5/</t>
+          <t>https://autoworld-ekb.ru/auto/jetour/x70_plus/</t>
         </is>
       </c>
       <c r="F185" t="n">
@@ -8183,6 +9693,24 @@
           <t>https://primeauto-ekb.ru/new/jetour/x70-plus</t>
         </is>
       </c>
+      <c r="N185" t="inlineStr">
+        <is>
+          <t>2070900</t>
+        </is>
+      </c>
+      <c r="O185" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/jetour/x70_plus/</t>
+        </is>
+      </c>
+      <c r="P185" t="n">
+        <v>2180000</v>
+      </c>
+      <c r="Q185" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/jetour/x70-plus</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -8205,7 +9733,7 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/jetour/x90-plus</t>
+          <t>https://swmauto-dealer.ru/new/jetour/x90-plus</t>
         </is>
       </c>
       <c r="F186" t="n">
@@ -8232,6 +9760,24 @@
           <t>https://primeauto-ekb.ru/new/jetour/x90-plus</t>
         </is>
       </c>
+      <c r="N186" t="inlineStr">
+        <is>
+          <t>2270000</t>
+        </is>
+      </c>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/jetour/x90_plus/</t>
+        </is>
+      </c>
+      <c r="P186" t="n">
+        <v>2270000</v>
+      </c>
+      <c r="Q186" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/jetour/x90-plus</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -8254,7 +9800,7 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/jetta/va3/2019-sedan-4/</t>
+          <t>https://autoworld-ekb.ru/auto/jetta/va3/</t>
         </is>
       </c>
       <c r="F187" t="n">
@@ -8273,6 +9819,24 @@
           <t>https://atc-gagarin.ru/cars-new/jetta/va3/2019-sedan-4/</t>
         </is>
       </c>
+      <c r="N187" t="inlineStr">
+        <is>
+          <t>690000</t>
+        </is>
+      </c>
+      <c r="O187" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/jetta/va3/</t>
+        </is>
+      </c>
+      <c r="P187" t="n">
+        <v>1090000</v>
+      </c>
+      <c r="Q187" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/jetta/va3</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -8295,7 +9859,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/jetta/vs5/2019-allroad-5/</t>
+          <t>https://autoworld-ekb.ru/auto/jetta/vs5/</t>
         </is>
       </c>
       <c r="F188" t="n">
@@ -8314,6 +9878,24 @@
           <t>https://atc-gagarin.ru/cars-new/jetta/vs5/2019-allroad-5/</t>
         </is>
       </c>
+      <c r="N188" t="inlineStr">
+        <is>
+          <t>990000</t>
+        </is>
+      </c>
+      <c r="O188" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/jetta/vs5/</t>
+        </is>
+      </c>
+      <c r="P188" t="n">
+        <v>1520000</v>
+      </c>
+      <c r="Q188" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/jetta/vs5</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -8336,7 +9918,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/jetta/vs7/2019-allroad-5/</t>
+          <t>https://autoworld-ekb.ru/auto/jetta/vs7/</t>
         </is>
       </c>
       <c r="F189" t="n">
@@ -8355,6 +9937,24 @@
           <t>https://atc-gagarin.ru/cars-new/jetta/vs7/2019-allroad-5/</t>
         </is>
       </c>
+      <c r="N189" t="inlineStr">
+        <is>
+          <t>1149000</t>
+        </is>
+      </c>
+      <c r="O189" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/jetta/vs7/</t>
+        </is>
+      </c>
+      <c r="P189" t="n">
+        <v>1690000</v>
+      </c>
+      <c r="Q189" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/jetta/vs7</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -8377,7 +9977,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/kaiyi/e5/2021-sedan-4/</t>
+          <t>https://autoworld-ekb.ru/auto/kaiyi/e5/</t>
         </is>
       </c>
       <c r="F190" t="n">
@@ -8404,6 +10004,24 @@
           <t>https://primeauto-ekb.ru/new/kaiyi/e5</t>
         </is>
       </c>
+      <c r="N190" t="inlineStr">
+        <is>
+          <t>1159000</t>
+        </is>
+      </c>
+      <c r="O190" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/kaiyi/e5/</t>
+        </is>
+      </c>
+      <c r="P190" t="n">
+        <v>1463200</v>
+      </c>
+      <c r="Q190" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/kaiyi/e5</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -8426,7 +10044,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/kaiyi/x3</t>
+          <t>https://swmauto-dealer.ru/new/kaiyi/x3</t>
         </is>
       </c>
       <c r="H191" t="n">
@@ -8445,6 +10063,24 @@
           <t>https://primeauto-ekb.ru/new/kaiyi/x3</t>
         </is>
       </c>
+      <c r="N191" t="inlineStr">
+        <is>
+          <t>970000</t>
+        </is>
+      </c>
+      <c r="O191" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/kaiyi/x3/</t>
+        </is>
+      </c>
+      <c r="P191" t="n">
+        <v>970000</v>
+      </c>
+      <c r="Q191" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/kaiyi/x3</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -8467,7 +10103,7 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/kaiyi/x3-pro</t>
+          <t>https://swmauto-dealer.ru/new/kaiyi/x3-pro</t>
         </is>
       </c>
       <c r="F192" t="n">
@@ -8494,6 +10130,24 @@
           <t>https://primeauto-ekb.ru/new/kaiyi/x3-pro</t>
         </is>
       </c>
+      <c r="N192" t="inlineStr">
+        <is>
+          <t>1070000</t>
+        </is>
+      </c>
+      <c r="O192" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/kaiyi/x3_pro/</t>
+        </is>
+      </c>
+      <c r="P192" t="n">
+        <v>1070000</v>
+      </c>
+      <c r="Q192" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/kaiyi/x3-pro</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -8551,6 +10205,24 @@
           <t>https://primeauto-ekb.ru/new/kaiyi/x7-kunlun</t>
         </is>
       </c>
+      <c r="N193" t="inlineStr">
+        <is>
+          <t>2440000</t>
+        </is>
+      </c>
+      <c r="O193" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/kaiyi/x7_kunlun/</t>
+        </is>
+      </c>
+      <c r="P193" t="n">
+        <v>2440000</v>
+      </c>
+      <c r="Q193" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/kaiyi/x7-kunlun</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -8573,7 +10245,7 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/kia/carnival</t>
+          <t>https://swmauto-dealer.ru/new/kia/carnival</t>
         </is>
       </c>
       <c r="H194" t="n">
@@ -8592,6 +10264,14 @@
           <t>https://primeauto-ekb.ru/new/kia/carnival</t>
         </is>
       </c>
+      <c r="P194" t="n">
+        <v>2530000</v>
+      </c>
+      <c r="Q194" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/kia/carnival</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -8649,6 +10329,24 @@
           <t>https://primeauto-ekb.ru/new/kia/ceed</t>
         </is>
       </c>
+      <c r="N195" t="inlineStr">
+        <is>
+          <t>1210000</t>
+        </is>
+      </c>
+      <c r="O195" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/kia/ceed/</t>
+        </is>
+      </c>
+      <c r="P195" t="n">
+        <v>1210000</v>
+      </c>
+      <c r="Q195" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/kia/ceed</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -8704,7 +10402,7 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/kia/ceed-sw</t>
+          <t>https://swmauto-dealer.ru/new/kia/ceed-sw</t>
         </is>
       </c>
       <c r="F197" t="n">
@@ -8731,6 +10429,24 @@
           <t>https://primeauto-ekb.ru/new/kia/ceed-sw</t>
         </is>
       </c>
+      <c r="N197" t="inlineStr">
+        <is>
+          <t>1250000</t>
+        </is>
+      </c>
+      <c r="O197" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/kia/ceed_sw/</t>
+        </is>
+      </c>
+      <c r="P197" t="n">
+        <v>1250000</v>
+      </c>
+      <c r="Q197" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/kia/ceed-sw</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -8819,7 +10535,7 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/kia/cerato</t>
+          <t>https://swmauto-dealer.ru/new/kia/cerato</t>
         </is>
       </c>
       <c r="F200" t="n">
@@ -8846,6 +10562,14 @@
           <t>https://primeauto-ekb.ru/new/kia/cerato</t>
         </is>
       </c>
+      <c r="P200" t="n">
+        <v>1030000</v>
+      </c>
+      <c r="Q200" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/kia/cerato</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -8864,11 +10588,11 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>1035100</v>
+        <v>1030000</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>https://uu-stoks.ru/auto/kia/cerato-new_sed</t>
+          <t>https://autoworld-ekb.ru/auto/kia/cerato/</t>
         </is>
       </c>
       <c r="F201" t="n">
@@ -8879,6 +10603,16 @@
           <t>https://uu-stoks.ru/auto/kia/cerato-new_sed</t>
         </is>
       </c>
+      <c r="N201" t="inlineStr">
+        <is>
+          <t>1030000</t>
+        </is>
+      </c>
+      <c r="O201" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/kia/cerato/</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -8934,7 +10668,7 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/kia/k5</t>
+          <t>https://swmauto-dealer.ru/new/kia/k5</t>
         </is>
       </c>
       <c r="F203" t="n">
@@ -8969,6 +10703,24 @@
           <t>https://primeauto-ekb.ru/new/kia/k5</t>
         </is>
       </c>
+      <c r="N203" t="inlineStr">
+        <is>
+          <t>1390000</t>
+        </is>
+      </c>
+      <c r="O203" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/kia/k5/</t>
+        </is>
+      </c>
+      <c r="P203" t="n">
+        <v>1390000</v>
+      </c>
+      <c r="Q203" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/kia/k5</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -9024,7 +10776,7 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/kia/mohave</t>
+          <t>https://swmauto-dealer.ru/new/kia/mohave</t>
         </is>
       </c>
       <c r="H205" t="n">
@@ -9043,6 +10795,14 @@
           <t>https://primeauto-ekb.ru/new/kia/mohave</t>
         </is>
       </c>
+      <c r="P205" t="n">
+        <v>3770000</v>
+      </c>
+      <c r="Q205" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/kia/mohave</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -9098,7 +10858,7 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/kia/optima-rest</t>
+          <t>https://swmauto-dealer.ru/new/kia/optima-rest</t>
         </is>
       </c>
       <c r="L207" t="n">
@@ -9109,6 +10869,14 @@
           <t>https://primeauto-ekb.ru/new/kia/optima-rest</t>
         </is>
       </c>
+      <c r="P207" t="n">
+        <v>1140000</v>
+      </c>
+      <c r="Q207" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/kia/optima-rest</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -9131,7 +10899,7 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/kia/picanto</t>
+          <t>https://swmauto-dealer.ru/new/kia/picanto</t>
         </is>
       </c>
       <c r="J208" t="n">
@@ -9150,6 +10918,14 @@
           <t>https://primeauto-ekb.ru/new/kia/picanto</t>
         </is>
       </c>
+      <c r="P208" t="n">
+        <v>740000</v>
+      </c>
+      <c r="Q208" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/kia/picanto</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -9205,7 +10981,7 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/kia/rio</t>
+          <t>https://swmauto-dealer.ru/new/kia/rio</t>
         </is>
       </c>
       <c r="H210" t="n">
@@ -9232,6 +11008,14 @@
           <t>https://primeauto-ekb.ru/new/kia/rio</t>
         </is>
       </c>
+      <c r="P210" t="n">
+        <v>710000</v>
+      </c>
+      <c r="Q210" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/kia/rio</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -9250,11 +11034,11 @@
         </is>
       </c>
       <c r="D211" t="n">
-        <v>710100</v>
+        <v>710000</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>https://uu-stoks.ru/auto/kia/rio-new_sed</t>
+          <t>https://autoworld-ekb.ru/auto/kia/rio/</t>
         </is>
       </c>
       <c r="F211" t="n">
@@ -9265,6 +11049,16 @@
           <t>https://uu-stoks.ru/auto/kia/rio-new_sed</t>
         </is>
       </c>
+      <c r="N211" t="inlineStr">
+        <is>
+          <t>710000</t>
+        </is>
+      </c>
+      <c r="O211" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/kia/rio/</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -9287,7 +11081,7 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/kia/rio-x</t>
+          <t>https://swmauto-dealer.ru/new/kia/rio-x</t>
         </is>
       </c>
       <c r="F212" t="n">
@@ -9314,6 +11108,24 @@
           <t>https://primeauto-ekb.ru/new/kia/rio-x</t>
         </is>
       </c>
+      <c r="N212" t="inlineStr">
+        <is>
+          <t>830000</t>
+        </is>
+      </c>
+      <c r="O212" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/kia/rio_x/</t>
+        </is>
+      </c>
+      <c r="P212" t="n">
+        <v>830000</v>
+      </c>
+      <c r="Q212" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/kia/rio-x</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -9336,7 +11148,7 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/kia/rio-x-line</t>
+          <t>https://swmauto-dealer.ru/new/kia/rio-x-line</t>
         </is>
       </c>
       <c r="F213" t="n">
@@ -9363,6 +11175,14 @@
           <t>https://primeauto-ekb.ru/new/kia/rio-x-line</t>
         </is>
       </c>
+      <c r="P213" t="n">
+        <v>600000</v>
+      </c>
+      <c r="Q213" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/kia/rio-x-line</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -9385,7 +11205,7 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/kia/seltos</t>
+          <t>https://swmauto-dealer.ru/new/kia/seltos</t>
         </is>
       </c>
       <c r="F214" t="n">
@@ -9412,6 +11232,24 @@
           <t>https://primeauto-ekb.ru/new/kia/seltos</t>
         </is>
       </c>
+      <c r="N214" t="inlineStr">
+        <is>
+          <t>1020000</t>
+        </is>
+      </c>
+      <c r="O214" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/kia/seltos/</t>
+        </is>
+      </c>
+      <c r="P214" t="n">
+        <v>1020000</v>
+      </c>
+      <c r="Q214" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/kia/seltos</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -9434,7 +11272,7 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/kia/sorento</t>
+          <t>https://swmauto-dealer.ru/new/kia/sorento</t>
         </is>
       </c>
       <c r="L215" t="n">
@@ -9445,6 +11283,14 @@
           <t>https://primeauto-ekb.ru/new/kia/sorento</t>
         </is>
       </c>
+      <c r="P215" t="n">
+        <v>2120000</v>
+      </c>
+      <c r="Q215" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/kia/sorento</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -9467,7 +11313,7 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>https://uu-stoks.ru/auto/kia/sorento-new_cuv</t>
+          <t>https://autoworld-ekb.ru/auto/kia/sorento/</t>
         </is>
       </c>
       <c r="F216" t="n">
@@ -9478,6 +11324,16 @@
           <t>https://uu-stoks.ru/auto/kia/sorento-new_cuv</t>
         </is>
       </c>
+      <c r="N216" t="inlineStr">
+        <is>
+          <t>2120000</t>
+        </is>
+      </c>
+      <c r="O216" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/kia/sorento/</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -9500,7 +11356,7 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/kia/soul</t>
+          <t>https://swmauto-dealer.ru/new/kia/soul</t>
         </is>
       </c>
       <c r="H217" t="n">
@@ -9527,6 +11383,24 @@
           <t>https://primeauto-ekb.ru/new/kia/soul</t>
         </is>
       </c>
+      <c r="N217" t="inlineStr">
+        <is>
+          <t>1030000</t>
+        </is>
+      </c>
+      <c r="O217" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/kia/soul/</t>
+        </is>
+      </c>
+      <c r="P217" t="n">
+        <v>1030000</v>
+      </c>
+      <c r="Q217" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/kia/soul</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -9590,7 +11464,7 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/kia/sportage</t>
+          <t>https://swmauto-dealer.ru/new/kia/sportage</t>
         </is>
       </c>
       <c r="F219" t="n">
@@ -9609,6 +11483,14 @@
           <t>https://primeauto-ekb.ru/new/kia/sportage</t>
         </is>
       </c>
+      <c r="P219" t="n">
+        <v>1270000</v>
+      </c>
+      <c r="Q219" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/kia/sportage</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -9650,6 +11532,16 @@
           <t>https://autosalon-kit.ru/auto/kia/sportage-5/suv</t>
         </is>
       </c>
+      <c r="N220" t="inlineStr">
+        <is>
+          <t>1860000</t>
+        </is>
+      </c>
+      <c r="O220" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/kia/sportage/</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -9672,7 +11564,7 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/kia/sportage-new</t>
+          <t>https://swmauto-dealer.ru/new/kia/sportage-new</t>
         </is>
       </c>
       <c r="H221" t="n">
@@ -9691,6 +11583,14 @@
           <t>https://primeauto-ekb.ru/new/kia/sportage-new</t>
         </is>
       </c>
+      <c r="P221" t="n">
+        <v>1860000</v>
+      </c>
+      <c r="Q221" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/kia/sportage-new</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -9713,7 +11613,7 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/kia/stinger</t>
+          <t>https://swmauto-dealer.ru/new/kia/stinger</t>
         </is>
       </c>
       <c r="L222" t="n">
@@ -9724,6 +11624,14 @@
           <t>https://primeauto-ekb.ru/new/kia/stinger</t>
         </is>
       </c>
+      <c r="P222" t="n">
+        <v>3100000</v>
+      </c>
+      <c r="Q222" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/kia/stinger</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -9812,7 +11720,7 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/kia/xceed</t>
+          <t>https://swmauto-dealer.ru/new/kia/xceed</t>
         </is>
       </c>
       <c r="H225" t="n">
@@ -9831,6 +11739,14 @@
           <t>https://primeauto-ekb.ru/new/kia/xceed</t>
         </is>
       </c>
+      <c r="P225" t="n">
+        <v>1490000</v>
+      </c>
+      <c r="Q225" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/kia/xceed</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -9880,6 +11796,14 @@
           <t>https://primeauto-ekb.ru/new/lada/bronto</t>
         </is>
       </c>
+      <c r="P226" t="n">
+        <v>620000</v>
+      </c>
+      <c r="Q226" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/lada/bronto</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -9902,7 +11826,7 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/lada/aura</t>
+          <t>https://swmauto-dealer.ru/new/lada/aura</t>
         </is>
       </c>
       <c r="H227" t="n">
@@ -9921,6 +11845,24 @@
           <t>https://primeauto-ekb.ru/new/lada/aura</t>
         </is>
       </c>
+      <c r="N227" t="inlineStr">
+        <is>
+          <t>1599000</t>
+        </is>
+      </c>
+      <c r="O227" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/lada/aura/</t>
+        </is>
+      </c>
+      <c r="P227" t="n">
+        <v>1599000</v>
+      </c>
+      <c r="Q227" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/lada/aura</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -9978,6 +11920,24 @@
           <t>https://primeauto-ekb.ru/new/lada/granta-cross</t>
         </is>
       </c>
+      <c r="N228" t="inlineStr">
+        <is>
+          <t>500000</t>
+        </is>
+      </c>
+      <c r="O228" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/lada/granta_cross/</t>
+        </is>
+      </c>
+      <c r="P228" t="n">
+        <v>500000</v>
+      </c>
+      <c r="Q228" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/lada/granta-cross</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -10066,7 +12026,7 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/lada/granta/i-res-hatchback-5/</t>
+          <t>https://autoworld-ekb.ru/auto/lada/granta_hatchback/</t>
         </is>
       </c>
       <c r="H231" t="n">
@@ -10077,6 +12037,16 @@
           <t>https://atc-gagarin.ru/cars-new/lada/granta/i-res-hatchback-5/</t>
         </is>
       </c>
+      <c r="N231" t="inlineStr">
+        <is>
+          <t>431100</t>
+        </is>
+      </c>
+      <c r="O231" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/lada/granta_hatchback/</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -10140,7 +12110,7 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/lada/granta-liftbek</t>
+          <t>https://swmauto-dealer.ru/new/lada/granta-liftbek</t>
         </is>
       </c>
       <c r="H233" t="n">
@@ -10159,6 +12129,24 @@
           <t>https://primeauto-ekb.ru/new/lada/granta-liftbek</t>
         </is>
       </c>
+      <c r="N233" t="inlineStr">
+        <is>
+          <t>440000</t>
+        </is>
+      </c>
+      <c r="O233" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/lada/granta_liftback/</t>
+        </is>
+      </c>
+      <c r="P233" t="n">
+        <v>440000</v>
+      </c>
+      <c r="Q233" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/lada/granta-liftbek</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -10218,11 +12206,11 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>411000</v>
+        <v>410000</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/lada/granta/i-res-sedan-4/</t>
+          <t>https://autoworld-ekb.ru/auto/lada/granta_sedan/</t>
         </is>
       </c>
       <c r="H235" t="n">
@@ -10233,6 +12221,16 @@
           <t>https://atc-gagarin.ru/cars-new/lada/granta/i-res-sedan-4/</t>
         </is>
       </c>
+      <c r="N235" t="inlineStr">
+        <is>
+          <t>410000</t>
+        </is>
+      </c>
+      <c r="O235" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/lada/granta_sedan/</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -10255,7 +12253,7 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/lada/granta-sedan-new</t>
+          <t>https://swmauto-dealer.ru/new/lada/granta-sedan-new</t>
         </is>
       </c>
       <c r="F236" t="n">
@@ -10282,6 +12280,14 @@
           <t>https://primeauto-ekb.ru/new/lada/granta-sedan-new</t>
         </is>
       </c>
+      <c r="P236" t="n">
+        <v>410000</v>
+      </c>
+      <c r="Q236" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/lada/granta-sedan-new</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -10304,7 +12310,7 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/lada/granta/i-res-sedan-sport-4/</t>
+          <t>https://autoworld-ekb.ru/auto/lada/granta_sport/</t>
         </is>
       </c>
       <c r="H237" t="n">
@@ -10315,6 +12321,16 @@
           <t>https://atc-gagarin.ru/cars-new/lada/granta/i-res-sedan-sport-4/</t>
         </is>
       </c>
+      <c r="N237" t="inlineStr">
+        <is>
+          <t>749900</t>
+        </is>
+      </c>
+      <c r="O237" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/lada/granta_sport/</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -10337,7 +12353,7 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/lada/granta-universal</t>
+          <t>https://swmauto-dealer.ru/new/lada/granta-universal</t>
         </is>
       </c>
       <c r="L238" t="n">
@@ -10348,6 +12364,24 @@
           <t>https://primeauto-ekb.ru/new/lada/granta-universal</t>
         </is>
       </c>
+      <c r="N238" t="inlineStr">
+        <is>
+          <t>450000</t>
+        </is>
+      </c>
+      <c r="O238" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/lada/granta_universal/</t>
+        </is>
+      </c>
+      <c r="P238" t="n">
+        <v>450000</v>
+      </c>
+      <c r="Q238" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/lada/granta-universal</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -10485,7 +12519,7 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/lada/largus-cross-new-5-mest</t>
+          <t>https://swmauto-dealer.ru/new/lada/largus-cross-new-5-mest</t>
         </is>
       </c>
       <c r="F242" t="n">
@@ -10504,6 +12538,24 @@
           <t>https://primeauto-ekb.ru/new/lada/largus-cross-new-5-mest</t>
         </is>
       </c>
+      <c r="N242" t="inlineStr">
+        <is>
+          <t>760000</t>
+        </is>
+      </c>
+      <c r="O242" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/lada/largus_cross/</t>
+        </is>
+      </c>
+      <c r="P242" t="n">
+        <v>760000</v>
+      </c>
+      <c r="Q242" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/lada/largus-cross-new-5-mest</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -10526,7 +12578,7 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/lada/largus-cross-new-7-mest</t>
+          <t>https://swmauto-dealer.ru/new/lada/largus-cross-new-7-mest</t>
         </is>
       </c>
       <c r="L243" t="n">
@@ -10537,6 +12589,14 @@
           <t>https://primeauto-ekb.ru/new/lada/largus-cross-new-7-mest</t>
         </is>
       </c>
+      <c r="P243" t="n">
+        <v>800000</v>
+      </c>
+      <c r="Q243" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/lada/largus-cross-new-7-mest</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -10559,7 +12619,7 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>https://uu-stoks.ru/auto/lada/largus_wa</t>
+          <t>https://autoworld-ekb.ru/auto/lada/largus/</t>
         </is>
       </c>
       <c r="F244" t="n">
@@ -10578,6 +12638,24 @@
           <t>https://primeauto-ekb.ru/new/lada/largus-new-5-mest</t>
         </is>
       </c>
+      <c r="N244" t="inlineStr">
+        <is>
+          <t>718900</t>
+        </is>
+      </c>
+      <c r="O244" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/lada/largus/</t>
+        </is>
+      </c>
+      <c r="P244" t="n">
+        <v>720000</v>
+      </c>
+      <c r="Q244" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/lada/largus-new-5-mest</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -10600,7 +12678,7 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/lada/largus-new-7-mest</t>
+          <t>https://swmauto-dealer.ru/new/lada/largus-new-7-mest</t>
         </is>
       </c>
       <c r="L245" t="n">
@@ -10611,6 +12689,14 @@
           <t>https://primeauto-ekb.ru/new/lada/largus-new-7-mest</t>
         </is>
       </c>
+      <c r="P245" t="n">
+        <v>710000</v>
+      </c>
+      <c r="Q245" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/lada/largus-new-7-mest</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -10740,7 +12826,7 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/lada/niva-legend-3d</t>
+          <t>https://swmauto-dealer.ru/new/lada/niva-legend-3d</t>
         </is>
       </c>
       <c r="F249" t="n">
@@ -10767,6 +12853,14 @@
           <t>https://primeauto-ekb.ru/new/lada/niva-legend-3d</t>
         </is>
       </c>
+      <c r="P249" t="n">
+        <v>520000</v>
+      </c>
+      <c r="Q249" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/lada/niva-legend-3d</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -10789,7 +12883,7 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/lada/niva-legend-5d</t>
+          <t>https://swmauto-dealer.ru/new/lada/niva-legend-5d</t>
         </is>
       </c>
       <c r="F250" t="n">
@@ -10824,6 +12918,14 @@
           <t>https://primeauto-ekb.ru/new/lada/niva-legend-5d</t>
         </is>
       </c>
+      <c r="P250" t="n">
+        <v>570000</v>
+      </c>
+      <c r="Q250" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/lada/niva-legend-5d</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -11002,7 +13104,7 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/lada/niva-travel</t>
+          <t>https://swmauto-dealer.ru/new/lada/niva-travel</t>
         </is>
       </c>
       <c r="F255" t="n">
@@ -11037,6 +13139,24 @@
           <t>https://primeauto-ekb.ru/new/lada/niva-travel</t>
         </is>
       </c>
+      <c r="N255" t="inlineStr">
+        <is>
+          <t>650000</t>
+        </is>
+      </c>
+      <c r="O255" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/lada/niva_travel/</t>
+        </is>
+      </c>
+      <c r="P255" t="n">
+        <v>650000</v>
+      </c>
+      <c r="Q255" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/lada/niva-travel</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -11193,6 +13313,24 @@
           <t>https://primeauto-ekb.ru/new/lada/vesta-cross-new</t>
         </is>
       </c>
+      <c r="N259" t="inlineStr">
+        <is>
+          <t>1090000</t>
+        </is>
+      </c>
+      <c r="O259" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/lada/vesta_cross/</t>
+        </is>
+      </c>
+      <c r="P259" t="n">
+        <v>1090000</v>
+      </c>
+      <c r="Q259" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/lada/vesta-cross-new</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -11316,6 +13454,24 @@
           <t>https://primeauto-ekb.ru/new/lada/vesta-sw-cross-new</t>
         </is>
       </c>
+      <c r="N262" t="inlineStr">
+        <is>
+          <t>1050000</t>
+        </is>
+      </c>
+      <c r="O262" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/lada/vesta_sw_cross/</t>
+        </is>
+      </c>
+      <c r="P262" t="n">
+        <v>1050000</v>
+      </c>
+      <c r="Q262" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/lada/vesta-sw-cross-new</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -11365,6 +13521,24 @@
           <t>https://primeauto-ekb.ru/new/lada/vesta-sw-new</t>
         </is>
       </c>
+      <c r="N263" t="inlineStr">
+        <is>
+          <t>950000</t>
+        </is>
+      </c>
+      <c r="O263" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/lada/vesta_sw/</t>
+        </is>
+      </c>
+      <c r="P263" t="n">
+        <v>950000</v>
+      </c>
+      <c r="Q263" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/lada/vesta-sw-new</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -11480,6 +13654,24 @@
           <t>https://primeauto-ekb.ru/new/lada/vesta-new</t>
         </is>
       </c>
+      <c r="N266" t="inlineStr">
+        <is>
+          <t>840000</t>
+        </is>
+      </c>
+      <c r="O266" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/lada/vesta/</t>
+        </is>
+      </c>
+      <c r="P266" t="n">
+        <v>840000</v>
+      </c>
+      <c r="Q266" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/lada/vesta-new</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -11529,6 +13721,14 @@
           <t>https://primeauto-ekb.ru/new/lada/vesta-sport</t>
         </is>
       </c>
+      <c r="P267" t="n">
+        <v>1030000</v>
+      </c>
+      <c r="Q267" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/lada/vesta-sport</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -11617,7 +13817,7 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/lada/xray</t>
+          <t>https://swmauto-dealer.ru/new/lada/xray</t>
         </is>
       </c>
       <c r="F270" t="n">
@@ -11644,6 +13844,24 @@
           <t>https://primeauto-ekb.ru/new/lada/xray</t>
         </is>
       </c>
+      <c r="N270" t="inlineStr">
+        <is>
+          <t>630000</t>
+        </is>
+      </c>
+      <c r="O270" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/lada/xray/</t>
+        </is>
+      </c>
+      <c r="P270" t="n">
+        <v>630000</v>
+      </c>
+      <c r="Q270" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/lada/xray</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -11666,7 +13884,7 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/lada/xray-cross</t>
+          <t>https://swmauto-dealer.ru/new/lada/xray-cross</t>
         </is>
       </c>
       <c r="F271" t="n">
@@ -11693,6 +13911,24 @@
           <t>https://primeauto-ekb.ru/new/lada/xray-cross</t>
         </is>
       </c>
+      <c r="N271" t="inlineStr">
+        <is>
+          <t>680000</t>
+        </is>
+      </c>
+      <c r="O271" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/lada/xray_cross/</t>
+        </is>
+      </c>
+      <c r="P271" t="n">
+        <v>680000</v>
+      </c>
+      <c r="Q271" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/lada/xray-cross</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -11899,6 +14135,14 @@
           <t>https://primeauto-ekb.ru/new/livan/s6-pro</t>
         </is>
       </c>
+      <c r="P277" t="n">
+        <v>1780000</v>
+      </c>
+      <c r="Q277" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/livan/s6-pro</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -11940,6 +14184,14 @@
           <t>https://primeauto-ekb.ru/new/livan/x3-pro</t>
         </is>
       </c>
+      <c r="P278" t="n">
+        <v>1340000</v>
+      </c>
+      <c r="Q278" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/livan/x3-pro</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -11981,6 +14233,14 @@
           <t>https://primeauto-ekb.ru/new/livan/x6-pro</t>
         </is>
       </c>
+      <c r="P279" t="n">
+        <v>1840000</v>
+      </c>
+      <c r="Q279" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/livan/x6-pro</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -12063,6 +14323,14 @@
           <t>https://atc-gagarin.ru/cars-new/mg/mg6/ii-res-liftback-5/</t>
         </is>
       </c>
+      <c r="P281" t="n">
+        <v>1520000</v>
+      </c>
+      <c r="Q281" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/mg/6</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -12104,6 +14372,14 @@
           <t>https://atc-gagarin.ru/cars-new/mg/hs/i-allroad-5/</t>
         </is>
       </c>
+      <c r="P282" t="n">
+        <v>2190000</v>
+      </c>
+      <c r="Q282" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/mg/hs</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -12145,6 +14421,14 @@
           <t>https://atc-gagarin.ru/cars-new/mg/zs/ii-res-allroad-5/</t>
         </is>
       </c>
+      <c r="P283" t="n">
+        <v>1650000</v>
+      </c>
+      <c r="Q283" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/mg/zs</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -12167,7 +14451,7 @@
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/mazda/3</t>
+          <t>https://swmauto-dealer.ru/new/mazda/3</t>
         </is>
       </c>
       <c r="H284" t="n">
@@ -12186,6 +14470,14 @@
           <t>https://primeauto-ekb.ru/new/mazda/3</t>
         </is>
       </c>
+      <c r="P284" t="n">
+        <v>1160000</v>
+      </c>
+      <c r="Q284" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/mazda/3</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -12208,7 +14500,7 @@
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/mazda/6</t>
+          <t>https://swmauto-dealer.ru/new/mazda/6</t>
         </is>
       </c>
       <c r="H285" t="n">
@@ -12227,6 +14519,14 @@
           <t>https://primeauto-ekb.ru/new/mazda/6</t>
         </is>
       </c>
+      <c r="P285" t="n">
+        <v>1430000</v>
+      </c>
+      <c r="Q285" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/mazda/6</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -12323,7 +14623,7 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/mazda/cx-4</t>
+          <t>https://swmauto-dealer.ru/new/mazda/cx-4</t>
         </is>
       </c>
       <c r="H288" t="n">
@@ -12342,6 +14642,14 @@
           <t>https://primeauto-ekb.ru/new/mazda/cx-4</t>
         </is>
       </c>
+      <c r="P288" t="n">
+        <v>1670000</v>
+      </c>
+      <c r="Q288" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/mazda/cx-4</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -12364,7 +14672,7 @@
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/mazda/cx-5</t>
+          <t>https://swmauto-dealer.ru/new/mazda/cx-5</t>
         </is>
       </c>
       <c r="F289" t="n">
@@ -12391,6 +14699,14 @@
           <t>https://primeauto-ekb.ru/new/mazda/cx-5</t>
         </is>
       </c>
+      <c r="P289" t="n">
+        <v>1600000</v>
+      </c>
+      <c r="Q289" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/mazda/cx-5</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -12413,7 +14729,7 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/mazda/cx-60</t>
+          <t>https://swmauto-dealer.ru/new/mazda/cx-60</t>
         </is>
       </c>
       <c r="L290" t="n">
@@ -12424,6 +14740,14 @@
           <t>https://primeauto-ekb.ru/new/mazda/cx-60</t>
         </is>
       </c>
+      <c r="P290" t="n">
+        <v>3570000</v>
+      </c>
+      <c r="Q290" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/mazda/cx-60</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -12446,7 +14770,7 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/mazda/cx-9</t>
+          <t>https://swmauto-dealer.ru/new/mazda/cx-9</t>
         </is>
       </c>
       <c r="F291" t="n">
@@ -12465,6 +14789,14 @@
           <t>https://primeauto-ekb.ru/new/mazda/cx-9</t>
         </is>
       </c>
+      <c r="P291" t="n">
+        <v>2920000</v>
+      </c>
+      <c r="Q291" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/mazda/cx-9</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -12516,11 +14848,11 @@
         </is>
       </c>
       <c r="D293" t="n">
-        <v>1372000</v>
+        <v>1340000</v>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>https://uu-stoks.ru/auto/mitsubishi/asx-new-2020_cuv</t>
+          <t>https://swmauto-dealer.ru/new/mitsubishi/asx-new</t>
         </is>
       </c>
       <c r="F293" t="n">
@@ -12531,6 +14863,14 @@
           <t>https://uu-stoks.ru/auto/mitsubishi/asx-new-2020_cuv</t>
         </is>
       </c>
+      <c r="P293" t="n">
+        <v>1340000</v>
+      </c>
+      <c r="Q293" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/mitsubishi/asx-new</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -12615,11 +14955,11 @@
         </is>
       </c>
       <c r="D296" t="n">
-        <v>3549000</v>
+        <v>2010000</v>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>https://uu-stoks.ru/auto/mitsubishi/eclipse-cross-new_suv</t>
+          <t>https://swmauto-dealer.ru/new/mitsubishi/eclipse-cross-new</t>
         </is>
       </c>
       <c r="F296" t="n">
@@ -12630,6 +14970,14 @@
           <t>https://uu-stoks.ru/auto/mitsubishi/eclipse-cross-new_suv</t>
         </is>
       </c>
+      <c r="P296" t="n">
+        <v>2010000</v>
+      </c>
+      <c r="Q296" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/mitsubishi/eclipse-cross-new</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -12648,11 +14996,11 @@
         </is>
       </c>
       <c r="D297" t="n">
-        <v>4099000</v>
+        <v>2450000</v>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>https://uu-stoks.ru/auto/mitsubishi/new-l200_2019</t>
+          <t>https://swmauto-dealer.ru/new/mitsubishi/l200-new</t>
         </is>
       </c>
       <c r="F297" t="n">
@@ -12663,6 +15011,14 @@
           <t>https://uu-stoks.ru/auto/mitsubishi/new-l200_2019</t>
         </is>
       </c>
+      <c r="P297" t="n">
+        <v>2450000</v>
+      </c>
+      <c r="Q297" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/mitsubishi/l200-new</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -12737,6 +15093,14 @@
           <t>https://atc-gagarin.ru/cars-new/mitsubishi/outlander/iii-res3-allroad-5/</t>
         </is>
       </c>
+      <c r="P299" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="Q299" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/mitsubishi/outlander-new</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -12778,6 +15142,14 @@
           <t>https://atc-gagarin.ru/cars-new/mitsubishi/outlander/iv-allroad-5/</t>
         </is>
       </c>
+      <c r="P300" t="n">
+        <v>2240000</v>
+      </c>
+      <c r="Q300" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/mitsubishi/outlander</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -12829,11 +15201,11 @@
         </is>
       </c>
       <c r="D302" t="n">
-        <v>4359000</v>
+        <v>2600000</v>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>https://uu-stoks.ru/auto/mitsubishi/pajero-sport-new_suv</t>
+          <t>https://swmauto-dealer.ru/new/mitsubishi/pajero-sport-new</t>
         </is>
       </c>
       <c r="F302" t="n">
@@ -12844,6 +15216,14 @@
           <t>https://uu-stoks.ru/auto/mitsubishi/pajero-sport-new_suv</t>
         </is>
       </c>
+      <c r="P302" t="n">
+        <v>2600000</v>
+      </c>
+      <c r="Q302" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/mitsubishi/pajero-sport-new</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -12866,7 +15246,7 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/moskvich/3</t>
+          <t>https://swmauto-dealer.ru/new/moskvich/3</t>
         </is>
       </c>
       <c r="F303" t="n">
@@ -12893,6 +15273,24 @@
           <t>https://primeauto-ekb.ru/new/moskvich/3</t>
         </is>
       </c>
+      <c r="N303" t="inlineStr">
+        <is>
+          <t>1200000</t>
+        </is>
+      </c>
+      <c r="O303" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/moskvich/3/</t>
+        </is>
+      </c>
+      <c r="P303" t="n">
+        <v>1200000</v>
+      </c>
+      <c r="Q303" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/moskvich/3</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -12915,7 +15313,7 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/moskvich/3e</t>
+          <t>https://swmauto-dealer.ru/new/moskvich/3e</t>
         </is>
       </c>
       <c r="F304" t="n">
@@ -12942,6 +15340,14 @@
           <t>https://primeauto-ekb.ru/new/moskvich/3e</t>
         </is>
       </c>
+      <c r="P304" t="n">
+        <v>1750000</v>
+      </c>
+      <c r="Q304" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/moskvich/3e</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -12964,7 +15370,7 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/moscvich/6/2023-liftback-5/</t>
+          <t>https://autoworld-ekb.ru/auto/moskvich/6/</t>
         </is>
       </c>
       <c r="F305" t="n">
@@ -12999,6 +15405,24 @@
           <t>https://primeauto-ekb.ru/new/moskvich/6</t>
         </is>
       </c>
+      <c r="N305" t="inlineStr">
+        <is>
+          <t>1136000</t>
+        </is>
+      </c>
+      <c r="O305" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/moskvich/6/</t>
+        </is>
+      </c>
+      <c r="P305" t="n">
+        <v>1430000</v>
+      </c>
+      <c r="Q305" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/moskvich/6</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -13040,6 +15464,14 @@
           <t>https://primeauto-ekb.ru/new/nissan/almera</t>
         </is>
       </c>
+      <c r="P306" t="n">
+        <v>470000</v>
+      </c>
+      <c r="Q306" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/nissan/almera</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -13122,6 +15554,14 @@
           <t>https://primeauto-ekb.ru/new/nissan/murano</t>
         </is>
       </c>
+      <c r="P308" t="n">
+        <v>2570000</v>
+      </c>
+      <c r="Q308" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/nissan/murano</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -13177,7 +15617,7 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/nissan/pathfinder</t>
+          <t>https://swmauto-dealer.ru/new/nissan/pathfinder</t>
         </is>
       </c>
       <c r="H310" t="n">
@@ -13196,6 +15636,14 @@
           <t>https://primeauto-ekb.ru/new/nissan/pathfinder</t>
         </is>
       </c>
+      <c r="P310" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="Q310" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/nissan/pathfinder</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -13218,7 +15666,7 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/nissan/qashqai</t>
+          <t>https://swmauto-dealer.ru/new/nissan/qashqai</t>
         </is>
       </c>
       <c r="F311" t="n">
@@ -13253,6 +15701,24 @@
           <t>https://primeauto-ekb.ru/new/nissan/qashqai</t>
         </is>
       </c>
+      <c r="N311" t="inlineStr">
+        <is>
+          <t>1300000</t>
+        </is>
+      </c>
+      <c r="O311" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/nissan/qashqai/</t>
+        </is>
+      </c>
+      <c r="P311" t="n">
+        <v>1300000</v>
+      </c>
+      <c r="Q311" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/nissan/qashqai</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -13308,7 +15774,7 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/nissan/terrano</t>
+          <t>https://swmauto-dealer.ru/new/nissan/terrano</t>
         </is>
       </c>
       <c r="H313" t="n">
@@ -13335,6 +15801,14 @@
           <t>https://primeauto-ekb.ru/new/nissan/terrano</t>
         </is>
       </c>
+      <c r="P313" t="n">
+        <v>890000</v>
+      </c>
+      <c r="Q313" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/nissan/terrano</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -13390,7 +15864,7 @@
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/nissan/x-trail</t>
+          <t>https://swmauto-dealer.ru/new/nissan/x-trail</t>
         </is>
       </c>
       <c r="H315" t="n">
@@ -13417,6 +15891,24 @@
           <t>https://primeauto-ekb.ru/new/nissan/x-trail</t>
         </is>
       </c>
+      <c r="N315" t="inlineStr">
+        <is>
+          <t>1530000</t>
+        </is>
+      </c>
+      <c r="O315" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/nissan/x-trail/</t>
+        </is>
+      </c>
+      <c r="P315" t="n">
+        <v>1530000</v>
+      </c>
+      <c r="Q315" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/nissan/x-trail</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -13474,6 +15966,14 @@
           <t>https://primeauto-ekb.ru/new/nissan/x-trail-new</t>
         </is>
       </c>
+      <c r="P316" t="n">
+        <v>2850000</v>
+      </c>
+      <c r="Q316" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/nissan/x-trail-new</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -13531,6 +16031,24 @@
           <t>https://primeauto-ekb.ru/new/omoda/c5</t>
         </is>
       </c>
+      <c r="N317" t="inlineStr">
+        <is>
+          <t>1360000</t>
+        </is>
+      </c>
+      <c r="O317" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/omoda/c5/</t>
+        </is>
+      </c>
+      <c r="P317" t="n">
+        <v>1360000</v>
+      </c>
+      <c r="Q317" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/omoda/c5</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -13553,7 +16071,7 @@
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/omoda/s5</t>
+          <t>https://swmauto-dealer.ru/new/omoda/s5</t>
         </is>
       </c>
       <c r="F318" t="n">
@@ -13588,6 +16106,24 @@
           <t>https://primeauto-ekb.ru/new/omoda/s5</t>
         </is>
       </c>
+      <c r="N318" t="inlineStr">
+        <is>
+          <t>1260000</t>
+        </is>
+      </c>
+      <c r="O318" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/omoda/s5/</t>
+        </is>
+      </c>
+      <c r="P318" t="n">
+        <v>1260000</v>
+      </c>
+      <c r="Q318" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/omoda/s5</t>
+        </is>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -13610,7 +16146,7 @@
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/omoda/s5-gt</t>
+          <t>https://swmauto-dealer.ru/new/omoda/s5-gt</t>
         </is>
       </c>
       <c r="F319" t="n">
@@ -13637,6 +16173,14 @@
           <t>https://primeauto-ekb.ru/new/omoda/s5-gt</t>
         </is>
       </c>
+      <c r="P319" t="n">
+        <v>1750000</v>
+      </c>
+      <c r="Q319" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/omoda/s5-gt</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -13791,7 +16335,7 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/renault/arkana/i-allroad-5/</t>
+          <t>https://autoworld-ekb.ru/auto/renault/arkana/</t>
         </is>
       </c>
       <c r="H324" t="n">
@@ -13818,6 +16362,24 @@
           <t>https://primeauto-ekb.ru/new/renault/arkana</t>
         </is>
       </c>
+      <c r="N324" t="inlineStr">
+        <is>
+          <t>909000</t>
+        </is>
+      </c>
+      <c r="O324" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/renault/arkana/</t>
+        </is>
+      </c>
+      <c r="P324" t="n">
+        <v>910000</v>
+      </c>
+      <c r="Q324" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/renault/arkana</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -13873,7 +16435,7 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/renault/duster</t>
+          <t>https://swmauto-dealer.ru/new/renault/duster</t>
         </is>
       </c>
       <c r="J326" t="n">
@@ -13892,6 +16454,14 @@
           <t>https://primeauto-ekb.ru/new/renault/duster</t>
         </is>
       </c>
+      <c r="P326" t="n">
+        <v>750000</v>
+      </c>
+      <c r="Q326" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/renault/duster</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -13914,7 +16484,7 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/renault/duster-2021</t>
+          <t>https://swmauto-dealer.ru/new/renault/duster-2021</t>
         </is>
       </c>
       <c r="L327" t="n">
@@ -13925,6 +16495,14 @@
           <t>https://primeauto-ekb.ru/new/renault/duster-2021</t>
         </is>
       </c>
+      <c r="P327" t="n">
+        <v>640000</v>
+      </c>
+      <c r="Q327" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/renault/duster-2021</t>
+        </is>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -13943,11 +16521,11 @@
         </is>
       </c>
       <c r="D328" t="n">
-        <v>751000</v>
+        <v>750000</v>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>https://uu-stoks.ru/auto/renault/duster-new_cuv</t>
+          <t>https://autoworld-ekb.ru/auto/renault/duster/</t>
         </is>
       </c>
       <c r="F328" t="n">
@@ -13958,6 +16536,16 @@
           <t>https://uu-stoks.ru/auto/renault/duster-new_cuv</t>
         </is>
       </c>
+      <c r="N328" t="inlineStr">
+        <is>
+          <t>750000</t>
+        </is>
+      </c>
+      <c r="O328" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/renault/duster/</t>
+        </is>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -13980,7 +16568,7 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/renault/kaptur-2019</t>
+          <t>https://swmauto-dealer.ru/new/renault/kaptur-2019</t>
         </is>
       </c>
       <c r="J329" t="n">
@@ -13999,6 +16587,24 @@
           <t>https://primeauto-ekb.ru/new/renault/kaptur-2019</t>
         </is>
       </c>
+      <c r="N329" t="inlineStr">
+        <is>
+          <t>780000</t>
+        </is>
+      </c>
+      <c r="O329" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/renault/kaptur/</t>
+        </is>
+      </c>
+      <c r="P329" t="n">
+        <v>780000</v>
+      </c>
+      <c r="Q329" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/renault/kaptur-2019</t>
+        </is>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -14083,11 +16689,11 @@
         </is>
       </c>
       <c r="D332" t="n">
-        <v>500000</v>
+        <v>499000</v>
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/renault/logan</t>
+          <t>https://autoworld-ekb.ru/auto/renault/logan/</t>
         </is>
       </c>
       <c r="J332" t="n">
@@ -14106,6 +16712,24 @@
           <t>https://primeauto-ekb.ru/new/renault/logan</t>
         </is>
       </c>
+      <c r="N332" t="inlineStr">
+        <is>
+          <t>499000</t>
+        </is>
+      </c>
+      <c r="O332" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/renault/logan/</t>
+        </is>
+      </c>
+      <c r="P332" t="n">
+        <v>500000</v>
+      </c>
+      <c r="Q332" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/renault/logan</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -14161,7 +16785,7 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/renault/logan-stepway</t>
+          <t>https://swmauto-dealer.ru/new/renault/logan-stepway</t>
         </is>
       </c>
       <c r="F334" t="n">
@@ -14196,6 +16820,24 @@
           <t>https://primeauto-ekb.ru/new/renault/logan-stepway</t>
         </is>
       </c>
+      <c r="N334" t="inlineStr">
+        <is>
+          <t>650000</t>
+        </is>
+      </c>
+      <c r="O334" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/renault/logan_stepway/</t>
+        </is>
+      </c>
+      <c r="P334" t="n">
+        <v>650000</v>
+      </c>
+      <c r="Q334" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/renault/logan-stepway</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -14218,7 +16860,7 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/renault/sandero</t>
+          <t>https://swmauto-dealer.ru/new/renault/sandero</t>
         </is>
       </c>
       <c r="H335" t="n">
@@ -14245,6 +16887,24 @@
           <t>https://primeauto-ekb.ru/new/renault/sandero</t>
         </is>
       </c>
+      <c r="N335" t="inlineStr">
+        <is>
+          <t>540000</t>
+        </is>
+      </c>
+      <c r="O335" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/renault/sandero/</t>
+        </is>
+      </c>
+      <c r="P335" t="n">
+        <v>540000</v>
+      </c>
+      <c r="Q335" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/renault/sandero</t>
+        </is>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -14296,11 +16956,11 @@
         </is>
       </c>
       <c r="D337" t="n">
-        <v>700000</v>
+        <v>565300</v>
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/renault/sandero-stepway</t>
+          <t>https://autoworld-ekb.ru/auto/renault/sandero_stepway/</t>
         </is>
       </c>
       <c r="J337" t="n">
@@ -14319,6 +16979,24 @@
           <t>https://primeauto-ekb.ru/new/renault/sandero-stepway</t>
         </is>
       </c>
+      <c r="N337" t="inlineStr">
+        <is>
+          <t>565300</t>
+        </is>
+      </c>
+      <c r="O337" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/renault/sandero_stepway/</t>
+        </is>
+      </c>
+      <c r="P337" t="n">
+        <v>700000</v>
+      </c>
+      <c r="Q337" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/renault/sandero-stepway</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -14393,6 +17071,14 @@
           <t>https://primeauto-ekb.ru/new/swm/g01</t>
         </is>
       </c>
+      <c r="P339" t="n">
+        <v>1730000</v>
+      </c>
+      <c r="Q339" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/swm/g01</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -14434,6 +17120,14 @@
           <t>https://primeauto-ekb.ru/new/swm/g01f</t>
         </is>
       </c>
+      <c r="P340" t="n">
+        <v>1860000</v>
+      </c>
+      <c r="Q340" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/swm/g01f</t>
+        </is>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -14475,6 +17169,14 @@
           <t>https://primeauto-ekb.ru/new/swm/g05-pro</t>
         </is>
       </c>
+      <c r="P341" t="n">
+        <v>2060000</v>
+      </c>
+      <c r="Q341" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/swm/g05-pro</t>
+        </is>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -14532,6 +17234,24 @@
           <t>https://primeauto-ekb.ru/new/skoda/karoq</t>
         </is>
       </c>
+      <c r="N342" t="inlineStr">
+        <is>
+          <t>1240000</t>
+        </is>
+      </c>
+      <c r="O342" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/skoda/karoq/</t>
+        </is>
+      </c>
+      <c r="P342" t="n">
+        <v>1240000</v>
+      </c>
+      <c r="Q342" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/skoda/karoq</t>
+        </is>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -14614,6 +17334,14 @@
           <t>https://primeauto-ekb.ru/new/skoda/kodiaq</t>
         </is>
       </c>
+      <c r="P344" t="n">
+        <v>1740000</v>
+      </c>
+      <c r="Q344" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/skoda/kodiaq</t>
+        </is>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -14702,7 +17430,7 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/skoda/octavia-a7</t>
+          <t>https://swmauto-dealer.ru/new/skoda/octavia-a7</t>
         </is>
       </c>
       <c r="L347" t="n">
@@ -14713,6 +17441,14 @@
           <t>https://primeauto-ekb.ru/new/skoda/octavia-a7</t>
         </is>
       </c>
+      <c r="P347" t="n">
+        <v>770000</v>
+      </c>
+      <c r="Q347" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/skoda/octavia-a7</t>
+        </is>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -14762,6 +17498,14 @@
           <t>https://primeauto-ekb.ru/new/skoda/octavia</t>
         </is>
       </c>
+      <c r="P348" t="n">
+        <v>1170000</v>
+      </c>
+      <c r="Q348" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/skoda/octavia</t>
+        </is>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -14811,6 +17555,24 @@
           <t>https://primeauto-ekb.ru/new/skoda/rapid-2019</t>
         </is>
       </c>
+      <c r="N349" t="inlineStr">
+        <is>
+          <t>720000</t>
+        </is>
+      </c>
+      <c r="O349" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/skoda/rapid/</t>
+        </is>
+      </c>
+      <c r="P349" t="n">
+        <v>720000</v>
+      </c>
+      <c r="Q349" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/skoda/rapid</t>
+        </is>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -14866,7 +17628,7 @@
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/skoda/superb</t>
+          <t>https://swmauto-dealer.ru/new/skoda/superb</t>
         </is>
       </c>
       <c r="J351" t="n">
@@ -14885,6 +17647,14 @@
           <t>https://primeauto-ekb.ru/new/skoda/superb</t>
         </is>
       </c>
+      <c r="P351" t="n">
+        <v>1240000</v>
+      </c>
+      <c r="Q351" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/skoda/superb</t>
+        </is>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -14936,11 +17706,11 @@
         </is>
       </c>
       <c r="D353" t="n">
-        <v>1770000</v>
+        <v>1749000</v>
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/solaris/hc/2022-allroad-5/</t>
+          <t>https://autoworld-ekb.ru/auto/solaris/hc/</t>
         </is>
       </c>
       <c r="H353" t="n">
@@ -14959,6 +17729,16 @@
           <t>https://autosalon-kit.ru/auto/solaris/hc/suv-1gen</t>
         </is>
       </c>
+      <c r="N353" t="inlineStr">
+        <is>
+          <t>1749000</t>
+        </is>
+      </c>
+      <c r="O353" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/solaris/hc/</t>
+        </is>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -15000,6 +17780,16 @@
           <t>https://autosalon-kit.ru/auto/solaris/hs/sedan-1gen</t>
         </is>
       </c>
+      <c r="N354" t="inlineStr">
+        <is>
+          <t>1250000</t>
+        </is>
+      </c>
+      <c r="O354" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/solaris/hs/</t>
+        </is>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -15041,6 +17831,16 @@
           <t>https://autosalon-kit.ru/auto/solaris/krs/sedan-1gen</t>
         </is>
       </c>
+      <c r="N355" t="inlineStr">
+        <is>
+          <t>1438000</t>
+        </is>
+      </c>
+      <c r="O355" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/solaris/krs/</t>
+        </is>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -15059,11 +17859,11 @@
         </is>
       </c>
       <c r="D356" t="n">
-        <v>1780000</v>
+        <v>1464000</v>
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/solaris/krx/2024-hatchback-5/</t>
+          <t>https://autoworld-ekb.ru/auto/solaris/krx/</t>
         </is>
       </c>
       <c r="H356" t="n">
@@ -15082,6 +17882,16 @@
           <t>https://autosalon-kit.ru/auto/solaris/krx/hatchback-1gen</t>
         </is>
       </c>
+      <c r="N356" t="inlineStr">
+        <is>
+          <t>1464000</t>
+        </is>
+      </c>
+      <c r="O356" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/solaris/krx/</t>
+        </is>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -15203,7 +18013,7 @@
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/tank/300/2021-allroad-5/</t>
+          <t>https://autoworld-ekb.ru/auto/tank/300/</t>
         </is>
       </c>
       <c r="F360" t="n">
@@ -15222,6 +18032,16 @@
           <t>https://atc-gagarin.ru/cars-new/tank/300/2021-allroad-5/</t>
         </is>
       </c>
+      <c r="N360" t="inlineStr">
+        <is>
+          <t>2729300</t>
+        </is>
+      </c>
+      <c r="O360" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/tank/300/</t>
+        </is>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -15244,7 +18064,7 @@
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>https://atc-gagarin.ru/cars-new/tank/500/2021-allroad-5/</t>
+          <t>https://autoworld-ekb.ru/auto/tank/500/</t>
         </is>
       </c>
       <c r="F361" t="n">
@@ -15263,6 +18083,16 @@
           <t>https://atc-gagarin.ru/cars-new/tank/500/2021-allroad-5/</t>
         </is>
       </c>
+      <c r="N361" t="inlineStr">
+        <is>
+          <t>3788000</t>
+        </is>
+      </c>
+      <c r="O361" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/tank/500/</t>
+        </is>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -15318,7 +18148,7 @@
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/toyota/camry-2017</t>
+          <t>https://swmauto-dealer.ru/new/toyota/camry-2017</t>
         </is>
       </c>
       <c r="H363" t="n">
@@ -15337,6 +18167,14 @@
           <t>https://primeauto-ekb.ru/new/toyota/camry-2017</t>
         </is>
       </c>
+      <c r="P363" t="n">
+        <v>1480000</v>
+      </c>
+      <c r="Q363" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/toyota/camry-2017</t>
+        </is>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -15359,7 +18197,7 @@
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/toyota/camry</t>
+          <t>https://swmauto-dealer.ru/new/toyota/camry</t>
         </is>
       </c>
       <c r="F364" t="n">
@@ -15378,6 +18216,14 @@
           <t>https://primeauto-ekb.ru/new/toyota/camry</t>
         </is>
       </c>
+      <c r="P364" t="n">
+        <v>2070000</v>
+      </c>
+      <c r="Q364" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/toyota/camry</t>
+        </is>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -15400,7 +18246,7 @@
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/toyota/corolla</t>
+          <t>https://swmauto-dealer.ru/new/toyota/corolla</t>
         </is>
       </c>
       <c r="L365" t="n">
@@ -15411,6 +18257,14 @@
           <t>https://primeauto-ekb.ru/new/toyota/corolla</t>
         </is>
       </c>
+      <c r="P365" t="n">
+        <v>1260000</v>
+      </c>
+      <c r="Q365" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/toyota/corolla</t>
+        </is>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -15518,6 +18372,14 @@
           <t>https://primeauto-ekb.ru/new/toyota/rav4-2019</t>
         </is>
       </c>
+      <c r="P368" t="n">
+        <v>1720000</v>
+      </c>
+      <c r="Q368" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/toyota/rav4</t>
+        </is>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -15625,6 +18487,16 @@
           <t>https://autosalon-kit.ru/auto/uaz/patriot-new/suv</t>
         </is>
       </c>
+      <c r="N371" t="inlineStr">
+        <is>
+          <t>1009000</t>
+        </is>
+      </c>
+      <c r="O371" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/uaz/patriot/</t>
+        </is>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -15666,6 +18538,14 @@
           <t>https://primeauto-ekb.ru/new/uaz/patriot-new</t>
         </is>
       </c>
+      <c r="P372" t="n">
+        <v>1010000</v>
+      </c>
+      <c r="Q372" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/uaz/patriot-new</t>
+        </is>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -15688,7 +18568,7 @@
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/uaz/novyi-pikap</t>
+          <t>https://swmauto-dealer.ru/new/uaz/novyi-pikap</t>
         </is>
       </c>
       <c r="J373" t="n">
@@ -15707,6 +18587,14 @@
           <t>https://primeauto-ekb.ru/new/uaz/novyi-pikap</t>
         </is>
       </c>
+      <c r="P373" t="n">
+        <v>780000</v>
+      </c>
+      <c r="Q373" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/uaz/novyi-pikap</t>
+        </is>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -15987,6 +18875,24 @@
           <t>https://primeauto-ekb.ru/new/volkswagen/jetta</t>
         </is>
       </c>
+      <c r="N381" t="inlineStr">
+        <is>
+          <t>1180000</t>
+        </is>
+      </c>
+      <c r="O381" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/volkswagen/jetta/</t>
+        </is>
+      </c>
+      <c r="P381" t="n">
+        <v>1180000</v>
+      </c>
+      <c r="Q381" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/volkswagen/jetta</t>
+        </is>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -16042,7 +18948,7 @@
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/volkswagen/passat-2014</t>
+          <t>https://swmauto-dealer.ru/new/volkswagen/passat-2014</t>
         </is>
       </c>
       <c r="H383" t="n">
@@ -16069,6 +18975,14 @@
           <t>https://primeauto-ekb.ru/new/volkswagen/passat-2014</t>
         </is>
       </c>
+      <c r="P383" t="n">
+        <v>1120000</v>
+      </c>
+      <c r="Q383" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/volkswagen/passat-2014</t>
+        </is>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -16091,7 +19005,7 @@
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/volkswagen/passat</t>
+          <t>https://swmauto-dealer.ru/new/volkswagen/passat</t>
         </is>
       </c>
       <c r="F384" t="n">
@@ -16110,6 +19024,14 @@
           <t>https://primeauto-ekb.ru/new/volkswagen/passat</t>
         </is>
       </c>
+      <c r="P384" t="n">
+        <v>2200000</v>
+      </c>
+      <c r="Q384" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/volkswagen/passat</t>
+        </is>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -16159,6 +19081,24 @@
           <t>https://primeauto-ekb.ru/new/volkswagen/polo-sedan</t>
         </is>
       </c>
+      <c r="N385" t="inlineStr">
+        <is>
+          <t>730000</t>
+        </is>
+      </c>
+      <c r="O385" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/volkswagen/polo/</t>
+        </is>
+      </c>
+      <c r="P385" t="n">
+        <v>730000</v>
+      </c>
+      <c r="Q385" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/volkswagen/polo</t>
+        </is>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -16296,7 +19236,7 @@
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>https://primeauto-ekb.ru/new/volkswagen/tiguan-2020</t>
+          <t>https://swmauto-dealer.ru/new/volkswagen/tiguan-2020</t>
         </is>
       </c>
       <c r="H389" t="n">
@@ -16323,6 +19263,14 @@
           <t>https://primeauto-ekb.ru/new/volkswagen/tiguan-2020</t>
         </is>
       </c>
+      <c r="P389" t="n">
+        <v>1230000</v>
+      </c>
+      <c r="Q389" t="inlineStr">
+        <is>
+          <t>https://swmauto-dealer.ru/new/volkswagen/tiguan-2020</t>
+        </is>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -16341,11 +19289,11 @@
         </is>
       </c>
       <c r="D390" t="n">
-        <v>1529300</v>
+        <v>1230000</v>
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>https://uu-stoks.ru/auto/volkswagen/tiguan-new_cuv</t>
+          <t>https://autoworld-ekb.ru/auto/volkswagen/tiguan/</t>
         </is>
       </c>
       <c r="F390" t="n">
@@ -16354,6 +19302,16 @@
       <c r="G390" t="inlineStr">
         <is>
           <t>https://uu-stoks.ru/auto/volkswagen/tiguan-new_cuv</t>
+        </is>
+      </c>
+      <c r="N390" t="inlineStr">
+        <is>
+          <t>1230000</t>
+        </is>
+      </c>
+      <c r="O390" t="inlineStr">
+        <is>
+          <t>https://autoworld-ekb.ru/auto/volkswagen/tiguan/</t>
         </is>
       </c>
     </row>
